--- a/excel/finished/能介/新一空压站运行记录表.xlsx
+++ b/excel/finished/能介/新一空压站运行记录表.xlsx
@@ -1,32 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\韶钢\程序设计\报表模板\能介\能介\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="ACS_ACM1_MAIN" sheetId="1" r:id="rId1"/>
     <sheet name="_acsReport_day_each" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="105">
   <si>
     <t>能 源 环 保 部 一 空 压 站 运 行 记 录(ZH15000型离心式空压机）</t>
   </si>
   <si>
-    <t>日期：2018年9月1日</t>
+    <t>日期：</t>
   </si>
   <si>
     <t>时间</t>
@@ -873,15 +868,14 @@
   <si>
     <t>ES_L2C_ACS1_ACM3_Run_1h_sum</t>
   </si>
-  <si>
-    <t>ES_L2C_ACS1_ACM1_Run_1h_sum</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -920,12 +914,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="15"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="15"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1301,7 +1295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1314,13 +1308,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1347,13 +1341,13 @@
     <xf numFmtId="20" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1397,25 +1391,58 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1436,43 +1463,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1483,9 +1473,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1534,7 +1521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1569,7 +1556,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1780,89 +1767,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="28.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="8" width="30.453125" customWidth="1"/>
-    <col min="9" max="11" width="40.453125" customWidth="1"/>
-    <col min="12" max="17" width="43.90625" customWidth="1"/>
-    <col min="18" max="26" width="39.36328125" customWidth="1"/>
-    <col min="27" max="35" width="38.26953125" customWidth="1"/>
-    <col min="36" max="44" width="39.36328125" customWidth="1"/>
-    <col min="45" max="50" width="43.90625" customWidth="1"/>
-    <col min="51" max="53" width="42.7265625" customWidth="1"/>
-    <col min="54" max="56" width="31.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="8" width="30.5" customWidth="1"/>
+    <col min="9" max="11" width="40.5" customWidth="1"/>
+    <col min="12" max="17" width="43.875" customWidth="1"/>
+    <col min="18" max="26" width="39.375" customWidth="1"/>
+    <col min="27" max="35" width="38.25" customWidth="1"/>
+    <col min="36" max="44" width="39.375" customWidth="1"/>
+    <col min="45" max="50" width="43.875" customWidth="1"/>
+    <col min="51" max="53" width="42.75" customWidth="1"/>
+    <col min="54" max="56" width="31.625" customWidth="1"/>
     <col min="57" max="57" width="46" customWidth="1"/>
-    <col min="58" max="60" width="33.90625" hidden="1" customWidth="1"/>
-    <col min="62" max="64" width="28.453125" hidden="1" customWidth="1"/>
+    <col min="58" max="60" width="33.875" hidden="1" customWidth="1"/>
+    <col min="62" max="64" width="28.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="31" x14ac:dyDescent="0.25">
-      <c r="B1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-      <c r="BD1" s="56"/>
-      <c r="BE1" s="56"/>
+    <row r="1" spans="2:64" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="39"/>
     </row>
-    <row r="2" spans="2:64" ht="27.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:64" ht="27" x14ac:dyDescent="0.15">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1920,13 +1907,16 @@
       <c r="BD2" s="12"/>
       <c r="BE2" s="6"/>
     </row>
-    <row r="3" spans="2:64" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="57" t="s">
+    <row r="3" spans="2:64" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41">
+        <f>_metadata!B1</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="41"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
@@ -1948,18 +1938,18 @@
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="60"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
       <c r="AM3" s="12"/>
       <c r="AN3" s="12"/>
       <c r="AO3" s="12"/>
@@ -1975,12 +1965,12 @@
       <c r="AY3" s="7"/>
       <c r="AZ3" s="7"/>
       <c r="BA3" s="7"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="61"/>
+      <c r="BB3" s="43"/>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43"/>
     </row>
-    <row r="4" spans="2:64" ht="23" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:64" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -2038,114 +2028,114 @@
       <c r="BD4" s="12"/>
       <c r="BE4" s="12"/>
     </row>
-    <row r="5" spans="2:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+    <row r="5" spans="2:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="50" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="42" t="s">
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="53" t="s">
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="55" t="s">
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="39" t="s">
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="40"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="42" t="s">
+      <c r="S5" s="53"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="43" t="s">
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42" t="s">
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="39" t="s">
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="42" t="s">
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="39" t="s">
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="42" t="s">
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="39" t="s">
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AQ5" s="40"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="42" t="s">
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="39" t="s">
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="40"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="42" t="s">
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="54"/>
+      <c r="AY5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="43" t="s">
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="48" t="s">
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="BI5" s="48" t="s">
+      <c r="BI5" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="BJ5" s="44" t="s">
+      <c r="BJ5" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="45"/>
+      <c r="BK5" s="56"/>
+      <c r="BL5" s="56"/>
     </row>
-    <row r="6" spans="2:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
+    <row r="6" spans="2:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="58"/>
       <c r="C6" s="13" t="s">
         <v>24</v>
       </c>
@@ -2308,7 +2298,7 @@
       <c r="BD6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="BE6" s="49"/>
+      <c r="BE6" s="60"/>
       <c r="BF6" s="37" t="s">
         <v>27</v>
       </c>
@@ -2318,7 +2308,7 @@
       <c r="BH6" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="BI6" s="49" t="s">
+      <c r="BI6" s="60" t="s">
         <v>22</v>
       </c>
       <c r="BJ6" s="37" t="s">
@@ -2331,7 +2321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:64" s="4" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:64" s="4" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="17"/>
       <c r="C7" s="4" t="s">
         <v>30</v>
@@ -2506,243 +2496,243 @@
       </c>
       <c r="BI7" s="38"/>
     </row>
-    <row r="8" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:64" ht="15" x14ac:dyDescent="0.15">
       <c r="B8" s="18">
         <v>0</v>
       </c>
-      <c r="C8" s="20" t="str">
+      <c r="C8" s="19" t="str">
         <f>IF(_acsReport_day_each!A2="","",_acsReport_day_each!A2)</f>
         <v/>
       </c>
-      <c r="D8" s="21" t="str">
+      <c r="D8" s="20" t="str">
         <f>IF(_acsReport_day_each!B2="","",_acsReport_day_each!B2)</f>
         <v/>
       </c>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="20" t="str">
         <f>IF(_acsReport_day_each!C2="","",_acsReport_day_each!C2)</f>
         <v/>
       </c>
-      <c r="F8" s="20" t="str">
+      <c r="F8" s="19" t="str">
         <f>IF(_acsReport_day_each!D2="","",_acsReport_day_each!D2)</f>
         <v/>
       </c>
-      <c r="G8" s="21" t="str">
+      <c r="G8" s="20" t="str">
         <f>IF(_acsReport_day_each!E2="","",_acsReport_day_each!E2)</f>
         <v/>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="20" t="str">
         <f>IF(_acsReport_day_each!F2="","",_acsReport_day_each!F2)</f>
         <v/>
       </c>
-      <c r="I8" s="21" t="str">
+      <c r="I8" s="20" t="str">
         <f>IF(_acsReport_day_each!G2="","",_acsReport_day_each!G2)</f>
         <v/>
       </c>
-      <c r="J8" s="21" t="str">
+      <c r="J8" s="20" t="str">
         <f>IF(_acsReport_day_each!H2="","",_acsReport_day_each!H2)</f>
         <v/>
       </c>
-      <c r="K8" s="20" t="str">
+      <c r="K8" s="19" t="str">
         <f>IF(_acsReport_day_each!I2="","",_acsReport_day_each!I2)</f>
         <v/>
       </c>
-      <c r="L8" s="20" t="str">
+      <c r="L8" s="19" t="str">
         <f>IF(_acsReport_day_each!J2="","",_acsReport_day_each!J2)</f>
         <v/>
       </c>
-      <c r="M8" s="20" t="str">
+      <c r="M8" s="19" t="str">
         <f>IF(_acsReport_day_each!K2="","",_acsReport_day_each!K2)</f>
         <v/>
       </c>
-      <c r="N8" s="20" t="str">
+      <c r="N8" s="19" t="str">
         <f>IF(_acsReport_day_each!L2="","",_acsReport_day_each!L2)</f>
         <v/>
       </c>
-      <c r="O8" s="20" t="str">
+      <c r="O8" s="19" t="str">
         <f>IF(_acsReport_day_each!M2="","",_acsReport_day_each!M2)</f>
         <v/>
       </c>
-      <c r="P8" s="20" t="str">
+      <c r="P8" s="19" t="str">
         <f>IF(_acsReport_day_each!N2="","",_acsReport_day_each!N2)</f>
         <v/>
       </c>
-      <c r="Q8" s="20" t="str">
+      <c r="Q8" s="19" t="str">
         <f>IF(_acsReport_day_each!O2="","",_acsReport_day_each!O2)</f>
         <v/>
       </c>
-      <c r="R8" s="20" t="str">
+      <c r="R8" s="19" t="str">
         <f>IF(_acsReport_day_each!P2="","",_acsReport_day_each!P2)</f>
         <v/>
       </c>
-      <c r="S8" s="20" t="str">
+      <c r="S8" s="19" t="str">
         <f>IF(_acsReport_day_each!Q2="","",_acsReport_day_each!Q2)</f>
         <v/>
       </c>
-      <c r="T8" s="20" t="str">
+      <c r="T8" s="19" t="str">
         <f>IF(_acsReport_day_each!R2="","",_acsReport_day_each!R2)</f>
         <v/>
       </c>
-      <c r="U8" s="20" t="str">
+      <c r="U8" s="19" t="str">
         <f>IF(_acsReport_day_each!S2="","",_acsReport_day_each!S2)</f>
         <v/>
       </c>
-      <c r="V8" s="20" t="str">
+      <c r="V8" s="19" t="str">
         <f>IF(_acsReport_day_each!T2="","",_acsReport_day_each!T2)</f>
         <v/>
       </c>
-      <c r="W8" s="20" t="str">
+      <c r="W8" s="19" t="str">
         <f>IF(_acsReport_day_each!U2="","",_acsReport_day_each!U2)</f>
         <v/>
       </c>
-      <c r="X8" s="20" t="str">
+      <c r="X8" s="19" t="str">
         <f>IF(_acsReport_day_each!V2="","",_acsReport_day_each!V2)</f>
         <v/>
       </c>
-      <c r="Y8" s="20" t="str">
+      <c r="Y8" s="19" t="str">
         <f>IF(_acsReport_day_each!W2="","",_acsReport_day_each!W2)</f>
         <v/>
       </c>
-      <c r="Z8" s="20" t="str">
+      <c r="Z8" s="19" t="str">
         <f>IF(_acsReport_day_each!X2="","",_acsReport_day_each!X2)</f>
         <v/>
       </c>
-      <c r="AA8" s="20" t="str">
+      <c r="AA8" s="19" t="str">
         <f>IF(_acsReport_day_each!Y2="","",_acsReport_day_each!Y2)</f>
         <v/>
       </c>
-      <c r="AB8" s="20" t="str">
+      <c r="AB8" s="19" t="str">
         <f>IF(_acsReport_day_each!Z2="","",_acsReport_day_each!Z2)</f>
         <v/>
       </c>
-      <c r="AC8" s="20" t="str">
+      <c r="AC8" s="19" t="str">
         <f>IF(_acsReport_day_each!AA2="","",_acsReport_day_each!AA2)</f>
         <v/>
       </c>
-      <c r="AD8" s="20" t="str">
+      <c r="AD8" s="19" t="str">
         <f>IF(_acsReport_day_each!AB2="","",_acsReport_day_each!AB2)</f>
         <v/>
       </c>
-      <c r="AE8" s="20" t="str">
+      <c r="AE8" s="19" t="str">
         <f>IF(_acsReport_day_each!AC2="","",_acsReport_day_each!AC2)</f>
         <v/>
       </c>
-      <c r="AF8" s="20" t="str">
+      <c r="AF8" s="19" t="str">
         <f>IF(_acsReport_day_each!AD2="","",_acsReport_day_each!AD2)</f>
         <v/>
       </c>
-      <c r="AG8" s="20" t="str">
+      <c r="AG8" s="19" t="str">
         <f>IF(_acsReport_day_each!AE2="","",_acsReport_day_each!AE2)</f>
         <v/>
       </c>
-      <c r="AH8" s="20" t="str">
+      <c r="AH8" s="19" t="str">
         <f>IF(_acsReport_day_each!AF2="","",_acsReport_day_each!AF2)</f>
         <v/>
       </c>
-      <c r="AI8" s="20" t="str">
+      <c r="AI8" s="19" t="str">
         <f>IF(_acsReport_day_each!AG2="","",_acsReport_day_each!AG2)</f>
         <v/>
       </c>
-      <c r="AJ8" s="20" t="str">
+      <c r="AJ8" s="19" t="str">
         <f>IF(_acsReport_day_each!AH2="","",_acsReport_day_each!AH2)</f>
         <v/>
       </c>
-      <c r="AK8" s="20" t="str">
+      <c r="AK8" s="19" t="str">
         <f>IF(_acsReport_day_each!AI2="","",_acsReport_day_each!AI2)</f>
         <v/>
       </c>
-      <c r="AL8" s="20" t="str">
+      <c r="AL8" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ2="","",_acsReport_day_each!AJ2)</f>
         <v/>
       </c>
-      <c r="AM8" s="20" t="str">
+      <c r="AM8" s="19" t="str">
         <f>IF(_acsReport_day_each!AK2="","",_acsReport_day_each!AK2)</f>
         <v/>
       </c>
-      <c r="AN8" s="20" t="str">
+      <c r="AN8" s="19" t="str">
         <f>IF(_acsReport_day_each!AL2="","",_acsReport_day_each!AL2)</f>
         <v/>
       </c>
-      <c r="AO8" s="20" t="str">
+      <c r="AO8" s="19" t="str">
         <f>IF(_acsReport_day_each!AM2="","",_acsReport_day_each!AM2)</f>
         <v/>
       </c>
-      <c r="AP8" s="20" t="str">
+      <c r="AP8" s="19" t="str">
         <f>IF(_acsReport_day_each!AN2="","",_acsReport_day_each!AN2)</f>
         <v/>
       </c>
-      <c r="AQ8" s="20" t="str">
+      <c r="AQ8" s="19" t="str">
         <f>IF(_acsReport_day_each!AO2="","",_acsReport_day_each!AO2)</f>
         <v/>
       </c>
-      <c r="AR8" s="20" t="str">
+      <c r="AR8" s="19" t="str">
         <f>IF(_acsReport_day_each!AP2="","",_acsReport_day_each!AP2)</f>
         <v/>
       </c>
-      <c r="AS8" s="20" t="str">
+      <c r="AS8" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ2="","",_acsReport_day_each!AQ2)</f>
         <v/>
       </c>
-      <c r="AT8" s="20" t="str">
+      <c r="AT8" s="19" t="str">
         <f>IF(_acsReport_day_each!AR2="","",_acsReport_day_each!AR2)</f>
         <v/>
       </c>
-      <c r="AU8" s="20" t="str">
+      <c r="AU8" s="19" t="str">
         <f>IF(_acsReport_day_each!AS2="","",_acsReport_day_each!AS2)</f>
         <v/>
       </c>
-      <c r="AV8" s="20" t="str">
+      <c r="AV8" s="19" t="str">
         <f>IF(_acsReport_day_each!AT2="","",_acsReport_day_each!AT2)</f>
         <v/>
       </c>
-      <c r="AW8" s="20" t="str">
+      <c r="AW8" s="19" t="str">
         <f>IF(_acsReport_day_each!AU2="","",_acsReport_day_each!AU2)</f>
         <v/>
       </c>
-      <c r="AX8" s="20" t="str">
+      <c r="AX8" s="19" t="str">
         <f>IF(_acsReport_day_each!AV2="","",_acsReport_day_each!AV2)</f>
         <v/>
       </c>
-      <c r="AY8" s="20" t="str">
+      <c r="AY8" s="19" t="str">
         <f>IF(_acsReport_day_each!AW2="","",_acsReport_day_each!AW2)</f>
         <v/>
       </c>
-      <c r="AZ8" s="20" t="str">
+      <c r="AZ8" s="19" t="str">
         <f>IF(_acsReport_day_each!AX2="","",_acsReport_day_each!AX2)</f>
         <v/>
       </c>
-      <c r="BA8" s="20" t="str">
+      <c r="BA8" s="19" t="str">
         <f>IF(_acsReport_day_each!AY2="","",_acsReport_day_each!AY2)</f>
         <v/>
       </c>
-      <c r="BB8" s="20" t="str">
+      <c r="BB8" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ2="","",_acsReport_day_each!AZ2)</f>
         <v/>
       </c>
-      <c r="BC8" s="20" t="str">
+      <c r="BC8" s="19" t="str">
         <f>IF(_acsReport_day_each!BA2="","",_acsReport_day_each!BA2)</f>
         <v/>
       </c>
-      <c r="BD8" s="20" t="str">
+      <c r="BD8" s="19" t="str">
         <f>IF(_acsReport_day_each!BB2="","",_acsReport_day_each!BB2)</f>
         <v/>
       </c>
-      <c r="BE8" s="20">
+      <c r="BE8" s="19">
         <f>_acsReport_day_each!BD2:BF2</f>
         <v>0</v>
       </c>
-      <c r="BF8" s="20" t="str">
+      <c r="BF8" s="19" t="str">
         <f>IF(_acsReport_day_each!BJ2&gt;0,"1","0")</f>
         <v>0</v>
       </c>
-      <c r="BG8" s="20" t="str">
+      <c r="BG8" s="19" t="str">
         <f>IF(_acsReport_day_each!BK2&gt;0,"1","0")</f>
         <v>0</v>
       </c>
-      <c r="BH8" s="20" t="str">
+      <c r="BH8" s="19" t="str">
         <f>IF(_acsReport_day_each!BL2&gt;0,"1","0")</f>
         <v>0</v>
       </c>
-      <c r="BI8" s="20">
+      <c r="BI8" s="19">
         <f>_acsReport_day_each!BG2:BI2</f>
         <v>0</v>
       </c>
@@ -2759,19 +2749,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="19">
+    <row r="9" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B9" s="21">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="19" t="str">
         <f>IF(_acsReport_day_each!A3="","",_acsReport_day_each!A3)</f>
         <v/>
       </c>
-      <c r="D9" s="21" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_acsReport_day_each!B3="","",_acsReport_day_each!B3)</f>
         <v/>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="E9" s="20" t="str">
         <f>IF(_acsReport_day_each!C3="","",_acsReport_day_each!C3)</f>
         <v/>
       </c>
@@ -2779,11 +2769,11 @@
         <f>IF(_acsReport_day_each!D3="","",_acsReport_day_each!D3)</f>
         <v/>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="20" t="str">
         <f>IF(_acsReport_day_each!E3="","",_acsReport_day_each!E3)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_acsReport_day_each!F3="","",_acsReport_day_each!F3)</f>
         <v/>
       </c>
@@ -2791,11 +2781,11 @@
         <f>IF(_acsReport_day_each!G3="","",_acsReport_day_each!G3)</f>
         <v/>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="J9" s="20" t="str">
         <f>IF(_acsReport_day_each!H3="","",_acsReport_day_each!H3)</f>
         <v/>
       </c>
-      <c r="K9" s="21" t="str">
+      <c r="K9" s="20" t="str">
         <f>IF(_acsReport_day_each!I3="","",_acsReport_day_each!I3)</f>
         <v/>
       </c>
@@ -2803,11 +2793,11 @@
         <f>IF(_acsReport_day_each!J3="","",_acsReport_day_each!J3)</f>
         <v/>
       </c>
-      <c r="M9" s="21" t="str">
+      <c r="M9" s="20" t="str">
         <f>IF(_acsReport_day_each!K3="","",_acsReport_day_each!K3)</f>
         <v/>
       </c>
-      <c r="N9" s="21" t="str">
+      <c r="N9" s="20" t="str">
         <f>IF(_acsReport_day_each!L3="","",_acsReport_day_each!L3)</f>
         <v/>
       </c>
@@ -2815,11 +2805,11 @@
         <f>IF(_acsReport_day_each!M3="","",_acsReport_day_each!M3)</f>
         <v/>
       </c>
-      <c r="P9" s="21" t="str">
+      <c r="P9" s="20" t="str">
         <f>IF(_acsReport_day_each!N3="","",_acsReport_day_each!N3)</f>
         <v/>
       </c>
-      <c r="Q9" s="21" t="str">
+      <c r="Q9" s="20" t="str">
         <f>IF(_acsReport_day_each!O3="","",_acsReport_day_each!O3)</f>
         <v/>
       </c>
@@ -2827,11 +2817,11 @@
         <f>IF(_acsReport_day_each!P3="","",_acsReport_day_each!P3)</f>
         <v/>
       </c>
-      <c r="S9" s="21" t="str">
+      <c r="S9" s="20" t="str">
         <f>IF(_acsReport_day_each!Q3="","",_acsReport_day_each!Q3)</f>
         <v/>
       </c>
-      <c r="T9" s="21" t="str">
+      <c r="T9" s="20" t="str">
         <f>IF(_acsReport_day_each!R3="","",_acsReport_day_each!R3)</f>
         <v/>
       </c>
@@ -2839,11 +2829,11 @@
         <f>IF(_acsReport_day_each!S3="","",_acsReport_day_each!S3)</f>
         <v/>
       </c>
-      <c r="V9" s="21" t="str">
+      <c r="V9" s="20" t="str">
         <f>IF(_acsReport_day_each!T3="","",_acsReport_day_each!T3)</f>
         <v/>
       </c>
-      <c r="W9" s="21" t="str">
+      <c r="W9" s="20" t="str">
         <f>IF(_acsReport_day_each!U3="","",_acsReport_day_each!U3)</f>
         <v/>
       </c>
@@ -2851,11 +2841,11 @@
         <f>IF(_acsReport_day_each!V3="","",_acsReport_day_each!V3)</f>
         <v/>
       </c>
-      <c r="Y9" s="21" t="str">
+      <c r="Y9" s="20" t="str">
         <f>IF(_acsReport_day_each!W3="","",_acsReport_day_each!W3)</f>
         <v/>
       </c>
-      <c r="Z9" s="21" t="str">
+      <c r="Z9" s="20" t="str">
         <f>IF(_acsReport_day_each!X3="","",_acsReport_day_each!X3)</f>
         <v/>
       </c>
@@ -2863,11 +2853,11 @@
         <f>IF(_acsReport_day_each!Y3="","",_acsReport_day_each!Y3)</f>
         <v/>
       </c>
-      <c r="AB9" s="21" t="str">
+      <c r="AB9" s="20" t="str">
         <f>IF(_acsReport_day_each!Z3="","",_acsReport_day_each!Z3)</f>
         <v/>
       </c>
-      <c r="AC9" s="21" t="str">
+      <c r="AC9" s="20" t="str">
         <f>IF(_acsReport_day_each!AA3="","",_acsReport_day_each!AA3)</f>
         <v/>
       </c>
@@ -2875,11 +2865,11 @@
         <f>IF(_acsReport_day_each!AB3="","",_acsReport_day_each!AB3)</f>
         <v/>
       </c>
-      <c r="AE9" s="21" t="str">
+      <c r="AE9" s="20" t="str">
         <f>IF(_acsReport_day_each!AC3="","",_acsReport_day_each!AC3)</f>
         <v/>
       </c>
-      <c r="AF9" s="21" t="str">
+      <c r="AF9" s="20" t="str">
         <f>IF(_acsReport_day_each!AD3="","",_acsReport_day_each!AD3)</f>
         <v/>
       </c>
@@ -2887,11 +2877,11 @@
         <f>IF(_acsReport_day_each!AE3="","",_acsReport_day_each!AE3)</f>
         <v/>
       </c>
-      <c r="AH9" s="21" t="str">
+      <c r="AH9" s="20" t="str">
         <f>IF(_acsReport_day_each!AF3="","",_acsReport_day_each!AF3)</f>
         <v/>
       </c>
-      <c r="AI9" s="21" t="str">
+      <c r="AI9" s="20" t="str">
         <f>IF(_acsReport_day_each!AG3="","",_acsReport_day_each!AG3)</f>
         <v/>
       </c>
@@ -2899,11 +2889,11 @@
         <f>IF(_acsReport_day_each!AH3="","",_acsReport_day_each!AH3)</f>
         <v/>
       </c>
-      <c r="AK9" s="21" t="str">
+      <c r="AK9" s="20" t="str">
         <f>IF(_acsReport_day_each!AI3="","",_acsReport_day_each!AI3)</f>
         <v/>
       </c>
-      <c r="AL9" s="21" t="str">
+      <c r="AL9" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ3="","",_acsReport_day_each!AJ3)</f>
         <v/>
       </c>
@@ -2911,11 +2901,11 @@
         <f>IF(_acsReport_day_each!AK3="","",_acsReport_day_each!AK3)</f>
         <v/>
       </c>
-      <c r="AN9" s="21" t="str">
+      <c r="AN9" s="20" t="str">
         <f>IF(_acsReport_day_each!AL3="","",_acsReport_day_each!AL3)</f>
         <v/>
       </c>
-      <c r="AO9" s="21" t="str">
+      <c r="AO9" s="20" t="str">
         <f>IF(_acsReport_day_each!AM3="","",_acsReport_day_each!AM3)</f>
         <v/>
       </c>
@@ -2923,11 +2913,11 @@
         <f>IF(_acsReport_day_each!AN3="","",_acsReport_day_each!AN3)</f>
         <v/>
       </c>
-      <c r="AQ9" s="21" t="str">
+      <c r="AQ9" s="20" t="str">
         <f>IF(_acsReport_day_each!AO3="","",_acsReport_day_each!AO3)</f>
         <v/>
       </c>
-      <c r="AR9" s="21" t="str">
+      <c r="AR9" s="20" t="str">
         <f>IF(_acsReport_day_each!AP3="","",_acsReport_day_each!AP3)</f>
         <v/>
       </c>
@@ -2935,11 +2925,11 @@
         <f>IF(_acsReport_day_each!AQ3="","",_acsReport_day_each!AQ3)</f>
         <v/>
       </c>
-      <c r="AT9" s="21" t="str">
+      <c r="AT9" s="20" t="str">
         <f>IF(_acsReport_day_each!AR3="","",_acsReport_day_each!AR3)</f>
         <v/>
       </c>
-      <c r="AU9" s="21" t="str">
+      <c r="AU9" s="20" t="str">
         <f>IF(_acsReport_day_each!AS3="","",_acsReport_day_each!AS3)</f>
         <v/>
       </c>
@@ -2947,11 +2937,11 @@
         <f>IF(_acsReport_day_each!AT3="","",_acsReport_day_each!AT3)</f>
         <v/>
       </c>
-      <c r="AW9" s="21" t="str">
+      <c r="AW9" s="20" t="str">
         <f>IF(_acsReport_day_each!AU3="","",_acsReport_day_each!AU3)</f>
         <v/>
       </c>
-      <c r="AX9" s="21" t="str">
+      <c r="AX9" s="20" t="str">
         <f>IF(_acsReport_day_each!AV3="","",_acsReport_day_each!AV3)</f>
         <v/>
       </c>
@@ -2959,11 +2949,11 @@
         <f>IF(_acsReport_day_each!AW3="","",_acsReport_day_each!AW3)</f>
         <v/>
       </c>
-      <c r="AZ9" s="21" t="str">
+      <c r="AZ9" s="20" t="str">
         <f>IF(_acsReport_day_each!AX3="","",_acsReport_day_each!AX3)</f>
         <v/>
       </c>
-      <c r="BA9" s="21" t="str">
+      <c r="BA9" s="20" t="str">
         <f>IF(_acsReport_day_each!AY3="","",_acsReport_day_each!AY3)</f>
         <v/>
       </c>
@@ -2971,19 +2961,19 @@
         <f>IF(_acsReport_day_each!AZ3="","",_acsReport_day_each!AZ3)</f>
         <v/>
       </c>
-      <c r="BC9" s="21" t="str">
+      <c r="BC9" s="20" t="str">
         <f>IF(_acsReport_day_each!BA3="","",_acsReport_day_each!BA3)</f>
         <v/>
       </c>
-      <c r="BD9" s="21" t="str">
+      <c r="BD9" s="20" t="str">
         <f>IF(_acsReport_day_each!BB3="","",_acsReport_day_each!BB3)</f>
         <v/>
       </c>
-      <c r="BE9" s="20">
+      <c r="BE9" s="19">
         <f>_acsReport_day_each!BD3:BF3</f>
         <v>0</v>
       </c>
-      <c r="BI9" s="20">
+      <c r="BI9" s="19">
         <f>_acsReport_day_each!BG3:BI3</f>
         <v>0</v>
       </c>
@@ -3000,19 +2990,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
+    <row r="10" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B10" s="21">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="C10" s="20" t="str">
+      <c r="C10" s="19" t="str">
         <f>IF(_acsReport_day_each!A4="","",_acsReport_day_each!A4)</f>
         <v/>
       </c>
-      <c r="D10" s="21" t="str">
+      <c r="D10" s="20" t="str">
         <f>IF(_acsReport_day_each!B4="","",_acsReport_day_each!B4)</f>
         <v/>
       </c>
-      <c r="E10" s="21" t="str">
+      <c r="E10" s="20" t="str">
         <f>IF(_acsReport_day_each!C4="","",_acsReport_day_each!C4)</f>
         <v/>
       </c>
@@ -3020,11 +3010,11 @@
         <f>IF(_acsReport_day_each!D4="","",_acsReport_day_each!D4)</f>
         <v/>
       </c>
-      <c r="G10" s="21" t="str">
+      <c r="G10" s="20" t="str">
         <f>IF(_acsReport_day_each!E4="","",_acsReport_day_each!E4)</f>
         <v/>
       </c>
-      <c r="H10" s="21" t="str">
+      <c r="H10" s="20" t="str">
         <f>IF(_acsReport_day_each!F4="","",_acsReport_day_each!F4)</f>
         <v/>
       </c>
@@ -3032,11 +3022,11 @@
         <f>IF(_acsReport_day_each!G4="","",_acsReport_day_each!G4)</f>
         <v/>
       </c>
-      <c r="J10" s="21" t="str">
+      <c r="J10" s="20" t="str">
         <f>IF(_acsReport_day_each!H4="","",_acsReport_day_each!H4)</f>
         <v/>
       </c>
-      <c r="K10" s="21" t="str">
+      <c r="K10" s="20" t="str">
         <f>IF(_acsReport_day_each!I4="","",_acsReport_day_each!I4)</f>
         <v/>
       </c>
@@ -3044,11 +3034,11 @@
         <f>IF(_acsReport_day_each!J4="","",_acsReport_day_each!J4)</f>
         <v/>
       </c>
-      <c r="M10" s="21" t="str">
+      <c r="M10" s="20" t="str">
         <f>IF(_acsReport_day_each!K4="","",_acsReport_day_each!K4)</f>
         <v/>
       </c>
-      <c r="N10" s="21" t="str">
+      <c r="N10" s="20" t="str">
         <f>IF(_acsReport_day_each!L4="","",_acsReport_day_each!L4)</f>
         <v/>
       </c>
@@ -3056,11 +3046,11 @@
         <f>IF(_acsReport_day_each!M4="","",_acsReport_day_each!M4)</f>
         <v/>
       </c>
-      <c r="P10" s="21" t="str">
+      <c r="P10" s="20" t="str">
         <f>IF(_acsReport_day_each!N4="","",_acsReport_day_each!N4)</f>
         <v/>
       </c>
-      <c r="Q10" s="21" t="str">
+      <c r="Q10" s="20" t="str">
         <f>IF(_acsReport_day_each!O4="","",_acsReport_day_each!O4)</f>
         <v/>
       </c>
@@ -3068,11 +3058,11 @@
         <f>IF(_acsReport_day_each!P4="","",_acsReport_day_each!P4)</f>
         <v/>
       </c>
-      <c r="S10" s="21" t="str">
+      <c r="S10" s="20" t="str">
         <f>IF(_acsReport_day_each!Q4="","",_acsReport_day_each!Q4)</f>
         <v/>
       </c>
-      <c r="T10" s="21" t="str">
+      <c r="T10" s="20" t="str">
         <f>IF(_acsReport_day_each!R4="","",_acsReport_day_each!R4)</f>
         <v/>
       </c>
@@ -3080,11 +3070,11 @@
         <f>IF(_acsReport_day_each!S4="","",_acsReport_day_each!S4)</f>
         <v/>
       </c>
-      <c r="V10" s="21" t="str">
+      <c r="V10" s="20" t="str">
         <f>IF(_acsReport_day_each!T4="","",_acsReport_day_each!T4)</f>
         <v/>
       </c>
-      <c r="W10" s="21" t="str">
+      <c r="W10" s="20" t="str">
         <f>IF(_acsReport_day_each!U4="","",_acsReport_day_each!U4)</f>
         <v/>
       </c>
@@ -3092,11 +3082,11 @@
         <f>IF(_acsReport_day_each!V4="","",_acsReport_day_each!V4)</f>
         <v/>
       </c>
-      <c r="Y10" s="21" t="str">
+      <c r="Y10" s="20" t="str">
         <f>IF(_acsReport_day_each!W4="","",_acsReport_day_each!W4)</f>
         <v/>
       </c>
-      <c r="Z10" s="21" t="str">
+      <c r="Z10" s="20" t="str">
         <f>IF(_acsReport_day_each!X4="","",_acsReport_day_each!X4)</f>
         <v/>
       </c>
@@ -3104,11 +3094,11 @@
         <f>IF(_acsReport_day_each!Y4="","",_acsReport_day_each!Y4)</f>
         <v/>
       </c>
-      <c r="AB10" s="21" t="str">
+      <c r="AB10" s="20" t="str">
         <f>IF(_acsReport_day_each!Z4="","",_acsReport_day_each!Z4)</f>
         <v/>
       </c>
-      <c r="AC10" s="21" t="str">
+      <c r="AC10" s="20" t="str">
         <f>IF(_acsReport_day_each!AA4="","",_acsReport_day_each!AA4)</f>
         <v/>
       </c>
@@ -3116,11 +3106,11 @@
         <f>IF(_acsReport_day_each!AB4="","",_acsReport_day_each!AB4)</f>
         <v/>
       </c>
-      <c r="AE10" s="21" t="str">
+      <c r="AE10" s="20" t="str">
         <f>IF(_acsReport_day_each!AC4="","",_acsReport_day_each!AC4)</f>
         <v/>
       </c>
-      <c r="AF10" s="21" t="str">
+      <c r="AF10" s="20" t="str">
         <f>IF(_acsReport_day_each!AD4="","",_acsReport_day_each!AD4)</f>
         <v/>
       </c>
@@ -3128,11 +3118,11 @@
         <f>IF(_acsReport_day_each!AE4="","",_acsReport_day_each!AE4)</f>
         <v/>
       </c>
-      <c r="AH10" s="21" t="str">
+      <c r="AH10" s="20" t="str">
         <f>IF(_acsReport_day_each!AF4="","",_acsReport_day_each!AF4)</f>
         <v/>
       </c>
-      <c r="AI10" s="21" t="str">
+      <c r="AI10" s="20" t="str">
         <f>IF(_acsReport_day_each!AG4="","",_acsReport_day_each!AG4)</f>
         <v/>
       </c>
@@ -3140,11 +3130,11 @@
         <f>IF(_acsReport_day_each!AH4="","",_acsReport_day_each!AH4)</f>
         <v/>
       </c>
-      <c r="AK10" s="21" t="str">
+      <c r="AK10" s="20" t="str">
         <f>IF(_acsReport_day_each!AI4="","",_acsReport_day_each!AI4)</f>
         <v/>
       </c>
-      <c r="AL10" s="21" t="str">
+      <c r="AL10" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ4="","",_acsReport_day_each!AJ4)</f>
         <v/>
       </c>
@@ -3152,11 +3142,11 @@
         <f>IF(_acsReport_day_each!AK4="","",_acsReport_day_each!AK4)</f>
         <v/>
       </c>
-      <c r="AN10" s="21" t="str">
+      <c r="AN10" s="20" t="str">
         <f>IF(_acsReport_day_each!AL4="","",_acsReport_day_each!AL4)</f>
         <v/>
       </c>
-      <c r="AO10" s="21" t="str">
+      <c r="AO10" s="20" t="str">
         <f>IF(_acsReport_day_each!AM4="","",_acsReport_day_each!AM4)</f>
         <v/>
       </c>
@@ -3164,11 +3154,11 @@
         <f>IF(_acsReport_day_each!AN4="","",_acsReport_day_each!AN4)</f>
         <v/>
       </c>
-      <c r="AQ10" s="21" t="str">
+      <c r="AQ10" s="20" t="str">
         <f>IF(_acsReport_day_each!AO4="","",_acsReport_day_each!AO4)</f>
         <v/>
       </c>
-      <c r="AR10" s="21" t="str">
+      <c r="AR10" s="20" t="str">
         <f>IF(_acsReport_day_each!AP4="","",_acsReport_day_each!AP4)</f>
         <v/>
       </c>
@@ -3176,11 +3166,11 @@
         <f>IF(_acsReport_day_each!AQ4="","",_acsReport_day_each!AQ4)</f>
         <v/>
       </c>
-      <c r="AT10" s="21" t="str">
+      <c r="AT10" s="20" t="str">
         <f>IF(_acsReport_day_each!AR4="","",_acsReport_day_each!AR4)</f>
         <v/>
       </c>
-      <c r="AU10" s="21" t="str">
+      <c r="AU10" s="20" t="str">
         <f>IF(_acsReport_day_each!AS4="","",_acsReport_day_each!AS4)</f>
         <v/>
       </c>
@@ -3188,11 +3178,11 @@
         <f>IF(_acsReport_day_each!AT4="","",_acsReport_day_each!AT4)</f>
         <v/>
       </c>
-      <c r="AW10" s="21" t="str">
+      <c r="AW10" s="20" t="str">
         <f>IF(_acsReport_day_each!AU4="","",_acsReport_day_each!AU4)</f>
         <v/>
       </c>
-      <c r="AX10" s="21" t="str">
+      <c r="AX10" s="20" t="str">
         <f>IF(_acsReport_day_each!AV4="","",_acsReport_day_each!AV4)</f>
         <v/>
       </c>
@@ -3200,11 +3190,11 @@
         <f>IF(_acsReport_day_each!AW4="","",_acsReport_day_each!AW4)</f>
         <v/>
       </c>
-      <c r="AZ10" s="21" t="str">
+      <c r="AZ10" s="20" t="str">
         <f>IF(_acsReport_day_each!AX4="","",_acsReport_day_each!AX4)</f>
         <v/>
       </c>
-      <c r="BA10" s="21" t="str">
+      <c r="BA10" s="20" t="str">
         <f>IF(_acsReport_day_each!AY4="","",_acsReport_day_each!AY4)</f>
         <v/>
       </c>
@@ -3212,19 +3202,19 @@
         <f>IF(_acsReport_day_each!AZ4="","",_acsReport_day_each!AZ4)</f>
         <v/>
       </c>
-      <c r="BC10" s="21" t="str">
+      <c r="BC10" s="20" t="str">
         <f>IF(_acsReport_day_each!BA4="","",_acsReport_day_each!BA4)</f>
         <v/>
       </c>
-      <c r="BD10" s="21" t="str">
+      <c r="BD10" s="20" t="str">
         <f>IF(_acsReport_day_each!BB4="","",_acsReport_day_each!BB4)</f>
         <v/>
       </c>
-      <c r="BE10" s="20">
+      <c r="BE10" s="19">
         <f>_acsReport_day_each!BD4:BF4</f>
         <v>0</v>
       </c>
-      <c r="BI10" s="20">
+      <c r="BI10" s="19">
         <f>_acsReport_day_each!BG4:BI4</f>
         <v>0</v>
       </c>
@@ -3241,19 +3231,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="19">
+    <row r="11" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B11" s="21">
         <v>0.125</v>
       </c>
-      <c r="C11" s="20" t="str">
+      <c r="C11" s="19" t="str">
         <f>IF(_acsReport_day_each!A5="","",_acsReport_day_each!A5)</f>
         <v/>
       </c>
-      <c r="D11" s="21" t="str">
+      <c r="D11" s="20" t="str">
         <f>IF(_acsReport_day_each!B5="","",_acsReport_day_each!B5)</f>
         <v/>
       </c>
-      <c r="E11" s="21" t="str">
+      <c r="E11" s="20" t="str">
         <f>IF(_acsReport_day_each!C5="","",_acsReport_day_each!C5)</f>
         <v/>
       </c>
@@ -3261,11 +3251,11 @@
         <f>IF(_acsReport_day_each!D5="","",_acsReport_day_each!D5)</f>
         <v/>
       </c>
-      <c r="G11" s="21" t="str">
+      <c r="G11" s="20" t="str">
         <f>IF(_acsReport_day_each!E5="","",_acsReport_day_each!E5)</f>
         <v/>
       </c>
-      <c r="H11" s="21" t="str">
+      <c r="H11" s="20" t="str">
         <f>IF(_acsReport_day_each!F5="","",_acsReport_day_each!F5)</f>
         <v/>
       </c>
@@ -3273,11 +3263,11 @@
         <f>IF(_acsReport_day_each!G5="","",_acsReport_day_each!G5)</f>
         <v/>
       </c>
-      <c r="J11" s="21" t="str">
+      <c r="J11" s="20" t="str">
         <f>IF(_acsReport_day_each!H5="","",_acsReport_day_each!H5)</f>
         <v/>
       </c>
-      <c r="K11" s="21" t="str">
+      <c r="K11" s="20" t="str">
         <f>IF(_acsReport_day_each!I5="","",_acsReport_day_each!I5)</f>
         <v/>
       </c>
@@ -3285,11 +3275,11 @@
         <f>IF(_acsReport_day_each!J5="","",_acsReport_day_each!J5)</f>
         <v/>
       </c>
-      <c r="M11" s="21" t="str">
+      <c r="M11" s="20" t="str">
         <f>IF(_acsReport_day_each!K5="","",_acsReport_day_each!K5)</f>
         <v/>
       </c>
-      <c r="N11" s="21" t="str">
+      <c r="N11" s="20" t="str">
         <f>IF(_acsReport_day_each!L5="","",_acsReport_day_each!L5)</f>
         <v/>
       </c>
@@ -3297,11 +3287,11 @@
         <f>IF(_acsReport_day_each!M5="","",_acsReport_day_each!M5)</f>
         <v/>
       </c>
-      <c r="P11" s="21" t="str">
+      <c r="P11" s="20" t="str">
         <f>IF(_acsReport_day_each!N5="","",_acsReport_day_each!N5)</f>
         <v/>
       </c>
-      <c r="Q11" s="21" t="str">
+      <c r="Q11" s="20" t="str">
         <f>IF(_acsReport_day_each!O5="","",_acsReport_day_each!O5)</f>
         <v/>
       </c>
@@ -3309,11 +3299,11 @@
         <f>IF(_acsReport_day_each!P5="","",_acsReport_day_each!P5)</f>
         <v/>
       </c>
-      <c r="S11" s="21" t="str">
+      <c r="S11" s="20" t="str">
         <f>IF(_acsReport_day_each!Q5="","",_acsReport_day_each!Q5)</f>
         <v/>
       </c>
-      <c r="T11" s="21" t="str">
+      <c r="T11" s="20" t="str">
         <f>IF(_acsReport_day_each!R5="","",_acsReport_day_each!R5)</f>
         <v/>
       </c>
@@ -3321,11 +3311,11 @@
         <f>IF(_acsReport_day_each!S5="","",_acsReport_day_each!S5)</f>
         <v/>
       </c>
-      <c r="V11" s="21" t="str">
+      <c r="V11" s="20" t="str">
         <f>IF(_acsReport_day_each!T5="","",_acsReport_day_each!T5)</f>
         <v/>
       </c>
-      <c r="W11" s="21" t="str">
+      <c r="W11" s="20" t="str">
         <f>IF(_acsReport_day_each!U5="","",_acsReport_day_each!U5)</f>
         <v/>
       </c>
@@ -3333,11 +3323,11 @@
         <f>IF(_acsReport_day_each!V5="","",_acsReport_day_each!V5)</f>
         <v/>
       </c>
-      <c r="Y11" s="21" t="str">
+      <c r="Y11" s="20" t="str">
         <f>IF(_acsReport_day_each!W5="","",_acsReport_day_each!W5)</f>
         <v/>
       </c>
-      <c r="Z11" s="21" t="str">
+      <c r="Z11" s="20" t="str">
         <f>IF(_acsReport_day_each!X5="","",_acsReport_day_each!X5)</f>
         <v/>
       </c>
@@ -3345,11 +3335,11 @@
         <f>IF(_acsReport_day_each!Y5="","",_acsReport_day_each!Y5)</f>
         <v/>
       </c>
-      <c r="AB11" s="21" t="str">
+      <c r="AB11" s="20" t="str">
         <f>IF(_acsReport_day_each!Z5="","",_acsReport_day_each!Z5)</f>
         <v/>
       </c>
-      <c r="AC11" s="21" t="str">
+      <c r="AC11" s="20" t="str">
         <f>IF(_acsReport_day_each!AA5="","",_acsReport_day_each!AA5)</f>
         <v/>
       </c>
@@ -3357,11 +3347,11 @@
         <f>IF(_acsReport_day_each!AB5="","",_acsReport_day_each!AB5)</f>
         <v/>
       </c>
-      <c r="AE11" s="21" t="str">
+      <c r="AE11" s="20" t="str">
         <f>IF(_acsReport_day_each!AC5="","",_acsReport_day_each!AC5)</f>
         <v/>
       </c>
-      <c r="AF11" s="21" t="str">
+      <c r="AF11" s="20" t="str">
         <f>IF(_acsReport_day_each!AD5="","",_acsReport_day_each!AD5)</f>
         <v/>
       </c>
@@ -3369,11 +3359,11 @@
         <f>IF(_acsReport_day_each!AE5="","",_acsReport_day_each!AE5)</f>
         <v/>
       </c>
-      <c r="AH11" s="21" t="str">
+      <c r="AH11" s="20" t="str">
         <f>IF(_acsReport_day_each!AF5="","",_acsReport_day_each!AF5)</f>
         <v/>
       </c>
-      <c r="AI11" s="21" t="str">
+      <c r="AI11" s="20" t="str">
         <f>IF(_acsReport_day_each!AG5="","",_acsReport_day_each!AG5)</f>
         <v/>
       </c>
@@ -3381,11 +3371,11 @@
         <f>IF(_acsReport_day_each!AH5="","",_acsReport_day_each!AH5)</f>
         <v/>
       </c>
-      <c r="AK11" s="21" t="str">
+      <c r="AK11" s="20" t="str">
         <f>IF(_acsReport_day_each!AI5="","",_acsReport_day_each!AI5)</f>
         <v/>
       </c>
-      <c r="AL11" s="21" t="str">
+      <c r="AL11" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ5="","",_acsReport_day_each!AJ5)</f>
         <v/>
       </c>
@@ -3393,11 +3383,11 @@
         <f>IF(_acsReport_day_each!AK5="","",_acsReport_day_each!AK5)</f>
         <v/>
       </c>
-      <c r="AN11" s="21" t="str">
+      <c r="AN11" s="20" t="str">
         <f>IF(_acsReport_day_each!AL5="","",_acsReport_day_each!AL5)</f>
         <v/>
       </c>
-      <c r="AO11" s="21" t="str">
+      <c r="AO11" s="20" t="str">
         <f>IF(_acsReport_day_each!AM5="","",_acsReport_day_each!AM5)</f>
         <v/>
       </c>
@@ -3405,11 +3395,11 @@
         <f>IF(_acsReport_day_each!AN5="","",_acsReport_day_each!AN5)</f>
         <v/>
       </c>
-      <c r="AQ11" s="21" t="str">
+      <c r="AQ11" s="20" t="str">
         <f>IF(_acsReport_day_each!AO5="","",_acsReport_day_each!AO5)</f>
         <v/>
       </c>
-      <c r="AR11" s="21" t="str">
+      <c r="AR11" s="20" t="str">
         <f>IF(_acsReport_day_each!AP5="","",_acsReport_day_each!AP5)</f>
         <v/>
       </c>
@@ -3417,11 +3407,11 @@
         <f>IF(_acsReport_day_each!AQ5="","",_acsReport_day_each!AQ5)</f>
         <v/>
       </c>
-      <c r="AT11" s="21" t="str">
+      <c r="AT11" s="20" t="str">
         <f>IF(_acsReport_day_each!AR5="","",_acsReport_day_each!AR5)</f>
         <v/>
       </c>
-      <c r="AU11" s="21" t="str">
+      <c r="AU11" s="20" t="str">
         <f>IF(_acsReport_day_each!AS5="","",_acsReport_day_each!AS5)</f>
         <v/>
       </c>
@@ -3429,11 +3419,11 @@
         <f>IF(_acsReport_day_each!AT5="","",_acsReport_day_each!AT5)</f>
         <v/>
       </c>
-      <c r="AW11" s="21" t="str">
+      <c r="AW11" s="20" t="str">
         <f>IF(_acsReport_day_each!AU5="","",_acsReport_day_each!AU5)</f>
         <v/>
       </c>
-      <c r="AX11" s="21" t="str">
+      <c r="AX11" s="20" t="str">
         <f>IF(_acsReport_day_each!AV5="","",_acsReport_day_each!AV5)</f>
         <v/>
       </c>
@@ -3441,11 +3431,11 @@
         <f>IF(_acsReport_day_each!AW5="","",_acsReport_day_each!AW5)</f>
         <v/>
       </c>
-      <c r="AZ11" s="21" t="str">
+      <c r="AZ11" s="20" t="str">
         <f>IF(_acsReport_day_each!AX5="","",_acsReport_day_each!AX5)</f>
         <v/>
       </c>
-      <c r="BA11" s="21" t="str">
+      <c r="BA11" s="20" t="str">
         <f>IF(_acsReport_day_each!AY5="","",_acsReport_day_each!AY5)</f>
         <v/>
       </c>
@@ -3453,19 +3443,19 @@
         <f>IF(_acsReport_day_each!AZ5="","",_acsReport_day_each!AZ5)</f>
         <v/>
       </c>
-      <c r="BC11" s="21" t="str">
+      <c r="BC11" s="20" t="str">
         <f>IF(_acsReport_day_each!BA5="","",_acsReport_day_each!BA5)</f>
         <v/>
       </c>
-      <c r="BD11" s="21" t="str">
+      <c r="BD11" s="20" t="str">
         <f>IF(_acsReport_day_each!BB5="","",_acsReport_day_each!BB5)</f>
         <v/>
       </c>
-      <c r="BE11" s="20">
+      <c r="BE11" s="19">
         <f>_acsReport_day_each!BD5:BF5</f>
         <v>0</v>
       </c>
-      <c r="BI11" s="20">
+      <c r="BI11" s="19">
         <f>_acsReport_day_each!BG5:BI5</f>
         <v>0</v>
       </c>
@@ -3482,19 +3472,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="19">
+    <row r="12" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B12" s="21">
         <v>0.16666666666666699</v>
       </c>
-      <c r="C12" s="20" t="str">
+      <c r="C12" s="19" t="str">
         <f>IF(_acsReport_day_each!A6="","",_acsReport_day_each!A6)</f>
         <v/>
       </c>
-      <c r="D12" s="21" t="str">
+      <c r="D12" s="20" t="str">
         <f>IF(_acsReport_day_each!B6="","",_acsReport_day_each!B6)</f>
         <v/>
       </c>
-      <c r="E12" s="21" t="str">
+      <c r="E12" s="20" t="str">
         <f>IF(_acsReport_day_each!C6="","",_acsReport_day_each!C6)</f>
         <v/>
       </c>
@@ -3502,11 +3492,11 @@
         <f>IF(_acsReport_day_each!D6="","",_acsReport_day_each!D6)</f>
         <v/>
       </c>
-      <c r="G12" s="21" t="str">
+      <c r="G12" s="20" t="str">
         <f>IF(_acsReport_day_each!E6="","",_acsReport_day_each!E6)</f>
         <v/>
       </c>
-      <c r="H12" s="21" t="str">
+      <c r="H12" s="20" t="str">
         <f>IF(_acsReport_day_each!F6="","",_acsReport_day_each!F6)</f>
         <v/>
       </c>
@@ -3514,11 +3504,11 @@
         <f>IF(_acsReport_day_each!G6="","",_acsReport_day_each!G6)</f>
         <v/>
       </c>
-      <c r="J12" s="21" t="str">
+      <c r="J12" s="20" t="str">
         <f>IF(_acsReport_day_each!H6="","",_acsReport_day_each!H6)</f>
         <v/>
       </c>
-      <c r="K12" s="21" t="str">
+      <c r="K12" s="20" t="str">
         <f>IF(_acsReport_day_each!I6="","",_acsReport_day_each!I6)</f>
         <v/>
       </c>
@@ -3526,11 +3516,11 @@
         <f>IF(_acsReport_day_each!J6="","",_acsReport_day_each!J6)</f>
         <v/>
       </c>
-      <c r="M12" s="21" t="str">
+      <c r="M12" s="20" t="str">
         <f>IF(_acsReport_day_each!K6="","",_acsReport_day_each!K6)</f>
         <v/>
       </c>
-      <c r="N12" s="21" t="str">
+      <c r="N12" s="20" t="str">
         <f>IF(_acsReport_day_each!L6="","",_acsReport_day_each!L6)</f>
         <v/>
       </c>
@@ -3538,11 +3528,11 @@
         <f>IF(_acsReport_day_each!M6="","",_acsReport_day_each!M6)</f>
         <v/>
       </c>
-      <c r="P12" s="21" t="str">
+      <c r="P12" s="20" t="str">
         <f>IF(_acsReport_day_each!N6="","",_acsReport_day_each!N6)</f>
         <v/>
       </c>
-      <c r="Q12" s="21" t="str">
+      <c r="Q12" s="20" t="str">
         <f>IF(_acsReport_day_each!O6="","",_acsReport_day_each!O6)</f>
         <v/>
       </c>
@@ -3550,11 +3540,11 @@
         <f>IF(_acsReport_day_each!P6="","",_acsReport_day_each!P6)</f>
         <v/>
       </c>
-      <c r="S12" s="21" t="str">
+      <c r="S12" s="20" t="str">
         <f>IF(_acsReport_day_each!Q6="","",_acsReport_day_each!Q6)</f>
         <v/>
       </c>
-      <c r="T12" s="21" t="str">
+      <c r="T12" s="20" t="str">
         <f>IF(_acsReport_day_each!R6="","",_acsReport_day_each!R6)</f>
         <v/>
       </c>
@@ -3562,11 +3552,11 @@
         <f>IF(_acsReport_day_each!S6="","",_acsReport_day_each!S6)</f>
         <v/>
       </c>
-      <c r="V12" s="21" t="str">
+      <c r="V12" s="20" t="str">
         <f>IF(_acsReport_day_each!T6="","",_acsReport_day_each!T6)</f>
         <v/>
       </c>
-      <c r="W12" s="21" t="str">
+      <c r="W12" s="20" t="str">
         <f>IF(_acsReport_day_each!U6="","",_acsReport_day_each!U6)</f>
         <v/>
       </c>
@@ -3574,11 +3564,11 @@
         <f>IF(_acsReport_day_each!V6="","",_acsReport_day_each!V6)</f>
         <v/>
       </c>
-      <c r="Y12" s="21" t="str">
+      <c r="Y12" s="20" t="str">
         <f>IF(_acsReport_day_each!W6="","",_acsReport_day_each!W6)</f>
         <v/>
       </c>
-      <c r="Z12" s="21" t="str">
+      <c r="Z12" s="20" t="str">
         <f>IF(_acsReport_day_each!X6="","",_acsReport_day_each!X6)</f>
         <v/>
       </c>
@@ -3586,11 +3576,11 @@
         <f>IF(_acsReport_day_each!Y6="","",_acsReport_day_each!Y6)</f>
         <v/>
       </c>
-      <c r="AB12" s="21" t="str">
+      <c r="AB12" s="20" t="str">
         <f>IF(_acsReport_day_each!Z6="","",_acsReport_day_each!Z6)</f>
         <v/>
       </c>
-      <c r="AC12" s="21" t="str">
+      <c r="AC12" s="20" t="str">
         <f>IF(_acsReport_day_each!AA6="","",_acsReport_day_each!AA6)</f>
         <v/>
       </c>
@@ -3598,11 +3588,11 @@
         <f>IF(_acsReport_day_each!AB6="","",_acsReport_day_each!AB6)</f>
         <v/>
       </c>
-      <c r="AE12" s="21" t="str">
+      <c r="AE12" s="20" t="str">
         <f>IF(_acsReport_day_each!AC6="","",_acsReport_day_each!AC6)</f>
         <v/>
       </c>
-      <c r="AF12" s="21" t="str">
+      <c r="AF12" s="20" t="str">
         <f>IF(_acsReport_day_each!AD6="","",_acsReport_day_each!AD6)</f>
         <v/>
       </c>
@@ -3610,11 +3600,11 @@
         <f>IF(_acsReport_day_each!AE6="","",_acsReport_day_each!AE6)</f>
         <v/>
       </c>
-      <c r="AH12" s="21" t="str">
+      <c r="AH12" s="20" t="str">
         <f>IF(_acsReport_day_each!AF6="","",_acsReport_day_each!AF6)</f>
         <v/>
       </c>
-      <c r="AI12" s="21" t="str">
+      <c r="AI12" s="20" t="str">
         <f>IF(_acsReport_day_each!AG6="","",_acsReport_day_each!AG6)</f>
         <v/>
       </c>
@@ -3622,11 +3612,11 @@
         <f>IF(_acsReport_day_each!AH6="","",_acsReport_day_each!AH6)</f>
         <v/>
       </c>
-      <c r="AK12" s="21" t="str">
+      <c r="AK12" s="20" t="str">
         <f>IF(_acsReport_day_each!AI6="","",_acsReport_day_each!AI6)</f>
         <v/>
       </c>
-      <c r="AL12" s="21" t="str">
+      <c r="AL12" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ6="","",_acsReport_day_each!AJ6)</f>
         <v/>
       </c>
@@ -3634,11 +3624,11 @@
         <f>IF(_acsReport_day_each!AK6="","",_acsReport_day_each!AK6)</f>
         <v/>
       </c>
-      <c r="AN12" s="21" t="str">
+      <c r="AN12" s="20" t="str">
         <f>IF(_acsReport_day_each!AL6="","",_acsReport_day_each!AL6)</f>
         <v/>
       </c>
-      <c r="AO12" s="21" t="str">
+      <c r="AO12" s="20" t="str">
         <f>IF(_acsReport_day_each!AM6="","",_acsReport_day_each!AM6)</f>
         <v/>
       </c>
@@ -3646,11 +3636,11 @@
         <f>IF(_acsReport_day_each!AN6="","",_acsReport_day_each!AN6)</f>
         <v/>
       </c>
-      <c r="AQ12" s="21" t="str">
+      <c r="AQ12" s="20" t="str">
         <f>IF(_acsReport_day_each!AO6="","",_acsReport_day_each!AO6)</f>
         <v/>
       </c>
-      <c r="AR12" s="21" t="str">
+      <c r="AR12" s="20" t="str">
         <f>IF(_acsReport_day_each!AP6="","",_acsReport_day_each!AP6)</f>
         <v/>
       </c>
@@ -3658,11 +3648,11 @@
         <f>IF(_acsReport_day_each!AQ6="","",_acsReport_day_each!AQ6)</f>
         <v/>
       </c>
-      <c r="AT12" s="21" t="str">
+      <c r="AT12" s="20" t="str">
         <f>IF(_acsReport_day_each!AR6="","",_acsReport_day_each!AR6)</f>
         <v/>
       </c>
-      <c r="AU12" s="21" t="str">
+      <c r="AU12" s="20" t="str">
         <f>IF(_acsReport_day_each!AS6="","",_acsReport_day_each!AS6)</f>
         <v/>
       </c>
@@ -3670,11 +3660,11 @@
         <f>IF(_acsReport_day_each!AT6="","",_acsReport_day_each!AT6)</f>
         <v/>
       </c>
-      <c r="AW12" s="21" t="str">
+      <c r="AW12" s="20" t="str">
         <f>IF(_acsReport_day_each!AU6="","",_acsReport_day_each!AU6)</f>
         <v/>
       </c>
-      <c r="AX12" s="21" t="str">
+      <c r="AX12" s="20" t="str">
         <f>IF(_acsReport_day_each!AV6="","",_acsReport_day_each!AV6)</f>
         <v/>
       </c>
@@ -3682,11 +3672,11 @@
         <f>IF(_acsReport_day_each!AW6="","",_acsReport_day_each!AW6)</f>
         <v/>
       </c>
-      <c r="AZ12" s="21" t="str">
+      <c r="AZ12" s="20" t="str">
         <f>IF(_acsReport_day_each!AX6="","",_acsReport_day_each!AX6)</f>
         <v/>
       </c>
-      <c r="BA12" s="21" t="str">
+      <c r="BA12" s="20" t="str">
         <f>IF(_acsReport_day_each!AY6="","",_acsReport_day_each!AY6)</f>
         <v/>
       </c>
@@ -3694,19 +3684,19 @@
         <f>IF(_acsReport_day_each!AZ6="","",_acsReport_day_each!AZ6)</f>
         <v/>
       </c>
-      <c r="BC12" s="21" t="str">
+      <c r="BC12" s="20" t="str">
         <f>IF(_acsReport_day_each!BA6="","",_acsReport_day_each!BA6)</f>
         <v/>
       </c>
-      <c r="BD12" s="21" t="str">
+      <c r="BD12" s="20" t="str">
         <f>IF(_acsReport_day_each!BB6="","",_acsReport_day_each!BB6)</f>
         <v/>
       </c>
-      <c r="BE12" s="20">
+      <c r="BE12" s="19">
         <f>_acsReport_day_each!BD6:BF6</f>
         <v>0</v>
       </c>
-      <c r="BI12" s="20">
+      <c r="BI12" s="19">
         <f>_acsReport_day_each!BG6:BI6</f>
         <v>0</v>
       </c>
@@ -3723,19 +3713,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="19">
+    <row r="13" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B13" s="21">
         <v>0.20833333333333301</v>
       </c>
-      <c r="C13" s="20" t="str">
+      <c r="C13" s="19" t="str">
         <f>IF(_acsReport_day_each!A7="","",_acsReport_day_each!A7)</f>
         <v/>
       </c>
-      <c r="D13" s="21" t="str">
+      <c r="D13" s="20" t="str">
         <f>IF(_acsReport_day_each!B7="","",_acsReport_day_each!B7)</f>
         <v/>
       </c>
-      <c r="E13" s="21" t="str">
+      <c r="E13" s="20" t="str">
         <f>IF(_acsReport_day_each!C7="","",_acsReport_day_each!C7)</f>
         <v/>
       </c>
@@ -3743,11 +3733,11 @@
         <f>IF(_acsReport_day_each!D7="","",_acsReport_day_each!D7)</f>
         <v/>
       </c>
-      <c r="G13" s="21" t="str">
+      <c r="G13" s="20" t="str">
         <f>IF(_acsReport_day_each!E7="","",_acsReport_day_each!E7)</f>
         <v/>
       </c>
-      <c r="H13" s="21" t="str">
+      <c r="H13" s="20" t="str">
         <f>IF(_acsReport_day_each!F7="","",_acsReport_day_each!F7)</f>
         <v/>
       </c>
@@ -3755,11 +3745,11 @@
         <f>IF(_acsReport_day_each!G7="","",_acsReport_day_each!G7)</f>
         <v/>
       </c>
-      <c r="J13" s="21" t="str">
+      <c r="J13" s="20" t="str">
         <f>IF(_acsReport_day_each!H7="","",_acsReport_day_each!H7)</f>
         <v/>
       </c>
-      <c r="K13" s="21" t="str">
+      <c r="K13" s="20" t="str">
         <f>IF(_acsReport_day_each!I7="","",_acsReport_day_each!I7)</f>
         <v/>
       </c>
@@ -3767,11 +3757,11 @@
         <f>IF(_acsReport_day_each!J7="","",_acsReport_day_each!J7)</f>
         <v/>
       </c>
-      <c r="M13" s="21" t="str">
+      <c r="M13" s="20" t="str">
         <f>IF(_acsReport_day_each!K7="","",_acsReport_day_each!K7)</f>
         <v/>
       </c>
-      <c r="N13" s="21" t="str">
+      <c r="N13" s="20" t="str">
         <f>IF(_acsReport_day_each!L7="","",_acsReport_day_each!L7)</f>
         <v/>
       </c>
@@ -3779,11 +3769,11 @@
         <f>IF(_acsReport_day_each!M7="","",_acsReport_day_each!M7)</f>
         <v/>
       </c>
-      <c r="P13" s="21" t="str">
+      <c r="P13" s="20" t="str">
         <f>IF(_acsReport_day_each!N7="","",_acsReport_day_each!N7)</f>
         <v/>
       </c>
-      <c r="Q13" s="21" t="str">
+      <c r="Q13" s="20" t="str">
         <f>IF(_acsReport_day_each!O7="","",_acsReport_day_each!O7)</f>
         <v/>
       </c>
@@ -3791,11 +3781,11 @@
         <f>IF(_acsReport_day_each!P7="","",_acsReport_day_each!P7)</f>
         <v/>
       </c>
-      <c r="S13" s="21" t="str">
+      <c r="S13" s="20" t="str">
         <f>IF(_acsReport_day_each!Q7="","",_acsReport_day_each!Q7)</f>
         <v/>
       </c>
-      <c r="T13" s="21" t="str">
+      <c r="T13" s="20" t="str">
         <f>IF(_acsReport_day_each!R7="","",_acsReport_day_each!R7)</f>
         <v/>
       </c>
@@ -3803,11 +3793,11 @@
         <f>IF(_acsReport_day_each!S7="","",_acsReport_day_each!S7)</f>
         <v/>
       </c>
-      <c r="V13" s="21" t="str">
+      <c r="V13" s="20" t="str">
         <f>IF(_acsReport_day_each!T7="","",_acsReport_day_each!T7)</f>
         <v/>
       </c>
-      <c r="W13" s="21" t="str">
+      <c r="W13" s="20" t="str">
         <f>IF(_acsReport_day_each!U7="","",_acsReport_day_each!U7)</f>
         <v/>
       </c>
@@ -3815,11 +3805,11 @@
         <f>IF(_acsReport_day_each!V7="","",_acsReport_day_each!V7)</f>
         <v/>
       </c>
-      <c r="Y13" s="21" t="str">
+      <c r="Y13" s="20" t="str">
         <f>IF(_acsReport_day_each!W7="","",_acsReport_day_each!W7)</f>
         <v/>
       </c>
-      <c r="Z13" s="21" t="str">
+      <c r="Z13" s="20" t="str">
         <f>IF(_acsReport_day_each!X7="","",_acsReport_day_each!X7)</f>
         <v/>
       </c>
@@ -3827,11 +3817,11 @@
         <f>IF(_acsReport_day_each!Y7="","",_acsReport_day_each!Y7)</f>
         <v/>
       </c>
-      <c r="AB13" s="21" t="str">
+      <c r="AB13" s="20" t="str">
         <f>IF(_acsReport_day_each!Z7="","",_acsReport_day_each!Z7)</f>
         <v/>
       </c>
-      <c r="AC13" s="21" t="str">
+      <c r="AC13" s="20" t="str">
         <f>IF(_acsReport_day_each!AA7="","",_acsReport_day_each!AA7)</f>
         <v/>
       </c>
@@ -3839,11 +3829,11 @@
         <f>IF(_acsReport_day_each!AB7="","",_acsReport_day_each!AB7)</f>
         <v/>
       </c>
-      <c r="AE13" s="21" t="str">
+      <c r="AE13" s="20" t="str">
         <f>IF(_acsReport_day_each!AC7="","",_acsReport_day_each!AC7)</f>
         <v/>
       </c>
-      <c r="AF13" s="21" t="str">
+      <c r="AF13" s="20" t="str">
         <f>IF(_acsReport_day_each!AD7="","",_acsReport_day_each!AD7)</f>
         <v/>
       </c>
@@ -3851,11 +3841,11 @@
         <f>IF(_acsReport_day_each!AE7="","",_acsReport_day_each!AE7)</f>
         <v/>
       </c>
-      <c r="AH13" s="21" t="str">
+      <c r="AH13" s="20" t="str">
         <f>IF(_acsReport_day_each!AF7="","",_acsReport_day_each!AF7)</f>
         <v/>
       </c>
-      <c r="AI13" s="21" t="str">
+      <c r="AI13" s="20" t="str">
         <f>IF(_acsReport_day_each!AG7="","",_acsReport_day_each!AG7)</f>
         <v/>
       </c>
@@ -3863,11 +3853,11 @@
         <f>IF(_acsReport_day_each!AH7="","",_acsReport_day_each!AH7)</f>
         <v/>
       </c>
-      <c r="AK13" s="21" t="str">
+      <c r="AK13" s="20" t="str">
         <f>IF(_acsReport_day_each!AI7="","",_acsReport_day_each!AI7)</f>
         <v/>
       </c>
-      <c r="AL13" s="21" t="str">
+      <c r="AL13" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ7="","",_acsReport_day_each!AJ7)</f>
         <v/>
       </c>
@@ -3875,11 +3865,11 @@
         <f>IF(_acsReport_day_each!AK7="","",_acsReport_day_each!AK7)</f>
         <v/>
       </c>
-      <c r="AN13" s="21" t="str">
+      <c r="AN13" s="20" t="str">
         <f>IF(_acsReport_day_each!AL7="","",_acsReport_day_each!AL7)</f>
         <v/>
       </c>
-      <c r="AO13" s="21" t="str">
+      <c r="AO13" s="20" t="str">
         <f>IF(_acsReport_day_each!AM7="","",_acsReport_day_each!AM7)</f>
         <v/>
       </c>
@@ -3887,11 +3877,11 @@
         <f>IF(_acsReport_day_each!AN7="","",_acsReport_day_each!AN7)</f>
         <v/>
       </c>
-      <c r="AQ13" s="21" t="str">
+      <c r="AQ13" s="20" t="str">
         <f>IF(_acsReport_day_each!AO7="","",_acsReport_day_each!AO7)</f>
         <v/>
       </c>
-      <c r="AR13" s="21" t="str">
+      <c r="AR13" s="20" t="str">
         <f>IF(_acsReport_day_each!AP7="","",_acsReport_day_each!AP7)</f>
         <v/>
       </c>
@@ -3899,11 +3889,11 @@
         <f>IF(_acsReport_day_each!AQ7="","",_acsReport_day_each!AQ7)</f>
         <v/>
       </c>
-      <c r="AT13" s="21" t="str">
+      <c r="AT13" s="20" t="str">
         <f>IF(_acsReport_day_each!AR7="","",_acsReport_day_each!AR7)</f>
         <v/>
       </c>
-      <c r="AU13" s="21" t="str">
+      <c r="AU13" s="20" t="str">
         <f>IF(_acsReport_day_each!AS7="","",_acsReport_day_each!AS7)</f>
         <v/>
       </c>
@@ -3911,11 +3901,11 @@
         <f>IF(_acsReport_day_each!AT7="","",_acsReport_day_each!AT7)</f>
         <v/>
       </c>
-      <c r="AW13" s="21" t="str">
+      <c r="AW13" s="20" t="str">
         <f>IF(_acsReport_day_each!AU7="","",_acsReport_day_each!AU7)</f>
         <v/>
       </c>
-      <c r="AX13" s="21" t="str">
+      <c r="AX13" s="20" t="str">
         <f>IF(_acsReport_day_each!AV7="","",_acsReport_day_each!AV7)</f>
         <v/>
       </c>
@@ -3923,11 +3913,11 @@
         <f>IF(_acsReport_day_each!AW7="","",_acsReport_day_each!AW7)</f>
         <v/>
       </c>
-      <c r="AZ13" s="21" t="str">
+      <c r="AZ13" s="20" t="str">
         <f>IF(_acsReport_day_each!AX7="","",_acsReport_day_each!AX7)</f>
         <v/>
       </c>
-      <c r="BA13" s="21" t="str">
+      <c r="BA13" s="20" t="str">
         <f>IF(_acsReport_day_each!AY7="","",_acsReport_day_each!AY7)</f>
         <v/>
       </c>
@@ -3935,19 +3925,19 @@
         <f>IF(_acsReport_day_each!AZ7="","",_acsReport_day_each!AZ7)</f>
         <v/>
       </c>
-      <c r="BC13" s="21" t="str">
+      <c r="BC13" s="20" t="str">
         <f>IF(_acsReport_day_each!BA7="","",_acsReport_day_each!BA7)</f>
         <v/>
       </c>
-      <c r="BD13" s="21" t="str">
+      <c r="BD13" s="20" t="str">
         <f>IF(_acsReport_day_each!BB7="","",_acsReport_day_each!BB7)</f>
         <v/>
       </c>
-      <c r="BE13" s="20">
+      <c r="BE13" s="19">
         <f>_acsReport_day_each!BD7:BF7</f>
         <v>0</v>
       </c>
-      <c r="BI13" s="20">
+      <c r="BI13" s="19">
         <f>_acsReport_day_each!BG7:BI7</f>
         <v>0</v>
       </c>
@@ -3964,19 +3954,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="19">
+    <row r="14" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B14" s="21">
         <v>0.25</v>
       </c>
-      <c r="C14" s="20" t="str">
+      <c r="C14" s="19" t="str">
         <f>IF(_acsReport_day_each!A8="","",_acsReport_day_each!A8)</f>
         <v/>
       </c>
-      <c r="D14" s="21" t="str">
+      <c r="D14" s="20" t="str">
         <f>IF(_acsReport_day_each!B8="","",_acsReport_day_each!B8)</f>
         <v/>
       </c>
-      <c r="E14" s="21" t="str">
+      <c r="E14" s="20" t="str">
         <f>IF(_acsReport_day_each!C8="","",_acsReport_day_each!C8)</f>
         <v/>
       </c>
@@ -3984,11 +3974,11 @@
         <f>IF(_acsReport_day_each!D8="","",_acsReport_day_each!D8)</f>
         <v/>
       </c>
-      <c r="G14" s="21" t="str">
+      <c r="G14" s="20" t="str">
         <f>IF(_acsReport_day_each!E8="","",_acsReport_day_each!E8)</f>
         <v/>
       </c>
-      <c r="H14" s="21" t="str">
+      <c r="H14" s="20" t="str">
         <f>IF(_acsReport_day_each!F8="","",_acsReport_day_each!F8)</f>
         <v/>
       </c>
@@ -3996,11 +3986,11 @@
         <f>IF(_acsReport_day_each!G8="","",_acsReport_day_each!G8)</f>
         <v/>
       </c>
-      <c r="J14" s="21" t="str">
+      <c r="J14" s="20" t="str">
         <f>IF(_acsReport_day_each!H8="","",_acsReport_day_each!H8)</f>
         <v/>
       </c>
-      <c r="K14" s="21" t="str">
+      <c r="K14" s="20" t="str">
         <f>IF(_acsReport_day_each!I8="","",_acsReport_day_each!I8)</f>
         <v/>
       </c>
@@ -4008,11 +3998,11 @@
         <f>IF(_acsReport_day_each!J8="","",_acsReport_day_each!J8)</f>
         <v/>
       </c>
-      <c r="M14" s="21" t="str">
+      <c r="M14" s="20" t="str">
         <f>IF(_acsReport_day_each!K8="","",_acsReport_day_each!K8)</f>
         <v/>
       </c>
-      <c r="N14" s="21" t="str">
+      <c r="N14" s="20" t="str">
         <f>IF(_acsReport_day_each!L8="","",_acsReport_day_each!L8)</f>
         <v/>
       </c>
@@ -4020,11 +4010,11 @@
         <f>IF(_acsReport_day_each!M8="","",_acsReport_day_each!M8)</f>
         <v/>
       </c>
-      <c r="P14" s="21" t="str">
+      <c r="P14" s="20" t="str">
         <f>IF(_acsReport_day_each!N8="","",_acsReport_day_each!N8)</f>
         <v/>
       </c>
-      <c r="Q14" s="21" t="str">
+      <c r="Q14" s="20" t="str">
         <f>IF(_acsReport_day_each!O8="","",_acsReport_day_each!O8)</f>
         <v/>
       </c>
@@ -4032,11 +4022,11 @@
         <f>IF(_acsReport_day_each!P8="","",_acsReport_day_each!P8)</f>
         <v/>
       </c>
-      <c r="S14" s="21" t="str">
+      <c r="S14" s="20" t="str">
         <f>IF(_acsReport_day_each!Q8="","",_acsReport_day_each!Q8)</f>
         <v/>
       </c>
-      <c r="T14" s="21" t="str">
+      <c r="T14" s="20" t="str">
         <f>IF(_acsReport_day_each!R8="","",_acsReport_day_each!R8)</f>
         <v/>
       </c>
@@ -4044,11 +4034,11 @@
         <f>IF(_acsReport_day_each!S8="","",_acsReport_day_each!S8)</f>
         <v/>
       </c>
-      <c r="V14" s="21" t="str">
+      <c r="V14" s="20" t="str">
         <f>IF(_acsReport_day_each!T8="","",_acsReport_day_each!T8)</f>
         <v/>
       </c>
-      <c r="W14" s="21" t="str">
+      <c r="W14" s="20" t="str">
         <f>IF(_acsReport_day_each!U8="","",_acsReport_day_each!U8)</f>
         <v/>
       </c>
@@ -4056,11 +4046,11 @@
         <f>IF(_acsReport_day_each!V8="","",_acsReport_day_each!V8)</f>
         <v/>
       </c>
-      <c r="Y14" s="21" t="str">
+      <c r="Y14" s="20" t="str">
         <f>IF(_acsReport_day_each!W8="","",_acsReport_day_each!W8)</f>
         <v/>
       </c>
-      <c r="Z14" s="21" t="str">
+      <c r="Z14" s="20" t="str">
         <f>IF(_acsReport_day_each!X8="","",_acsReport_day_each!X8)</f>
         <v/>
       </c>
@@ -4068,11 +4058,11 @@
         <f>IF(_acsReport_day_each!Y8="","",_acsReport_day_each!Y8)</f>
         <v/>
       </c>
-      <c r="AB14" s="21" t="str">
+      <c r="AB14" s="20" t="str">
         <f>IF(_acsReport_day_each!Z8="","",_acsReport_day_each!Z8)</f>
         <v/>
       </c>
-      <c r="AC14" s="21" t="str">
+      <c r="AC14" s="20" t="str">
         <f>IF(_acsReport_day_each!AA8="","",_acsReport_day_each!AA8)</f>
         <v/>
       </c>
@@ -4080,11 +4070,11 @@
         <f>IF(_acsReport_day_each!AB8="","",_acsReport_day_each!AB8)</f>
         <v/>
       </c>
-      <c r="AE14" s="21" t="str">
+      <c r="AE14" s="20" t="str">
         <f>IF(_acsReport_day_each!AC8="","",_acsReport_day_each!AC8)</f>
         <v/>
       </c>
-      <c r="AF14" s="21" t="str">
+      <c r="AF14" s="20" t="str">
         <f>IF(_acsReport_day_each!AD8="","",_acsReport_day_each!AD8)</f>
         <v/>
       </c>
@@ -4092,11 +4082,11 @@
         <f>IF(_acsReport_day_each!AE8="","",_acsReport_day_each!AE8)</f>
         <v/>
       </c>
-      <c r="AH14" s="21" t="str">
+      <c r="AH14" s="20" t="str">
         <f>IF(_acsReport_day_each!AF8="","",_acsReport_day_each!AF8)</f>
         <v/>
       </c>
-      <c r="AI14" s="21" t="str">
+      <c r="AI14" s="20" t="str">
         <f>IF(_acsReport_day_each!AG8="","",_acsReport_day_each!AG8)</f>
         <v/>
       </c>
@@ -4104,11 +4094,11 @@
         <f>IF(_acsReport_day_each!AH8="","",_acsReport_day_each!AH8)</f>
         <v/>
       </c>
-      <c r="AK14" s="21" t="str">
+      <c r="AK14" s="20" t="str">
         <f>IF(_acsReport_day_each!AI8="","",_acsReport_day_each!AI8)</f>
         <v/>
       </c>
-      <c r="AL14" s="21" t="str">
+      <c r="AL14" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ8="","",_acsReport_day_each!AJ8)</f>
         <v/>
       </c>
@@ -4116,11 +4106,11 @@
         <f>IF(_acsReport_day_each!AK8="","",_acsReport_day_each!AK8)</f>
         <v/>
       </c>
-      <c r="AN14" s="21" t="str">
+      <c r="AN14" s="20" t="str">
         <f>IF(_acsReport_day_each!AL8="","",_acsReport_day_each!AL8)</f>
         <v/>
       </c>
-      <c r="AO14" s="21" t="str">
+      <c r="AO14" s="20" t="str">
         <f>IF(_acsReport_day_each!AM8="","",_acsReport_day_each!AM8)</f>
         <v/>
       </c>
@@ -4128,11 +4118,11 @@
         <f>IF(_acsReport_day_each!AN8="","",_acsReport_day_each!AN8)</f>
         <v/>
       </c>
-      <c r="AQ14" s="21" t="str">
+      <c r="AQ14" s="20" t="str">
         <f>IF(_acsReport_day_each!AO8="","",_acsReport_day_each!AO8)</f>
         <v/>
       </c>
-      <c r="AR14" s="21" t="str">
+      <c r="AR14" s="20" t="str">
         <f>IF(_acsReport_day_each!AP8="","",_acsReport_day_each!AP8)</f>
         <v/>
       </c>
@@ -4140,11 +4130,11 @@
         <f>IF(_acsReport_day_each!AQ8="","",_acsReport_day_each!AQ8)</f>
         <v/>
       </c>
-      <c r="AT14" s="21" t="str">
+      <c r="AT14" s="20" t="str">
         <f>IF(_acsReport_day_each!AR8="","",_acsReport_day_each!AR8)</f>
         <v/>
       </c>
-      <c r="AU14" s="21" t="str">
+      <c r="AU14" s="20" t="str">
         <f>IF(_acsReport_day_each!AS8="","",_acsReport_day_each!AS8)</f>
         <v/>
       </c>
@@ -4152,11 +4142,11 @@
         <f>IF(_acsReport_day_each!AT8="","",_acsReport_day_each!AT8)</f>
         <v/>
       </c>
-      <c r="AW14" s="21" t="str">
+      <c r="AW14" s="20" t="str">
         <f>IF(_acsReport_day_each!AU8="","",_acsReport_day_each!AU8)</f>
         <v/>
       </c>
-      <c r="AX14" s="21" t="str">
+      <c r="AX14" s="20" t="str">
         <f>IF(_acsReport_day_each!AV8="","",_acsReport_day_each!AV8)</f>
         <v/>
       </c>
@@ -4164,11 +4154,11 @@
         <f>IF(_acsReport_day_each!AW8="","",_acsReport_day_each!AW8)</f>
         <v/>
       </c>
-      <c r="AZ14" s="21" t="str">
+      <c r="AZ14" s="20" t="str">
         <f>IF(_acsReport_day_each!AX8="","",_acsReport_day_each!AX8)</f>
         <v/>
       </c>
-      <c r="BA14" s="21" t="str">
+      <c r="BA14" s="20" t="str">
         <f>IF(_acsReport_day_each!AY8="","",_acsReport_day_each!AY8)</f>
         <v/>
       </c>
@@ -4176,19 +4166,19 @@
         <f>IF(_acsReport_day_each!AZ8="","",_acsReport_day_each!AZ8)</f>
         <v/>
       </c>
-      <c r="BC14" s="21" t="str">
+      <c r="BC14" s="20" t="str">
         <f>IF(_acsReport_day_each!BA8="","",_acsReport_day_each!BA8)</f>
         <v/>
       </c>
-      <c r="BD14" s="21" t="str">
+      <c r="BD14" s="20" t="str">
         <f>IF(_acsReport_day_each!BB8="","",_acsReport_day_each!BB8)</f>
         <v/>
       </c>
-      <c r="BE14" s="20">
+      <c r="BE14" s="19">
         <f>_acsReport_day_each!BD8:BF8</f>
         <v>0</v>
       </c>
-      <c r="BI14" s="20">
+      <c r="BI14" s="19">
         <f>_acsReport_day_each!BG8:BI8</f>
         <v>0</v>
       </c>
@@ -4205,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:64" ht="15" x14ac:dyDescent="0.15">
       <c r="B15" s="23">
         <v>0.29166666666666702</v>
       </c>
@@ -4225,11 +4215,11 @@
         <f>IF(_acsReport_day_each!D9="","",_acsReport_day_each!D9)</f>
         <v/>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="20" t="str">
         <f>IF(_acsReport_day_each!E9="","",_acsReport_day_each!E9)</f>
         <v/>
       </c>
-      <c r="H15" s="21" t="str">
+      <c r="H15" s="20" t="str">
         <f>IF(_acsReport_day_each!F9="","",_acsReport_day_each!F9)</f>
         <v/>
       </c>
@@ -4237,11 +4227,11 @@
         <f>IF(_acsReport_day_each!G9="","",_acsReport_day_each!G9)</f>
         <v/>
       </c>
-      <c r="J15" s="21" t="str">
+      <c r="J15" s="20" t="str">
         <f>IF(_acsReport_day_each!H9="","",_acsReport_day_each!H9)</f>
         <v/>
       </c>
-      <c r="K15" s="21" t="str">
+      <c r="K15" s="20" t="str">
         <f>IF(_acsReport_day_each!I9="","",_acsReport_day_each!I9)</f>
         <v/>
       </c>
@@ -4249,11 +4239,11 @@
         <f>IF(_acsReport_day_each!J9="","",_acsReport_day_each!J9)</f>
         <v/>
       </c>
-      <c r="M15" s="21" t="str">
+      <c r="M15" s="20" t="str">
         <f>IF(_acsReport_day_each!K9="","",_acsReport_day_each!K9)</f>
         <v/>
       </c>
-      <c r="N15" s="21" t="str">
+      <c r="N15" s="20" t="str">
         <f>IF(_acsReport_day_each!L9="","",_acsReport_day_each!L9)</f>
         <v/>
       </c>
@@ -4261,11 +4251,11 @@
         <f>IF(_acsReport_day_each!M9="","",_acsReport_day_each!M9)</f>
         <v/>
       </c>
-      <c r="P15" s="21" t="str">
+      <c r="P15" s="20" t="str">
         <f>IF(_acsReport_day_each!N9="","",_acsReport_day_each!N9)</f>
         <v/>
       </c>
-      <c r="Q15" s="21" t="str">
+      <c r="Q15" s="20" t="str">
         <f>IF(_acsReport_day_each!O9="","",_acsReport_day_each!O9)</f>
         <v/>
       </c>
@@ -4273,11 +4263,11 @@
         <f>IF(_acsReport_day_each!P9="","",_acsReport_day_each!P9)</f>
         <v/>
       </c>
-      <c r="S15" s="21" t="str">
+      <c r="S15" s="20" t="str">
         <f>IF(_acsReport_day_each!Q9="","",_acsReport_day_each!Q9)</f>
         <v/>
       </c>
-      <c r="T15" s="21" t="str">
+      <c r="T15" s="20" t="str">
         <f>IF(_acsReport_day_each!R9="","",_acsReport_day_each!R9)</f>
         <v/>
       </c>
@@ -4285,11 +4275,11 @@
         <f>IF(_acsReport_day_each!S9="","",_acsReport_day_each!S9)</f>
         <v/>
       </c>
-      <c r="V15" s="21" t="str">
+      <c r="V15" s="20" t="str">
         <f>IF(_acsReport_day_each!T9="","",_acsReport_day_each!T9)</f>
         <v/>
       </c>
-      <c r="W15" s="21" t="str">
+      <c r="W15" s="20" t="str">
         <f>IF(_acsReport_day_each!U9="","",_acsReport_day_each!U9)</f>
         <v/>
       </c>
@@ -4297,11 +4287,11 @@
         <f>IF(_acsReport_day_each!V9="","",_acsReport_day_each!V9)</f>
         <v/>
       </c>
-      <c r="Y15" s="21" t="str">
+      <c r="Y15" s="20" t="str">
         <f>IF(_acsReport_day_each!W9="","",_acsReport_day_each!W9)</f>
         <v/>
       </c>
-      <c r="Z15" s="21" t="str">
+      <c r="Z15" s="20" t="str">
         <f>IF(_acsReport_day_each!X9="","",_acsReport_day_each!X9)</f>
         <v/>
       </c>
@@ -4337,7 +4327,7 @@
         <f>IF(_acsReport_day_each!AF9="","",_acsReport_day_each!AF9)</f>
         <v/>
       </c>
-      <c r="AI15" s="21" t="str">
+      <c r="AI15" s="20" t="str">
         <f>IF(_acsReport_day_each!AG9="","",_acsReport_day_each!AG9)</f>
         <v/>
       </c>
@@ -4345,11 +4335,11 @@
         <f>IF(_acsReport_day_each!AH9="","",_acsReport_day_each!AH9)</f>
         <v/>
       </c>
-      <c r="AK15" s="21" t="str">
+      <c r="AK15" s="20" t="str">
         <f>IF(_acsReport_day_each!AI9="","",_acsReport_day_each!AI9)</f>
         <v/>
       </c>
-      <c r="AL15" s="21" t="str">
+      <c r="AL15" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ9="","",_acsReport_day_each!AJ9)</f>
         <v/>
       </c>
@@ -4357,11 +4347,11 @@
         <f>IF(_acsReport_day_each!AK9="","",_acsReport_day_each!AK9)</f>
         <v/>
       </c>
-      <c r="AN15" s="21" t="str">
+      <c r="AN15" s="20" t="str">
         <f>IF(_acsReport_day_each!AL9="","",_acsReport_day_each!AL9)</f>
         <v/>
       </c>
-      <c r="AO15" s="21" t="str">
+      <c r="AO15" s="20" t="str">
         <f>IF(_acsReport_day_each!AM9="","",_acsReport_day_each!AM9)</f>
         <v/>
       </c>
@@ -4369,11 +4359,11 @@
         <f>IF(_acsReport_day_each!AN9="","",_acsReport_day_each!AN9)</f>
         <v/>
       </c>
-      <c r="AQ15" s="21" t="str">
+      <c r="AQ15" s="20" t="str">
         <f>IF(_acsReport_day_each!AO9="","",_acsReport_day_each!AO9)</f>
         <v/>
       </c>
-      <c r="AR15" s="21" t="str">
+      <c r="AR15" s="20" t="str">
         <f>IF(_acsReport_day_each!AP9="","",_acsReport_day_each!AP9)</f>
         <v/>
       </c>
@@ -4381,11 +4371,11 @@
         <f>IF(_acsReport_day_each!AQ9="","",_acsReport_day_each!AQ9)</f>
         <v/>
       </c>
-      <c r="AT15" s="21" t="str">
+      <c r="AT15" s="20" t="str">
         <f>IF(_acsReport_day_each!AR9="","",_acsReport_day_each!AR9)</f>
         <v/>
       </c>
-      <c r="AU15" s="21" t="str">
+      <c r="AU15" s="20" t="str">
         <f>IF(_acsReport_day_each!AS9="","",_acsReport_day_each!AS9)</f>
         <v/>
       </c>
@@ -4393,11 +4383,11 @@
         <f>IF(_acsReport_day_each!AT9="","",_acsReport_day_each!AT9)</f>
         <v/>
       </c>
-      <c r="AW15" s="21" t="str">
+      <c r="AW15" s="20" t="str">
         <f>IF(_acsReport_day_each!AU9="","",_acsReport_day_each!AU9)</f>
         <v/>
       </c>
-      <c r="AX15" s="21" t="str">
+      <c r="AX15" s="20" t="str">
         <f>IF(_acsReport_day_each!AV9="","",_acsReport_day_each!AV9)</f>
         <v/>
       </c>
@@ -4405,11 +4395,11 @@
         <f>IF(_acsReport_day_each!AW9="","",_acsReport_day_each!AW9)</f>
         <v/>
       </c>
-      <c r="AZ15" s="21" t="str">
+      <c r="AZ15" s="20" t="str">
         <f>IF(_acsReport_day_each!AX9="","",_acsReport_day_each!AX9)</f>
         <v/>
       </c>
-      <c r="BA15" s="21" t="str">
+      <c r="BA15" s="20" t="str">
         <f>IF(_acsReport_day_each!AY9="","",_acsReport_day_each!AY9)</f>
         <v/>
       </c>
@@ -4417,19 +4407,19 @@
         <f>IF(_acsReport_day_each!AZ9="","",_acsReport_day_each!AZ9)</f>
         <v/>
       </c>
-      <c r="BC15" s="21" t="str">
+      <c r="BC15" s="20" t="str">
         <f>IF(_acsReport_day_each!BA9="","",_acsReport_day_each!BA9)</f>
         <v/>
       </c>
-      <c r="BD15" s="21" t="str">
+      <c r="BD15" s="20" t="str">
         <f>IF(_acsReport_day_each!BB9="","",_acsReport_day_each!BB9)</f>
         <v/>
       </c>
-      <c r="BE15" s="20">
+      <c r="BE15" s="19">
         <f>_acsReport_day_each!BD9:BF9</f>
         <v>0</v>
       </c>
-      <c r="BI15" s="20">
+      <c r="BI15" s="19">
         <f>_acsReport_day_each!BG9:BI9</f>
         <v>0</v>
       </c>
@@ -4446,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:64" ht="15" x14ac:dyDescent="0.15">
       <c r="B16" s="26">
         <v>0.33333333333333298</v>
       </c>
@@ -4666,11 +4656,11 @@
         <f>IF(_acsReport_day_each!BB10="","",_acsReport_day_each!BB10)</f>
         <v/>
       </c>
-      <c r="BE16" s="20">
+      <c r="BE16" s="19">
         <f>_acsReport_day_each!BD10:BF10</f>
         <v>0</v>
       </c>
-      <c r="BI16" s="20">
+      <c r="BI16" s="19">
         <f>_acsReport_day_each!BG10:BI10</f>
         <v>0</v>
       </c>
@@ -4687,19 +4677,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="19">
+    <row r="17" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B17" s="21">
         <v>0.375</v>
       </c>
       <c r="C17" s="22" t="str">
         <f>IF(_acsReport_day_each!A11="","",_acsReport_day_each!A11)</f>
         <v/>
       </c>
-      <c r="D17" s="21" t="str">
+      <c r="D17" s="20" t="str">
         <f>IF(_acsReport_day_each!B11="","",_acsReport_day_each!B11)</f>
         <v/>
       </c>
-      <c r="E17" s="21" t="str">
+      <c r="E17" s="20" t="str">
         <f>IF(_acsReport_day_each!C11="","",_acsReport_day_each!C11)</f>
         <v/>
       </c>
@@ -4707,11 +4697,11 @@
         <f>IF(_acsReport_day_each!D11="","",_acsReport_day_each!D11)</f>
         <v/>
       </c>
-      <c r="G17" s="21" t="str">
+      <c r="G17" s="20" t="str">
         <f>IF(_acsReport_day_each!E11="","",_acsReport_day_each!E11)</f>
         <v/>
       </c>
-      <c r="H17" s="21" t="str">
+      <c r="H17" s="20" t="str">
         <f>IF(_acsReport_day_each!F11="","",_acsReport_day_each!F11)</f>
         <v/>
       </c>
@@ -4719,11 +4709,11 @@
         <f>IF(_acsReport_day_each!G11="","",_acsReport_day_each!G11)</f>
         <v/>
       </c>
-      <c r="J17" s="21" t="str">
+      <c r="J17" s="20" t="str">
         <f>IF(_acsReport_day_each!H11="","",_acsReport_day_each!H11)</f>
         <v/>
       </c>
-      <c r="K17" s="21" t="str">
+      <c r="K17" s="20" t="str">
         <f>IF(_acsReport_day_each!I11="","",_acsReport_day_each!I11)</f>
         <v/>
       </c>
@@ -4731,11 +4721,11 @@
         <f>IF(_acsReport_day_each!J11="","",_acsReport_day_each!J11)</f>
         <v/>
       </c>
-      <c r="M17" s="21" t="str">
+      <c r="M17" s="20" t="str">
         <f>IF(_acsReport_day_each!K11="","",_acsReport_day_each!K11)</f>
         <v/>
       </c>
-      <c r="N17" s="21" t="str">
+      <c r="N17" s="20" t="str">
         <f>IF(_acsReport_day_each!L11="","",_acsReport_day_each!L11)</f>
         <v/>
       </c>
@@ -4743,11 +4733,11 @@
         <f>IF(_acsReport_day_each!M11="","",_acsReport_day_each!M11)</f>
         <v/>
       </c>
-      <c r="P17" s="21" t="str">
+      <c r="P17" s="20" t="str">
         <f>IF(_acsReport_day_each!N11="","",_acsReport_day_each!N11)</f>
         <v/>
       </c>
-      <c r="Q17" s="21" t="str">
+      <c r="Q17" s="20" t="str">
         <f>IF(_acsReport_day_each!O11="","",_acsReport_day_each!O11)</f>
         <v/>
       </c>
@@ -4755,11 +4745,11 @@
         <f>IF(_acsReport_day_each!P11="","",_acsReport_day_each!P11)</f>
         <v/>
       </c>
-      <c r="S17" s="21" t="str">
+      <c r="S17" s="20" t="str">
         <f>IF(_acsReport_day_each!Q11="","",_acsReport_day_each!Q11)</f>
         <v/>
       </c>
-      <c r="T17" s="21" t="str">
+      <c r="T17" s="20" t="str">
         <f>IF(_acsReport_day_each!R11="","",_acsReport_day_each!R11)</f>
         <v/>
       </c>
@@ -4767,11 +4757,11 @@
         <f>IF(_acsReport_day_each!S11="","",_acsReport_day_each!S11)</f>
         <v/>
       </c>
-      <c r="V17" s="21" t="str">
+      <c r="V17" s="20" t="str">
         <f>IF(_acsReport_day_each!T11="","",_acsReport_day_each!T11)</f>
         <v/>
       </c>
-      <c r="W17" s="21" t="str">
+      <c r="W17" s="20" t="str">
         <f>IF(_acsReport_day_each!U11="","",_acsReport_day_each!U11)</f>
         <v/>
       </c>
@@ -4779,11 +4769,11 @@
         <f>IF(_acsReport_day_each!V11="","",_acsReport_day_each!V11)</f>
         <v/>
       </c>
-      <c r="Y17" s="21" t="str">
+      <c r="Y17" s="20" t="str">
         <f>IF(_acsReport_day_each!W11="","",_acsReport_day_each!W11)</f>
         <v/>
       </c>
-      <c r="Z17" s="21" t="str">
+      <c r="Z17" s="20" t="str">
         <f>IF(_acsReport_day_each!X11="","",_acsReport_day_each!X11)</f>
         <v/>
       </c>
@@ -4791,11 +4781,11 @@
         <f>IF(_acsReport_day_each!Y11="","",_acsReport_day_each!Y11)</f>
         <v/>
       </c>
-      <c r="AB17" s="21" t="str">
+      <c r="AB17" s="20" t="str">
         <f>IF(_acsReport_day_each!Z11="","",_acsReport_day_each!Z11)</f>
         <v/>
       </c>
-      <c r="AC17" s="21" t="str">
+      <c r="AC17" s="20" t="str">
         <f>IF(_acsReport_day_each!AA11="","",_acsReport_day_each!AA11)</f>
         <v/>
       </c>
@@ -4803,11 +4793,11 @@
         <f>IF(_acsReport_day_each!AB11="","",_acsReport_day_each!AB11)</f>
         <v/>
       </c>
-      <c r="AE17" s="21" t="str">
+      <c r="AE17" s="20" t="str">
         <f>IF(_acsReport_day_each!AC11="","",_acsReport_day_each!AC11)</f>
         <v/>
       </c>
-      <c r="AF17" s="21" t="str">
+      <c r="AF17" s="20" t="str">
         <f>IF(_acsReport_day_each!AD11="","",_acsReport_day_each!AD11)</f>
         <v/>
       </c>
@@ -4815,11 +4805,11 @@
         <f>IF(_acsReport_day_each!AE11="","",_acsReport_day_each!AE11)</f>
         <v/>
       </c>
-      <c r="AH17" s="21" t="str">
+      <c r="AH17" s="20" t="str">
         <f>IF(_acsReport_day_each!AF11="","",_acsReport_day_each!AF11)</f>
         <v/>
       </c>
-      <c r="AI17" s="21" t="str">
+      <c r="AI17" s="20" t="str">
         <f>IF(_acsReport_day_each!AG11="","",_acsReport_day_each!AG11)</f>
         <v/>
       </c>
@@ -4827,11 +4817,11 @@
         <f>IF(_acsReport_day_each!AH11="","",_acsReport_day_each!AH11)</f>
         <v/>
       </c>
-      <c r="AK17" s="21" t="str">
+      <c r="AK17" s="20" t="str">
         <f>IF(_acsReport_day_each!AI11="","",_acsReport_day_each!AI11)</f>
         <v/>
       </c>
-      <c r="AL17" s="21" t="str">
+      <c r="AL17" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ11="","",_acsReport_day_each!AJ11)</f>
         <v/>
       </c>
@@ -4839,11 +4829,11 @@
         <f>IF(_acsReport_day_each!AK11="","",_acsReport_day_each!AK11)</f>
         <v/>
       </c>
-      <c r="AN17" s="21" t="str">
+      <c r="AN17" s="20" t="str">
         <f>IF(_acsReport_day_each!AL11="","",_acsReport_day_each!AL11)</f>
         <v/>
       </c>
-      <c r="AO17" s="21" t="str">
+      <c r="AO17" s="20" t="str">
         <f>IF(_acsReport_day_each!AM11="","",_acsReport_day_each!AM11)</f>
         <v/>
       </c>
@@ -4851,11 +4841,11 @@
         <f>IF(_acsReport_day_each!AN11="","",_acsReport_day_each!AN11)</f>
         <v/>
       </c>
-      <c r="AQ17" s="21" t="str">
+      <c r="AQ17" s="20" t="str">
         <f>IF(_acsReport_day_each!AO11="","",_acsReport_day_each!AO11)</f>
         <v/>
       </c>
-      <c r="AR17" s="21" t="str">
+      <c r="AR17" s="20" t="str">
         <f>IF(_acsReport_day_each!AP11="","",_acsReport_day_each!AP11)</f>
         <v/>
       </c>
@@ -4863,11 +4853,11 @@
         <f>IF(_acsReport_day_each!AQ11="","",_acsReport_day_each!AQ11)</f>
         <v/>
       </c>
-      <c r="AT17" s="21" t="str">
+      <c r="AT17" s="20" t="str">
         <f>IF(_acsReport_day_each!AR11="","",_acsReport_day_each!AR11)</f>
         <v/>
       </c>
-      <c r="AU17" s="21" t="str">
+      <c r="AU17" s="20" t="str">
         <f>IF(_acsReport_day_each!AS11="","",_acsReport_day_each!AS11)</f>
         <v/>
       </c>
@@ -4875,11 +4865,11 @@
         <f>IF(_acsReport_day_each!AT11="","",_acsReport_day_each!AT11)</f>
         <v/>
       </c>
-      <c r="AW17" s="21" t="str">
+      <c r="AW17" s="20" t="str">
         <f>IF(_acsReport_day_each!AU11="","",_acsReport_day_each!AU11)</f>
         <v/>
       </c>
-      <c r="AX17" s="21" t="str">
+      <c r="AX17" s="20" t="str">
         <f>IF(_acsReport_day_each!AV11="","",_acsReport_day_each!AV11)</f>
         <v/>
       </c>
@@ -4887,11 +4877,11 @@
         <f>IF(_acsReport_day_each!AW11="","",_acsReport_day_each!AW11)</f>
         <v/>
       </c>
-      <c r="AZ17" s="21" t="str">
+      <c r="AZ17" s="20" t="str">
         <f>IF(_acsReport_day_each!AX11="","",_acsReport_day_each!AX11)</f>
         <v/>
       </c>
-      <c r="BA17" s="21" t="str">
+      <c r="BA17" s="20" t="str">
         <f>IF(_acsReport_day_each!AY11="","",_acsReport_day_each!AY11)</f>
         <v/>
       </c>
@@ -4899,19 +4889,19 @@
         <f>IF(_acsReport_day_each!AZ11="","",_acsReport_day_each!AZ11)</f>
         <v/>
       </c>
-      <c r="BC17" s="21" t="str">
+      <c r="BC17" s="20" t="str">
         <f>IF(_acsReport_day_each!BA11="","",_acsReport_day_each!BA11)</f>
         <v/>
       </c>
-      <c r="BD17" s="21" t="str">
+      <c r="BD17" s="20" t="str">
         <f>IF(_acsReport_day_each!BB11="","",_acsReport_day_each!BB11)</f>
         <v/>
       </c>
-      <c r="BE17" s="20">
+      <c r="BE17" s="19">
         <f>_acsReport_day_each!BD11:BF11</f>
         <v>0</v>
       </c>
-      <c r="BI17" s="20">
+      <c r="BI17" s="19">
         <f>_acsReport_day_each!BG11:BI11</f>
         <v>0</v>
       </c>
@@ -4928,19 +4918,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="19">
+    <row r="18" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B18" s="21">
         <v>0.41666666666666702</v>
       </c>
       <c r="C18" s="22" t="str">
         <f>IF(_acsReport_day_each!A12="","",_acsReport_day_each!A12)</f>
         <v/>
       </c>
-      <c r="D18" s="21" t="str">
+      <c r="D18" s="20" t="str">
         <f>IF(_acsReport_day_each!B12="","",_acsReport_day_each!B12)</f>
         <v/>
       </c>
-      <c r="E18" s="21" t="str">
+      <c r="E18" s="20" t="str">
         <f>IF(_acsReport_day_each!C12="","",_acsReport_day_each!C12)</f>
         <v/>
       </c>
@@ -4948,11 +4938,11 @@
         <f>IF(_acsReport_day_each!D12="","",_acsReport_day_each!D12)</f>
         <v/>
       </c>
-      <c r="G18" s="21" t="str">
+      <c r="G18" s="20" t="str">
         <f>IF(_acsReport_day_each!E12="","",_acsReport_day_each!E12)</f>
         <v/>
       </c>
-      <c r="H18" s="21" t="str">
+      <c r="H18" s="20" t="str">
         <f>IF(_acsReport_day_each!F12="","",_acsReport_day_each!F12)</f>
         <v/>
       </c>
@@ -4960,11 +4950,11 @@
         <f>IF(_acsReport_day_each!G12="","",_acsReport_day_each!G12)</f>
         <v/>
       </c>
-      <c r="J18" s="21" t="str">
+      <c r="J18" s="20" t="str">
         <f>IF(_acsReport_day_each!H12="","",_acsReport_day_each!H12)</f>
         <v/>
       </c>
-      <c r="K18" s="21" t="str">
+      <c r="K18" s="20" t="str">
         <f>IF(_acsReport_day_each!I12="","",_acsReport_day_each!I12)</f>
         <v/>
       </c>
@@ -4972,11 +4962,11 @@
         <f>IF(_acsReport_day_each!J12="","",_acsReport_day_each!J12)</f>
         <v/>
       </c>
-      <c r="M18" s="21" t="str">
+      <c r="M18" s="20" t="str">
         <f>IF(_acsReport_day_each!K12="","",_acsReport_day_each!K12)</f>
         <v/>
       </c>
-      <c r="N18" s="21" t="str">
+      <c r="N18" s="20" t="str">
         <f>IF(_acsReport_day_each!L12="","",_acsReport_day_each!L12)</f>
         <v/>
       </c>
@@ -4984,11 +4974,11 @@
         <f>IF(_acsReport_day_each!M12="","",_acsReport_day_each!M12)</f>
         <v/>
       </c>
-      <c r="P18" s="21" t="str">
+      <c r="P18" s="20" t="str">
         <f>IF(_acsReport_day_each!N12="","",_acsReport_day_each!N12)</f>
         <v/>
       </c>
-      <c r="Q18" s="21" t="str">
+      <c r="Q18" s="20" t="str">
         <f>IF(_acsReport_day_each!O12="","",_acsReport_day_each!O12)</f>
         <v/>
       </c>
@@ -4996,11 +4986,11 @@
         <f>IF(_acsReport_day_each!P12="","",_acsReport_day_each!P12)</f>
         <v/>
       </c>
-      <c r="S18" s="21" t="str">
+      <c r="S18" s="20" t="str">
         <f>IF(_acsReport_day_each!Q12="","",_acsReport_day_each!Q12)</f>
         <v/>
       </c>
-      <c r="T18" s="21" t="str">
+      <c r="T18" s="20" t="str">
         <f>IF(_acsReport_day_each!R12="","",_acsReport_day_each!R12)</f>
         <v/>
       </c>
@@ -5008,11 +4998,11 @@
         <f>IF(_acsReport_day_each!S12="","",_acsReport_day_each!S12)</f>
         <v/>
       </c>
-      <c r="V18" s="21" t="str">
+      <c r="V18" s="20" t="str">
         <f>IF(_acsReport_day_each!T12="","",_acsReport_day_each!T12)</f>
         <v/>
       </c>
-      <c r="W18" s="21" t="str">
+      <c r="W18" s="20" t="str">
         <f>IF(_acsReport_day_each!U12="","",_acsReport_day_each!U12)</f>
         <v/>
       </c>
@@ -5020,11 +5010,11 @@
         <f>IF(_acsReport_day_each!V12="","",_acsReport_day_each!V12)</f>
         <v/>
       </c>
-      <c r="Y18" s="21" t="str">
+      <c r="Y18" s="20" t="str">
         <f>IF(_acsReport_day_each!W12="","",_acsReport_day_each!W12)</f>
         <v/>
       </c>
-      <c r="Z18" s="21" t="str">
+      <c r="Z18" s="20" t="str">
         <f>IF(_acsReport_day_each!X12="","",_acsReport_day_each!X12)</f>
         <v/>
       </c>
@@ -5032,11 +5022,11 @@
         <f>IF(_acsReport_day_each!Y12="","",_acsReport_day_each!Y12)</f>
         <v/>
       </c>
-      <c r="AB18" s="21" t="str">
+      <c r="AB18" s="20" t="str">
         <f>IF(_acsReport_day_each!Z12="","",_acsReport_day_each!Z12)</f>
         <v/>
       </c>
-      <c r="AC18" s="21" t="str">
+      <c r="AC18" s="20" t="str">
         <f>IF(_acsReport_day_each!AA12="","",_acsReport_day_each!AA12)</f>
         <v/>
       </c>
@@ -5044,11 +5034,11 @@
         <f>IF(_acsReport_day_each!AB12="","",_acsReport_day_each!AB12)</f>
         <v/>
       </c>
-      <c r="AE18" s="21" t="str">
+      <c r="AE18" s="20" t="str">
         <f>IF(_acsReport_day_each!AC12="","",_acsReport_day_each!AC12)</f>
         <v/>
       </c>
-      <c r="AF18" s="21" t="str">
+      <c r="AF18" s="20" t="str">
         <f>IF(_acsReport_day_each!AD12="","",_acsReport_day_each!AD12)</f>
         <v/>
       </c>
@@ -5056,11 +5046,11 @@
         <f>IF(_acsReport_day_each!AE12="","",_acsReport_day_each!AE12)</f>
         <v/>
       </c>
-      <c r="AH18" s="21" t="str">
+      <c r="AH18" s="20" t="str">
         <f>IF(_acsReport_day_each!AF12="","",_acsReport_day_each!AF12)</f>
         <v/>
       </c>
-      <c r="AI18" s="21" t="str">
+      <c r="AI18" s="20" t="str">
         <f>IF(_acsReport_day_each!AG12="","",_acsReport_day_each!AG12)</f>
         <v/>
       </c>
@@ -5068,11 +5058,11 @@
         <f>IF(_acsReport_day_each!AH12="","",_acsReport_day_each!AH12)</f>
         <v/>
       </c>
-      <c r="AK18" s="21" t="str">
+      <c r="AK18" s="20" t="str">
         <f>IF(_acsReport_day_each!AI12="","",_acsReport_day_each!AI12)</f>
         <v/>
       </c>
-      <c r="AL18" s="21" t="str">
+      <c r="AL18" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ12="","",_acsReport_day_each!AJ12)</f>
         <v/>
       </c>
@@ -5080,11 +5070,11 @@
         <f>IF(_acsReport_day_each!AK12="","",_acsReport_day_each!AK12)</f>
         <v/>
       </c>
-      <c r="AN18" s="21" t="str">
+      <c r="AN18" s="20" t="str">
         <f>IF(_acsReport_day_each!AL12="","",_acsReport_day_each!AL12)</f>
         <v/>
       </c>
-      <c r="AO18" s="21" t="str">
+      <c r="AO18" s="20" t="str">
         <f>IF(_acsReport_day_each!AM12="","",_acsReport_day_each!AM12)</f>
         <v/>
       </c>
@@ -5092,11 +5082,11 @@
         <f>IF(_acsReport_day_each!AN12="","",_acsReport_day_each!AN12)</f>
         <v/>
       </c>
-      <c r="AQ18" s="21" t="str">
+      <c r="AQ18" s="20" t="str">
         <f>IF(_acsReport_day_each!AO12="","",_acsReport_day_each!AO12)</f>
         <v/>
       </c>
-      <c r="AR18" s="21" t="str">
+      <c r="AR18" s="20" t="str">
         <f>IF(_acsReport_day_each!AP12="","",_acsReport_day_each!AP12)</f>
         <v/>
       </c>
@@ -5104,11 +5094,11 @@
         <f>IF(_acsReport_day_each!AQ12="","",_acsReport_day_each!AQ12)</f>
         <v/>
       </c>
-      <c r="AT18" s="21" t="str">
+      <c r="AT18" s="20" t="str">
         <f>IF(_acsReport_day_each!AR12="","",_acsReport_day_each!AR12)</f>
         <v/>
       </c>
-      <c r="AU18" s="21" t="str">
+      <c r="AU18" s="20" t="str">
         <f>IF(_acsReport_day_each!AS12="","",_acsReport_day_each!AS12)</f>
         <v/>
       </c>
@@ -5116,11 +5106,11 @@
         <f>IF(_acsReport_day_each!AT12="","",_acsReport_day_each!AT12)</f>
         <v/>
       </c>
-      <c r="AW18" s="21" t="str">
+      <c r="AW18" s="20" t="str">
         <f>IF(_acsReport_day_each!AU12="","",_acsReport_day_each!AU12)</f>
         <v/>
       </c>
-      <c r="AX18" s="21" t="str">
+      <c r="AX18" s="20" t="str">
         <f>IF(_acsReport_day_each!AV12="","",_acsReport_day_each!AV12)</f>
         <v/>
       </c>
@@ -5128,11 +5118,11 @@
         <f>IF(_acsReport_day_each!AW12="","",_acsReport_day_each!AW12)</f>
         <v/>
       </c>
-      <c r="AZ18" s="21" t="str">
+      <c r="AZ18" s="20" t="str">
         <f>IF(_acsReport_day_each!AX12="","",_acsReport_day_each!AX12)</f>
         <v/>
       </c>
-      <c r="BA18" s="21" t="str">
+      <c r="BA18" s="20" t="str">
         <f>IF(_acsReport_day_each!AY12="","",_acsReport_day_each!AY12)</f>
         <v/>
       </c>
@@ -5140,19 +5130,19 @@
         <f>IF(_acsReport_day_each!AZ12="","",_acsReport_day_each!AZ12)</f>
         <v/>
       </c>
-      <c r="BC18" s="21" t="str">
+      <c r="BC18" s="20" t="str">
         <f>IF(_acsReport_day_each!BA12="","",_acsReport_day_each!BA12)</f>
         <v/>
       </c>
-      <c r="BD18" s="21" t="str">
+      <c r="BD18" s="20" t="str">
         <f>IF(_acsReport_day_each!BB12="","",_acsReport_day_each!BB12)</f>
         <v/>
       </c>
-      <c r="BE18" s="20">
+      <c r="BE18" s="19">
         <f>_acsReport_day_each!BD12:BF12</f>
         <v>0</v>
       </c>
-      <c r="BI18" s="20">
+      <c r="BI18" s="19">
         <f>_acsReport_day_each!BG12:BI12</f>
         <v>0</v>
       </c>
@@ -5169,19 +5159,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="19">
+    <row r="19" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B19" s="21">
         <v>0.45833333333333298</v>
       </c>
       <c r="C19" s="22" t="str">
         <f>IF(_acsReport_day_each!A13="","",_acsReport_day_each!A13)</f>
         <v/>
       </c>
-      <c r="D19" s="21" t="str">
+      <c r="D19" s="20" t="str">
         <f>IF(_acsReport_day_each!B13="","",_acsReport_day_each!B13)</f>
         <v/>
       </c>
-      <c r="E19" s="21" t="str">
+      <c r="E19" s="20" t="str">
         <f>IF(_acsReport_day_each!C13="","",_acsReport_day_each!C13)</f>
         <v/>
       </c>
@@ -5189,11 +5179,11 @@
         <f>IF(_acsReport_day_each!D13="","",_acsReport_day_each!D13)</f>
         <v/>
       </c>
-      <c r="G19" s="21" t="str">
+      <c r="G19" s="20" t="str">
         <f>IF(_acsReport_day_each!E13="","",_acsReport_day_each!E13)</f>
         <v/>
       </c>
-      <c r="H19" s="21" t="str">
+      <c r="H19" s="20" t="str">
         <f>IF(_acsReport_day_each!F13="","",_acsReport_day_each!F13)</f>
         <v/>
       </c>
@@ -5201,11 +5191,11 @@
         <f>IF(_acsReport_day_each!G13="","",_acsReport_day_each!G13)</f>
         <v/>
       </c>
-      <c r="J19" s="21" t="str">
+      <c r="J19" s="20" t="str">
         <f>IF(_acsReport_day_each!H13="","",_acsReport_day_each!H13)</f>
         <v/>
       </c>
-      <c r="K19" s="21" t="str">
+      <c r="K19" s="20" t="str">
         <f>IF(_acsReport_day_each!I13="","",_acsReport_day_each!I13)</f>
         <v/>
       </c>
@@ -5213,11 +5203,11 @@
         <f>IF(_acsReport_day_each!J13="","",_acsReport_day_each!J13)</f>
         <v/>
       </c>
-      <c r="M19" s="21" t="str">
+      <c r="M19" s="20" t="str">
         <f>IF(_acsReport_day_each!K13="","",_acsReport_day_each!K13)</f>
         <v/>
       </c>
-      <c r="N19" s="21" t="str">
+      <c r="N19" s="20" t="str">
         <f>IF(_acsReport_day_each!L13="","",_acsReport_day_each!L13)</f>
         <v/>
       </c>
@@ -5225,11 +5215,11 @@
         <f>IF(_acsReport_day_each!M13="","",_acsReport_day_each!M13)</f>
         <v/>
       </c>
-      <c r="P19" s="21" t="str">
+      <c r="P19" s="20" t="str">
         <f>IF(_acsReport_day_each!N13="","",_acsReport_day_each!N13)</f>
         <v/>
       </c>
-      <c r="Q19" s="21" t="str">
+      <c r="Q19" s="20" t="str">
         <f>IF(_acsReport_day_each!O13="","",_acsReport_day_each!O13)</f>
         <v/>
       </c>
@@ -5237,11 +5227,11 @@
         <f>IF(_acsReport_day_each!P13="","",_acsReport_day_each!P13)</f>
         <v/>
       </c>
-      <c r="S19" s="21" t="str">
+      <c r="S19" s="20" t="str">
         <f>IF(_acsReport_day_each!Q13="","",_acsReport_day_each!Q13)</f>
         <v/>
       </c>
-      <c r="T19" s="21" t="str">
+      <c r="T19" s="20" t="str">
         <f>IF(_acsReport_day_each!R13="","",_acsReport_day_each!R13)</f>
         <v/>
       </c>
@@ -5249,11 +5239,11 @@
         <f>IF(_acsReport_day_each!S13="","",_acsReport_day_each!S13)</f>
         <v/>
       </c>
-      <c r="V19" s="21" t="str">
+      <c r="V19" s="20" t="str">
         <f>IF(_acsReport_day_each!T13="","",_acsReport_day_each!T13)</f>
         <v/>
       </c>
-      <c r="W19" s="21" t="str">
+      <c r="W19" s="20" t="str">
         <f>IF(_acsReport_day_each!U13="","",_acsReport_day_each!U13)</f>
         <v/>
       </c>
@@ -5261,11 +5251,11 @@
         <f>IF(_acsReport_day_each!V13="","",_acsReport_day_each!V13)</f>
         <v/>
       </c>
-      <c r="Y19" s="21" t="str">
+      <c r="Y19" s="20" t="str">
         <f>IF(_acsReport_day_each!W13="","",_acsReport_day_each!W13)</f>
         <v/>
       </c>
-      <c r="Z19" s="21" t="str">
+      <c r="Z19" s="20" t="str">
         <f>IF(_acsReport_day_each!X13="","",_acsReport_day_each!X13)</f>
         <v/>
       </c>
@@ -5273,11 +5263,11 @@
         <f>IF(_acsReport_day_each!Y13="","",_acsReport_day_each!Y13)</f>
         <v/>
       </c>
-      <c r="AB19" s="21" t="str">
+      <c r="AB19" s="20" t="str">
         <f>IF(_acsReport_day_each!Z13="","",_acsReport_day_each!Z13)</f>
         <v/>
       </c>
-      <c r="AC19" s="21" t="str">
+      <c r="AC19" s="20" t="str">
         <f>IF(_acsReport_day_each!AA13="","",_acsReport_day_each!AA13)</f>
         <v/>
       </c>
@@ -5285,11 +5275,11 @@
         <f>IF(_acsReport_day_each!AB13="","",_acsReport_day_each!AB13)</f>
         <v/>
       </c>
-      <c r="AE19" s="21" t="str">
+      <c r="AE19" s="20" t="str">
         <f>IF(_acsReport_day_each!AC13="","",_acsReport_day_each!AC13)</f>
         <v/>
       </c>
-      <c r="AF19" s="21" t="str">
+      <c r="AF19" s="20" t="str">
         <f>IF(_acsReport_day_each!AD13="","",_acsReport_day_each!AD13)</f>
         <v/>
       </c>
@@ -5297,11 +5287,11 @@
         <f>IF(_acsReport_day_each!AE13="","",_acsReport_day_each!AE13)</f>
         <v/>
       </c>
-      <c r="AH19" s="21" t="str">
+      <c r="AH19" s="20" t="str">
         <f>IF(_acsReport_day_each!AF13="","",_acsReport_day_each!AF13)</f>
         <v/>
       </c>
-      <c r="AI19" s="21" t="str">
+      <c r="AI19" s="20" t="str">
         <f>IF(_acsReport_day_each!AG13="","",_acsReport_day_each!AG13)</f>
         <v/>
       </c>
@@ -5309,11 +5299,11 @@
         <f>IF(_acsReport_day_each!AH13="","",_acsReport_day_each!AH13)</f>
         <v/>
       </c>
-      <c r="AK19" s="21" t="str">
+      <c r="AK19" s="20" t="str">
         <f>IF(_acsReport_day_each!AI13="","",_acsReport_day_each!AI13)</f>
         <v/>
       </c>
-      <c r="AL19" s="21" t="str">
+      <c r="AL19" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ13="","",_acsReport_day_each!AJ13)</f>
         <v/>
       </c>
@@ -5321,11 +5311,11 @@
         <f>IF(_acsReport_day_each!AK13="","",_acsReport_day_each!AK13)</f>
         <v/>
       </c>
-      <c r="AN19" s="21" t="str">
+      <c r="AN19" s="20" t="str">
         <f>IF(_acsReport_day_each!AL13="","",_acsReport_day_each!AL13)</f>
         <v/>
       </c>
-      <c r="AO19" s="21" t="str">
+      <c r="AO19" s="20" t="str">
         <f>IF(_acsReport_day_each!AM13="","",_acsReport_day_each!AM13)</f>
         <v/>
       </c>
@@ -5333,11 +5323,11 @@
         <f>IF(_acsReport_day_each!AN13="","",_acsReport_day_each!AN13)</f>
         <v/>
       </c>
-      <c r="AQ19" s="21" t="str">
+      <c r="AQ19" s="20" t="str">
         <f>IF(_acsReport_day_each!AO13="","",_acsReport_day_each!AO13)</f>
         <v/>
       </c>
-      <c r="AR19" s="21" t="str">
+      <c r="AR19" s="20" t="str">
         <f>IF(_acsReport_day_each!AP13="","",_acsReport_day_each!AP13)</f>
         <v/>
       </c>
@@ -5345,11 +5335,11 @@
         <f>IF(_acsReport_day_each!AQ13="","",_acsReport_day_each!AQ13)</f>
         <v/>
       </c>
-      <c r="AT19" s="21" t="str">
+      <c r="AT19" s="20" t="str">
         <f>IF(_acsReport_day_each!AR13="","",_acsReport_day_each!AR13)</f>
         <v/>
       </c>
-      <c r="AU19" s="21" t="str">
+      <c r="AU19" s="20" t="str">
         <f>IF(_acsReport_day_each!AS13="","",_acsReport_day_each!AS13)</f>
         <v/>
       </c>
@@ -5357,11 +5347,11 @@
         <f>IF(_acsReport_day_each!AT13="","",_acsReport_day_each!AT13)</f>
         <v/>
       </c>
-      <c r="AW19" s="21" t="str">
+      <c r="AW19" s="20" t="str">
         <f>IF(_acsReport_day_each!AU13="","",_acsReport_day_each!AU13)</f>
         <v/>
       </c>
-      <c r="AX19" s="21" t="str">
+      <c r="AX19" s="20" t="str">
         <f>IF(_acsReport_day_each!AV13="","",_acsReport_day_each!AV13)</f>
         <v/>
       </c>
@@ -5369,11 +5359,11 @@
         <f>IF(_acsReport_day_each!AW13="","",_acsReport_day_each!AW13)</f>
         <v/>
       </c>
-      <c r="AZ19" s="21" t="str">
+      <c r="AZ19" s="20" t="str">
         <f>IF(_acsReport_day_each!AX13="","",_acsReport_day_each!AX13)</f>
         <v/>
       </c>
-      <c r="BA19" s="21" t="str">
+      <c r="BA19" s="20" t="str">
         <f>IF(_acsReport_day_each!AY13="","",_acsReport_day_each!AY13)</f>
         <v/>
       </c>
@@ -5381,19 +5371,19 @@
         <f>IF(_acsReport_day_each!AZ13="","",_acsReport_day_each!AZ13)</f>
         <v/>
       </c>
-      <c r="BC19" s="21" t="str">
+      <c r="BC19" s="20" t="str">
         <f>IF(_acsReport_day_each!BA13="","",_acsReport_day_each!BA13)</f>
         <v/>
       </c>
-      <c r="BD19" s="21" t="str">
+      <c r="BD19" s="20" t="str">
         <f>IF(_acsReport_day_each!BB13="","",_acsReport_day_each!BB13)</f>
         <v/>
       </c>
-      <c r="BE19" s="20">
+      <c r="BE19" s="19">
         <f>_acsReport_day_each!BD13:BF13</f>
         <v>0</v>
       </c>
-      <c r="BI19" s="20">
+      <c r="BI19" s="19">
         <f>_acsReport_day_each!BG13:BI13</f>
         <v>0</v>
       </c>
@@ -5410,19 +5400,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="19">
+    <row r="20" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B20" s="21">
         <v>0.5</v>
       </c>
       <c r="C20" s="22" t="str">
         <f>IF(_acsReport_day_each!A14="","",_acsReport_day_each!A14)</f>
         <v/>
       </c>
-      <c r="D20" s="21" t="str">
+      <c r="D20" s="20" t="str">
         <f>IF(_acsReport_day_each!B14="","",_acsReport_day_each!B14)</f>
         <v/>
       </c>
-      <c r="E20" s="21" t="str">
+      <c r="E20" s="20" t="str">
         <f>IF(_acsReport_day_each!C14="","",_acsReport_day_each!C14)</f>
         <v/>
       </c>
@@ -5430,11 +5420,11 @@
         <f>IF(_acsReport_day_each!D14="","",_acsReport_day_each!D14)</f>
         <v/>
       </c>
-      <c r="G20" s="21" t="str">
+      <c r="G20" s="20" t="str">
         <f>IF(_acsReport_day_each!E14="","",_acsReport_day_each!E14)</f>
         <v/>
       </c>
-      <c r="H20" s="21" t="str">
+      <c r="H20" s="20" t="str">
         <f>IF(_acsReport_day_each!F14="","",_acsReport_day_each!F14)</f>
         <v/>
       </c>
@@ -5442,11 +5432,11 @@
         <f>IF(_acsReport_day_each!G14="","",_acsReport_day_each!G14)</f>
         <v/>
       </c>
-      <c r="J20" s="21" t="str">
+      <c r="J20" s="20" t="str">
         <f>IF(_acsReport_day_each!H14="","",_acsReport_day_each!H14)</f>
         <v/>
       </c>
-      <c r="K20" s="21" t="str">
+      <c r="K20" s="20" t="str">
         <f>IF(_acsReport_day_each!I14="","",_acsReport_day_each!I14)</f>
         <v/>
       </c>
@@ -5454,11 +5444,11 @@
         <f>IF(_acsReport_day_each!J14="","",_acsReport_day_each!J14)</f>
         <v/>
       </c>
-      <c r="M20" s="21" t="str">
+      <c r="M20" s="20" t="str">
         <f>IF(_acsReport_day_each!K14="","",_acsReport_day_each!K14)</f>
         <v/>
       </c>
-      <c r="N20" s="21" t="str">
+      <c r="N20" s="20" t="str">
         <f>IF(_acsReport_day_each!L14="","",_acsReport_day_each!L14)</f>
         <v/>
       </c>
@@ -5466,11 +5456,11 @@
         <f>IF(_acsReport_day_each!M14="","",_acsReport_day_each!M14)</f>
         <v/>
       </c>
-      <c r="P20" s="21" t="str">
+      <c r="P20" s="20" t="str">
         <f>IF(_acsReport_day_each!N14="","",_acsReport_day_each!N14)</f>
         <v/>
       </c>
-      <c r="Q20" s="21" t="str">
+      <c r="Q20" s="20" t="str">
         <f>IF(_acsReport_day_each!O14="","",_acsReport_day_each!O14)</f>
         <v/>
       </c>
@@ -5478,11 +5468,11 @@
         <f>IF(_acsReport_day_each!P14="","",_acsReport_day_each!P14)</f>
         <v/>
       </c>
-      <c r="S20" s="21" t="str">
+      <c r="S20" s="20" t="str">
         <f>IF(_acsReport_day_each!Q14="","",_acsReport_day_each!Q14)</f>
         <v/>
       </c>
-      <c r="T20" s="21" t="str">
+      <c r="T20" s="20" t="str">
         <f>IF(_acsReport_day_each!R14="","",_acsReport_day_each!R14)</f>
         <v/>
       </c>
@@ -5490,11 +5480,11 @@
         <f>IF(_acsReport_day_each!S14="","",_acsReport_day_each!S14)</f>
         <v/>
       </c>
-      <c r="V20" s="21" t="str">
+      <c r="V20" s="20" t="str">
         <f>IF(_acsReport_day_each!T14="","",_acsReport_day_each!T14)</f>
         <v/>
       </c>
-      <c r="W20" s="21" t="str">
+      <c r="W20" s="20" t="str">
         <f>IF(_acsReport_day_each!U14="","",_acsReport_day_each!U14)</f>
         <v/>
       </c>
@@ -5502,11 +5492,11 @@
         <f>IF(_acsReport_day_each!V14="","",_acsReport_day_each!V14)</f>
         <v/>
       </c>
-      <c r="Y20" s="21" t="str">
+      <c r="Y20" s="20" t="str">
         <f>IF(_acsReport_day_each!W14="","",_acsReport_day_each!W14)</f>
         <v/>
       </c>
-      <c r="Z20" s="21" t="str">
+      <c r="Z20" s="20" t="str">
         <f>IF(_acsReport_day_each!X14="","",_acsReport_day_each!X14)</f>
         <v/>
       </c>
@@ -5514,11 +5504,11 @@
         <f>IF(_acsReport_day_each!Y14="","",_acsReport_day_each!Y14)</f>
         <v/>
       </c>
-      <c r="AB20" s="21" t="str">
+      <c r="AB20" s="20" t="str">
         <f>IF(_acsReport_day_each!Z14="","",_acsReport_day_each!Z14)</f>
         <v/>
       </c>
-      <c r="AC20" s="21" t="str">
+      <c r="AC20" s="20" t="str">
         <f>IF(_acsReport_day_each!AA14="","",_acsReport_day_each!AA14)</f>
         <v/>
       </c>
@@ -5526,11 +5516,11 @@
         <f>IF(_acsReport_day_each!AB14="","",_acsReport_day_each!AB14)</f>
         <v/>
       </c>
-      <c r="AE20" s="21" t="str">
+      <c r="AE20" s="20" t="str">
         <f>IF(_acsReport_day_each!AC14="","",_acsReport_day_each!AC14)</f>
         <v/>
       </c>
-      <c r="AF20" s="21" t="str">
+      <c r="AF20" s="20" t="str">
         <f>IF(_acsReport_day_each!AD14="","",_acsReport_day_each!AD14)</f>
         <v/>
       </c>
@@ -5538,11 +5528,11 @@
         <f>IF(_acsReport_day_each!AE14="","",_acsReport_day_each!AE14)</f>
         <v/>
       </c>
-      <c r="AH20" s="21" t="str">
+      <c r="AH20" s="20" t="str">
         <f>IF(_acsReport_day_each!AF14="","",_acsReport_day_each!AF14)</f>
         <v/>
       </c>
-      <c r="AI20" s="21" t="str">
+      <c r="AI20" s="20" t="str">
         <f>IF(_acsReport_day_each!AG14="","",_acsReport_day_each!AG14)</f>
         <v/>
       </c>
@@ -5550,11 +5540,11 @@
         <f>IF(_acsReport_day_each!AH14="","",_acsReport_day_each!AH14)</f>
         <v/>
       </c>
-      <c r="AK20" s="21" t="str">
+      <c r="AK20" s="20" t="str">
         <f>IF(_acsReport_day_each!AI14="","",_acsReport_day_each!AI14)</f>
         <v/>
       </c>
-      <c r="AL20" s="21" t="str">
+      <c r="AL20" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ14="","",_acsReport_day_each!AJ14)</f>
         <v/>
       </c>
@@ -5562,11 +5552,11 @@
         <f>IF(_acsReport_day_each!AK14="","",_acsReport_day_each!AK14)</f>
         <v/>
       </c>
-      <c r="AN20" s="21" t="str">
+      <c r="AN20" s="20" t="str">
         <f>IF(_acsReport_day_each!AL14="","",_acsReport_day_each!AL14)</f>
         <v/>
       </c>
-      <c r="AO20" s="21" t="str">
+      <c r="AO20" s="20" t="str">
         <f>IF(_acsReport_day_each!AM14="","",_acsReport_day_each!AM14)</f>
         <v/>
       </c>
@@ -5574,11 +5564,11 @@
         <f>IF(_acsReport_day_each!AN14="","",_acsReport_day_each!AN14)</f>
         <v/>
       </c>
-      <c r="AQ20" s="21" t="str">
+      <c r="AQ20" s="20" t="str">
         <f>IF(_acsReport_day_each!AO14="","",_acsReport_day_each!AO14)</f>
         <v/>
       </c>
-      <c r="AR20" s="21" t="str">
+      <c r="AR20" s="20" t="str">
         <f>IF(_acsReport_day_each!AP14="","",_acsReport_day_each!AP14)</f>
         <v/>
       </c>
@@ -5586,11 +5576,11 @@
         <f>IF(_acsReport_day_each!AQ14="","",_acsReport_day_each!AQ14)</f>
         <v/>
       </c>
-      <c r="AT20" s="21" t="str">
+      <c r="AT20" s="20" t="str">
         <f>IF(_acsReport_day_each!AR14="","",_acsReport_day_each!AR14)</f>
         <v/>
       </c>
-      <c r="AU20" s="21" t="str">
+      <c r="AU20" s="20" t="str">
         <f>IF(_acsReport_day_each!AS14="","",_acsReport_day_each!AS14)</f>
         <v/>
       </c>
@@ -5598,11 +5588,11 @@
         <f>IF(_acsReport_day_each!AT14="","",_acsReport_day_each!AT14)</f>
         <v/>
       </c>
-      <c r="AW20" s="21" t="str">
+      <c r="AW20" s="20" t="str">
         <f>IF(_acsReport_day_each!AU14="","",_acsReport_day_each!AU14)</f>
         <v/>
       </c>
-      <c r="AX20" s="21" t="str">
+      <c r="AX20" s="20" t="str">
         <f>IF(_acsReport_day_each!AV14="","",_acsReport_day_each!AV14)</f>
         <v/>
       </c>
@@ -5610,11 +5600,11 @@
         <f>IF(_acsReport_day_each!AW14="","",_acsReport_day_each!AW14)</f>
         <v/>
       </c>
-      <c r="AZ20" s="21" t="str">
+      <c r="AZ20" s="20" t="str">
         <f>IF(_acsReport_day_each!AX14="","",_acsReport_day_each!AX14)</f>
         <v/>
       </c>
-      <c r="BA20" s="21" t="str">
+      <c r="BA20" s="20" t="str">
         <f>IF(_acsReport_day_each!AY14="","",_acsReport_day_each!AY14)</f>
         <v/>
       </c>
@@ -5622,19 +5612,19 @@
         <f>IF(_acsReport_day_each!AZ14="","",_acsReport_day_each!AZ14)</f>
         <v/>
       </c>
-      <c r="BC20" s="21" t="str">
+      <c r="BC20" s="20" t="str">
         <f>IF(_acsReport_day_each!BA14="","",_acsReport_day_each!BA14)</f>
         <v/>
       </c>
-      <c r="BD20" s="21" t="str">
+      <c r="BD20" s="20" t="str">
         <f>IF(_acsReport_day_each!BB14="","",_acsReport_day_each!BB14)</f>
         <v/>
       </c>
-      <c r="BE20" s="20">
+      <c r="BE20" s="19">
         <f>_acsReport_day_each!BD14:BF14</f>
         <v>0</v>
       </c>
-      <c r="BI20" s="20">
+      <c r="BI20" s="19">
         <f>_acsReport_day_each!BG14:BI14</f>
         <v>0</v>
       </c>
@@ -5651,19 +5641,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="19">
+    <row r="21" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B21" s="21">
         <v>0.54166666666666696</v>
       </c>
       <c r="C21" s="22" t="str">
         <f>IF(_acsReport_day_each!A15="","",_acsReport_day_each!A15)</f>
         <v/>
       </c>
-      <c r="D21" s="21" t="str">
+      <c r="D21" s="20" t="str">
         <f>IF(_acsReport_day_each!B15="","",_acsReport_day_each!B15)</f>
         <v/>
       </c>
-      <c r="E21" s="21" t="str">
+      <c r="E21" s="20" t="str">
         <f>IF(_acsReport_day_each!C15="","",_acsReport_day_each!C15)</f>
         <v/>
       </c>
@@ -5671,11 +5661,11 @@
         <f>IF(_acsReport_day_each!D15="","",_acsReport_day_each!D15)</f>
         <v/>
       </c>
-      <c r="G21" s="21" t="str">
+      <c r="G21" s="20" t="str">
         <f>IF(_acsReport_day_each!E15="","",_acsReport_day_each!E15)</f>
         <v/>
       </c>
-      <c r="H21" s="21" t="str">
+      <c r="H21" s="20" t="str">
         <f>IF(_acsReport_day_each!F15="","",_acsReport_day_each!F15)</f>
         <v/>
       </c>
@@ -5683,11 +5673,11 @@
         <f>IF(_acsReport_day_each!G15="","",_acsReport_day_each!G15)</f>
         <v/>
       </c>
-      <c r="J21" s="21" t="str">
+      <c r="J21" s="20" t="str">
         <f>IF(_acsReport_day_each!H15="","",_acsReport_day_each!H15)</f>
         <v/>
       </c>
-      <c r="K21" s="21" t="str">
+      <c r="K21" s="20" t="str">
         <f>IF(_acsReport_day_each!I15="","",_acsReport_day_each!I15)</f>
         <v/>
       </c>
@@ -5695,11 +5685,11 @@
         <f>IF(_acsReport_day_each!J15="","",_acsReport_day_each!J15)</f>
         <v/>
       </c>
-      <c r="M21" s="21" t="str">
+      <c r="M21" s="20" t="str">
         <f>IF(_acsReport_day_each!K15="","",_acsReport_day_each!K15)</f>
         <v/>
       </c>
-      <c r="N21" s="21" t="str">
+      <c r="N21" s="20" t="str">
         <f>IF(_acsReport_day_each!L15="","",_acsReport_day_each!L15)</f>
         <v/>
       </c>
@@ -5707,11 +5697,11 @@
         <f>IF(_acsReport_day_each!M15="","",_acsReport_day_each!M15)</f>
         <v/>
       </c>
-      <c r="P21" s="21" t="str">
+      <c r="P21" s="20" t="str">
         <f>IF(_acsReport_day_each!N15="","",_acsReport_day_each!N15)</f>
         <v/>
       </c>
-      <c r="Q21" s="21" t="str">
+      <c r="Q21" s="20" t="str">
         <f>IF(_acsReport_day_each!O15="","",_acsReport_day_each!O15)</f>
         <v/>
       </c>
@@ -5719,11 +5709,11 @@
         <f>IF(_acsReport_day_each!P15="","",_acsReport_day_each!P15)</f>
         <v/>
       </c>
-      <c r="S21" s="21" t="str">
+      <c r="S21" s="20" t="str">
         <f>IF(_acsReport_day_each!Q15="","",_acsReport_day_each!Q15)</f>
         <v/>
       </c>
-      <c r="T21" s="21" t="str">
+      <c r="T21" s="20" t="str">
         <f>IF(_acsReport_day_each!R15="","",_acsReport_day_each!R15)</f>
         <v/>
       </c>
@@ -5731,11 +5721,11 @@
         <f>IF(_acsReport_day_each!S15="","",_acsReport_day_each!S15)</f>
         <v/>
       </c>
-      <c r="V21" s="21" t="str">
+      <c r="V21" s="20" t="str">
         <f>IF(_acsReport_day_each!T15="","",_acsReport_day_each!T15)</f>
         <v/>
       </c>
-      <c r="W21" s="21" t="str">
+      <c r="W21" s="20" t="str">
         <f>IF(_acsReport_day_each!U15="","",_acsReport_day_each!U15)</f>
         <v/>
       </c>
@@ -5743,11 +5733,11 @@
         <f>IF(_acsReport_day_each!V15="","",_acsReport_day_each!V15)</f>
         <v/>
       </c>
-      <c r="Y21" s="21" t="str">
+      <c r="Y21" s="20" t="str">
         <f>IF(_acsReport_day_each!W15="","",_acsReport_day_each!W15)</f>
         <v/>
       </c>
-      <c r="Z21" s="21" t="str">
+      <c r="Z21" s="20" t="str">
         <f>IF(_acsReport_day_each!X15="","",_acsReport_day_each!X15)</f>
         <v/>
       </c>
@@ -5755,11 +5745,11 @@
         <f>IF(_acsReport_day_each!Y15="","",_acsReport_day_each!Y15)</f>
         <v/>
       </c>
-      <c r="AB21" s="21" t="str">
+      <c r="AB21" s="20" t="str">
         <f>IF(_acsReport_day_each!Z15="","",_acsReport_day_each!Z15)</f>
         <v/>
       </c>
-      <c r="AC21" s="21" t="str">
+      <c r="AC21" s="20" t="str">
         <f>IF(_acsReport_day_each!AA15="","",_acsReport_day_each!AA15)</f>
         <v/>
       </c>
@@ -5767,11 +5757,11 @@
         <f>IF(_acsReport_day_each!AB15="","",_acsReport_day_each!AB15)</f>
         <v/>
       </c>
-      <c r="AE21" s="21" t="str">
+      <c r="AE21" s="20" t="str">
         <f>IF(_acsReport_day_each!AC15="","",_acsReport_day_each!AC15)</f>
         <v/>
       </c>
-      <c r="AF21" s="21" t="str">
+      <c r="AF21" s="20" t="str">
         <f>IF(_acsReport_day_each!AD15="","",_acsReport_day_each!AD15)</f>
         <v/>
       </c>
@@ -5779,11 +5769,11 @@
         <f>IF(_acsReport_day_each!AE15="","",_acsReport_day_each!AE15)</f>
         <v/>
       </c>
-      <c r="AH21" s="21" t="str">
+      <c r="AH21" s="20" t="str">
         <f>IF(_acsReport_day_each!AF15="","",_acsReport_day_each!AF15)</f>
         <v/>
       </c>
-      <c r="AI21" s="21" t="str">
+      <c r="AI21" s="20" t="str">
         <f>IF(_acsReport_day_each!AG15="","",_acsReport_day_each!AG15)</f>
         <v/>
       </c>
@@ -5791,11 +5781,11 @@
         <f>IF(_acsReport_day_each!AH15="","",_acsReport_day_each!AH15)</f>
         <v/>
       </c>
-      <c r="AK21" s="21" t="str">
+      <c r="AK21" s="20" t="str">
         <f>IF(_acsReport_day_each!AI15="","",_acsReport_day_each!AI15)</f>
         <v/>
       </c>
-      <c r="AL21" s="21" t="str">
+      <c r="AL21" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ15="","",_acsReport_day_each!AJ15)</f>
         <v/>
       </c>
@@ -5803,11 +5793,11 @@
         <f>IF(_acsReport_day_each!AK15="","",_acsReport_day_each!AK15)</f>
         <v/>
       </c>
-      <c r="AN21" s="21" t="str">
+      <c r="AN21" s="20" t="str">
         <f>IF(_acsReport_day_each!AL15="","",_acsReport_day_each!AL15)</f>
         <v/>
       </c>
-      <c r="AO21" s="21" t="str">
+      <c r="AO21" s="20" t="str">
         <f>IF(_acsReport_day_each!AM15="","",_acsReport_day_each!AM15)</f>
         <v/>
       </c>
@@ -5815,11 +5805,11 @@
         <f>IF(_acsReport_day_each!AN15="","",_acsReport_day_each!AN15)</f>
         <v/>
       </c>
-      <c r="AQ21" s="21" t="str">
+      <c r="AQ21" s="20" t="str">
         <f>IF(_acsReport_day_each!AO15="","",_acsReport_day_each!AO15)</f>
         <v/>
       </c>
-      <c r="AR21" s="21" t="str">
+      <c r="AR21" s="20" t="str">
         <f>IF(_acsReport_day_each!AP15="","",_acsReport_day_each!AP15)</f>
         <v/>
       </c>
@@ -5827,11 +5817,11 @@
         <f>IF(_acsReport_day_each!AQ15="","",_acsReport_day_each!AQ15)</f>
         <v/>
       </c>
-      <c r="AT21" s="21" t="str">
+      <c r="AT21" s="20" t="str">
         <f>IF(_acsReport_day_each!AR15="","",_acsReport_day_each!AR15)</f>
         <v/>
       </c>
-      <c r="AU21" s="21" t="str">
+      <c r="AU21" s="20" t="str">
         <f>IF(_acsReport_day_each!AS15="","",_acsReport_day_each!AS15)</f>
         <v/>
       </c>
@@ -5839,11 +5829,11 @@
         <f>IF(_acsReport_day_each!AT15="","",_acsReport_day_each!AT15)</f>
         <v/>
       </c>
-      <c r="AW21" s="21" t="str">
+      <c r="AW21" s="20" t="str">
         <f>IF(_acsReport_day_each!AU15="","",_acsReport_day_each!AU15)</f>
         <v/>
       </c>
-      <c r="AX21" s="21" t="str">
+      <c r="AX21" s="20" t="str">
         <f>IF(_acsReport_day_each!AV15="","",_acsReport_day_each!AV15)</f>
         <v/>
       </c>
@@ -5851,11 +5841,11 @@
         <f>IF(_acsReport_day_each!AW15="","",_acsReport_day_each!AW15)</f>
         <v/>
       </c>
-      <c r="AZ21" s="21" t="str">
+      <c r="AZ21" s="20" t="str">
         <f>IF(_acsReport_day_each!AX15="","",_acsReport_day_each!AX15)</f>
         <v/>
       </c>
-      <c r="BA21" s="21" t="str">
+      <c r="BA21" s="20" t="str">
         <f>IF(_acsReport_day_each!AY15="","",_acsReport_day_each!AY15)</f>
         <v/>
       </c>
@@ -5863,19 +5853,19 @@
         <f>IF(_acsReport_day_each!AZ15="","",_acsReport_day_each!AZ15)</f>
         <v/>
       </c>
-      <c r="BC21" s="21" t="str">
+      <c r="BC21" s="20" t="str">
         <f>IF(_acsReport_day_each!BA15="","",_acsReport_day_each!BA15)</f>
         <v/>
       </c>
-      <c r="BD21" s="21" t="str">
+      <c r="BD21" s="20" t="str">
         <f>IF(_acsReport_day_each!BB15="","",_acsReport_day_each!BB15)</f>
         <v/>
       </c>
-      <c r="BE21" s="20">
+      <c r="BE21" s="19">
         <f>_acsReport_day_each!BD15:BF15</f>
         <v>0</v>
       </c>
-      <c r="BI21" s="20">
+      <c r="BI21" s="19">
         <f>_acsReport_day_each!BG15:BI15</f>
         <v>0</v>
       </c>
@@ -5892,19 +5882,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="19">
+    <row r="22" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B22" s="21">
         <v>0.58333333333333304</v>
       </c>
       <c r="C22" s="22" t="str">
         <f>IF(_acsReport_day_each!A16="","",_acsReport_day_each!A16)</f>
         <v/>
       </c>
-      <c r="D22" s="21" t="str">
+      <c r="D22" s="20" t="str">
         <f>IF(_acsReport_day_each!B16="","",_acsReport_day_each!B16)</f>
         <v/>
       </c>
-      <c r="E22" s="21" t="str">
+      <c r="E22" s="20" t="str">
         <f>IF(_acsReport_day_each!C16="","",_acsReport_day_each!C16)</f>
         <v/>
       </c>
@@ -5912,11 +5902,11 @@
         <f>IF(_acsReport_day_each!D16="","",_acsReport_day_each!D16)</f>
         <v/>
       </c>
-      <c r="G22" s="21" t="str">
+      <c r="G22" s="20" t="str">
         <f>IF(_acsReport_day_each!E16="","",_acsReport_day_each!E16)</f>
         <v/>
       </c>
-      <c r="H22" s="21" t="str">
+      <c r="H22" s="20" t="str">
         <f>IF(_acsReport_day_each!F16="","",_acsReport_day_each!F16)</f>
         <v/>
       </c>
@@ -5924,11 +5914,11 @@
         <f>IF(_acsReport_day_each!G16="","",_acsReport_day_each!G16)</f>
         <v/>
       </c>
-      <c r="J22" s="21" t="str">
+      <c r="J22" s="20" t="str">
         <f>IF(_acsReport_day_each!H16="","",_acsReport_day_each!H16)</f>
         <v/>
       </c>
-      <c r="K22" s="21" t="str">
+      <c r="K22" s="20" t="str">
         <f>IF(_acsReport_day_each!I16="","",_acsReport_day_each!I16)</f>
         <v/>
       </c>
@@ -5936,11 +5926,11 @@
         <f>IF(_acsReport_day_each!J16="","",_acsReport_day_each!J16)</f>
         <v/>
       </c>
-      <c r="M22" s="21" t="str">
+      <c r="M22" s="20" t="str">
         <f>IF(_acsReport_day_each!K16="","",_acsReport_day_each!K16)</f>
         <v/>
       </c>
-      <c r="N22" s="21" t="str">
+      <c r="N22" s="20" t="str">
         <f>IF(_acsReport_day_each!L16="","",_acsReport_day_each!L16)</f>
         <v/>
       </c>
@@ -5948,11 +5938,11 @@
         <f>IF(_acsReport_day_each!M16="","",_acsReport_day_each!M16)</f>
         <v/>
       </c>
-      <c r="P22" s="21" t="str">
+      <c r="P22" s="20" t="str">
         <f>IF(_acsReport_day_each!N16="","",_acsReport_day_each!N16)</f>
         <v/>
       </c>
-      <c r="Q22" s="21" t="str">
+      <c r="Q22" s="20" t="str">
         <f>IF(_acsReport_day_each!O16="","",_acsReport_day_each!O16)</f>
         <v/>
       </c>
@@ -5960,11 +5950,11 @@
         <f>IF(_acsReport_day_each!P16="","",_acsReport_day_each!P16)</f>
         <v/>
       </c>
-      <c r="S22" s="21" t="str">
+      <c r="S22" s="20" t="str">
         <f>IF(_acsReport_day_each!Q16="","",_acsReport_day_each!Q16)</f>
         <v/>
       </c>
-      <c r="T22" s="21" t="str">
+      <c r="T22" s="20" t="str">
         <f>IF(_acsReport_day_each!R16="","",_acsReport_day_each!R16)</f>
         <v/>
       </c>
@@ -5972,11 +5962,11 @@
         <f>IF(_acsReport_day_each!S16="","",_acsReport_day_each!S16)</f>
         <v/>
       </c>
-      <c r="V22" s="21" t="str">
+      <c r="V22" s="20" t="str">
         <f>IF(_acsReport_day_each!T16="","",_acsReport_day_each!T16)</f>
         <v/>
       </c>
-      <c r="W22" s="21" t="str">
+      <c r="W22" s="20" t="str">
         <f>IF(_acsReport_day_each!U16="","",_acsReport_day_each!U16)</f>
         <v/>
       </c>
@@ -5984,11 +5974,11 @@
         <f>IF(_acsReport_day_each!V16="","",_acsReport_day_each!V16)</f>
         <v/>
       </c>
-      <c r="Y22" s="21" t="str">
+      <c r="Y22" s="20" t="str">
         <f>IF(_acsReport_day_each!W16="","",_acsReport_day_each!W16)</f>
         <v/>
       </c>
-      <c r="Z22" s="21" t="str">
+      <c r="Z22" s="20" t="str">
         <f>IF(_acsReport_day_each!X16="","",_acsReport_day_each!X16)</f>
         <v/>
       </c>
@@ -5996,11 +5986,11 @@
         <f>IF(_acsReport_day_each!Y16="","",_acsReport_day_each!Y16)</f>
         <v/>
       </c>
-      <c r="AB22" s="21" t="str">
+      <c r="AB22" s="20" t="str">
         <f>IF(_acsReport_day_each!Z16="","",_acsReport_day_each!Z16)</f>
         <v/>
       </c>
-      <c r="AC22" s="21" t="str">
+      <c r="AC22" s="20" t="str">
         <f>IF(_acsReport_day_each!AA16="","",_acsReport_day_each!AA16)</f>
         <v/>
       </c>
@@ -6008,11 +5998,11 @@
         <f>IF(_acsReport_day_each!AB16="","",_acsReport_day_each!AB16)</f>
         <v/>
       </c>
-      <c r="AE22" s="21" t="str">
+      <c r="AE22" s="20" t="str">
         <f>IF(_acsReport_day_each!AC16="","",_acsReport_day_each!AC16)</f>
         <v/>
       </c>
-      <c r="AF22" s="21" t="str">
+      <c r="AF22" s="20" t="str">
         <f>IF(_acsReport_day_each!AD16="","",_acsReport_day_each!AD16)</f>
         <v/>
       </c>
@@ -6020,11 +6010,11 @@
         <f>IF(_acsReport_day_each!AE16="","",_acsReport_day_each!AE16)</f>
         <v/>
       </c>
-      <c r="AH22" s="21" t="str">
+      <c r="AH22" s="20" t="str">
         <f>IF(_acsReport_day_each!AF16="","",_acsReport_day_each!AF16)</f>
         <v/>
       </c>
-      <c r="AI22" s="21" t="str">
+      <c r="AI22" s="20" t="str">
         <f>IF(_acsReport_day_each!AG16="","",_acsReport_day_each!AG16)</f>
         <v/>
       </c>
@@ -6032,11 +6022,11 @@
         <f>IF(_acsReport_day_each!AH16="","",_acsReport_day_each!AH16)</f>
         <v/>
       </c>
-      <c r="AK22" s="21" t="str">
+      <c r="AK22" s="20" t="str">
         <f>IF(_acsReport_day_each!AI16="","",_acsReport_day_each!AI16)</f>
         <v/>
       </c>
-      <c r="AL22" s="21" t="str">
+      <c r="AL22" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ16="","",_acsReport_day_each!AJ16)</f>
         <v/>
       </c>
@@ -6044,11 +6034,11 @@
         <f>IF(_acsReport_day_each!AK16="","",_acsReport_day_each!AK16)</f>
         <v/>
       </c>
-      <c r="AN22" s="21" t="str">
+      <c r="AN22" s="20" t="str">
         <f>IF(_acsReport_day_each!AL16="","",_acsReport_day_each!AL16)</f>
         <v/>
       </c>
-      <c r="AO22" s="21" t="str">
+      <c r="AO22" s="20" t="str">
         <f>IF(_acsReport_day_each!AM16="","",_acsReport_day_each!AM16)</f>
         <v/>
       </c>
@@ -6056,11 +6046,11 @@
         <f>IF(_acsReport_day_each!AN16="","",_acsReport_day_each!AN16)</f>
         <v/>
       </c>
-      <c r="AQ22" s="21" t="str">
+      <c r="AQ22" s="20" t="str">
         <f>IF(_acsReport_day_each!AO16="","",_acsReport_day_each!AO16)</f>
         <v/>
       </c>
-      <c r="AR22" s="21" t="str">
+      <c r="AR22" s="20" t="str">
         <f>IF(_acsReport_day_each!AP16="","",_acsReport_day_each!AP16)</f>
         <v/>
       </c>
@@ -6068,11 +6058,11 @@
         <f>IF(_acsReport_day_each!AQ16="","",_acsReport_day_each!AQ16)</f>
         <v/>
       </c>
-      <c r="AT22" s="21" t="str">
+      <c r="AT22" s="20" t="str">
         <f>IF(_acsReport_day_each!AR16="","",_acsReport_day_each!AR16)</f>
         <v/>
       </c>
-      <c r="AU22" s="21" t="str">
+      <c r="AU22" s="20" t="str">
         <f>IF(_acsReport_day_each!AS16="","",_acsReport_day_each!AS16)</f>
         <v/>
       </c>
@@ -6080,11 +6070,11 @@
         <f>IF(_acsReport_day_each!AT16="","",_acsReport_day_each!AT16)</f>
         <v/>
       </c>
-      <c r="AW22" s="21" t="str">
+      <c r="AW22" s="20" t="str">
         <f>IF(_acsReport_day_each!AU16="","",_acsReport_day_each!AU16)</f>
         <v/>
       </c>
-      <c r="AX22" s="21" t="str">
+      <c r="AX22" s="20" t="str">
         <f>IF(_acsReport_day_each!AV16="","",_acsReport_day_each!AV16)</f>
         <v/>
       </c>
@@ -6092,11 +6082,11 @@
         <f>IF(_acsReport_day_each!AW16="","",_acsReport_day_each!AW16)</f>
         <v/>
       </c>
-      <c r="AZ22" s="21" t="str">
+      <c r="AZ22" s="20" t="str">
         <f>IF(_acsReport_day_each!AX16="","",_acsReport_day_each!AX16)</f>
         <v/>
       </c>
-      <c r="BA22" s="21" t="str">
+      <c r="BA22" s="20" t="str">
         <f>IF(_acsReport_day_each!AY16="","",_acsReport_day_each!AY16)</f>
         <v/>
       </c>
@@ -6104,19 +6094,19 @@
         <f>IF(_acsReport_day_each!AZ16="","",_acsReport_day_each!AZ16)</f>
         <v/>
       </c>
-      <c r="BC22" s="21" t="str">
+      <c r="BC22" s="20" t="str">
         <f>IF(_acsReport_day_each!BA16="","",_acsReport_day_each!BA16)</f>
         <v/>
       </c>
-      <c r="BD22" s="21" t="str">
+      <c r="BD22" s="20" t="str">
         <f>IF(_acsReport_day_each!BB16="","",_acsReport_day_each!BB16)</f>
         <v/>
       </c>
-      <c r="BE22" s="20">
+      <c r="BE22" s="19">
         <f>_acsReport_day_each!BD16:BF16</f>
         <v>0</v>
       </c>
-      <c r="BI22" s="20">
+      <c r="BI22" s="19">
         <f>_acsReport_day_each!BG16:BI16</f>
         <v>0</v>
       </c>
@@ -6133,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:64" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="23">
         <v>0.625</v>
       </c>
@@ -6153,11 +6143,11 @@
         <f>IF(_acsReport_day_each!D17="","",_acsReport_day_each!D17)</f>
         <v/>
       </c>
-      <c r="G23" s="21" t="str">
+      <c r="G23" s="20" t="str">
         <f>IF(_acsReport_day_each!E17="","",_acsReport_day_each!E17)</f>
         <v/>
       </c>
-      <c r="H23" s="21" t="str">
+      <c r="H23" s="20" t="str">
         <f>IF(_acsReport_day_each!F17="","",_acsReport_day_each!F17)</f>
         <v/>
       </c>
@@ -6165,11 +6155,11 @@
         <f>IF(_acsReport_day_each!G17="","",_acsReport_day_each!G17)</f>
         <v/>
       </c>
-      <c r="J23" s="21" t="str">
+      <c r="J23" s="20" t="str">
         <f>IF(_acsReport_day_each!H17="","",_acsReport_day_each!H17)</f>
         <v/>
       </c>
-      <c r="K23" s="21" t="str">
+      <c r="K23" s="20" t="str">
         <f>IF(_acsReport_day_each!I17="","",_acsReport_day_each!I17)</f>
         <v/>
       </c>
@@ -6177,11 +6167,11 @@
         <f>IF(_acsReport_day_each!J17="","",_acsReport_day_each!J17)</f>
         <v/>
       </c>
-      <c r="M23" s="21" t="str">
+      <c r="M23" s="20" t="str">
         <f>IF(_acsReport_day_each!K17="","",_acsReport_day_each!K17)</f>
         <v/>
       </c>
-      <c r="N23" s="21" t="str">
+      <c r="N23" s="20" t="str">
         <f>IF(_acsReport_day_each!L17="","",_acsReport_day_each!L17)</f>
         <v/>
       </c>
@@ -6189,11 +6179,11 @@
         <f>IF(_acsReport_day_each!M17="","",_acsReport_day_each!M17)</f>
         <v/>
       </c>
-      <c r="P23" s="21" t="str">
+      <c r="P23" s="20" t="str">
         <f>IF(_acsReport_day_each!N17="","",_acsReport_day_each!N17)</f>
         <v/>
       </c>
-      <c r="Q23" s="21" t="str">
+      <c r="Q23" s="20" t="str">
         <f>IF(_acsReport_day_each!O17="","",_acsReport_day_each!O17)</f>
         <v/>
       </c>
@@ -6201,11 +6191,11 @@
         <f>IF(_acsReport_day_each!P17="","",_acsReport_day_each!P17)</f>
         <v/>
       </c>
-      <c r="S23" s="21" t="str">
+      <c r="S23" s="20" t="str">
         <f>IF(_acsReport_day_each!Q17="","",_acsReport_day_each!Q17)</f>
         <v/>
       </c>
-      <c r="T23" s="21" t="str">
+      <c r="T23" s="20" t="str">
         <f>IF(_acsReport_day_each!R17="","",_acsReport_day_each!R17)</f>
         <v/>
       </c>
@@ -6213,11 +6203,11 @@
         <f>IF(_acsReport_day_each!S17="","",_acsReport_day_each!S17)</f>
         <v/>
       </c>
-      <c r="V23" s="21" t="str">
+      <c r="V23" s="20" t="str">
         <f>IF(_acsReport_day_each!T17="","",_acsReport_day_each!T17)</f>
         <v/>
       </c>
-      <c r="W23" s="21" t="str">
+      <c r="W23" s="20" t="str">
         <f>IF(_acsReport_day_each!U17="","",_acsReport_day_each!U17)</f>
         <v/>
       </c>
@@ -6225,11 +6215,11 @@
         <f>IF(_acsReport_day_each!V17="","",_acsReport_day_each!V17)</f>
         <v/>
       </c>
-      <c r="Y23" s="21" t="str">
+      <c r="Y23" s="20" t="str">
         <f>IF(_acsReport_day_each!W17="","",_acsReport_day_each!W17)</f>
         <v/>
       </c>
-      <c r="Z23" s="21" t="str">
+      <c r="Z23" s="20" t="str">
         <f>IF(_acsReport_day_each!X17="","",_acsReport_day_each!X17)</f>
         <v/>
       </c>
@@ -6237,11 +6227,11 @@
         <f>IF(_acsReport_day_each!Y17="","",_acsReport_day_each!Y17)</f>
         <v/>
       </c>
-      <c r="AB23" s="21" t="str">
+      <c r="AB23" s="20" t="str">
         <f>IF(_acsReport_day_each!Z17="","",_acsReport_day_each!Z17)</f>
         <v/>
       </c>
-      <c r="AC23" s="21" t="str">
+      <c r="AC23" s="20" t="str">
         <f>IF(_acsReport_day_each!AA17="","",_acsReport_day_each!AA17)</f>
         <v/>
       </c>
@@ -6249,11 +6239,11 @@
         <f>IF(_acsReport_day_each!AB17="","",_acsReport_day_each!AB17)</f>
         <v/>
       </c>
-      <c r="AE23" s="21" t="str">
+      <c r="AE23" s="20" t="str">
         <f>IF(_acsReport_day_each!AC17="","",_acsReport_day_each!AC17)</f>
         <v/>
       </c>
-      <c r="AF23" s="21" t="str">
+      <c r="AF23" s="20" t="str">
         <f>IF(_acsReport_day_each!AD17="","",_acsReport_day_each!AD17)</f>
         <v/>
       </c>
@@ -6261,11 +6251,11 @@
         <f>IF(_acsReport_day_each!AE17="","",_acsReport_day_each!AE17)</f>
         <v/>
       </c>
-      <c r="AH23" s="21" t="str">
+      <c r="AH23" s="20" t="str">
         <f>IF(_acsReport_day_each!AF17="","",_acsReport_day_each!AF17)</f>
         <v/>
       </c>
-      <c r="AI23" s="21" t="str">
+      <c r="AI23" s="20" t="str">
         <f>IF(_acsReport_day_each!AG17="","",_acsReport_day_each!AG17)</f>
         <v/>
       </c>
@@ -6273,11 +6263,11 @@
         <f>IF(_acsReport_day_each!AH17="","",_acsReport_day_each!AH17)</f>
         <v/>
       </c>
-      <c r="AK23" s="21" t="str">
+      <c r="AK23" s="20" t="str">
         <f>IF(_acsReport_day_each!AI17="","",_acsReport_day_each!AI17)</f>
         <v/>
       </c>
-      <c r="AL23" s="21" t="str">
+      <c r="AL23" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ17="","",_acsReport_day_each!AJ17)</f>
         <v/>
       </c>
@@ -6285,11 +6275,11 @@
         <f>IF(_acsReport_day_each!AK17="","",_acsReport_day_each!AK17)</f>
         <v/>
       </c>
-      <c r="AN23" s="21" t="str">
+      <c r="AN23" s="20" t="str">
         <f>IF(_acsReport_day_each!AL17="","",_acsReport_day_each!AL17)</f>
         <v/>
       </c>
-      <c r="AO23" s="21" t="str">
+      <c r="AO23" s="20" t="str">
         <f>IF(_acsReport_day_each!AM17="","",_acsReport_day_each!AM17)</f>
         <v/>
       </c>
@@ -6297,11 +6287,11 @@
         <f>IF(_acsReport_day_each!AN17="","",_acsReport_day_each!AN17)</f>
         <v/>
       </c>
-      <c r="AQ23" s="21" t="str">
+      <c r="AQ23" s="20" t="str">
         <f>IF(_acsReport_day_each!AO17="","",_acsReport_day_each!AO17)</f>
         <v/>
       </c>
-      <c r="AR23" s="21" t="str">
+      <c r="AR23" s="20" t="str">
         <f>IF(_acsReport_day_each!AP17="","",_acsReport_day_each!AP17)</f>
         <v/>
       </c>
@@ -6309,11 +6299,11 @@
         <f>IF(_acsReport_day_each!AQ17="","",_acsReport_day_each!AQ17)</f>
         <v/>
       </c>
-      <c r="AT23" s="21" t="str">
+      <c r="AT23" s="20" t="str">
         <f>IF(_acsReport_day_each!AR17="","",_acsReport_day_each!AR17)</f>
         <v/>
       </c>
-      <c r="AU23" s="21" t="str">
+      <c r="AU23" s="20" t="str">
         <f>IF(_acsReport_day_each!AS17="","",_acsReport_day_each!AS17)</f>
         <v/>
       </c>
@@ -6321,11 +6311,11 @@
         <f>IF(_acsReport_day_each!AT17="","",_acsReport_day_each!AT17)</f>
         <v/>
       </c>
-      <c r="AW23" s="21" t="str">
+      <c r="AW23" s="20" t="str">
         <f>IF(_acsReport_day_each!AU17="","",_acsReport_day_each!AU17)</f>
         <v/>
       </c>
-      <c r="AX23" s="21" t="str">
+      <c r="AX23" s="20" t="str">
         <f>IF(_acsReport_day_each!AV17="","",_acsReport_day_each!AV17)</f>
         <v/>
       </c>
@@ -6333,11 +6323,11 @@
         <f>IF(_acsReport_day_each!AW17="","",_acsReport_day_each!AW17)</f>
         <v/>
       </c>
-      <c r="AZ23" s="21" t="str">
+      <c r="AZ23" s="20" t="str">
         <f>IF(_acsReport_day_each!AX17="","",_acsReport_day_each!AX17)</f>
         <v/>
       </c>
-      <c r="BA23" s="21" t="str">
+      <c r="BA23" s="20" t="str">
         <f>IF(_acsReport_day_each!AY17="","",_acsReport_day_each!AY17)</f>
         <v/>
       </c>
@@ -6345,19 +6335,19 @@
         <f>IF(_acsReport_day_each!AZ17="","",_acsReport_day_each!AZ17)</f>
         <v/>
       </c>
-      <c r="BC23" s="21" t="str">
+      <c r="BC23" s="20" t="str">
         <f>IF(_acsReport_day_each!BA17="","",_acsReport_day_each!BA17)</f>
         <v/>
       </c>
-      <c r="BD23" s="21" t="str">
+      <c r="BD23" s="20" t="str">
         <f>IF(_acsReport_day_each!BB17="","",_acsReport_day_each!BB17)</f>
         <v/>
       </c>
-      <c r="BE23" s="20">
+      <c r="BE23" s="19">
         <f>_acsReport_day_each!BD17:BF17</f>
         <v>0</v>
       </c>
-      <c r="BI23" s="20">
+      <c r="BI23" s="19">
         <f>_acsReport_day_each!BG17:BI17</f>
         <v>0</v>
       </c>
@@ -6374,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:64" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="26">
         <v>0.66666666666666696</v>
       </c>
@@ -6594,11 +6584,11 @@
         <f>IF(_acsReport_day_each!BB18="","",_acsReport_day_each!BB18)</f>
         <v/>
       </c>
-      <c r="BE24" s="20">
+      <c r="BE24" s="19">
         <f>_acsReport_day_each!BD18:BF18</f>
         <v>0</v>
       </c>
-      <c r="BI24" s="20">
+      <c r="BI24" s="19">
         <f>_acsReport_day_each!BG18:BI18</f>
         <v>0</v>
       </c>
@@ -6615,19 +6605,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="19">
+    <row r="25" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B25" s="21">
         <v>0.70833333333333304</v>
       </c>
       <c r="C25" s="22" t="str">
         <f>IF(_acsReport_day_each!A19="","",_acsReport_day_each!A19)</f>
         <v/>
       </c>
-      <c r="D25" s="21" t="str">
+      <c r="D25" s="20" t="str">
         <f>IF(_acsReport_day_each!B19="","",_acsReport_day_each!B19)</f>
         <v/>
       </c>
-      <c r="E25" s="21" t="str">
+      <c r="E25" s="20" t="str">
         <f>IF(_acsReport_day_each!C19="","",_acsReport_day_each!C19)</f>
         <v/>
       </c>
@@ -6635,11 +6625,11 @@
         <f>IF(_acsReport_day_each!D19="","",_acsReport_day_each!D19)</f>
         <v/>
       </c>
-      <c r="G25" s="21" t="str">
+      <c r="G25" s="20" t="str">
         <f>IF(_acsReport_day_each!E19="","",_acsReport_day_each!E19)</f>
         <v/>
       </c>
-      <c r="H25" s="21" t="str">
+      <c r="H25" s="20" t="str">
         <f>IF(_acsReport_day_each!F19="","",_acsReport_day_each!F19)</f>
         <v/>
       </c>
@@ -6647,11 +6637,11 @@
         <f>IF(_acsReport_day_each!G19="","",_acsReport_day_each!G19)</f>
         <v/>
       </c>
-      <c r="J25" s="21" t="str">
+      <c r="J25" s="20" t="str">
         <f>IF(_acsReport_day_each!H19="","",_acsReport_day_each!H19)</f>
         <v/>
       </c>
-      <c r="K25" s="21" t="str">
+      <c r="K25" s="20" t="str">
         <f>IF(_acsReport_day_each!I19="","",_acsReport_day_each!I19)</f>
         <v/>
       </c>
@@ -6659,11 +6649,11 @@
         <f>IF(_acsReport_day_each!J19="","",_acsReport_day_each!J19)</f>
         <v/>
       </c>
-      <c r="M25" s="21" t="str">
+      <c r="M25" s="20" t="str">
         <f>IF(_acsReport_day_each!K19="","",_acsReport_day_each!K19)</f>
         <v/>
       </c>
-      <c r="N25" s="21" t="str">
+      <c r="N25" s="20" t="str">
         <f>IF(_acsReport_day_each!L19="","",_acsReport_day_each!L19)</f>
         <v/>
       </c>
@@ -6671,11 +6661,11 @@
         <f>IF(_acsReport_day_each!M19="","",_acsReport_day_each!M19)</f>
         <v/>
       </c>
-      <c r="P25" s="21" t="str">
+      <c r="P25" s="20" t="str">
         <f>IF(_acsReport_day_each!N19="","",_acsReport_day_each!N19)</f>
         <v/>
       </c>
-      <c r="Q25" s="21" t="str">
+      <c r="Q25" s="20" t="str">
         <f>IF(_acsReport_day_each!O19="","",_acsReport_day_each!O19)</f>
         <v/>
       </c>
@@ -6683,11 +6673,11 @@
         <f>IF(_acsReport_day_each!P19="","",_acsReport_day_each!P19)</f>
         <v/>
       </c>
-      <c r="S25" s="21" t="str">
+      <c r="S25" s="20" t="str">
         <f>IF(_acsReport_day_each!Q19="","",_acsReport_day_each!Q19)</f>
         <v/>
       </c>
-      <c r="T25" s="21" t="str">
+      <c r="T25" s="20" t="str">
         <f>IF(_acsReport_day_each!R19="","",_acsReport_day_each!R19)</f>
         <v/>
       </c>
@@ -6695,11 +6685,11 @@
         <f>IF(_acsReport_day_each!S19="","",_acsReport_day_each!S19)</f>
         <v/>
       </c>
-      <c r="V25" s="21" t="str">
+      <c r="V25" s="20" t="str">
         <f>IF(_acsReport_day_each!T19="","",_acsReport_day_each!T19)</f>
         <v/>
       </c>
-      <c r="W25" s="21" t="str">
+      <c r="W25" s="20" t="str">
         <f>IF(_acsReport_day_each!U19="","",_acsReport_day_each!U19)</f>
         <v/>
       </c>
@@ -6707,11 +6697,11 @@
         <f>IF(_acsReport_day_each!V19="","",_acsReport_day_each!V19)</f>
         <v/>
       </c>
-      <c r="Y25" s="21" t="str">
+      <c r="Y25" s="20" t="str">
         <f>IF(_acsReport_day_each!W19="","",_acsReport_day_each!W19)</f>
         <v/>
       </c>
-      <c r="Z25" s="21" t="str">
+      <c r="Z25" s="20" t="str">
         <f>IF(_acsReport_day_each!X19="","",_acsReport_day_each!X19)</f>
         <v/>
       </c>
@@ -6719,11 +6709,11 @@
         <f>IF(_acsReport_day_each!Y19="","",_acsReport_day_each!Y19)</f>
         <v/>
       </c>
-      <c r="AB25" s="21" t="str">
+      <c r="AB25" s="20" t="str">
         <f>IF(_acsReport_day_each!Z19="","",_acsReport_day_each!Z19)</f>
         <v/>
       </c>
-      <c r="AC25" s="21" t="str">
+      <c r="AC25" s="20" t="str">
         <f>IF(_acsReport_day_each!AA19="","",_acsReport_day_each!AA19)</f>
         <v/>
       </c>
@@ -6731,11 +6721,11 @@
         <f>IF(_acsReport_day_each!AB19="","",_acsReport_day_each!AB19)</f>
         <v/>
       </c>
-      <c r="AE25" s="21" t="str">
+      <c r="AE25" s="20" t="str">
         <f>IF(_acsReport_day_each!AC19="","",_acsReport_day_each!AC19)</f>
         <v/>
       </c>
-      <c r="AF25" s="21" t="str">
+      <c r="AF25" s="20" t="str">
         <f>IF(_acsReport_day_each!AD19="","",_acsReport_day_each!AD19)</f>
         <v/>
       </c>
@@ -6743,11 +6733,11 @@
         <f>IF(_acsReport_day_each!AE19="","",_acsReport_day_each!AE19)</f>
         <v/>
       </c>
-      <c r="AH25" s="21" t="str">
+      <c r="AH25" s="20" t="str">
         <f>IF(_acsReport_day_each!AF19="","",_acsReport_day_each!AF19)</f>
         <v/>
       </c>
-      <c r="AI25" s="21" t="str">
+      <c r="AI25" s="20" t="str">
         <f>IF(_acsReport_day_each!AG19="","",_acsReport_day_each!AG19)</f>
         <v/>
       </c>
@@ -6755,11 +6745,11 @@
         <f>IF(_acsReport_day_each!AH19="","",_acsReport_day_each!AH19)</f>
         <v/>
       </c>
-      <c r="AK25" s="21" t="str">
+      <c r="AK25" s="20" t="str">
         <f>IF(_acsReport_day_each!AI19="","",_acsReport_day_each!AI19)</f>
         <v/>
       </c>
-      <c r="AL25" s="21" t="str">
+      <c r="AL25" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ19="","",_acsReport_day_each!AJ19)</f>
         <v/>
       </c>
@@ -6767,11 +6757,11 @@
         <f>IF(_acsReport_day_each!AK19="","",_acsReport_day_each!AK19)</f>
         <v/>
       </c>
-      <c r="AN25" s="21" t="str">
+      <c r="AN25" s="20" t="str">
         <f>IF(_acsReport_day_each!AL19="","",_acsReport_day_each!AL19)</f>
         <v/>
       </c>
-      <c r="AO25" s="21" t="str">
+      <c r="AO25" s="20" t="str">
         <f>IF(_acsReport_day_each!AM19="","",_acsReport_day_each!AM19)</f>
         <v/>
       </c>
@@ -6779,11 +6769,11 @@
         <f>IF(_acsReport_day_each!AN19="","",_acsReport_day_each!AN19)</f>
         <v/>
       </c>
-      <c r="AQ25" s="21" t="str">
+      <c r="AQ25" s="20" t="str">
         <f>IF(_acsReport_day_each!AO19="","",_acsReport_day_each!AO19)</f>
         <v/>
       </c>
-      <c r="AR25" s="21" t="str">
+      <c r="AR25" s="20" t="str">
         <f>IF(_acsReport_day_each!AP19="","",_acsReport_day_each!AP19)</f>
         <v/>
       </c>
@@ -6791,11 +6781,11 @@
         <f>IF(_acsReport_day_each!AQ19="","",_acsReport_day_each!AQ19)</f>
         <v/>
       </c>
-      <c r="AT25" s="21" t="str">
+      <c r="AT25" s="20" t="str">
         <f>IF(_acsReport_day_each!AR19="","",_acsReport_day_each!AR19)</f>
         <v/>
       </c>
-      <c r="AU25" s="21" t="str">
+      <c r="AU25" s="20" t="str">
         <f>IF(_acsReport_day_each!AS19="","",_acsReport_day_each!AS19)</f>
         <v/>
       </c>
@@ -6803,11 +6793,11 @@
         <f>IF(_acsReport_day_each!AT19="","",_acsReport_day_each!AT19)</f>
         <v/>
       </c>
-      <c r="AW25" s="21" t="str">
+      <c r="AW25" s="20" t="str">
         <f>IF(_acsReport_day_each!AU19="","",_acsReport_day_each!AU19)</f>
         <v/>
       </c>
-      <c r="AX25" s="21" t="str">
+      <c r="AX25" s="20" t="str">
         <f>IF(_acsReport_day_each!AV19="","",_acsReport_day_each!AV19)</f>
         <v/>
       </c>
@@ -6815,11 +6805,11 @@
         <f>IF(_acsReport_day_each!AW19="","",_acsReport_day_each!AW19)</f>
         <v/>
       </c>
-      <c r="AZ25" s="21" t="str">
+      <c r="AZ25" s="20" t="str">
         <f>IF(_acsReport_day_each!AX19="","",_acsReport_day_each!AX19)</f>
         <v/>
       </c>
-      <c r="BA25" s="21" t="str">
+      <c r="BA25" s="20" t="str">
         <f>IF(_acsReport_day_each!AY19="","",_acsReport_day_each!AY19)</f>
         <v/>
       </c>
@@ -6827,19 +6817,19 @@
         <f>IF(_acsReport_day_each!AZ19="","",_acsReport_day_each!AZ19)</f>
         <v/>
       </c>
-      <c r="BC25" s="21" t="str">
+      <c r="BC25" s="20" t="str">
         <f>IF(_acsReport_day_each!BA19="","",_acsReport_day_each!BA19)</f>
         <v/>
       </c>
-      <c r="BD25" s="21" t="str">
+      <c r="BD25" s="20" t="str">
         <f>IF(_acsReport_day_each!BB19="","",_acsReport_day_each!BB19)</f>
         <v/>
       </c>
-      <c r="BE25" s="20">
+      <c r="BE25" s="19">
         <f>_acsReport_day_each!BD19:BF19</f>
         <v>0</v>
       </c>
-      <c r="BI25" s="20">
+      <c r="BI25" s="19">
         <f>_acsReport_day_each!BG19:BI19</f>
         <v>0</v>
       </c>
@@ -6856,19 +6846,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="19">
+    <row r="26" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B26" s="21">
         <v>0.75</v>
       </c>
       <c r="C26" s="22" t="str">
         <f>IF(_acsReport_day_each!A20="","",_acsReport_day_each!A20)</f>
         <v/>
       </c>
-      <c r="D26" s="21" t="str">
+      <c r="D26" s="20" t="str">
         <f>IF(_acsReport_day_each!B20="","",_acsReport_day_each!B20)</f>
         <v/>
       </c>
-      <c r="E26" s="21" t="str">
+      <c r="E26" s="20" t="str">
         <f>IF(_acsReport_day_each!C20="","",_acsReport_day_each!C20)</f>
         <v/>
       </c>
@@ -6876,11 +6866,11 @@
         <f>IF(_acsReport_day_each!D20="","",_acsReport_day_each!D20)</f>
         <v/>
       </c>
-      <c r="G26" s="21" t="str">
+      <c r="G26" s="20" t="str">
         <f>IF(_acsReport_day_each!E20="","",_acsReport_day_each!E20)</f>
         <v/>
       </c>
-      <c r="H26" s="21" t="str">
+      <c r="H26" s="20" t="str">
         <f>IF(_acsReport_day_each!F20="","",_acsReport_day_each!F20)</f>
         <v/>
       </c>
@@ -6888,11 +6878,11 @@
         <f>IF(_acsReport_day_each!G20="","",_acsReport_day_each!G20)</f>
         <v/>
       </c>
-      <c r="J26" s="21" t="str">
+      <c r="J26" s="20" t="str">
         <f>IF(_acsReport_day_each!H20="","",_acsReport_day_each!H20)</f>
         <v/>
       </c>
-      <c r="K26" s="21" t="str">
+      <c r="K26" s="20" t="str">
         <f>IF(_acsReport_day_each!I20="","",_acsReport_day_each!I20)</f>
         <v/>
       </c>
@@ -6900,11 +6890,11 @@
         <f>IF(_acsReport_day_each!J20="","",_acsReport_day_each!J20)</f>
         <v/>
       </c>
-      <c r="M26" s="21" t="str">
+      <c r="M26" s="20" t="str">
         <f>IF(_acsReport_day_each!K20="","",_acsReport_day_each!K20)</f>
         <v/>
       </c>
-      <c r="N26" s="21" t="str">
+      <c r="N26" s="20" t="str">
         <f>IF(_acsReport_day_each!L20="","",_acsReport_day_each!L20)</f>
         <v/>
       </c>
@@ -6912,11 +6902,11 @@
         <f>IF(_acsReport_day_each!M20="","",_acsReport_day_each!M20)</f>
         <v/>
       </c>
-      <c r="P26" s="21" t="str">
+      <c r="P26" s="20" t="str">
         <f>IF(_acsReport_day_each!N20="","",_acsReport_day_each!N20)</f>
         <v/>
       </c>
-      <c r="Q26" s="21" t="str">
+      <c r="Q26" s="20" t="str">
         <f>IF(_acsReport_day_each!O20="","",_acsReport_day_each!O20)</f>
         <v/>
       </c>
@@ -6924,11 +6914,11 @@
         <f>IF(_acsReport_day_each!P20="","",_acsReport_day_each!P20)</f>
         <v/>
       </c>
-      <c r="S26" s="21" t="str">
+      <c r="S26" s="20" t="str">
         <f>IF(_acsReport_day_each!Q20="","",_acsReport_day_each!Q20)</f>
         <v/>
       </c>
-      <c r="T26" s="21" t="str">
+      <c r="T26" s="20" t="str">
         <f>IF(_acsReport_day_each!R20="","",_acsReport_day_each!R20)</f>
         <v/>
       </c>
@@ -6936,11 +6926,11 @@
         <f>IF(_acsReport_day_each!S20="","",_acsReport_day_each!S20)</f>
         <v/>
       </c>
-      <c r="V26" s="21" t="str">
+      <c r="V26" s="20" t="str">
         <f>IF(_acsReport_day_each!T20="","",_acsReport_day_each!T20)</f>
         <v/>
       </c>
-      <c r="W26" s="21" t="str">
+      <c r="W26" s="20" t="str">
         <f>IF(_acsReport_day_each!U20="","",_acsReport_day_each!U20)</f>
         <v/>
       </c>
@@ -6948,11 +6938,11 @@
         <f>IF(_acsReport_day_each!V20="","",_acsReport_day_each!V20)</f>
         <v/>
       </c>
-      <c r="Y26" s="21" t="str">
+      <c r="Y26" s="20" t="str">
         <f>IF(_acsReport_day_each!W20="","",_acsReport_day_each!W20)</f>
         <v/>
       </c>
-      <c r="Z26" s="21" t="str">
+      <c r="Z26" s="20" t="str">
         <f>IF(_acsReport_day_each!X20="","",_acsReport_day_each!X20)</f>
         <v/>
       </c>
@@ -6960,11 +6950,11 @@
         <f>IF(_acsReport_day_each!Y20="","",_acsReport_day_each!Y20)</f>
         <v/>
       </c>
-      <c r="AB26" s="21" t="str">
+      <c r="AB26" s="20" t="str">
         <f>IF(_acsReport_day_each!Z20="","",_acsReport_day_each!Z20)</f>
         <v/>
       </c>
-      <c r="AC26" s="21" t="str">
+      <c r="AC26" s="20" t="str">
         <f>IF(_acsReport_day_each!AA20="","",_acsReport_day_each!AA20)</f>
         <v/>
       </c>
@@ -6972,11 +6962,11 @@
         <f>IF(_acsReport_day_each!AB20="","",_acsReport_day_each!AB20)</f>
         <v/>
       </c>
-      <c r="AE26" s="21" t="str">
+      <c r="AE26" s="20" t="str">
         <f>IF(_acsReport_day_each!AC20="","",_acsReport_day_each!AC20)</f>
         <v/>
       </c>
-      <c r="AF26" s="21" t="str">
+      <c r="AF26" s="20" t="str">
         <f>IF(_acsReport_day_each!AD20="","",_acsReport_day_each!AD20)</f>
         <v/>
       </c>
@@ -6984,11 +6974,11 @@
         <f>IF(_acsReport_day_each!AE20="","",_acsReport_day_each!AE20)</f>
         <v/>
       </c>
-      <c r="AH26" s="21" t="str">
+      <c r="AH26" s="20" t="str">
         <f>IF(_acsReport_day_each!AF20="","",_acsReport_day_each!AF20)</f>
         <v/>
       </c>
-      <c r="AI26" s="21" t="str">
+      <c r="AI26" s="20" t="str">
         <f>IF(_acsReport_day_each!AG20="","",_acsReport_day_each!AG20)</f>
         <v/>
       </c>
@@ -6996,11 +6986,11 @@
         <f>IF(_acsReport_day_each!AH20="","",_acsReport_day_each!AH20)</f>
         <v/>
       </c>
-      <c r="AK26" s="21" t="str">
+      <c r="AK26" s="20" t="str">
         <f>IF(_acsReport_day_each!AI20="","",_acsReport_day_each!AI20)</f>
         <v/>
       </c>
-      <c r="AL26" s="21" t="str">
+      <c r="AL26" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ20="","",_acsReport_day_each!AJ20)</f>
         <v/>
       </c>
@@ -7008,11 +6998,11 @@
         <f>IF(_acsReport_day_each!AK20="","",_acsReport_day_each!AK20)</f>
         <v/>
       </c>
-      <c r="AN26" s="21" t="str">
+      <c r="AN26" s="20" t="str">
         <f>IF(_acsReport_day_each!AL20="","",_acsReport_day_each!AL20)</f>
         <v/>
       </c>
-      <c r="AO26" s="21" t="str">
+      <c r="AO26" s="20" t="str">
         <f>IF(_acsReport_day_each!AM20="","",_acsReport_day_each!AM20)</f>
         <v/>
       </c>
@@ -7020,11 +7010,11 @@
         <f>IF(_acsReport_day_each!AN20="","",_acsReport_day_each!AN20)</f>
         <v/>
       </c>
-      <c r="AQ26" s="21" t="str">
+      <c r="AQ26" s="20" t="str">
         <f>IF(_acsReport_day_each!AO20="","",_acsReport_day_each!AO20)</f>
         <v/>
       </c>
-      <c r="AR26" s="21" t="str">
+      <c r="AR26" s="20" t="str">
         <f>IF(_acsReport_day_each!AP20="","",_acsReport_day_each!AP20)</f>
         <v/>
       </c>
@@ -7032,11 +7022,11 @@
         <f>IF(_acsReport_day_each!AQ20="","",_acsReport_day_each!AQ20)</f>
         <v/>
       </c>
-      <c r="AT26" s="21" t="str">
+      <c r="AT26" s="20" t="str">
         <f>IF(_acsReport_day_each!AR20="","",_acsReport_day_each!AR20)</f>
         <v/>
       </c>
-      <c r="AU26" s="21" t="str">
+      <c r="AU26" s="20" t="str">
         <f>IF(_acsReport_day_each!AS20="","",_acsReport_day_each!AS20)</f>
         <v/>
       </c>
@@ -7044,11 +7034,11 @@
         <f>IF(_acsReport_day_each!AT20="","",_acsReport_day_each!AT20)</f>
         <v/>
       </c>
-      <c r="AW26" s="21" t="str">
+      <c r="AW26" s="20" t="str">
         <f>IF(_acsReport_day_each!AU20="","",_acsReport_day_each!AU20)</f>
         <v/>
       </c>
-      <c r="AX26" s="21" t="str">
+      <c r="AX26" s="20" t="str">
         <f>IF(_acsReport_day_each!AV20="","",_acsReport_day_each!AV20)</f>
         <v/>
       </c>
@@ -7056,11 +7046,11 @@
         <f>IF(_acsReport_day_each!AW20="","",_acsReport_day_each!AW20)</f>
         <v/>
       </c>
-      <c r="AZ26" s="21" t="str">
+      <c r="AZ26" s="20" t="str">
         <f>IF(_acsReport_day_each!AX20="","",_acsReport_day_each!AX20)</f>
         <v/>
       </c>
-      <c r="BA26" s="21" t="str">
+      <c r="BA26" s="20" t="str">
         <f>IF(_acsReport_day_each!AY20="","",_acsReport_day_each!AY20)</f>
         <v/>
       </c>
@@ -7068,19 +7058,19 @@
         <f>IF(_acsReport_day_each!AZ20="","",_acsReport_day_each!AZ20)</f>
         <v/>
       </c>
-      <c r="BC26" s="21" t="str">
+      <c r="BC26" s="20" t="str">
         <f>IF(_acsReport_day_each!BA20="","",_acsReport_day_each!BA20)</f>
         <v/>
       </c>
-      <c r="BD26" s="21" t="str">
+      <c r="BD26" s="20" t="str">
         <f>IF(_acsReport_day_each!BB20="","",_acsReport_day_each!BB20)</f>
         <v/>
       </c>
-      <c r="BE26" s="20">
+      <c r="BE26" s="19">
         <f>_acsReport_day_each!BD20:BF20</f>
         <v>0</v>
       </c>
-      <c r="BI26" s="20">
+      <c r="BI26" s="19">
         <f>_acsReport_day_each!BG20:BI20</f>
         <v>0</v>
       </c>
@@ -7097,19 +7087,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="19">
+    <row r="27" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B27" s="21">
         <v>0.79166666666666696</v>
       </c>
       <c r="C27" s="22" t="str">
         <f>IF(_acsReport_day_each!A21="","",_acsReport_day_each!A21)</f>
         <v/>
       </c>
-      <c r="D27" s="21" t="str">
+      <c r="D27" s="20" t="str">
         <f>IF(_acsReport_day_each!B21="","",_acsReport_day_each!B21)</f>
         <v/>
       </c>
-      <c r="E27" s="21" t="str">
+      <c r="E27" s="20" t="str">
         <f>IF(_acsReport_day_each!C21="","",_acsReport_day_each!C21)</f>
         <v/>
       </c>
@@ -7117,11 +7107,11 @@
         <f>IF(_acsReport_day_each!D21="","",_acsReport_day_each!D21)</f>
         <v/>
       </c>
-      <c r="G27" s="21" t="str">
+      <c r="G27" s="20" t="str">
         <f>IF(_acsReport_day_each!E21="","",_acsReport_day_each!E21)</f>
         <v/>
       </c>
-      <c r="H27" s="21" t="str">
+      <c r="H27" s="20" t="str">
         <f>IF(_acsReport_day_each!F21="","",_acsReport_day_each!F21)</f>
         <v/>
       </c>
@@ -7129,11 +7119,11 @@
         <f>IF(_acsReport_day_each!G21="","",_acsReport_day_each!G21)</f>
         <v/>
       </c>
-      <c r="J27" s="21" t="str">
+      <c r="J27" s="20" t="str">
         <f>IF(_acsReport_day_each!H21="","",_acsReport_day_each!H21)</f>
         <v/>
       </c>
-      <c r="K27" s="21" t="str">
+      <c r="K27" s="20" t="str">
         <f>IF(_acsReport_day_each!I21="","",_acsReport_day_each!I21)</f>
         <v/>
       </c>
@@ -7141,11 +7131,11 @@
         <f>IF(_acsReport_day_each!J21="","",_acsReport_day_each!J21)</f>
         <v/>
       </c>
-      <c r="M27" s="21" t="str">
+      <c r="M27" s="20" t="str">
         <f>IF(_acsReport_day_each!K21="","",_acsReport_day_each!K21)</f>
         <v/>
       </c>
-      <c r="N27" s="21" t="str">
+      <c r="N27" s="20" t="str">
         <f>IF(_acsReport_day_each!L21="","",_acsReport_day_each!L21)</f>
         <v/>
       </c>
@@ -7153,11 +7143,11 @@
         <f>IF(_acsReport_day_each!M21="","",_acsReport_day_each!M21)</f>
         <v/>
       </c>
-      <c r="P27" s="21" t="str">
+      <c r="P27" s="20" t="str">
         <f>IF(_acsReport_day_each!N21="","",_acsReport_day_each!N21)</f>
         <v/>
       </c>
-      <c r="Q27" s="21" t="str">
+      <c r="Q27" s="20" t="str">
         <f>IF(_acsReport_day_each!O21="","",_acsReport_day_each!O21)</f>
         <v/>
       </c>
@@ -7165,11 +7155,11 @@
         <f>IF(_acsReport_day_each!P21="","",_acsReport_day_each!P21)</f>
         <v/>
       </c>
-      <c r="S27" s="21" t="str">
+      <c r="S27" s="20" t="str">
         <f>IF(_acsReport_day_each!Q21="","",_acsReport_day_each!Q21)</f>
         <v/>
       </c>
-      <c r="T27" s="21" t="str">
+      <c r="T27" s="20" t="str">
         <f>IF(_acsReport_day_each!R21="","",_acsReport_day_each!R21)</f>
         <v/>
       </c>
@@ -7177,11 +7167,11 @@
         <f>IF(_acsReport_day_each!S21="","",_acsReport_day_each!S21)</f>
         <v/>
       </c>
-      <c r="V27" s="21" t="str">
+      <c r="V27" s="20" t="str">
         <f>IF(_acsReport_day_each!T21="","",_acsReport_day_each!T21)</f>
         <v/>
       </c>
-      <c r="W27" s="21" t="str">
+      <c r="W27" s="20" t="str">
         <f>IF(_acsReport_day_each!U21="","",_acsReport_day_each!U21)</f>
         <v/>
       </c>
@@ -7189,11 +7179,11 @@
         <f>IF(_acsReport_day_each!V21="","",_acsReport_day_each!V21)</f>
         <v/>
       </c>
-      <c r="Y27" s="21" t="str">
+      <c r="Y27" s="20" t="str">
         <f>IF(_acsReport_day_each!W21="","",_acsReport_day_each!W21)</f>
         <v/>
       </c>
-      <c r="Z27" s="21" t="str">
+      <c r="Z27" s="20" t="str">
         <f>IF(_acsReport_day_each!X21="","",_acsReport_day_each!X21)</f>
         <v/>
       </c>
@@ -7201,11 +7191,11 @@
         <f>IF(_acsReport_day_each!Y21="","",_acsReport_day_each!Y21)</f>
         <v/>
       </c>
-      <c r="AB27" s="21" t="str">
+      <c r="AB27" s="20" t="str">
         <f>IF(_acsReport_day_each!Z21="","",_acsReport_day_each!Z21)</f>
         <v/>
       </c>
-      <c r="AC27" s="21" t="str">
+      <c r="AC27" s="20" t="str">
         <f>IF(_acsReport_day_each!AA21="","",_acsReport_day_each!AA21)</f>
         <v/>
       </c>
@@ -7213,11 +7203,11 @@
         <f>IF(_acsReport_day_each!AB21="","",_acsReport_day_each!AB21)</f>
         <v/>
       </c>
-      <c r="AE27" s="21" t="str">
+      <c r="AE27" s="20" t="str">
         <f>IF(_acsReport_day_each!AC21="","",_acsReport_day_each!AC21)</f>
         <v/>
       </c>
-      <c r="AF27" s="21" t="str">
+      <c r="AF27" s="20" t="str">
         <f>IF(_acsReport_day_each!AD21="","",_acsReport_day_each!AD21)</f>
         <v/>
       </c>
@@ -7225,11 +7215,11 @@
         <f>IF(_acsReport_day_each!AE21="","",_acsReport_day_each!AE21)</f>
         <v/>
       </c>
-      <c r="AH27" s="21" t="str">
+      <c r="AH27" s="20" t="str">
         <f>IF(_acsReport_day_each!AF21="","",_acsReport_day_each!AF21)</f>
         <v/>
       </c>
-      <c r="AI27" s="21" t="str">
+      <c r="AI27" s="20" t="str">
         <f>IF(_acsReport_day_each!AG21="","",_acsReport_day_each!AG21)</f>
         <v/>
       </c>
@@ -7237,11 +7227,11 @@
         <f>IF(_acsReport_day_each!AH21="","",_acsReport_day_each!AH21)</f>
         <v/>
       </c>
-      <c r="AK27" s="21" t="str">
+      <c r="AK27" s="20" t="str">
         <f>IF(_acsReport_day_each!AI21="","",_acsReport_day_each!AI21)</f>
         <v/>
       </c>
-      <c r="AL27" s="21" t="str">
+      <c r="AL27" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ21="","",_acsReport_day_each!AJ21)</f>
         <v/>
       </c>
@@ -7249,11 +7239,11 @@
         <f>IF(_acsReport_day_each!AK21="","",_acsReport_day_each!AK21)</f>
         <v/>
       </c>
-      <c r="AN27" s="21" t="str">
+      <c r="AN27" s="20" t="str">
         <f>IF(_acsReport_day_each!AL21="","",_acsReport_day_each!AL21)</f>
         <v/>
       </c>
-      <c r="AO27" s="21" t="str">
+      <c r="AO27" s="20" t="str">
         <f>IF(_acsReport_day_each!AM21="","",_acsReport_day_each!AM21)</f>
         <v/>
       </c>
@@ -7261,11 +7251,11 @@
         <f>IF(_acsReport_day_each!AN21="","",_acsReport_day_each!AN21)</f>
         <v/>
       </c>
-      <c r="AQ27" s="21" t="str">
+      <c r="AQ27" s="20" t="str">
         <f>IF(_acsReport_day_each!AO21="","",_acsReport_day_each!AO21)</f>
         <v/>
       </c>
-      <c r="AR27" s="21" t="str">
+      <c r="AR27" s="20" t="str">
         <f>IF(_acsReport_day_each!AP21="","",_acsReport_day_each!AP21)</f>
         <v/>
       </c>
@@ -7273,11 +7263,11 @@
         <f>IF(_acsReport_day_each!AQ21="","",_acsReport_day_each!AQ21)</f>
         <v/>
       </c>
-      <c r="AT27" s="21" t="str">
+      <c r="AT27" s="20" t="str">
         <f>IF(_acsReport_day_each!AR21="","",_acsReport_day_each!AR21)</f>
         <v/>
       </c>
-      <c r="AU27" s="21" t="str">
+      <c r="AU27" s="20" t="str">
         <f>IF(_acsReport_day_each!AS21="","",_acsReport_day_each!AS21)</f>
         <v/>
       </c>
@@ -7285,11 +7275,11 @@
         <f>IF(_acsReport_day_each!AT21="","",_acsReport_day_each!AT21)</f>
         <v/>
       </c>
-      <c r="AW27" s="21" t="str">
+      <c r="AW27" s="20" t="str">
         <f>IF(_acsReport_day_each!AU21="","",_acsReport_day_each!AU21)</f>
         <v/>
       </c>
-      <c r="AX27" s="21" t="str">
+      <c r="AX27" s="20" t="str">
         <f>IF(_acsReport_day_each!AV21="","",_acsReport_day_each!AV21)</f>
         <v/>
       </c>
@@ -7297,11 +7287,11 @@
         <f>IF(_acsReport_day_each!AW21="","",_acsReport_day_each!AW21)</f>
         <v/>
       </c>
-      <c r="AZ27" s="21" t="str">
+      <c r="AZ27" s="20" t="str">
         <f>IF(_acsReport_day_each!AX21="","",_acsReport_day_each!AX21)</f>
         <v/>
       </c>
-      <c r="BA27" s="21" t="str">
+      <c r="BA27" s="20" t="str">
         <f>IF(_acsReport_day_each!AY21="","",_acsReport_day_each!AY21)</f>
         <v/>
       </c>
@@ -7309,19 +7299,19 @@
         <f>IF(_acsReport_day_each!AZ21="","",_acsReport_day_each!AZ21)</f>
         <v/>
       </c>
-      <c r="BC27" s="21" t="str">
+      <c r="BC27" s="20" t="str">
         <f>IF(_acsReport_day_each!BA21="","",_acsReport_day_each!BA21)</f>
         <v/>
       </c>
-      <c r="BD27" s="21" t="str">
+      <c r="BD27" s="20" t="str">
         <f>IF(_acsReport_day_each!BB21="","",_acsReport_day_each!BB21)</f>
         <v/>
       </c>
-      <c r="BE27" s="20">
+      <c r="BE27" s="19">
         <f>_acsReport_day_each!BD21:BF21</f>
         <v>0</v>
       </c>
-      <c r="BI27" s="20">
+      <c r="BI27" s="19">
         <f>_acsReport_day_each!BG21:BI21</f>
         <v>0</v>
       </c>
@@ -7338,19 +7328,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="19">
+    <row r="28" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B28" s="21">
         <v>0.83333333333333304</v>
       </c>
       <c r="C28" s="22" t="str">
         <f>IF(_acsReport_day_each!A22="","",_acsReport_day_each!A22)</f>
         <v/>
       </c>
-      <c r="D28" s="21" t="str">
+      <c r="D28" s="20" t="str">
         <f>IF(_acsReport_day_each!B22="","",_acsReport_day_each!B22)</f>
         <v/>
       </c>
-      <c r="E28" s="21" t="str">
+      <c r="E28" s="20" t="str">
         <f>IF(_acsReport_day_each!C22="","",_acsReport_day_each!C22)</f>
         <v/>
       </c>
@@ -7358,11 +7348,11 @@
         <f>IF(_acsReport_day_each!D22="","",_acsReport_day_each!D22)</f>
         <v/>
       </c>
-      <c r="G28" s="21" t="str">
+      <c r="G28" s="20" t="str">
         <f>IF(_acsReport_day_each!E22="","",_acsReport_day_each!E22)</f>
         <v/>
       </c>
-      <c r="H28" s="21" t="str">
+      <c r="H28" s="20" t="str">
         <f>IF(_acsReport_day_each!F22="","",_acsReport_day_each!F22)</f>
         <v/>
       </c>
@@ -7370,11 +7360,11 @@
         <f>IF(_acsReport_day_each!G22="","",_acsReport_day_each!G22)</f>
         <v/>
       </c>
-      <c r="J28" s="21" t="str">
+      <c r="J28" s="20" t="str">
         <f>IF(_acsReport_day_each!H22="","",_acsReport_day_each!H22)</f>
         <v/>
       </c>
-      <c r="K28" s="21" t="str">
+      <c r="K28" s="20" t="str">
         <f>IF(_acsReport_day_each!I22="","",_acsReport_day_each!I22)</f>
         <v/>
       </c>
@@ -7382,11 +7372,11 @@
         <f>IF(_acsReport_day_each!J22="","",_acsReport_day_each!J22)</f>
         <v/>
       </c>
-      <c r="M28" s="21" t="str">
+      <c r="M28" s="20" t="str">
         <f>IF(_acsReport_day_each!K22="","",_acsReport_day_each!K22)</f>
         <v/>
       </c>
-      <c r="N28" s="21" t="str">
+      <c r="N28" s="20" t="str">
         <f>IF(_acsReport_day_each!L22="","",_acsReport_day_each!L22)</f>
         <v/>
       </c>
@@ -7394,11 +7384,11 @@
         <f>IF(_acsReport_day_each!M22="","",_acsReport_day_each!M22)</f>
         <v/>
       </c>
-      <c r="P28" s="21" t="str">
+      <c r="P28" s="20" t="str">
         <f>IF(_acsReport_day_each!N22="","",_acsReport_day_each!N22)</f>
         <v/>
       </c>
-      <c r="Q28" s="21" t="str">
+      <c r="Q28" s="20" t="str">
         <f>IF(_acsReport_day_each!O22="","",_acsReport_day_each!O22)</f>
         <v/>
       </c>
@@ -7406,11 +7396,11 @@
         <f>IF(_acsReport_day_each!P22="","",_acsReport_day_each!P22)</f>
         <v/>
       </c>
-      <c r="S28" s="21" t="str">
+      <c r="S28" s="20" t="str">
         <f>IF(_acsReport_day_each!Q22="","",_acsReport_day_each!Q22)</f>
         <v/>
       </c>
-      <c r="T28" s="21" t="str">
+      <c r="T28" s="20" t="str">
         <f>IF(_acsReport_day_each!R22="","",_acsReport_day_each!R22)</f>
         <v/>
       </c>
@@ -7418,11 +7408,11 @@
         <f>IF(_acsReport_day_each!S22="","",_acsReport_day_each!S22)</f>
         <v/>
       </c>
-      <c r="V28" s="21" t="str">
+      <c r="V28" s="20" t="str">
         <f>IF(_acsReport_day_each!T22="","",_acsReport_day_each!T22)</f>
         <v/>
       </c>
-      <c r="W28" s="21" t="str">
+      <c r="W28" s="20" t="str">
         <f>IF(_acsReport_day_each!U22="","",_acsReport_day_each!U22)</f>
         <v/>
       </c>
@@ -7430,11 +7420,11 @@
         <f>IF(_acsReport_day_each!V22="","",_acsReport_day_each!V22)</f>
         <v/>
       </c>
-      <c r="Y28" s="21" t="str">
+      <c r="Y28" s="20" t="str">
         <f>IF(_acsReport_day_each!W22="","",_acsReport_day_each!W22)</f>
         <v/>
       </c>
-      <c r="Z28" s="21" t="str">
+      <c r="Z28" s="20" t="str">
         <f>IF(_acsReport_day_each!X22="","",_acsReport_day_each!X22)</f>
         <v/>
       </c>
@@ -7442,11 +7432,11 @@
         <f>IF(_acsReport_day_each!Y22="","",_acsReport_day_each!Y22)</f>
         <v/>
       </c>
-      <c r="AB28" s="21" t="str">
+      <c r="AB28" s="20" t="str">
         <f>IF(_acsReport_day_each!Z22="","",_acsReport_day_each!Z22)</f>
         <v/>
       </c>
-      <c r="AC28" s="21" t="str">
+      <c r="AC28" s="20" t="str">
         <f>IF(_acsReport_day_each!AA22="","",_acsReport_day_each!AA22)</f>
         <v/>
       </c>
@@ -7454,11 +7444,11 @@
         <f>IF(_acsReport_day_each!AB22="","",_acsReport_day_each!AB22)</f>
         <v/>
       </c>
-      <c r="AE28" s="21" t="str">
+      <c r="AE28" s="20" t="str">
         <f>IF(_acsReport_day_each!AC22="","",_acsReport_day_each!AC22)</f>
         <v/>
       </c>
-      <c r="AF28" s="21" t="str">
+      <c r="AF28" s="20" t="str">
         <f>IF(_acsReport_day_each!AD22="","",_acsReport_day_each!AD22)</f>
         <v/>
       </c>
@@ -7466,11 +7456,11 @@
         <f>IF(_acsReport_day_each!AE22="","",_acsReport_day_each!AE22)</f>
         <v/>
       </c>
-      <c r="AH28" s="21" t="str">
+      <c r="AH28" s="20" t="str">
         <f>IF(_acsReport_day_each!AF22="","",_acsReport_day_each!AF22)</f>
         <v/>
       </c>
-      <c r="AI28" s="21" t="str">
+      <c r="AI28" s="20" t="str">
         <f>IF(_acsReport_day_each!AG22="","",_acsReport_day_each!AG22)</f>
         <v/>
       </c>
@@ -7478,11 +7468,11 @@
         <f>IF(_acsReport_day_each!AH22="","",_acsReport_day_each!AH22)</f>
         <v/>
       </c>
-      <c r="AK28" s="21" t="str">
+      <c r="AK28" s="20" t="str">
         <f>IF(_acsReport_day_each!AI22="","",_acsReport_day_each!AI22)</f>
         <v/>
       </c>
-      <c r="AL28" s="21" t="str">
+      <c r="AL28" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ22="","",_acsReport_day_each!AJ22)</f>
         <v/>
       </c>
@@ -7490,11 +7480,11 @@
         <f>IF(_acsReport_day_each!AK22="","",_acsReport_day_each!AK22)</f>
         <v/>
       </c>
-      <c r="AN28" s="21" t="str">
+      <c r="AN28" s="20" t="str">
         <f>IF(_acsReport_day_each!AL22="","",_acsReport_day_each!AL22)</f>
         <v/>
       </c>
-      <c r="AO28" s="21" t="str">
+      <c r="AO28" s="20" t="str">
         <f>IF(_acsReport_day_each!AM22="","",_acsReport_day_each!AM22)</f>
         <v/>
       </c>
@@ -7502,11 +7492,11 @@
         <f>IF(_acsReport_day_each!AN22="","",_acsReport_day_each!AN22)</f>
         <v/>
       </c>
-      <c r="AQ28" s="21" t="str">
+      <c r="AQ28" s="20" t="str">
         <f>IF(_acsReport_day_each!AO22="","",_acsReport_day_each!AO22)</f>
         <v/>
       </c>
-      <c r="AR28" s="21" t="str">
+      <c r="AR28" s="20" t="str">
         <f>IF(_acsReport_day_each!AP22="","",_acsReport_day_each!AP22)</f>
         <v/>
       </c>
@@ -7514,11 +7504,11 @@
         <f>IF(_acsReport_day_each!AQ22="","",_acsReport_day_each!AQ22)</f>
         <v/>
       </c>
-      <c r="AT28" s="21" t="str">
+      <c r="AT28" s="20" t="str">
         <f>IF(_acsReport_day_each!AR22="","",_acsReport_day_each!AR22)</f>
         <v/>
       </c>
-      <c r="AU28" s="21" t="str">
+      <c r="AU28" s="20" t="str">
         <f>IF(_acsReport_day_each!AS22="","",_acsReport_day_each!AS22)</f>
         <v/>
       </c>
@@ -7526,11 +7516,11 @@
         <f>IF(_acsReport_day_each!AT22="","",_acsReport_day_each!AT22)</f>
         <v/>
       </c>
-      <c r="AW28" s="21" t="str">
+      <c r="AW28" s="20" t="str">
         <f>IF(_acsReport_day_each!AU22="","",_acsReport_day_each!AU22)</f>
         <v/>
       </c>
-      <c r="AX28" s="21" t="str">
+      <c r="AX28" s="20" t="str">
         <f>IF(_acsReport_day_each!AV22="","",_acsReport_day_each!AV22)</f>
         <v/>
       </c>
@@ -7538,11 +7528,11 @@
         <f>IF(_acsReport_day_each!AW22="","",_acsReport_day_each!AW22)</f>
         <v/>
       </c>
-      <c r="AZ28" s="21" t="str">
+      <c r="AZ28" s="20" t="str">
         <f>IF(_acsReport_day_each!AX22="","",_acsReport_day_each!AX22)</f>
         <v/>
       </c>
-      <c r="BA28" s="21" t="str">
+      <c r="BA28" s="20" t="str">
         <f>IF(_acsReport_day_each!AY22="","",_acsReport_day_each!AY22)</f>
         <v/>
       </c>
@@ -7550,19 +7540,19 @@
         <f>IF(_acsReport_day_each!AZ22="","",_acsReport_day_each!AZ22)</f>
         <v/>
       </c>
-      <c r="BC28" s="21" t="str">
+      <c r="BC28" s="20" t="str">
         <f>IF(_acsReport_day_each!BA22="","",_acsReport_day_each!BA22)</f>
         <v/>
       </c>
-      <c r="BD28" s="21" t="str">
+      <c r="BD28" s="20" t="str">
         <f>IF(_acsReport_day_each!BB22="","",_acsReport_day_each!BB22)</f>
         <v/>
       </c>
-      <c r="BE28" s="20">
+      <c r="BE28" s="19">
         <f>_acsReport_day_each!BD22:BF22</f>
         <v>0</v>
       </c>
-      <c r="BI28" s="20">
+      <c r="BI28" s="19">
         <f>_acsReport_day_each!BG22:BI22</f>
         <v>0</v>
       </c>
@@ -7579,19 +7569,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="19">
+    <row r="29" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B29" s="21">
         <v>0.875</v>
       </c>
       <c r="C29" s="22" t="str">
         <f>IF(_acsReport_day_each!A23="","",_acsReport_day_each!A23)</f>
         <v/>
       </c>
-      <c r="D29" s="21" t="str">
+      <c r="D29" s="20" t="str">
         <f>IF(_acsReport_day_each!B23="","",_acsReport_day_each!B23)</f>
         <v/>
       </c>
-      <c r="E29" s="21" t="str">
+      <c r="E29" s="20" t="str">
         <f>IF(_acsReport_day_each!C23="","",_acsReport_day_each!C23)</f>
         <v/>
       </c>
@@ -7599,11 +7589,11 @@
         <f>IF(_acsReport_day_each!D23="","",_acsReport_day_each!D23)</f>
         <v/>
       </c>
-      <c r="G29" s="21" t="str">
+      <c r="G29" s="20" t="str">
         <f>IF(_acsReport_day_each!E23="","",_acsReport_day_each!E23)</f>
         <v/>
       </c>
-      <c r="H29" s="21" t="str">
+      <c r="H29" s="20" t="str">
         <f>IF(_acsReport_day_each!F23="","",_acsReport_day_each!F23)</f>
         <v/>
       </c>
@@ -7611,11 +7601,11 @@
         <f>IF(_acsReport_day_each!G23="","",_acsReport_day_each!G23)</f>
         <v/>
       </c>
-      <c r="J29" s="21" t="str">
+      <c r="J29" s="20" t="str">
         <f>IF(_acsReport_day_each!H23="","",_acsReport_day_each!H23)</f>
         <v/>
       </c>
-      <c r="K29" s="21" t="str">
+      <c r="K29" s="20" t="str">
         <f>IF(_acsReport_day_each!I23="","",_acsReport_day_each!I23)</f>
         <v/>
       </c>
@@ -7623,11 +7613,11 @@
         <f>IF(_acsReport_day_each!J23="","",_acsReport_day_each!J23)</f>
         <v/>
       </c>
-      <c r="M29" s="21" t="str">
+      <c r="M29" s="20" t="str">
         <f>IF(_acsReport_day_each!K23="","",_acsReport_day_each!K23)</f>
         <v/>
       </c>
-      <c r="N29" s="21" t="str">
+      <c r="N29" s="20" t="str">
         <f>IF(_acsReport_day_each!L23="","",_acsReport_day_each!L23)</f>
         <v/>
       </c>
@@ -7635,11 +7625,11 @@
         <f>IF(_acsReport_day_each!M23="","",_acsReport_day_each!M23)</f>
         <v/>
       </c>
-      <c r="P29" s="21" t="str">
+      <c r="P29" s="20" t="str">
         <f>IF(_acsReport_day_each!N23="","",_acsReport_day_each!N23)</f>
         <v/>
       </c>
-      <c r="Q29" s="21" t="str">
+      <c r="Q29" s="20" t="str">
         <f>IF(_acsReport_day_each!O23="","",_acsReport_day_each!O23)</f>
         <v/>
       </c>
@@ -7647,11 +7637,11 @@
         <f>IF(_acsReport_day_each!P23="","",_acsReport_day_each!P23)</f>
         <v/>
       </c>
-      <c r="S29" s="21" t="str">
+      <c r="S29" s="20" t="str">
         <f>IF(_acsReport_day_each!Q23="","",_acsReport_day_each!Q23)</f>
         <v/>
       </c>
-      <c r="T29" s="21" t="str">
+      <c r="T29" s="20" t="str">
         <f>IF(_acsReport_day_each!R23="","",_acsReport_day_each!R23)</f>
         <v/>
       </c>
@@ -7659,11 +7649,11 @@
         <f>IF(_acsReport_day_each!S23="","",_acsReport_day_each!S23)</f>
         <v/>
       </c>
-      <c r="V29" s="21" t="str">
+      <c r="V29" s="20" t="str">
         <f>IF(_acsReport_day_each!T23="","",_acsReport_day_each!T23)</f>
         <v/>
       </c>
-      <c r="W29" s="21" t="str">
+      <c r="W29" s="20" t="str">
         <f>IF(_acsReport_day_each!U23="","",_acsReport_day_each!U23)</f>
         <v/>
       </c>
@@ -7671,11 +7661,11 @@
         <f>IF(_acsReport_day_each!V23="","",_acsReport_day_each!V23)</f>
         <v/>
       </c>
-      <c r="Y29" s="21" t="str">
+      <c r="Y29" s="20" t="str">
         <f>IF(_acsReport_day_each!W23="","",_acsReport_day_each!W23)</f>
         <v/>
       </c>
-      <c r="Z29" s="21" t="str">
+      <c r="Z29" s="20" t="str">
         <f>IF(_acsReport_day_each!X23="","",_acsReport_day_each!X23)</f>
         <v/>
       </c>
@@ -7683,11 +7673,11 @@
         <f>IF(_acsReport_day_each!Y23="","",_acsReport_day_each!Y23)</f>
         <v/>
       </c>
-      <c r="AB29" s="21" t="str">
+      <c r="AB29" s="20" t="str">
         <f>IF(_acsReport_day_each!Z23="","",_acsReport_day_each!Z23)</f>
         <v/>
       </c>
-      <c r="AC29" s="21" t="str">
+      <c r="AC29" s="20" t="str">
         <f>IF(_acsReport_day_each!AA23="","",_acsReport_day_each!AA23)</f>
         <v/>
       </c>
@@ -7695,11 +7685,11 @@
         <f>IF(_acsReport_day_each!AB23="","",_acsReport_day_each!AB23)</f>
         <v/>
       </c>
-      <c r="AE29" s="21" t="str">
+      <c r="AE29" s="20" t="str">
         <f>IF(_acsReport_day_each!AC23="","",_acsReport_day_each!AC23)</f>
         <v/>
       </c>
-      <c r="AF29" s="21" t="str">
+      <c r="AF29" s="20" t="str">
         <f>IF(_acsReport_day_each!AD23="","",_acsReport_day_each!AD23)</f>
         <v/>
       </c>
@@ -7707,11 +7697,11 @@
         <f>IF(_acsReport_day_each!AE23="","",_acsReport_day_each!AE23)</f>
         <v/>
       </c>
-      <c r="AH29" s="21" t="str">
+      <c r="AH29" s="20" t="str">
         <f>IF(_acsReport_day_each!AF23="","",_acsReport_day_each!AF23)</f>
         <v/>
       </c>
-      <c r="AI29" s="21" t="str">
+      <c r="AI29" s="20" t="str">
         <f>IF(_acsReport_day_each!AG23="","",_acsReport_day_each!AG23)</f>
         <v/>
       </c>
@@ -7719,11 +7709,11 @@
         <f>IF(_acsReport_day_each!AH23="","",_acsReport_day_each!AH23)</f>
         <v/>
       </c>
-      <c r="AK29" s="21" t="str">
+      <c r="AK29" s="20" t="str">
         <f>IF(_acsReport_day_each!AI23="","",_acsReport_day_each!AI23)</f>
         <v/>
       </c>
-      <c r="AL29" s="21" t="str">
+      <c r="AL29" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ23="","",_acsReport_day_each!AJ23)</f>
         <v/>
       </c>
@@ -7731,11 +7721,11 @@
         <f>IF(_acsReport_day_each!AK23="","",_acsReport_day_each!AK23)</f>
         <v/>
       </c>
-      <c r="AN29" s="21" t="str">
+      <c r="AN29" s="20" t="str">
         <f>IF(_acsReport_day_each!AL23="","",_acsReport_day_each!AL23)</f>
         <v/>
       </c>
-      <c r="AO29" s="21" t="str">
+      <c r="AO29" s="20" t="str">
         <f>IF(_acsReport_day_each!AM23="","",_acsReport_day_each!AM23)</f>
         <v/>
       </c>
@@ -7743,11 +7733,11 @@
         <f>IF(_acsReport_day_each!AN23="","",_acsReport_day_each!AN23)</f>
         <v/>
       </c>
-      <c r="AQ29" s="21" t="str">
+      <c r="AQ29" s="20" t="str">
         <f>IF(_acsReport_day_each!AO23="","",_acsReport_day_each!AO23)</f>
         <v/>
       </c>
-      <c r="AR29" s="21" t="str">
+      <c r="AR29" s="20" t="str">
         <f>IF(_acsReport_day_each!AP23="","",_acsReport_day_each!AP23)</f>
         <v/>
       </c>
@@ -7755,11 +7745,11 @@
         <f>IF(_acsReport_day_each!AQ23="","",_acsReport_day_each!AQ23)</f>
         <v/>
       </c>
-      <c r="AT29" s="21" t="str">
+      <c r="AT29" s="20" t="str">
         <f>IF(_acsReport_day_each!AR23="","",_acsReport_day_each!AR23)</f>
         <v/>
       </c>
-      <c r="AU29" s="21" t="str">
+      <c r="AU29" s="20" t="str">
         <f>IF(_acsReport_day_each!AS23="","",_acsReport_day_each!AS23)</f>
         <v/>
       </c>
@@ -7767,11 +7757,11 @@
         <f>IF(_acsReport_day_each!AT23="","",_acsReport_day_each!AT23)</f>
         <v/>
       </c>
-      <c r="AW29" s="21" t="str">
+      <c r="AW29" s="20" t="str">
         <f>IF(_acsReport_day_each!AU23="","",_acsReport_day_each!AU23)</f>
         <v/>
       </c>
-      <c r="AX29" s="21" t="str">
+      <c r="AX29" s="20" t="str">
         <f>IF(_acsReport_day_each!AV23="","",_acsReport_day_each!AV23)</f>
         <v/>
       </c>
@@ -7779,11 +7769,11 @@
         <f>IF(_acsReport_day_each!AW23="","",_acsReport_day_each!AW23)</f>
         <v/>
       </c>
-      <c r="AZ29" s="21" t="str">
+      <c r="AZ29" s="20" t="str">
         <f>IF(_acsReport_day_each!AX23="","",_acsReport_day_each!AX23)</f>
         <v/>
       </c>
-      <c r="BA29" s="21" t="str">
+      <c r="BA29" s="20" t="str">
         <f>IF(_acsReport_day_each!AY23="","",_acsReport_day_each!AY23)</f>
         <v/>
       </c>
@@ -7791,19 +7781,19 @@
         <f>IF(_acsReport_day_each!AZ23="","",_acsReport_day_each!AZ23)</f>
         <v/>
       </c>
-      <c r="BC29" s="21" t="str">
+      <c r="BC29" s="20" t="str">
         <f>IF(_acsReport_day_each!BA23="","",_acsReport_day_each!BA23)</f>
         <v/>
       </c>
-      <c r="BD29" s="21" t="str">
+      <c r="BD29" s="20" t="str">
         <f>IF(_acsReport_day_each!BB23="","",_acsReport_day_each!BB23)</f>
         <v/>
       </c>
-      <c r="BE29" s="20">
+      <c r="BE29" s="19">
         <f>_acsReport_day_each!BD23:BF23</f>
         <v>0</v>
       </c>
-      <c r="BI29" s="20">
+      <c r="BI29" s="19">
         <f>_acsReport_day_each!BG23:BI23</f>
         <v>0</v>
       </c>
@@ -7820,19 +7810,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:64" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="19">
+    <row r="30" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B30" s="21">
         <v>0.91666666666666696</v>
       </c>
       <c r="C30" s="22" t="str">
         <f>IF(_acsReport_day_each!A24="","",_acsReport_day_each!A24)</f>
         <v/>
       </c>
-      <c r="D30" s="21" t="str">
+      <c r="D30" s="20" t="str">
         <f>IF(_acsReport_day_each!B24="","",_acsReport_day_each!B24)</f>
         <v/>
       </c>
-      <c r="E30" s="21" t="str">
+      <c r="E30" s="20" t="str">
         <f>IF(_acsReport_day_each!C24="","",_acsReport_day_each!C24)</f>
         <v/>
       </c>
@@ -7840,11 +7830,11 @@
         <f>IF(_acsReport_day_each!D24="","",_acsReport_day_each!D24)</f>
         <v/>
       </c>
-      <c r="G30" s="21" t="str">
+      <c r="G30" s="20" t="str">
         <f>IF(_acsReport_day_each!E24="","",_acsReport_day_each!E24)</f>
         <v/>
       </c>
-      <c r="H30" s="21" t="str">
+      <c r="H30" s="20" t="str">
         <f>IF(_acsReport_day_each!F24="","",_acsReport_day_each!F24)</f>
         <v/>
       </c>
@@ -7852,11 +7842,11 @@
         <f>IF(_acsReport_day_each!G24="","",_acsReport_day_each!G24)</f>
         <v/>
       </c>
-      <c r="J30" s="21" t="str">
+      <c r="J30" s="20" t="str">
         <f>IF(_acsReport_day_each!H24="","",_acsReport_day_each!H24)</f>
         <v/>
       </c>
-      <c r="K30" s="21" t="str">
+      <c r="K30" s="20" t="str">
         <f>IF(_acsReport_day_each!I24="","",_acsReport_day_each!I24)</f>
         <v/>
       </c>
@@ -7864,11 +7854,11 @@
         <f>IF(_acsReport_day_each!J24="","",_acsReport_day_each!J24)</f>
         <v/>
       </c>
-      <c r="M30" s="21" t="str">
+      <c r="M30" s="20" t="str">
         <f>IF(_acsReport_day_each!K24="","",_acsReport_day_each!K24)</f>
         <v/>
       </c>
-      <c r="N30" s="21" t="str">
+      <c r="N30" s="20" t="str">
         <f>IF(_acsReport_day_each!L24="","",_acsReport_day_each!L24)</f>
         <v/>
       </c>
@@ -7876,11 +7866,11 @@
         <f>IF(_acsReport_day_each!M24="","",_acsReport_day_each!M24)</f>
         <v/>
       </c>
-      <c r="P30" s="21" t="str">
+      <c r="P30" s="20" t="str">
         <f>IF(_acsReport_day_each!N24="","",_acsReport_day_each!N24)</f>
         <v/>
       </c>
-      <c r="Q30" s="21" t="str">
+      <c r="Q30" s="20" t="str">
         <f>IF(_acsReport_day_each!O24="","",_acsReport_day_each!O24)</f>
         <v/>
       </c>
@@ -7888,11 +7878,11 @@
         <f>IF(_acsReport_day_each!P24="","",_acsReport_day_each!P24)</f>
         <v/>
       </c>
-      <c r="S30" s="21" t="str">
+      <c r="S30" s="20" t="str">
         <f>IF(_acsReport_day_each!Q24="","",_acsReport_day_each!Q24)</f>
         <v/>
       </c>
-      <c r="T30" s="21" t="str">
+      <c r="T30" s="20" t="str">
         <f>IF(_acsReport_day_each!R24="","",_acsReport_day_each!R24)</f>
         <v/>
       </c>
@@ -7900,11 +7890,11 @@
         <f>IF(_acsReport_day_each!S24="","",_acsReport_day_each!S24)</f>
         <v/>
       </c>
-      <c r="V30" s="21" t="str">
+      <c r="V30" s="20" t="str">
         <f>IF(_acsReport_day_each!T24="","",_acsReport_day_each!T24)</f>
         <v/>
       </c>
-      <c r="W30" s="21" t="str">
+      <c r="W30" s="20" t="str">
         <f>IF(_acsReport_day_each!U24="","",_acsReport_day_each!U24)</f>
         <v/>
       </c>
@@ -7912,11 +7902,11 @@
         <f>IF(_acsReport_day_each!V24="","",_acsReport_day_each!V24)</f>
         <v/>
       </c>
-      <c r="Y30" s="21" t="str">
+      <c r="Y30" s="20" t="str">
         <f>IF(_acsReport_day_each!W24="","",_acsReport_day_each!W24)</f>
         <v/>
       </c>
-      <c r="Z30" s="21" t="str">
+      <c r="Z30" s="20" t="str">
         <f>IF(_acsReport_day_each!X24="","",_acsReport_day_each!X24)</f>
         <v/>
       </c>
@@ -7924,11 +7914,11 @@
         <f>IF(_acsReport_day_each!Y24="","",_acsReport_day_each!Y24)</f>
         <v/>
       </c>
-      <c r="AB30" s="21" t="str">
+      <c r="AB30" s="20" t="str">
         <f>IF(_acsReport_day_each!Z24="","",_acsReport_day_each!Z24)</f>
         <v/>
       </c>
-      <c r="AC30" s="21" t="str">
+      <c r="AC30" s="20" t="str">
         <f>IF(_acsReport_day_each!AA24="","",_acsReport_day_each!AA24)</f>
         <v/>
       </c>
@@ -7936,11 +7926,11 @@
         <f>IF(_acsReport_day_each!AB24="","",_acsReport_day_each!AB24)</f>
         <v/>
       </c>
-      <c r="AE30" s="21" t="str">
+      <c r="AE30" s="20" t="str">
         <f>IF(_acsReport_day_each!AC24="","",_acsReport_day_each!AC24)</f>
         <v/>
       </c>
-      <c r="AF30" s="21" t="str">
+      <c r="AF30" s="20" t="str">
         <f>IF(_acsReport_day_each!AD24="","",_acsReport_day_each!AD24)</f>
         <v/>
       </c>
@@ -7948,11 +7938,11 @@
         <f>IF(_acsReport_day_each!AE24="","",_acsReport_day_each!AE24)</f>
         <v/>
       </c>
-      <c r="AH30" s="21" t="str">
+      <c r="AH30" s="20" t="str">
         <f>IF(_acsReport_day_each!AF24="","",_acsReport_day_each!AF24)</f>
         <v/>
       </c>
-      <c r="AI30" s="21" t="str">
+      <c r="AI30" s="20" t="str">
         <f>IF(_acsReport_day_each!AG24="","",_acsReport_day_each!AG24)</f>
         <v/>
       </c>
@@ -7960,11 +7950,11 @@
         <f>IF(_acsReport_day_each!AH24="","",_acsReport_day_each!AH24)</f>
         <v/>
       </c>
-      <c r="AK30" s="21" t="str">
+      <c r="AK30" s="20" t="str">
         <f>IF(_acsReport_day_each!AI24="","",_acsReport_day_each!AI24)</f>
         <v/>
       </c>
-      <c r="AL30" s="21" t="str">
+      <c r="AL30" s="20" t="str">
         <f>IF(_acsReport_day_each!AJ24="","",_acsReport_day_each!AJ24)</f>
         <v/>
       </c>
@@ -7972,11 +7962,11 @@
         <f>IF(_acsReport_day_each!AK24="","",_acsReport_day_each!AK24)</f>
         <v/>
       </c>
-      <c r="AN30" s="21" t="str">
+      <c r="AN30" s="20" t="str">
         <f>IF(_acsReport_day_each!AL24="","",_acsReport_day_each!AL24)</f>
         <v/>
       </c>
-      <c r="AO30" s="21" t="str">
+      <c r="AO30" s="20" t="str">
         <f>IF(_acsReport_day_each!AM24="","",_acsReport_day_each!AM24)</f>
         <v/>
       </c>
@@ -7984,11 +7974,11 @@
         <f>IF(_acsReport_day_each!AN24="","",_acsReport_day_each!AN24)</f>
         <v/>
       </c>
-      <c r="AQ30" s="21" t="str">
+      <c r="AQ30" s="20" t="str">
         <f>IF(_acsReport_day_each!AO24="","",_acsReport_day_each!AO24)</f>
         <v/>
       </c>
-      <c r="AR30" s="21" t="str">
+      <c r="AR30" s="20" t="str">
         <f>IF(_acsReport_day_each!AP24="","",_acsReport_day_each!AP24)</f>
         <v/>
       </c>
@@ -7996,11 +7986,11 @@
         <f>IF(_acsReport_day_each!AQ24="","",_acsReport_day_each!AQ24)</f>
         <v/>
       </c>
-      <c r="AT30" s="21" t="str">
+      <c r="AT30" s="20" t="str">
         <f>IF(_acsReport_day_each!AR24="","",_acsReport_day_each!AR24)</f>
         <v/>
       </c>
-      <c r="AU30" s="21" t="str">
+      <c r="AU30" s="20" t="str">
         <f>IF(_acsReport_day_each!AS24="","",_acsReport_day_each!AS24)</f>
         <v/>
       </c>
@@ -8008,11 +7998,11 @@
         <f>IF(_acsReport_day_each!AT24="","",_acsReport_day_each!AT24)</f>
         <v/>
       </c>
-      <c r="AW30" s="21" t="str">
+      <c r="AW30" s="20" t="str">
         <f>IF(_acsReport_day_each!AU24="","",_acsReport_day_each!AU24)</f>
         <v/>
       </c>
-      <c r="AX30" s="21" t="str">
+      <c r="AX30" s="20" t="str">
         <f>IF(_acsReport_day_each!AV24="","",_acsReport_day_each!AV24)</f>
         <v/>
       </c>
@@ -8020,11 +8010,11 @@
         <f>IF(_acsReport_day_each!AW24="","",_acsReport_day_each!AW24)</f>
         <v/>
       </c>
-      <c r="AZ30" s="21" t="str">
+      <c r="AZ30" s="20" t="str">
         <f>IF(_acsReport_day_each!AX24="","",_acsReport_day_each!AX24)</f>
         <v/>
       </c>
-      <c r="BA30" s="21" t="str">
+      <c r="BA30" s="20" t="str">
         <f>IF(_acsReport_day_each!AY24="","",_acsReport_day_each!AY24)</f>
         <v/>
       </c>
@@ -8032,19 +8022,19 @@
         <f>IF(_acsReport_day_each!AZ24="","",_acsReport_day_each!AZ24)</f>
         <v/>
       </c>
-      <c r="BC30" s="21" t="str">
+      <c r="BC30" s="20" t="str">
         <f>IF(_acsReport_day_each!BA24="","",_acsReport_day_each!BA24)</f>
         <v/>
       </c>
-      <c r="BD30" s="21" t="str">
+      <c r="BD30" s="20" t="str">
         <f>IF(_acsReport_day_each!BB24="","",_acsReport_day_each!BB24)</f>
         <v/>
       </c>
-      <c r="BE30" s="20">
+      <c r="BE30" s="19">
         <f>_acsReport_day_each!BD24:BF24</f>
         <v>0</v>
       </c>
-      <c r="BI30" s="20">
+      <c r="BI30" s="19">
         <f>_acsReport_day_each!BG24:BI24</f>
         <v>0</v>
       </c>
@@ -8061,7 +8051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:64" ht="17" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:64" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="23">
         <v>0.95833333333333304</v>
       </c>
@@ -8302,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:64" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B32" s="12" t="s">
         <v>87</v>
       </c>
@@ -8371,7 +8361,7 @@
       <c r="BD32" s="35"/>
       <c r="BE32" s="35"/>
     </row>
-    <row r="33" spans="2:57" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:57" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -8429,7 +8419,7 @@
       <c r="BD33" s="35"/>
       <c r="BE33" s="7"/>
     </row>
-    <row r="34" spans="2:57" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:57" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B34" s="29" t="s">
         <v>88</v>
       </c>
@@ -8498,7 +8488,7 @@
       <c r="BD34" s="35"/>
       <c r="BE34" s="7"/>
     </row>
-    <row r="35" spans="2:57" ht="23" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:57" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -8556,7 +8546,7 @@
       <c r="BD35" s="35"/>
       <c r="BE35" s="7"/>
     </row>
-    <row r="36" spans="2:57" ht="23" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:57" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -8614,7 +8604,7 @@
       <c r="BD36" s="35"/>
       <c r="BE36" s="7"/>
     </row>
-    <row r="37" spans="2:57" ht="23" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:57" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -8672,7 +8662,7 @@
       <c r="BD37" s="35"/>
       <c r="BE37" s="7"/>
     </row>
-    <row r="38" spans="2:57" ht="23" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:57" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -8730,7 +8720,7 @@
       <c r="BD38" s="35"/>
       <c r="BE38" s="7"/>
     </row>
-    <row r="39" spans="2:57" ht="23" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:57" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -8788,7 +8778,7 @@
       <c r="BD39" s="35"/>
       <c r="BE39" s="7"/>
     </row>
-    <row r="40" spans="2:57" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:57" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -8848,17 +8838,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B1:BE1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="AA3:AL3"/>
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
     <mergeCell ref="AV5:AX5"/>
     <mergeCell ref="AY5:BA5"/>
     <mergeCell ref="BB5:BD5"/>
@@ -8875,10 +8854,21 @@
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="X5:Z5"/>
     <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="B1:BE1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="AA3:AL3"/>
+    <mergeCell ref="BB3:BE3"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -8890,16 +8880,16 @@
       <selection activeCell="BH8" sqref="BH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="28.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="31.6328125" customWidth="1"/>
-    <col min="52" max="52" width="31.6328125" customWidth="1"/>
+    <col min="1" max="2" width="31.625" customWidth="1"/>
+    <col min="52" max="52" width="31.625" customWidth="1"/>
     <col min="56" max="56" width="46" customWidth="1"/>
-    <col min="57" max="61" width="42.7265625" customWidth="1"/>
-    <col min="62" max="62" width="33.90625" customWidth="1"/>
+    <col min="57" max="61" width="42.75" customWidth="1"/>
+    <col min="62" max="62" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -9084,7 +9074,7 @@
         <v>101</v>
       </c>
       <c r="BJ1" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="BK1" s="2" t="s">
         <v>103</v>
@@ -9113,10 +9103,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/finished/能介/新一空压站运行记录表.xlsx
+++ b/excel/finished/能介/新一空压站运行记录表.xlsx
@@ -32,6 +32,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电</t>
@@ -50,6 +51,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>流</t>
@@ -68,6 +70,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -86,6 +89,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -106,6 +110,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>开启度（</t>
@@ -124,6 +129,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -135,6 +141,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>三级出口压力</t>
@@ -153,6 +160,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -173,6 +181,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>齿轮箱油压</t>
@@ -191,6 +200,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -209,6 +219,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -220,6 +231,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>齿轮箱油温</t>
@@ -238,6 +250,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（℃)</t>
@@ -258,6 +271,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>第一级振动值</t>
@@ -276,6 +290,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（µ</t>
@@ -294,6 +309,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -305,6 +321,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>第二级振动值</t>
@@ -323,6 +340,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（µ</t>
@@ -341,6 +359,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -352,6 +371,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>第三级振动值</t>
@@ -370,6 +390,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（µ</t>
@@ -388,6 +409,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -399,6 +421,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电机绕组</t>
@@ -417,6 +440,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>温度</t>
@@ -435,6 +459,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（℃）</t>
@@ -446,6 +471,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电机绕组</t>
@@ -464,6 +490,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>温度</t>
@@ -482,6 +509,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（℃）</t>
@@ -493,6 +521,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电机绕组</t>
@@ -511,6 +540,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>温度</t>
@@ -529,6 +559,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（℃）</t>
@@ -540,6 +571,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电机轴承非驱动端温度</t>
@@ -558,6 +590,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -578,6 +611,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电机轴承驱动端温度</t>
@@ -596,6 +630,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（℃</t>
@@ -873,9 +908,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-  </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -888,45 +920,53 @@
       <b/>
       <sz val="24"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="22"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="15"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -938,23 +978,27 @@
     <font>
       <sz val="13"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -985,7 +1029,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1182,21 +1226,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1227,32 +1256,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1295,7 +1298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1344,47 +1347,20 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
@@ -1394,29 +1370,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1430,38 +1418,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1768,7 +1744,7 @@
   <dimension ref="B1:BL40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="C8" sqref="C8:BI31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1790,64 +1766,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:64" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="39"/>
-      <c r="BE1" s="39"/>
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="47"/>
+      <c r="BC1" s="47"/>
+      <c r="BD1" s="47"/>
+      <c r="BE1" s="47"/>
     </row>
     <row r="2" spans="2:64" ht="27" x14ac:dyDescent="0.15">
       <c r="B2" s="5"/>
@@ -1902,26 +1878,26 @@
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
       <c r="BA2" s="6"/>
-      <c r="BB2" s="36"/>
+      <c r="BB2" s="27"/>
       <c r="BC2" s="6"/>
       <c r="BD2" s="12"/>
       <c r="BE2" s="6"/>
     </row>
     <row r="3" spans="2:64" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41">
-        <f>_metadata!B1</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="41"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="51">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="51"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="30"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -1938,18 +1914,18 @@
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
       <c r="AM3" s="12"/>
       <c r="AN3" s="12"/>
       <c r="AO3" s="12"/>
@@ -1965,10 +1941,10 @@
       <c r="AY3" s="7"/>
       <c r="AZ3" s="7"/>
       <c r="BA3" s="7"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43"/>
+      <c r="BB3" s="50"/>
+      <c r="BC3" s="50"/>
+      <c r="BD3" s="50"/>
+      <c r="BE3" s="50"/>
     </row>
     <row r="4" spans="2:64" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
@@ -2029,113 +2005,113 @@
       <c r="BE4" s="12"/>
     </row>
     <row r="5" spans="2:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="45" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="49" t="s">
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="51" t="s">
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="52" t="s">
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="53"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="45" t="s">
+      <c r="S5" s="31"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="44" t="s">
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45" t="s">
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="52" t="s">
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="45" t="s">
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="52" t="s">
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="45" t="s">
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="52" t="s">
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="54"/>
-      <c r="AS5" s="45" t="s">
+      <c r="AQ5" s="31"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="52" t="s">
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="33"/>
+      <c r="AV5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="54"/>
-      <c r="AY5" s="45" t="s">
+      <c r="AW5" s="31"/>
+      <c r="AX5" s="32"/>
+      <c r="AY5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="44" t="s">
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="33"/>
+      <c r="BB5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="59" t="s">
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33"/>
+      <c r="BE5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="BI5" s="59" t="s">
+      <c r="BI5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="BJ5" s="55" t="s">
+      <c r="BJ5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="BK5" s="56"/>
-      <c r="BL5" s="56"/>
+      <c r="BK5" s="36"/>
+      <c r="BL5" s="36"/>
     </row>
     <row r="6" spans="2:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="58"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="13" t="s">
         <v>24</v>
       </c>
@@ -2154,7 +2130,7 @@
       <c r="H6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="25" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -2172,7 +2148,7 @@
       <c r="N6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="31" t="s">
+      <c r="O6" s="25" t="s">
         <v>24</v>
       </c>
       <c r="P6" s="14" t="s">
@@ -2190,7 +2166,7 @@
       <c r="T6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="31" t="s">
+      <c r="U6" s="25" t="s">
         <v>24</v>
       </c>
       <c r="V6" s="14" t="s">
@@ -2208,7 +2184,7 @@
       <c r="Z6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="31" t="s">
+      <c r="AA6" s="25" t="s">
         <v>24</v>
       </c>
       <c r="AB6" s="14" t="s">
@@ -2226,7 +2202,7 @@
       <c r="AF6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AG6" s="31" t="s">
+      <c r="AG6" s="25" t="s">
         <v>24</v>
       </c>
       <c r="AH6" s="14" t="s">
@@ -2244,7 +2220,7 @@
       <c r="AL6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="31" t="s">
+      <c r="AM6" s="25" t="s">
         <v>24</v>
       </c>
       <c r="AN6" s="14" t="s">
@@ -2262,7 +2238,7 @@
       <c r="AR6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="31" t="s">
+      <c r="AS6" s="25" t="s">
         <v>24</v>
       </c>
       <c r="AT6" s="14" t="s">
@@ -2280,7 +2256,7 @@
       <c r="AX6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AY6" s="31" t="s">
+      <c r="AY6" s="25" t="s">
         <v>24</v>
       </c>
       <c r="AZ6" s="14" t="s">
@@ -2289,7 +2265,7 @@
       <c r="BA6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="BB6" s="31" t="s">
+      <c r="BB6" s="25" t="s">
         <v>24</v>
       </c>
       <c r="BC6" s="14" t="s">
@@ -2298,26 +2274,26 @@
       <c r="BD6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="BE6" s="60"/>
-      <c r="BF6" s="37" t="s">
+      <c r="BE6" s="40"/>
+      <c r="BF6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="BG6" s="37" t="s">
+      <c r="BG6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="BH6" s="37" t="s">
+      <c r="BH6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="BI6" s="60" t="s">
+      <c r="BI6" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="37" t="s">
+      <c r="BJ6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="BK6" s="37" t="s">
+      <c r="BK6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="BL6" s="37" t="s">
+      <c r="BL6" s="28" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2494,7 +2470,7 @@
       <c r="BH7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="BI7" s="38"/>
+      <c r="BI7" s="29"/>
     </row>
     <row r="8" spans="2:64" ht="15" x14ac:dyDescent="0.15">
       <c r="B8" s="18">
@@ -2504,11 +2480,11 @@
         <f>IF(_acsReport_day_each!A2="","",_acsReport_day_each!A2)</f>
         <v/>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="19" t="str">
         <f>IF(_acsReport_day_each!B2="","",_acsReport_day_each!B2)</f>
         <v/>
       </c>
-      <c r="E8" s="20" t="str">
+      <c r="E8" s="19" t="str">
         <f>IF(_acsReport_day_each!C2="","",_acsReport_day_each!C2)</f>
         <v/>
       </c>
@@ -2516,19 +2492,19 @@
         <f>IF(_acsReport_day_each!D2="","",_acsReport_day_each!D2)</f>
         <v/>
       </c>
-      <c r="G8" s="20" t="str">
+      <c r="G8" s="19" t="str">
         <f>IF(_acsReport_day_each!E2="","",_acsReport_day_each!E2)</f>
         <v/>
       </c>
-      <c r="H8" s="20" t="str">
+      <c r="H8" s="19" t="str">
         <f>IF(_acsReport_day_each!F2="","",_acsReport_day_each!F2)</f>
         <v/>
       </c>
-      <c r="I8" s="20" t="str">
+      <c r="I8" s="19" t="str">
         <f>IF(_acsReport_day_each!G2="","",_acsReport_day_each!G2)</f>
         <v/>
       </c>
-      <c r="J8" s="20" t="str">
+      <c r="J8" s="19" t="str">
         <f>IF(_acsReport_day_each!H2="","",_acsReport_day_each!H2)</f>
         <v/>
       </c>
@@ -2750,222 +2726,222 @@
       </c>
     </row>
     <row r="9" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="C9" s="19" t="str">
         <f>IF(_acsReport_day_each!A3="","",_acsReport_day_each!A3)</f>
         <v/>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="19" t="str">
         <f>IF(_acsReport_day_each!B3="","",_acsReport_day_each!B3)</f>
         <v/>
       </c>
-      <c r="E9" s="20" t="str">
+      <c r="E9" s="19" t="str">
         <f>IF(_acsReport_day_each!C3="","",_acsReport_day_each!C3)</f>
         <v/>
       </c>
-      <c r="F9" s="22" t="str">
+      <c r="F9" s="19" t="str">
         <f>IF(_acsReport_day_each!D3="","",_acsReport_day_each!D3)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="19" t="str">
         <f>IF(_acsReport_day_each!E3="","",_acsReport_day_each!E3)</f>
         <v/>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="19" t="str">
         <f>IF(_acsReport_day_each!F3="","",_acsReport_day_each!F3)</f>
         <v/>
       </c>
-      <c r="I9" s="32" t="str">
+      <c r="I9" s="19" t="str">
         <f>IF(_acsReport_day_each!G3="","",_acsReport_day_each!G3)</f>
         <v/>
       </c>
-      <c r="J9" s="20" t="str">
+      <c r="J9" s="19" t="str">
         <f>IF(_acsReport_day_each!H3="","",_acsReport_day_each!H3)</f>
         <v/>
       </c>
-      <c r="K9" s="20" t="str">
+      <c r="K9" s="19" t="str">
         <f>IF(_acsReport_day_each!I3="","",_acsReport_day_each!I3)</f>
         <v/>
       </c>
-      <c r="L9" s="22" t="str">
+      <c r="L9" s="19" t="str">
         <f>IF(_acsReport_day_each!J3="","",_acsReport_day_each!J3)</f>
         <v/>
       </c>
-      <c r="M9" s="20" t="str">
+      <c r="M9" s="19" t="str">
         <f>IF(_acsReport_day_each!K3="","",_acsReport_day_each!K3)</f>
         <v/>
       </c>
-      <c r="N9" s="20" t="str">
+      <c r="N9" s="19" t="str">
         <f>IF(_acsReport_day_each!L3="","",_acsReport_day_each!L3)</f>
         <v/>
       </c>
-      <c r="O9" s="32" t="str">
+      <c r="O9" s="19" t="str">
         <f>IF(_acsReport_day_each!M3="","",_acsReport_day_each!M3)</f>
         <v/>
       </c>
-      <c r="P9" s="20" t="str">
+      <c r="P9" s="19" t="str">
         <f>IF(_acsReport_day_each!N3="","",_acsReport_day_each!N3)</f>
         <v/>
       </c>
-      <c r="Q9" s="20" t="str">
+      <c r="Q9" s="19" t="str">
         <f>IF(_acsReport_day_each!O3="","",_acsReport_day_each!O3)</f>
         <v/>
       </c>
-      <c r="R9" s="22" t="str">
+      <c r="R9" s="19" t="str">
         <f>IF(_acsReport_day_each!P3="","",_acsReport_day_each!P3)</f>
         <v/>
       </c>
-      <c r="S9" s="20" t="str">
+      <c r="S9" s="19" t="str">
         <f>IF(_acsReport_day_each!Q3="","",_acsReport_day_each!Q3)</f>
         <v/>
       </c>
-      <c r="T9" s="20" t="str">
+      <c r="T9" s="19" t="str">
         <f>IF(_acsReport_day_each!R3="","",_acsReport_day_each!R3)</f>
         <v/>
       </c>
-      <c r="U9" s="32" t="str">
+      <c r="U9" s="19" t="str">
         <f>IF(_acsReport_day_each!S3="","",_acsReport_day_each!S3)</f>
         <v/>
       </c>
-      <c r="V9" s="20" t="str">
+      <c r="V9" s="19" t="str">
         <f>IF(_acsReport_day_each!T3="","",_acsReport_day_each!T3)</f>
         <v/>
       </c>
-      <c r="W9" s="20" t="str">
+      <c r="W9" s="19" t="str">
         <f>IF(_acsReport_day_each!U3="","",_acsReport_day_each!U3)</f>
         <v/>
       </c>
-      <c r="X9" s="22" t="str">
+      <c r="X9" s="19" t="str">
         <f>IF(_acsReport_day_each!V3="","",_acsReport_day_each!V3)</f>
         <v/>
       </c>
-      <c r="Y9" s="20" t="str">
+      <c r="Y9" s="19" t="str">
         <f>IF(_acsReport_day_each!W3="","",_acsReport_day_each!W3)</f>
         <v/>
       </c>
-      <c r="Z9" s="20" t="str">
+      <c r="Z9" s="19" t="str">
         <f>IF(_acsReport_day_each!X3="","",_acsReport_day_each!X3)</f>
         <v/>
       </c>
-      <c r="AA9" s="32" t="str">
+      <c r="AA9" s="19" t="str">
         <f>IF(_acsReport_day_each!Y3="","",_acsReport_day_each!Y3)</f>
         <v/>
       </c>
-      <c r="AB9" s="20" t="str">
+      <c r="AB9" s="19" t="str">
         <f>IF(_acsReport_day_each!Z3="","",_acsReport_day_each!Z3)</f>
         <v/>
       </c>
-      <c r="AC9" s="20" t="str">
+      <c r="AC9" s="19" t="str">
         <f>IF(_acsReport_day_each!AA3="","",_acsReport_day_each!AA3)</f>
         <v/>
       </c>
-      <c r="AD9" s="22" t="str">
+      <c r="AD9" s="19" t="str">
         <f>IF(_acsReport_day_each!AB3="","",_acsReport_day_each!AB3)</f>
         <v/>
       </c>
-      <c r="AE9" s="20" t="str">
+      <c r="AE9" s="19" t="str">
         <f>IF(_acsReport_day_each!AC3="","",_acsReport_day_each!AC3)</f>
         <v/>
       </c>
-      <c r="AF9" s="20" t="str">
+      <c r="AF9" s="19" t="str">
         <f>IF(_acsReport_day_each!AD3="","",_acsReport_day_each!AD3)</f>
         <v/>
       </c>
-      <c r="AG9" s="32" t="str">
+      <c r="AG9" s="19" t="str">
         <f>IF(_acsReport_day_each!AE3="","",_acsReport_day_each!AE3)</f>
         <v/>
       </c>
-      <c r="AH9" s="20" t="str">
+      <c r="AH9" s="19" t="str">
         <f>IF(_acsReport_day_each!AF3="","",_acsReport_day_each!AF3)</f>
         <v/>
       </c>
-      <c r="AI9" s="20" t="str">
+      <c r="AI9" s="19" t="str">
         <f>IF(_acsReport_day_each!AG3="","",_acsReport_day_each!AG3)</f>
         <v/>
       </c>
-      <c r="AJ9" s="22" t="str">
+      <c r="AJ9" s="19" t="str">
         <f>IF(_acsReport_day_each!AH3="","",_acsReport_day_each!AH3)</f>
         <v/>
       </c>
-      <c r="AK9" s="20" t="str">
+      <c r="AK9" s="19" t="str">
         <f>IF(_acsReport_day_each!AI3="","",_acsReport_day_each!AI3)</f>
         <v/>
       </c>
-      <c r="AL9" s="20" t="str">
+      <c r="AL9" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ3="","",_acsReport_day_each!AJ3)</f>
         <v/>
       </c>
-      <c r="AM9" s="32" t="str">
+      <c r="AM9" s="19" t="str">
         <f>IF(_acsReport_day_each!AK3="","",_acsReport_day_each!AK3)</f>
         <v/>
       </c>
-      <c r="AN9" s="20" t="str">
+      <c r="AN9" s="19" t="str">
         <f>IF(_acsReport_day_each!AL3="","",_acsReport_day_each!AL3)</f>
         <v/>
       </c>
-      <c r="AO9" s="20" t="str">
+      <c r="AO9" s="19" t="str">
         <f>IF(_acsReport_day_each!AM3="","",_acsReport_day_each!AM3)</f>
         <v/>
       </c>
-      <c r="AP9" s="22" t="str">
+      <c r="AP9" s="19" t="str">
         <f>IF(_acsReport_day_each!AN3="","",_acsReport_day_each!AN3)</f>
         <v/>
       </c>
-      <c r="AQ9" s="20" t="str">
+      <c r="AQ9" s="19" t="str">
         <f>IF(_acsReport_day_each!AO3="","",_acsReport_day_each!AO3)</f>
         <v/>
       </c>
-      <c r="AR9" s="20" t="str">
+      <c r="AR9" s="19" t="str">
         <f>IF(_acsReport_day_each!AP3="","",_acsReport_day_each!AP3)</f>
         <v/>
       </c>
-      <c r="AS9" s="32" t="str">
+      <c r="AS9" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ3="","",_acsReport_day_each!AQ3)</f>
         <v/>
       </c>
-      <c r="AT9" s="20" t="str">
+      <c r="AT9" s="19" t="str">
         <f>IF(_acsReport_day_each!AR3="","",_acsReport_day_each!AR3)</f>
         <v/>
       </c>
-      <c r="AU9" s="20" t="str">
+      <c r="AU9" s="19" t="str">
         <f>IF(_acsReport_day_each!AS3="","",_acsReport_day_each!AS3)</f>
         <v/>
       </c>
-      <c r="AV9" s="22" t="str">
+      <c r="AV9" s="19" t="str">
         <f>IF(_acsReport_day_each!AT3="","",_acsReport_day_each!AT3)</f>
         <v/>
       </c>
-      <c r="AW9" s="20" t="str">
+      <c r="AW9" s="19" t="str">
         <f>IF(_acsReport_day_each!AU3="","",_acsReport_day_each!AU3)</f>
         <v/>
       </c>
-      <c r="AX9" s="20" t="str">
+      <c r="AX9" s="19" t="str">
         <f>IF(_acsReport_day_each!AV3="","",_acsReport_day_each!AV3)</f>
         <v/>
       </c>
-      <c r="AY9" s="32" t="str">
+      <c r="AY9" s="19" t="str">
         <f>IF(_acsReport_day_each!AW3="","",_acsReport_day_each!AW3)</f>
         <v/>
       </c>
-      <c r="AZ9" s="20" t="str">
+      <c r="AZ9" s="19" t="str">
         <f>IF(_acsReport_day_each!AX3="","",_acsReport_day_each!AX3)</f>
         <v/>
       </c>
-      <c r="BA9" s="20" t="str">
+      <c r="BA9" s="19" t="str">
         <f>IF(_acsReport_day_each!AY3="","",_acsReport_day_each!AY3)</f>
         <v/>
       </c>
-      <c r="BB9" s="32" t="str">
+      <c r="BB9" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ3="","",_acsReport_day_each!AZ3)</f>
         <v/>
       </c>
-      <c r="BC9" s="20" t="str">
+      <c r="BC9" s="19" t="str">
         <f>IF(_acsReport_day_each!BA3="","",_acsReport_day_each!BA3)</f>
         <v/>
       </c>
-      <c r="BD9" s="20" t="str">
+      <c r="BD9" s="19" t="str">
         <f>IF(_acsReport_day_each!BB3="","",_acsReport_day_each!BB3)</f>
         <v/>
       </c>
@@ -2973,6 +2949,9 @@
         <f>_acsReport_day_each!BD3:BF3</f>
         <v>0</v>
       </c>
+      <c r="BF9" s="19"/>
+      <c r="BG9" s="19"/>
+      <c r="BH9" s="19"/>
       <c r="BI9" s="19">
         <f>_acsReport_day_each!BG3:BI3</f>
         <v>0</v>
@@ -2991,222 +2970,222 @@
       </c>
     </row>
     <row r="10" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="C10" s="19" t="str">
         <f>IF(_acsReport_day_each!A4="","",_acsReport_day_each!A4)</f>
         <v/>
       </c>
-      <c r="D10" s="20" t="str">
+      <c r="D10" s="19" t="str">
         <f>IF(_acsReport_day_each!B4="","",_acsReport_day_each!B4)</f>
         <v/>
       </c>
-      <c r="E10" s="20" t="str">
+      <c r="E10" s="19" t="str">
         <f>IF(_acsReport_day_each!C4="","",_acsReport_day_each!C4)</f>
         <v/>
       </c>
-      <c r="F10" s="22" t="str">
+      <c r="F10" s="19" t="str">
         <f>IF(_acsReport_day_each!D4="","",_acsReport_day_each!D4)</f>
         <v/>
       </c>
-      <c r="G10" s="20" t="str">
+      <c r="G10" s="19" t="str">
         <f>IF(_acsReport_day_each!E4="","",_acsReport_day_each!E4)</f>
         <v/>
       </c>
-      <c r="H10" s="20" t="str">
+      <c r="H10" s="19" t="str">
         <f>IF(_acsReport_day_each!F4="","",_acsReport_day_each!F4)</f>
         <v/>
       </c>
-      <c r="I10" s="32" t="str">
+      <c r="I10" s="19" t="str">
         <f>IF(_acsReport_day_each!G4="","",_acsReport_day_each!G4)</f>
         <v/>
       </c>
-      <c r="J10" s="20" t="str">
+      <c r="J10" s="19" t="str">
         <f>IF(_acsReport_day_each!H4="","",_acsReport_day_each!H4)</f>
         <v/>
       </c>
-      <c r="K10" s="20" t="str">
+      <c r="K10" s="19" t="str">
         <f>IF(_acsReport_day_each!I4="","",_acsReport_day_each!I4)</f>
         <v/>
       </c>
-      <c r="L10" s="22" t="str">
+      <c r="L10" s="19" t="str">
         <f>IF(_acsReport_day_each!J4="","",_acsReport_day_each!J4)</f>
         <v/>
       </c>
-      <c r="M10" s="20" t="str">
+      <c r="M10" s="19" t="str">
         <f>IF(_acsReport_day_each!K4="","",_acsReport_day_each!K4)</f>
         <v/>
       </c>
-      <c r="N10" s="20" t="str">
+      <c r="N10" s="19" t="str">
         <f>IF(_acsReport_day_each!L4="","",_acsReport_day_each!L4)</f>
         <v/>
       </c>
-      <c r="O10" s="32" t="str">
+      <c r="O10" s="19" t="str">
         <f>IF(_acsReport_day_each!M4="","",_acsReport_day_each!M4)</f>
         <v/>
       </c>
-      <c r="P10" s="20" t="str">
+      <c r="P10" s="19" t="str">
         <f>IF(_acsReport_day_each!N4="","",_acsReport_day_each!N4)</f>
         <v/>
       </c>
-      <c r="Q10" s="20" t="str">
+      <c r="Q10" s="19" t="str">
         <f>IF(_acsReport_day_each!O4="","",_acsReport_day_each!O4)</f>
         <v/>
       </c>
-      <c r="R10" s="22" t="str">
+      <c r="R10" s="19" t="str">
         <f>IF(_acsReport_day_each!P4="","",_acsReport_day_each!P4)</f>
         <v/>
       </c>
-      <c r="S10" s="20" t="str">
+      <c r="S10" s="19" t="str">
         <f>IF(_acsReport_day_each!Q4="","",_acsReport_day_each!Q4)</f>
         <v/>
       </c>
-      <c r="T10" s="20" t="str">
+      <c r="T10" s="19" t="str">
         <f>IF(_acsReport_day_each!R4="","",_acsReport_day_each!R4)</f>
         <v/>
       </c>
-      <c r="U10" s="32" t="str">
+      <c r="U10" s="19" t="str">
         <f>IF(_acsReport_day_each!S4="","",_acsReport_day_each!S4)</f>
         <v/>
       </c>
-      <c r="V10" s="20" t="str">
+      <c r="V10" s="19" t="str">
         <f>IF(_acsReport_day_each!T4="","",_acsReport_day_each!T4)</f>
         <v/>
       </c>
-      <c r="W10" s="20" t="str">
+      <c r="W10" s="19" t="str">
         <f>IF(_acsReport_day_each!U4="","",_acsReport_day_each!U4)</f>
         <v/>
       </c>
-      <c r="X10" s="22" t="str">
+      <c r="X10" s="19" t="str">
         <f>IF(_acsReport_day_each!V4="","",_acsReport_day_each!V4)</f>
         <v/>
       </c>
-      <c r="Y10" s="20" t="str">
+      <c r="Y10" s="19" t="str">
         <f>IF(_acsReport_day_each!W4="","",_acsReport_day_each!W4)</f>
         <v/>
       </c>
-      <c r="Z10" s="20" t="str">
+      <c r="Z10" s="19" t="str">
         <f>IF(_acsReport_day_each!X4="","",_acsReport_day_each!X4)</f>
         <v/>
       </c>
-      <c r="AA10" s="32" t="str">
+      <c r="AA10" s="19" t="str">
         <f>IF(_acsReport_day_each!Y4="","",_acsReport_day_each!Y4)</f>
         <v/>
       </c>
-      <c r="AB10" s="20" t="str">
+      <c r="AB10" s="19" t="str">
         <f>IF(_acsReport_day_each!Z4="","",_acsReport_day_each!Z4)</f>
         <v/>
       </c>
-      <c r="AC10" s="20" t="str">
+      <c r="AC10" s="19" t="str">
         <f>IF(_acsReport_day_each!AA4="","",_acsReport_day_each!AA4)</f>
         <v/>
       </c>
-      <c r="AD10" s="22" t="str">
+      <c r="AD10" s="19" t="str">
         <f>IF(_acsReport_day_each!AB4="","",_acsReport_day_each!AB4)</f>
         <v/>
       </c>
-      <c r="AE10" s="20" t="str">
+      <c r="AE10" s="19" t="str">
         <f>IF(_acsReport_day_each!AC4="","",_acsReport_day_each!AC4)</f>
         <v/>
       </c>
-      <c r="AF10" s="20" t="str">
+      <c r="AF10" s="19" t="str">
         <f>IF(_acsReport_day_each!AD4="","",_acsReport_day_each!AD4)</f>
         <v/>
       </c>
-      <c r="AG10" s="32" t="str">
+      <c r="AG10" s="19" t="str">
         <f>IF(_acsReport_day_each!AE4="","",_acsReport_day_each!AE4)</f>
         <v/>
       </c>
-      <c r="AH10" s="20" t="str">
+      <c r="AH10" s="19" t="str">
         <f>IF(_acsReport_day_each!AF4="","",_acsReport_day_each!AF4)</f>
         <v/>
       </c>
-      <c r="AI10" s="20" t="str">
+      <c r="AI10" s="19" t="str">
         <f>IF(_acsReport_day_each!AG4="","",_acsReport_day_each!AG4)</f>
         <v/>
       </c>
-      <c r="AJ10" s="22" t="str">
+      <c r="AJ10" s="19" t="str">
         <f>IF(_acsReport_day_each!AH4="","",_acsReport_day_each!AH4)</f>
         <v/>
       </c>
-      <c r="AK10" s="20" t="str">
+      <c r="AK10" s="19" t="str">
         <f>IF(_acsReport_day_each!AI4="","",_acsReport_day_each!AI4)</f>
         <v/>
       </c>
-      <c r="AL10" s="20" t="str">
+      <c r="AL10" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ4="","",_acsReport_day_each!AJ4)</f>
         <v/>
       </c>
-      <c r="AM10" s="32" t="str">
+      <c r="AM10" s="19" t="str">
         <f>IF(_acsReport_day_each!AK4="","",_acsReport_day_each!AK4)</f>
         <v/>
       </c>
-      <c r="AN10" s="20" t="str">
+      <c r="AN10" s="19" t="str">
         <f>IF(_acsReport_day_each!AL4="","",_acsReport_day_each!AL4)</f>
         <v/>
       </c>
-      <c r="AO10" s="20" t="str">
+      <c r="AO10" s="19" t="str">
         <f>IF(_acsReport_day_each!AM4="","",_acsReport_day_each!AM4)</f>
         <v/>
       </c>
-      <c r="AP10" s="22" t="str">
+      <c r="AP10" s="19" t="str">
         <f>IF(_acsReport_day_each!AN4="","",_acsReport_day_each!AN4)</f>
         <v/>
       </c>
-      <c r="AQ10" s="20" t="str">
+      <c r="AQ10" s="19" t="str">
         <f>IF(_acsReport_day_each!AO4="","",_acsReport_day_each!AO4)</f>
         <v/>
       </c>
-      <c r="AR10" s="20" t="str">
+      <c r="AR10" s="19" t="str">
         <f>IF(_acsReport_day_each!AP4="","",_acsReport_day_each!AP4)</f>
         <v/>
       </c>
-      <c r="AS10" s="32" t="str">
+      <c r="AS10" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ4="","",_acsReport_day_each!AQ4)</f>
         <v/>
       </c>
-      <c r="AT10" s="20" t="str">
+      <c r="AT10" s="19" t="str">
         <f>IF(_acsReport_day_each!AR4="","",_acsReport_day_each!AR4)</f>
         <v/>
       </c>
-      <c r="AU10" s="20" t="str">
+      <c r="AU10" s="19" t="str">
         <f>IF(_acsReport_day_each!AS4="","",_acsReport_day_each!AS4)</f>
         <v/>
       </c>
-      <c r="AV10" s="22" t="str">
+      <c r="AV10" s="19" t="str">
         <f>IF(_acsReport_day_each!AT4="","",_acsReport_day_each!AT4)</f>
         <v/>
       </c>
-      <c r="AW10" s="20" t="str">
+      <c r="AW10" s="19" t="str">
         <f>IF(_acsReport_day_each!AU4="","",_acsReport_day_each!AU4)</f>
         <v/>
       </c>
-      <c r="AX10" s="20" t="str">
+      <c r="AX10" s="19" t="str">
         <f>IF(_acsReport_day_each!AV4="","",_acsReport_day_each!AV4)</f>
         <v/>
       </c>
-      <c r="AY10" s="32" t="str">
+      <c r="AY10" s="19" t="str">
         <f>IF(_acsReport_day_each!AW4="","",_acsReport_day_each!AW4)</f>
         <v/>
       </c>
-      <c r="AZ10" s="20" t="str">
+      <c r="AZ10" s="19" t="str">
         <f>IF(_acsReport_day_each!AX4="","",_acsReport_day_each!AX4)</f>
         <v/>
       </c>
-      <c r="BA10" s="20" t="str">
+      <c r="BA10" s="19" t="str">
         <f>IF(_acsReport_day_each!AY4="","",_acsReport_day_each!AY4)</f>
         <v/>
       </c>
-      <c r="BB10" s="32" t="str">
+      <c r="BB10" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ4="","",_acsReport_day_each!AZ4)</f>
         <v/>
       </c>
-      <c r="BC10" s="20" t="str">
+      <c r="BC10" s="19" t="str">
         <f>IF(_acsReport_day_each!BA4="","",_acsReport_day_each!BA4)</f>
         <v/>
       </c>
-      <c r="BD10" s="20" t="str">
+      <c r="BD10" s="19" t="str">
         <f>IF(_acsReport_day_each!BB4="","",_acsReport_day_each!BB4)</f>
         <v/>
       </c>
@@ -3214,6 +3193,9 @@
         <f>_acsReport_day_each!BD4:BF4</f>
         <v>0</v>
       </c>
+      <c r="BF10" s="19"/>
+      <c r="BG10" s="19"/>
+      <c r="BH10" s="19"/>
       <c r="BI10" s="19">
         <f>_acsReport_day_each!BG4:BI4</f>
         <v>0</v>
@@ -3232,222 +3214,222 @@
       </c>
     </row>
     <row r="11" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>0.125</v>
       </c>
       <c r="C11" s="19" t="str">
         <f>IF(_acsReport_day_each!A5="","",_acsReport_day_each!A5)</f>
         <v/>
       </c>
-      <c r="D11" s="20" t="str">
+      <c r="D11" s="19" t="str">
         <f>IF(_acsReport_day_each!B5="","",_acsReport_day_each!B5)</f>
         <v/>
       </c>
-      <c r="E11" s="20" t="str">
+      <c r="E11" s="19" t="str">
         <f>IF(_acsReport_day_each!C5="","",_acsReport_day_each!C5)</f>
         <v/>
       </c>
-      <c r="F11" s="22" t="str">
+      <c r="F11" s="19" t="str">
         <f>IF(_acsReport_day_each!D5="","",_acsReport_day_each!D5)</f>
         <v/>
       </c>
-      <c r="G11" s="20" t="str">
+      <c r="G11" s="19" t="str">
         <f>IF(_acsReport_day_each!E5="","",_acsReport_day_each!E5)</f>
         <v/>
       </c>
-      <c r="H11" s="20" t="str">
+      <c r="H11" s="19" t="str">
         <f>IF(_acsReport_day_each!F5="","",_acsReport_day_each!F5)</f>
         <v/>
       </c>
-      <c r="I11" s="32" t="str">
+      <c r="I11" s="19" t="str">
         <f>IF(_acsReport_day_each!G5="","",_acsReport_day_each!G5)</f>
         <v/>
       </c>
-      <c r="J11" s="20" t="str">
+      <c r="J11" s="19" t="str">
         <f>IF(_acsReport_day_each!H5="","",_acsReport_day_each!H5)</f>
         <v/>
       </c>
-      <c r="K11" s="20" t="str">
+      <c r="K11" s="19" t="str">
         <f>IF(_acsReport_day_each!I5="","",_acsReport_day_each!I5)</f>
         <v/>
       </c>
-      <c r="L11" s="22" t="str">
+      <c r="L11" s="19" t="str">
         <f>IF(_acsReport_day_each!J5="","",_acsReport_day_each!J5)</f>
         <v/>
       </c>
-      <c r="M11" s="20" t="str">
+      <c r="M11" s="19" t="str">
         <f>IF(_acsReport_day_each!K5="","",_acsReport_day_each!K5)</f>
         <v/>
       </c>
-      <c r="N11" s="20" t="str">
+      <c r="N11" s="19" t="str">
         <f>IF(_acsReport_day_each!L5="","",_acsReport_day_each!L5)</f>
         <v/>
       </c>
-      <c r="O11" s="32" t="str">
+      <c r="O11" s="19" t="str">
         <f>IF(_acsReport_day_each!M5="","",_acsReport_day_each!M5)</f>
         <v/>
       </c>
-      <c r="P11" s="20" t="str">
+      <c r="P11" s="19" t="str">
         <f>IF(_acsReport_day_each!N5="","",_acsReport_day_each!N5)</f>
         <v/>
       </c>
-      <c r="Q11" s="20" t="str">
+      <c r="Q11" s="19" t="str">
         <f>IF(_acsReport_day_each!O5="","",_acsReport_day_each!O5)</f>
         <v/>
       </c>
-      <c r="R11" s="22" t="str">
+      <c r="R11" s="19" t="str">
         <f>IF(_acsReport_day_each!P5="","",_acsReport_day_each!P5)</f>
         <v/>
       </c>
-      <c r="S11" s="20" t="str">
+      <c r="S11" s="19" t="str">
         <f>IF(_acsReport_day_each!Q5="","",_acsReport_day_each!Q5)</f>
         <v/>
       </c>
-      <c r="T11" s="20" t="str">
+      <c r="T11" s="19" t="str">
         <f>IF(_acsReport_day_each!R5="","",_acsReport_day_each!R5)</f>
         <v/>
       </c>
-      <c r="U11" s="32" t="str">
+      <c r="U11" s="19" t="str">
         <f>IF(_acsReport_day_each!S5="","",_acsReport_day_each!S5)</f>
         <v/>
       </c>
-      <c r="V11" s="20" t="str">
+      <c r="V11" s="19" t="str">
         <f>IF(_acsReport_day_each!T5="","",_acsReport_day_each!T5)</f>
         <v/>
       </c>
-      <c r="W11" s="20" t="str">
+      <c r="W11" s="19" t="str">
         <f>IF(_acsReport_day_each!U5="","",_acsReport_day_each!U5)</f>
         <v/>
       </c>
-      <c r="X11" s="22" t="str">
+      <c r="X11" s="19" t="str">
         <f>IF(_acsReport_day_each!V5="","",_acsReport_day_each!V5)</f>
         <v/>
       </c>
-      <c r="Y11" s="20" t="str">
+      <c r="Y11" s="19" t="str">
         <f>IF(_acsReport_day_each!W5="","",_acsReport_day_each!W5)</f>
         <v/>
       </c>
-      <c r="Z11" s="20" t="str">
+      <c r="Z11" s="19" t="str">
         <f>IF(_acsReport_day_each!X5="","",_acsReport_day_each!X5)</f>
         <v/>
       </c>
-      <c r="AA11" s="32" t="str">
+      <c r="AA11" s="19" t="str">
         <f>IF(_acsReport_day_each!Y5="","",_acsReport_day_each!Y5)</f>
         <v/>
       </c>
-      <c r="AB11" s="20" t="str">
+      <c r="AB11" s="19" t="str">
         <f>IF(_acsReport_day_each!Z5="","",_acsReport_day_each!Z5)</f>
         <v/>
       </c>
-      <c r="AC11" s="20" t="str">
+      <c r="AC11" s="19" t="str">
         <f>IF(_acsReport_day_each!AA5="","",_acsReport_day_each!AA5)</f>
         <v/>
       </c>
-      <c r="AD11" s="22" t="str">
+      <c r="AD11" s="19" t="str">
         <f>IF(_acsReport_day_each!AB5="","",_acsReport_day_each!AB5)</f>
         <v/>
       </c>
-      <c r="AE11" s="20" t="str">
+      <c r="AE11" s="19" t="str">
         <f>IF(_acsReport_day_each!AC5="","",_acsReport_day_each!AC5)</f>
         <v/>
       </c>
-      <c r="AF11" s="20" t="str">
+      <c r="AF11" s="19" t="str">
         <f>IF(_acsReport_day_each!AD5="","",_acsReport_day_each!AD5)</f>
         <v/>
       </c>
-      <c r="AG11" s="32" t="str">
+      <c r="AG11" s="19" t="str">
         <f>IF(_acsReport_day_each!AE5="","",_acsReport_day_each!AE5)</f>
         <v/>
       </c>
-      <c r="AH11" s="20" t="str">
+      <c r="AH11" s="19" t="str">
         <f>IF(_acsReport_day_each!AF5="","",_acsReport_day_each!AF5)</f>
         <v/>
       </c>
-      <c r="AI11" s="20" t="str">
+      <c r="AI11" s="19" t="str">
         <f>IF(_acsReport_day_each!AG5="","",_acsReport_day_each!AG5)</f>
         <v/>
       </c>
-      <c r="AJ11" s="22" t="str">
+      <c r="AJ11" s="19" t="str">
         <f>IF(_acsReport_day_each!AH5="","",_acsReport_day_each!AH5)</f>
         <v/>
       </c>
-      <c r="AK11" s="20" t="str">
+      <c r="AK11" s="19" t="str">
         <f>IF(_acsReport_day_each!AI5="","",_acsReport_day_each!AI5)</f>
         <v/>
       </c>
-      <c r="AL11" s="20" t="str">
+      <c r="AL11" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ5="","",_acsReport_day_each!AJ5)</f>
         <v/>
       </c>
-      <c r="AM11" s="32" t="str">
+      <c r="AM11" s="19" t="str">
         <f>IF(_acsReport_day_each!AK5="","",_acsReport_day_each!AK5)</f>
         <v/>
       </c>
-      <c r="AN11" s="20" t="str">
+      <c r="AN11" s="19" t="str">
         <f>IF(_acsReport_day_each!AL5="","",_acsReport_day_each!AL5)</f>
         <v/>
       </c>
-      <c r="AO11" s="20" t="str">
+      <c r="AO11" s="19" t="str">
         <f>IF(_acsReport_day_each!AM5="","",_acsReport_day_each!AM5)</f>
         <v/>
       </c>
-      <c r="AP11" s="22" t="str">
+      <c r="AP11" s="19" t="str">
         <f>IF(_acsReport_day_each!AN5="","",_acsReport_day_each!AN5)</f>
         <v/>
       </c>
-      <c r="AQ11" s="20" t="str">
+      <c r="AQ11" s="19" t="str">
         <f>IF(_acsReport_day_each!AO5="","",_acsReport_day_each!AO5)</f>
         <v/>
       </c>
-      <c r="AR11" s="20" t="str">
+      <c r="AR11" s="19" t="str">
         <f>IF(_acsReport_day_each!AP5="","",_acsReport_day_each!AP5)</f>
         <v/>
       </c>
-      <c r="AS11" s="32" t="str">
+      <c r="AS11" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ5="","",_acsReport_day_each!AQ5)</f>
         <v/>
       </c>
-      <c r="AT11" s="20" t="str">
+      <c r="AT11" s="19" t="str">
         <f>IF(_acsReport_day_each!AR5="","",_acsReport_day_each!AR5)</f>
         <v/>
       </c>
-      <c r="AU11" s="20" t="str">
+      <c r="AU11" s="19" t="str">
         <f>IF(_acsReport_day_each!AS5="","",_acsReport_day_each!AS5)</f>
         <v/>
       </c>
-      <c r="AV11" s="22" t="str">
+      <c r="AV11" s="19" t="str">
         <f>IF(_acsReport_day_each!AT5="","",_acsReport_day_each!AT5)</f>
         <v/>
       </c>
-      <c r="AW11" s="20" t="str">
+      <c r="AW11" s="19" t="str">
         <f>IF(_acsReport_day_each!AU5="","",_acsReport_day_each!AU5)</f>
         <v/>
       </c>
-      <c r="AX11" s="20" t="str">
+      <c r="AX11" s="19" t="str">
         <f>IF(_acsReport_day_each!AV5="","",_acsReport_day_each!AV5)</f>
         <v/>
       </c>
-      <c r="AY11" s="32" t="str">
+      <c r="AY11" s="19" t="str">
         <f>IF(_acsReport_day_each!AW5="","",_acsReport_day_each!AW5)</f>
         <v/>
       </c>
-      <c r="AZ11" s="20" t="str">
+      <c r="AZ11" s="19" t="str">
         <f>IF(_acsReport_day_each!AX5="","",_acsReport_day_each!AX5)</f>
         <v/>
       </c>
-      <c r="BA11" s="20" t="str">
+      <c r="BA11" s="19" t="str">
         <f>IF(_acsReport_day_each!AY5="","",_acsReport_day_each!AY5)</f>
         <v/>
       </c>
-      <c r="BB11" s="32" t="str">
+      <c r="BB11" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ5="","",_acsReport_day_each!AZ5)</f>
         <v/>
       </c>
-      <c r="BC11" s="20" t="str">
+      <c r="BC11" s="19" t="str">
         <f>IF(_acsReport_day_each!BA5="","",_acsReport_day_each!BA5)</f>
         <v/>
       </c>
-      <c r="BD11" s="20" t="str">
+      <c r="BD11" s="19" t="str">
         <f>IF(_acsReport_day_each!BB5="","",_acsReport_day_each!BB5)</f>
         <v/>
       </c>
@@ -3455,6 +3437,9 @@
         <f>_acsReport_day_each!BD5:BF5</f>
         <v>0</v>
       </c>
+      <c r="BF11" s="19"/>
+      <c r="BG11" s="19"/>
+      <c r="BH11" s="19"/>
       <c r="BI11" s="19">
         <f>_acsReport_day_each!BG5:BI5</f>
         <v>0</v>
@@ -3473,222 +3458,222 @@
       </c>
     </row>
     <row r="12" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>0.16666666666666699</v>
       </c>
       <c r="C12" s="19" t="str">
         <f>IF(_acsReport_day_each!A6="","",_acsReport_day_each!A6)</f>
         <v/>
       </c>
-      <c r="D12" s="20" t="str">
+      <c r="D12" s="19" t="str">
         <f>IF(_acsReport_day_each!B6="","",_acsReport_day_each!B6)</f>
         <v/>
       </c>
-      <c r="E12" s="20" t="str">
+      <c r="E12" s="19" t="str">
         <f>IF(_acsReport_day_each!C6="","",_acsReport_day_each!C6)</f>
         <v/>
       </c>
-      <c r="F12" s="22" t="str">
+      <c r="F12" s="19" t="str">
         <f>IF(_acsReport_day_each!D6="","",_acsReport_day_each!D6)</f>
         <v/>
       </c>
-      <c r="G12" s="20" t="str">
+      <c r="G12" s="19" t="str">
         <f>IF(_acsReport_day_each!E6="","",_acsReport_day_each!E6)</f>
         <v/>
       </c>
-      <c r="H12" s="20" t="str">
+      <c r="H12" s="19" t="str">
         <f>IF(_acsReport_day_each!F6="","",_acsReport_day_each!F6)</f>
         <v/>
       </c>
-      <c r="I12" s="32" t="str">
+      <c r="I12" s="19" t="str">
         <f>IF(_acsReport_day_each!G6="","",_acsReport_day_each!G6)</f>
         <v/>
       </c>
-      <c r="J12" s="20" t="str">
+      <c r="J12" s="19" t="str">
         <f>IF(_acsReport_day_each!H6="","",_acsReport_day_each!H6)</f>
         <v/>
       </c>
-      <c r="K12" s="20" t="str">
+      <c r="K12" s="19" t="str">
         <f>IF(_acsReport_day_each!I6="","",_acsReport_day_each!I6)</f>
         <v/>
       </c>
-      <c r="L12" s="22" t="str">
+      <c r="L12" s="19" t="str">
         <f>IF(_acsReport_day_each!J6="","",_acsReport_day_each!J6)</f>
         <v/>
       </c>
-      <c r="M12" s="20" t="str">
+      <c r="M12" s="19" t="str">
         <f>IF(_acsReport_day_each!K6="","",_acsReport_day_each!K6)</f>
         <v/>
       </c>
-      <c r="N12" s="20" t="str">
+      <c r="N12" s="19" t="str">
         <f>IF(_acsReport_day_each!L6="","",_acsReport_day_each!L6)</f>
         <v/>
       </c>
-      <c r="O12" s="32" t="str">
+      <c r="O12" s="19" t="str">
         <f>IF(_acsReport_day_each!M6="","",_acsReport_day_each!M6)</f>
         <v/>
       </c>
-      <c r="P12" s="20" t="str">
+      <c r="P12" s="19" t="str">
         <f>IF(_acsReport_day_each!N6="","",_acsReport_day_each!N6)</f>
         <v/>
       </c>
-      <c r="Q12" s="20" t="str">
+      <c r="Q12" s="19" t="str">
         <f>IF(_acsReport_day_each!O6="","",_acsReport_day_each!O6)</f>
         <v/>
       </c>
-      <c r="R12" s="22" t="str">
+      <c r="R12" s="19" t="str">
         <f>IF(_acsReport_day_each!P6="","",_acsReport_day_each!P6)</f>
         <v/>
       </c>
-      <c r="S12" s="20" t="str">
+      <c r="S12" s="19" t="str">
         <f>IF(_acsReport_day_each!Q6="","",_acsReport_day_each!Q6)</f>
         <v/>
       </c>
-      <c r="T12" s="20" t="str">
+      <c r="T12" s="19" t="str">
         <f>IF(_acsReport_day_each!R6="","",_acsReport_day_each!R6)</f>
         <v/>
       </c>
-      <c r="U12" s="32" t="str">
+      <c r="U12" s="19" t="str">
         <f>IF(_acsReport_day_each!S6="","",_acsReport_day_each!S6)</f>
         <v/>
       </c>
-      <c r="V12" s="20" t="str">
+      <c r="V12" s="19" t="str">
         <f>IF(_acsReport_day_each!T6="","",_acsReport_day_each!T6)</f>
         <v/>
       </c>
-      <c r="W12" s="20" t="str">
+      <c r="W12" s="19" t="str">
         <f>IF(_acsReport_day_each!U6="","",_acsReport_day_each!U6)</f>
         <v/>
       </c>
-      <c r="X12" s="22" t="str">
+      <c r="X12" s="19" t="str">
         <f>IF(_acsReport_day_each!V6="","",_acsReport_day_each!V6)</f>
         <v/>
       </c>
-      <c r="Y12" s="20" t="str">
+      <c r="Y12" s="19" t="str">
         <f>IF(_acsReport_day_each!W6="","",_acsReport_day_each!W6)</f>
         <v/>
       </c>
-      <c r="Z12" s="20" t="str">
+      <c r="Z12" s="19" t="str">
         <f>IF(_acsReport_day_each!X6="","",_acsReport_day_each!X6)</f>
         <v/>
       </c>
-      <c r="AA12" s="32" t="str">
+      <c r="AA12" s="19" t="str">
         <f>IF(_acsReport_day_each!Y6="","",_acsReport_day_each!Y6)</f>
         <v/>
       </c>
-      <c r="AB12" s="20" t="str">
+      <c r="AB12" s="19" t="str">
         <f>IF(_acsReport_day_each!Z6="","",_acsReport_day_each!Z6)</f>
         <v/>
       </c>
-      <c r="AC12" s="20" t="str">
+      <c r="AC12" s="19" t="str">
         <f>IF(_acsReport_day_each!AA6="","",_acsReport_day_each!AA6)</f>
         <v/>
       </c>
-      <c r="AD12" s="22" t="str">
+      <c r="AD12" s="19" t="str">
         <f>IF(_acsReport_day_each!AB6="","",_acsReport_day_each!AB6)</f>
         <v/>
       </c>
-      <c r="AE12" s="20" t="str">
+      <c r="AE12" s="19" t="str">
         <f>IF(_acsReport_day_each!AC6="","",_acsReport_day_each!AC6)</f>
         <v/>
       </c>
-      <c r="AF12" s="20" t="str">
+      <c r="AF12" s="19" t="str">
         <f>IF(_acsReport_day_each!AD6="","",_acsReport_day_each!AD6)</f>
         <v/>
       </c>
-      <c r="AG12" s="32" t="str">
+      <c r="AG12" s="19" t="str">
         <f>IF(_acsReport_day_each!AE6="","",_acsReport_day_each!AE6)</f>
         <v/>
       </c>
-      <c r="AH12" s="20" t="str">
+      <c r="AH12" s="19" t="str">
         <f>IF(_acsReport_day_each!AF6="","",_acsReport_day_each!AF6)</f>
         <v/>
       </c>
-      <c r="AI12" s="20" t="str">
+      <c r="AI12" s="19" t="str">
         <f>IF(_acsReport_day_each!AG6="","",_acsReport_day_each!AG6)</f>
         <v/>
       </c>
-      <c r="AJ12" s="22" t="str">
+      <c r="AJ12" s="19" t="str">
         <f>IF(_acsReport_day_each!AH6="","",_acsReport_day_each!AH6)</f>
         <v/>
       </c>
-      <c r="AK12" s="20" t="str">
+      <c r="AK12" s="19" t="str">
         <f>IF(_acsReport_day_each!AI6="","",_acsReport_day_each!AI6)</f>
         <v/>
       </c>
-      <c r="AL12" s="20" t="str">
+      <c r="AL12" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ6="","",_acsReport_day_each!AJ6)</f>
         <v/>
       </c>
-      <c r="AM12" s="32" t="str">
+      <c r="AM12" s="19" t="str">
         <f>IF(_acsReport_day_each!AK6="","",_acsReport_day_each!AK6)</f>
         <v/>
       </c>
-      <c r="AN12" s="20" t="str">
+      <c r="AN12" s="19" t="str">
         <f>IF(_acsReport_day_each!AL6="","",_acsReport_day_each!AL6)</f>
         <v/>
       </c>
-      <c r="AO12" s="20" t="str">
+      <c r="AO12" s="19" t="str">
         <f>IF(_acsReport_day_each!AM6="","",_acsReport_day_each!AM6)</f>
         <v/>
       </c>
-      <c r="AP12" s="22" t="str">
+      <c r="AP12" s="19" t="str">
         <f>IF(_acsReport_day_each!AN6="","",_acsReport_day_each!AN6)</f>
         <v/>
       </c>
-      <c r="AQ12" s="20" t="str">
+      <c r="AQ12" s="19" t="str">
         <f>IF(_acsReport_day_each!AO6="","",_acsReport_day_each!AO6)</f>
         <v/>
       </c>
-      <c r="AR12" s="20" t="str">
+      <c r="AR12" s="19" t="str">
         <f>IF(_acsReport_day_each!AP6="","",_acsReport_day_each!AP6)</f>
         <v/>
       </c>
-      <c r="AS12" s="32" t="str">
+      <c r="AS12" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ6="","",_acsReport_day_each!AQ6)</f>
         <v/>
       </c>
-      <c r="AT12" s="20" t="str">
+      <c r="AT12" s="19" t="str">
         <f>IF(_acsReport_day_each!AR6="","",_acsReport_day_each!AR6)</f>
         <v/>
       </c>
-      <c r="AU12" s="20" t="str">
+      <c r="AU12" s="19" t="str">
         <f>IF(_acsReport_day_each!AS6="","",_acsReport_day_each!AS6)</f>
         <v/>
       </c>
-      <c r="AV12" s="22" t="str">
+      <c r="AV12" s="19" t="str">
         <f>IF(_acsReport_day_each!AT6="","",_acsReport_day_each!AT6)</f>
         <v/>
       </c>
-      <c r="AW12" s="20" t="str">
+      <c r="AW12" s="19" t="str">
         <f>IF(_acsReport_day_each!AU6="","",_acsReport_day_each!AU6)</f>
         <v/>
       </c>
-      <c r="AX12" s="20" t="str">
+      <c r="AX12" s="19" t="str">
         <f>IF(_acsReport_day_each!AV6="","",_acsReport_day_each!AV6)</f>
         <v/>
       </c>
-      <c r="AY12" s="32" t="str">
+      <c r="AY12" s="19" t="str">
         <f>IF(_acsReport_day_each!AW6="","",_acsReport_day_each!AW6)</f>
         <v/>
       </c>
-      <c r="AZ12" s="20" t="str">
+      <c r="AZ12" s="19" t="str">
         <f>IF(_acsReport_day_each!AX6="","",_acsReport_day_each!AX6)</f>
         <v/>
       </c>
-      <c r="BA12" s="20" t="str">
+      <c r="BA12" s="19" t="str">
         <f>IF(_acsReport_day_each!AY6="","",_acsReport_day_each!AY6)</f>
         <v/>
       </c>
-      <c r="BB12" s="32" t="str">
+      <c r="BB12" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ6="","",_acsReport_day_each!AZ6)</f>
         <v/>
       </c>
-      <c r="BC12" s="20" t="str">
+      <c r="BC12" s="19" t="str">
         <f>IF(_acsReport_day_each!BA6="","",_acsReport_day_each!BA6)</f>
         <v/>
       </c>
-      <c r="BD12" s="20" t="str">
+      <c r="BD12" s="19" t="str">
         <f>IF(_acsReport_day_each!BB6="","",_acsReport_day_each!BB6)</f>
         <v/>
       </c>
@@ -3696,6 +3681,9 @@
         <f>_acsReport_day_each!BD6:BF6</f>
         <v>0</v>
       </c>
+      <c r="BF12" s="19"/>
+      <c r="BG12" s="19"/>
+      <c r="BH12" s="19"/>
       <c r="BI12" s="19">
         <f>_acsReport_day_each!BG6:BI6</f>
         <v>0</v>
@@ -3714,222 +3702,222 @@
       </c>
     </row>
     <row r="13" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>0.20833333333333301</v>
       </c>
       <c r="C13" s="19" t="str">
         <f>IF(_acsReport_day_each!A7="","",_acsReport_day_each!A7)</f>
         <v/>
       </c>
-      <c r="D13" s="20" t="str">
+      <c r="D13" s="19" t="str">
         <f>IF(_acsReport_day_each!B7="","",_acsReport_day_each!B7)</f>
         <v/>
       </c>
-      <c r="E13" s="20" t="str">
+      <c r="E13" s="19" t="str">
         <f>IF(_acsReport_day_each!C7="","",_acsReport_day_each!C7)</f>
         <v/>
       </c>
-      <c r="F13" s="22" t="str">
+      <c r="F13" s="19" t="str">
         <f>IF(_acsReport_day_each!D7="","",_acsReport_day_each!D7)</f>
         <v/>
       </c>
-      <c r="G13" s="20" t="str">
+      <c r="G13" s="19" t="str">
         <f>IF(_acsReport_day_each!E7="","",_acsReport_day_each!E7)</f>
         <v/>
       </c>
-      <c r="H13" s="20" t="str">
+      <c r="H13" s="19" t="str">
         <f>IF(_acsReport_day_each!F7="","",_acsReport_day_each!F7)</f>
         <v/>
       </c>
-      <c r="I13" s="32" t="str">
+      <c r="I13" s="19" t="str">
         <f>IF(_acsReport_day_each!G7="","",_acsReport_day_each!G7)</f>
         <v/>
       </c>
-      <c r="J13" s="20" t="str">
+      <c r="J13" s="19" t="str">
         <f>IF(_acsReport_day_each!H7="","",_acsReport_day_each!H7)</f>
         <v/>
       </c>
-      <c r="K13" s="20" t="str">
+      <c r="K13" s="19" t="str">
         <f>IF(_acsReport_day_each!I7="","",_acsReport_day_each!I7)</f>
         <v/>
       </c>
-      <c r="L13" s="22" t="str">
+      <c r="L13" s="19" t="str">
         <f>IF(_acsReport_day_each!J7="","",_acsReport_day_each!J7)</f>
         <v/>
       </c>
-      <c r="M13" s="20" t="str">
+      <c r="M13" s="19" t="str">
         <f>IF(_acsReport_day_each!K7="","",_acsReport_day_each!K7)</f>
         <v/>
       </c>
-      <c r="N13" s="20" t="str">
+      <c r="N13" s="19" t="str">
         <f>IF(_acsReport_day_each!L7="","",_acsReport_day_each!L7)</f>
         <v/>
       </c>
-      <c r="O13" s="32" t="str">
+      <c r="O13" s="19" t="str">
         <f>IF(_acsReport_day_each!M7="","",_acsReport_day_each!M7)</f>
         <v/>
       </c>
-      <c r="P13" s="20" t="str">
+      <c r="P13" s="19" t="str">
         <f>IF(_acsReport_day_each!N7="","",_acsReport_day_each!N7)</f>
         <v/>
       </c>
-      <c r="Q13" s="20" t="str">
+      <c r="Q13" s="19" t="str">
         <f>IF(_acsReport_day_each!O7="","",_acsReport_day_each!O7)</f>
         <v/>
       </c>
-      <c r="R13" s="22" t="str">
+      <c r="R13" s="19" t="str">
         <f>IF(_acsReport_day_each!P7="","",_acsReport_day_each!P7)</f>
         <v/>
       </c>
-      <c r="S13" s="20" t="str">
+      <c r="S13" s="19" t="str">
         <f>IF(_acsReport_day_each!Q7="","",_acsReport_day_each!Q7)</f>
         <v/>
       </c>
-      <c r="T13" s="20" t="str">
+      <c r="T13" s="19" t="str">
         <f>IF(_acsReport_day_each!R7="","",_acsReport_day_each!R7)</f>
         <v/>
       </c>
-      <c r="U13" s="32" t="str">
+      <c r="U13" s="19" t="str">
         <f>IF(_acsReport_day_each!S7="","",_acsReport_day_each!S7)</f>
         <v/>
       </c>
-      <c r="V13" s="20" t="str">
+      <c r="V13" s="19" t="str">
         <f>IF(_acsReport_day_each!T7="","",_acsReport_day_each!T7)</f>
         <v/>
       </c>
-      <c r="W13" s="20" t="str">
+      <c r="W13" s="19" t="str">
         <f>IF(_acsReport_day_each!U7="","",_acsReport_day_each!U7)</f>
         <v/>
       </c>
-      <c r="X13" s="22" t="str">
+      <c r="X13" s="19" t="str">
         <f>IF(_acsReport_day_each!V7="","",_acsReport_day_each!V7)</f>
         <v/>
       </c>
-      <c r="Y13" s="20" t="str">
+      <c r="Y13" s="19" t="str">
         <f>IF(_acsReport_day_each!W7="","",_acsReport_day_each!W7)</f>
         <v/>
       </c>
-      <c r="Z13" s="20" t="str">
+      <c r="Z13" s="19" t="str">
         <f>IF(_acsReport_day_each!X7="","",_acsReport_day_each!X7)</f>
         <v/>
       </c>
-      <c r="AA13" s="32" t="str">
+      <c r="AA13" s="19" t="str">
         <f>IF(_acsReport_day_each!Y7="","",_acsReport_day_each!Y7)</f>
         <v/>
       </c>
-      <c r="AB13" s="20" t="str">
+      <c r="AB13" s="19" t="str">
         <f>IF(_acsReport_day_each!Z7="","",_acsReport_day_each!Z7)</f>
         <v/>
       </c>
-      <c r="AC13" s="20" t="str">
+      <c r="AC13" s="19" t="str">
         <f>IF(_acsReport_day_each!AA7="","",_acsReport_day_each!AA7)</f>
         <v/>
       </c>
-      <c r="AD13" s="22" t="str">
+      <c r="AD13" s="19" t="str">
         <f>IF(_acsReport_day_each!AB7="","",_acsReport_day_each!AB7)</f>
         <v/>
       </c>
-      <c r="AE13" s="20" t="str">
+      <c r="AE13" s="19" t="str">
         <f>IF(_acsReport_day_each!AC7="","",_acsReport_day_each!AC7)</f>
         <v/>
       </c>
-      <c r="AF13" s="20" t="str">
+      <c r="AF13" s="19" t="str">
         <f>IF(_acsReport_day_each!AD7="","",_acsReport_day_each!AD7)</f>
         <v/>
       </c>
-      <c r="AG13" s="32" t="str">
+      <c r="AG13" s="19" t="str">
         <f>IF(_acsReport_day_each!AE7="","",_acsReport_day_each!AE7)</f>
         <v/>
       </c>
-      <c r="AH13" s="20" t="str">
+      <c r="AH13" s="19" t="str">
         <f>IF(_acsReport_day_each!AF7="","",_acsReport_day_each!AF7)</f>
         <v/>
       </c>
-      <c r="AI13" s="20" t="str">
+      <c r="AI13" s="19" t="str">
         <f>IF(_acsReport_day_each!AG7="","",_acsReport_day_each!AG7)</f>
         <v/>
       </c>
-      <c r="AJ13" s="22" t="str">
+      <c r="AJ13" s="19" t="str">
         <f>IF(_acsReport_day_each!AH7="","",_acsReport_day_each!AH7)</f>
         <v/>
       </c>
-      <c r="AK13" s="20" t="str">
+      <c r="AK13" s="19" t="str">
         <f>IF(_acsReport_day_each!AI7="","",_acsReport_day_each!AI7)</f>
         <v/>
       </c>
-      <c r="AL13" s="20" t="str">
+      <c r="AL13" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ7="","",_acsReport_day_each!AJ7)</f>
         <v/>
       </c>
-      <c r="AM13" s="32" t="str">
+      <c r="AM13" s="19" t="str">
         <f>IF(_acsReport_day_each!AK7="","",_acsReport_day_each!AK7)</f>
         <v/>
       </c>
-      <c r="AN13" s="20" t="str">
+      <c r="AN13" s="19" t="str">
         <f>IF(_acsReport_day_each!AL7="","",_acsReport_day_each!AL7)</f>
         <v/>
       </c>
-      <c r="AO13" s="20" t="str">
+      <c r="AO13" s="19" t="str">
         <f>IF(_acsReport_day_each!AM7="","",_acsReport_day_each!AM7)</f>
         <v/>
       </c>
-      <c r="AP13" s="22" t="str">
+      <c r="AP13" s="19" t="str">
         <f>IF(_acsReport_day_each!AN7="","",_acsReport_day_each!AN7)</f>
         <v/>
       </c>
-      <c r="AQ13" s="20" t="str">
+      <c r="AQ13" s="19" t="str">
         <f>IF(_acsReport_day_each!AO7="","",_acsReport_day_each!AO7)</f>
         <v/>
       </c>
-      <c r="AR13" s="20" t="str">
+      <c r="AR13" s="19" t="str">
         <f>IF(_acsReport_day_each!AP7="","",_acsReport_day_each!AP7)</f>
         <v/>
       </c>
-      <c r="AS13" s="32" t="str">
+      <c r="AS13" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ7="","",_acsReport_day_each!AQ7)</f>
         <v/>
       </c>
-      <c r="AT13" s="20" t="str">
+      <c r="AT13" s="19" t="str">
         <f>IF(_acsReport_day_each!AR7="","",_acsReport_day_each!AR7)</f>
         <v/>
       </c>
-      <c r="AU13" s="20" t="str">
+      <c r="AU13" s="19" t="str">
         <f>IF(_acsReport_day_each!AS7="","",_acsReport_day_each!AS7)</f>
         <v/>
       </c>
-      <c r="AV13" s="22" t="str">
+      <c r="AV13" s="19" t="str">
         <f>IF(_acsReport_day_each!AT7="","",_acsReport_day_each!AT7)</f>
         <v/>
       </c>
-      <c r="AW13" s="20" t="str">
+      <c r="AW13" s="19" t="str">
         <f>IF(_acsReport_day_each!AU7="","",_acsReport_day_each!AU7)</f>
         <v/>
       </c>
-      <c r="AX13" s="20" t="str">
+      <c r="AX13" s="19" t="str">
         <f>IF(_acsReport_day_each!AV7="","",_acsReport_day_each!AV7)</f>
         <v/>
       </c>
-      <c r="AY13" s="32" t="str">
+      <c r="AY13" s="19" t="str">
         <f>IF(_acsReport_day_each!AW7="","",_acsReport_day_each!AW7)</f>
         <v/>
       </c>
-      <c r="AZ13" s="20" t="str">
+      <c r="AZ13" s="19" t="str">
         <f>IF(_acsReport_day_each!AX7="","",_acsReport_day_each!AX7)</f>
         <v/>
       </c>
-      <c r="BA13" s="20" t="str">
+      <c r="BA13" s="19" t="str">
         <f>IF(_acsReport_day_each!AY7="","",_acsReport_day_each!AY7)</f>
         <v/>
       </c>
-      <c r="BB13" s="32" t="str">
+      <c r="BB13" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ7="","",_acsReport_day_each!AZ7)</f>
         <v/>
       </c>
-      <c r="BC13" s="20" t="str">
+      <c r="BC13" s="19" t="str">
         <f>IF(_acsReport_day_each!BA7="","",_acsReport_day_each!BA7)</f>
         <v/>
       </c>
-      <c r="BD13" s="20" t="str">
+      <c r="BD13" s="19" t="str">
         <f>IF(_acsReport_day_each!BB7="","",_acsReport_day_each!BB7)</f>
         <v/>
       </c>
@@ -3937,6 +3925,9 @@
         <f>_acsReport_day_each!BD7:BF7</f>
         <v>0</v>
       </c>
+      <c r="BF13" s="19"/>
+      <c r="BG13" s="19"/>
+      <c r="BH13" s="19"/>
       <c r="BI13" s="19">
         <f>_acsReport_day_each!BG7:BI7</f>
         <v>0</v>
@@ -3955,222 +3946,222 @@
       </c>
     </row>
     <row r="14" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>0.25</v>
       </c>
       <c r="C14" s="19" t="str">
         <f>IF(_acsReport_day_each!A8="","",_acsReport_day_each!A8)</f>
         <v/>
       </c>
-      <c r="D14" s="20" t="str">
+      <c r="D14" s="19" t="str">
         <f>IF(_acsReport_day_each!B8="","",_acsReport_day_each!B8)</f>
         <v/>
       </c>
-      <c r="E14" s="20" t="str">
+      <c r="E14" s="19" t="str">
         <f>IF(_acsReport_day_each!C8="","",_acsReport_day_each!C8)</f>
         <v/>
       </c>
-      <c r="F14" s="22" t="str">
+      <c r="F14" s="19" t="str">
         <f>IF(_acsReport_day_each!D8="","",_acsReport_day_each!D8)</f>
         <v/>
       </c>
-      <c r="G14" s="20" t="str">
+      <c r="G14" s="19" t="str">
         <f>IF(_acsReport_day_each!E8="","",_acsReport_day_each!E8)</f>
         <v/>
       </c>
-      <c r="H14" s="20" t="str">
+      <c r="H14" s="19" t="str">
         <f>IF(_acsReport_day_each!F8="","",_acsReport_day_each!F8)</f>
         <v/>
       </c>
-      <c r="I14" s="32" t="str">
+      <c r="I14" s="19" t="str">
         <f>IF(_acsReport_day_each!G8="","",_acsReport_day_each!G8)</f>
         <v/>
       </c>
-      <c r="J14" s="20" t="str">
+      <c r="J14" s="19" t="str">
         <f>IF(_acsReport_day_each!H8="","",_acsReport_day_each!H8)</f>
         <v/>
       </c>
-      <c r="K14" s="20" t="str">
+      <c r="K14" s="19" t="str">
         <f>IF(_acsReport_day_each!I8="","",_acsReport_day_each!I8)</f>
         <v/>
       </c>
-      <c r="L14" s="22" t="str">
+      <c r="L14" s="19" t="str">
         <f>IF(_acsReport_day_each!J8="","",_acsReport_day_each!J8)</f>
         <v/>
       </c>
-      <c r="M14" s="20" t="str">
+      <c r="M14" s="19" t="str">
         <f>IF(_acsReport_day_each!K8="","",_acsReport_day_each!K8)</f>
         <v/>
       </c>
-      <c r="N14" s="20" t="str">
+      <c r="N14" s="19" t="str">
         <f>IF(_acsReport_day_each!L8="","",_acsReport_day_each!L8)</f>
         <v/>
       </c>
-      <c r="O14" s="32" t="str">
+      <c r="O14" s="19" t="str">
         <f>IF(_acsReport_day_each!M8="","",_acsReport_day_each!M8)</f>
         <v/>
       </c>
-      <c r="P14" s="20" t="str">
+      <c r="P14" s="19" t="str">
         <f>IF(_acsReport_day_each!N8="","",_acsReport_day_each!N8)</f>
         <v/>
       </c>
-      <c r="Q14" s="20" t="str">
+      <c r="Q14" s="19" t="str">
         <f>IF(_acsReport_day_each!O8="","",_acsReport_day_each!O8)</f>
         <v/>
       </c>
-      <c r="R14" s="22" t="str">
+      <c r="R14" s="19" t="str">
         <f>IF(_acsReport_day_each!P8="","",_acsReport_day_each!P8)</f>
         <v/>
       </c>
-      <c r="S14" s="20" t="str">
+      <c r="S14" s="19" t="str">
         <f>IF(_acsReport_day_each!Q8="","",_acsReport_day_each!Q8)</f>
         <v/>
       </c>
-      <c r="T14" s="20" t="str">
+      <c r="T14" s="19" t="str">
         <f>IF(_acsReport_day_each!R8="","",_acsReport_day_each!R8)</f>
         <v/>
       </c>
-      <c r="U14" s="32" t="str">
+      <c r="U14" s="19" t="str">
         <f>IF(_acsReport_day_each!S8="","",_acsReport_day_each!S8)</f>
         <v/>
       </c>
-      <c r="V14" s="20" t="str">
+      <c r="V14" s="19" t="str">
         <f>IF(_acsReport_day_each!T8="","",_acsReport_day_each!T8)</f>
         <v/>
       </c>
-      <c r="W14" s="20" t="str">
+      <c r="W14" s="19" t="str">
         <f>IF(_acsReport_day_each!U8="","",_acsReport_day_each!U8)</f>
         <v/>
       </c>
-      <c r="X14" s="22" t="str">
+      <c r="X14" s="19" t="str">
         <f>IF(_acsReport_day_each!V8="","",_acsReport_day_each!V8)</f>
         <v/>
       </c>
-      <c r="Y14" s="20" t="str">
+      <c r="Y14" s="19" t="str">
         <f>IF(_acsReport_day_each!W8="","",_acsReport_day_each!W8)</f>
         <v/>
       </c>
-      <c r="Z14" s="20" t="str">
+      <c r="Z14" s="19" t="str">
         <f>IF(_acsReport_day_each!X8="","",_acsReport_day_each!X8)</f>
         <v/>
       </c>
-      <c r="AA14" s="32" t="str">
+      <c r="AA14" s="19" t="str">
         <f>IF(_acsReport_day_each!Y8="","",_acsReport_day_each!Y8)</f>
         <v/>
       </c>
-      <c r="AB14" s="20" t="str">
+      <c r="AB14" s="19" t="str">
         <f>IF(_acsReport_day_each!Z8="","",_acsReport_day_each!Z8)</f>
         <v/>
       </c>
-      <c r="AC14" s="20" t="str">
+      <c r="AC14" s="19" t="str">
         <f>IF(_acsReport_day_each!AA8="","",_acsReport_day_each!AA8)</f>
         <v/>
       </c>
-      <c r="AD14" s="22" t="str">
+      <c r="AD14" s="19" t="str">
         <f>IF(_acsReport_day_each!AB8="","",_acsReport_day_each!AB8)</f>
         <v/>
       </c>
-      <c r="AE14" s="20" t="str">
+      <c r="AE14" s="19" t="str">
         <f>IF(_acsReport_day_each!AC8="","",_acsReport_day_each!AC8)</f>
         <v/>
       </c>
-      <c r="AF14" s="20" t="str">
+      <c r="AF14" s="19" t="str">
         <f>IF(_acsReport_day_each!AD8="","",_acsReport_day_each!AD8)</f>
         <v/>
       </c>
-      <c r="AG14" s="32" t="str">
+      <c r="AG14" s="19" t="str">
         <f>IF(_acsReport_day_each!AE8="","",_acsReport_day_each!AE8)</f>
         <v/>
       </c>
-      <c r="AH14" s="20" t="str">
+      <c r="AH14" s="19" t="str">
         <f>IF(_acsReport_day_each!AF8="","",_acsReport_day_each!AF8)</f>
         <v/>
       </c>
-      <c r="AI14" s="20" t="str">
+      <c r="AI14" s="19" t="str">
         <f>IF(_acsReport_day_each!AG8="","",_acsReport_day_each!AG8)</f>
         <v/>
       </c>
-      <c r="AJ14" s="22" t="str">
+      <c r="AJ14" s="19" t="str">
         <f>IF(_acsReport_day_each!AH8="","",_acsReport_day_each!AH8)</f>
         <v/>
       </c>
-      <c r="AK14" s="20" t="str">
+      <c r="AK14" s="19" t="str">
         <f>IF(_acsReport_day_each!AI8="","",_acsReport_day_each!AI8)</f>
         <v/>
       </c>
-      <c r="AL14" s="20" t="str">
+      <c r="AL14" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ8="","",_acsReport_day_each!AJ8)</f>
         <v/>
       </c>
-      <c r="AM14" s="32" t="str">
+      <c r="AM14" s="19" t="str">
         <f>IF(_acsReport_day_each!AK8="","",_acsReport_day_each!AK8)</f>
         <v/>
       </c>
-      <c r="AN14" s="20" t="str">
+      <c r="AN14" s="19" t="str">
         <f>IF(_acsReport_day_each!AL8="","",_acsReport_day_each!AL8)</f>
         <v/>
       </c>
-      <c r="AO14" s="20" t="str">
+      <c r="AO14" s="19" t="str">
         <f>IF(_acsReport_day_each!AM8="","",_acsReport_day_each!AM8)</f>
         <v/>
       </c>
-      <c r="AP14" s="22" t="str">
+      <c r="AP14" s="19" t="str">
         <f>IF(_acsReport_day_each!AN8="","",_acsReport_day_each!AN8)</f>
         <v/>
       </c>
-      <c r="AQ14" s="20" t="str">
+      <c r="AQ14" s="19" t="str">
         <f>IF(_acsReport_day_each!AO8="","",_acsReport_day_each!AO8)</f>
         <v/>
       </c>
-      <c r="AR14" s="20" t="str">
+      <c r="AR14" s="19" t="str">
         <f>IF(_acsReport_day_each!AP8="","",_acsReport_day_each!AP8)</f>
         <v/>
       </c>
-      <c r="AS14" s="32" t="str">
+      <c r="AS14" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ8="","",_acsReport_day_each!AQ8)</f>
         <v/>
       </c>
-      <c r="AT14" s="20" t="str">
+      <c r="AT14" s="19" t="str">
         <f>IF(_acsReport_day_each!AR8="","",_acsReport_day_each!AR8)</f>
         <v/>
       </c>
-      <c r="AU14" s="20" t="str">
+      <c r="AU14" s="19" t="str">
         <f>IF(_acsReport_day_each!AS8="","",_acsReport_day_each!AS8)</f>
         <v/>
       </c>
-      <c r="AV14" s="22" t="str">
+      <c r="AV14" s="19" t="str">
         <f>IF(_acsReport_day_each!AT8="","",_acsReport_day_each!AT8)</f>
         <v/>
       </c>
-      <c r="AW14" s="20" t="str">
+      <c r="AW14" s="19" t="str">
         <f>IF(_acsReport_day_each!AU8="","",_acsReport_day_each!AU8)</f>
         <v/>
       </c>
-      <c r="AX14" s="20" t="str">
+      <c r="AX14" s="19" t="str">
         <f>IF(_acsReport_day_each!AV8="","",_acsReport_day_each!AV8)</f>
         <v/>
       </c>
-      <c r="AY14" s="32" t="str">
+      <c r="AY14" s="19" t="str">
         <f>IF(_acsReport_day_each!AW8="","",_acsReport_day_each!AW8)</f>
         <v/>
       </c>
-      <c r="AZ14" s="20" t="str">
+      <c r="AZ14" s="19" t="str">
         <f>IF(_acsReport_day_each!AX8="","",_acsReport_day_each!AX8)</f>
         <v/>
       </c>
-      <c r="BA14" s="20" t="str">
+      <c r="BA14" s="19" t="str">
         <f>IF(_acsReport_day_each!AY8="","",_acsReport_day_each!AY8)</f>
         <v/>
       </c>
-      <c r="BB14" s="32" t="str">
+      <c r="BB14" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ8="","",_acsReport_day_each!AZ8)</f>
         <v/>
       </c>
-      <c r="BC14" s="20" t="str">
+      <c r="BC14" s="19" t="str">
         <f>IF(_acsReport_day_each!BA8="","",_acsReport_day_each!BA8)</f>
         <v/>
       </c>
-      <c r="BD14" s="20" t="str">
+      <c r="BD14" s="19" t="str">
         <f>IF(_acsReport_day_each!BB8="","",_acsReport_day_each!BB8)</f>
         <v/>
       </c>
@@ -4178,6 +4169,9 @@
         <f>_acsReport_day_each!BD8:BF8</f>
         <v>0</v>
       </c>
+      <c r="BF14" s="19"/>
+      <c r="BG14" s="19"/>
+      <c r="BH14" s="19"/>
       <c r="BI14" s="19">
         <f>_acsReport_day_each!BG8:BI8</f>
         <v>0</v>
@@ -4196,222 +4190,222 @@
       </c>
     </row>
     <row r="15" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B15" s="23">
+      <c r="B15" s="21">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C15" s="24" t="str">
+      <c r="C15" s="19" t="str">
         <f>IF(_acsReport_day_each!A9="","",_acsReport_day_each!A9)</f>
         <v/>
       </c>
-      <c r="D15" s="25" t="str">
+      <c r="D15" s="19" t="str">
         <f>IF(_acsReport_day_each!B9="","",_acsReport_day_each!B9)</f>
         <v/>
       </c>
-      <c r="E15" s="25" t="str">
+      <c r="E15" s="19" t="str">
         <f>IF(_acsReport_day_each!C9="","",_acsReport_day_each!C9)</f>
         <v/>
       </c>
-      <c r="F15" s="22" t="str">
+      <c r="F15" s="19" t="str">
         <f>IF(_acsReport_day_each!D9="","",_acsReport_day_each!D9)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="19" t="str">
         <f>IF(_acsReport_day_each!E9="","",_acsReport_day_each!E9)</f>
         <v/>
       </c>
-      <c r="H15" s="20" t="str">
+      <c r="H15" s="19" t="str">
         <f>IF(_acsReport_day_each!F9="","",_acsReport_day_each!F9)</f>
         <v/>
       </c>
-      <c r="I15" s="32" t="str">
+      <c r="I15" s="19" t="str">
         <f>IF(_acsReport_day_each!G9="","",_acsReport_day_each!G9)</f>
         <v/>
       </c>
-      <c r="J15" s="20" t="str">
+      <c r="J15" s="19" t="str">
         <f>IF(_acsReport_day_each!H9="","",_acsReport_day_each!H9)</f>
         <v/>
       </c>
-      <c r="K15" s="20" t="str">
+      <c r="K15" s="19" t="str">
         <f>IF(_acsReport_day_each!I9="","",_acsReport_day_each!I9)</f>
         <v/>
       </c>
-      <c r="L15" s="22" t="str">
+      <c r="L15" s="19" t="str">
         <f>IF(_acsReport_day_each!J9="","",_acsReport_day_each!J9)</f>
         <v/>
       </c>
-      <c r="M15" s="20" t="str">
+      <c r="M15" s="19" t="str">
         <f>IF(_acsReport_day_each!K9="","",_acsReport_day_each!K9)</f>
         <v/>
       </c>
-      <c r="N15" s="20" t="str">
+      <c r="N15" s="19" t="str">
         <f>IF(_acsReport_day_each!L9="","",_acsReport_day_each!L9)</f>
         <v/>
       </c>
-      <c r="O15" s="32" t="str">
+      <c r="O15" s="19" t="str">
         <f>IF(_acsReport_day_each!M9="","",_acsReport_day_each!M9)</f>
         <v/>
       </c>
-      <c r="P15" s="20" t="str">
+      <c r="P15" s="19" t="str">
         <f>IF(_acsReport_day_each!N9="","",_acsReport_day_each!N9)</f>
         <v/>
       </c>
-      <c r="Q15" s="20" t="str">
+      <c r="Q15" s="19" t="str">
         <f>IF(_acsReport_day_each!O9="","",_acsReport_day_each!O9)</f>
         <v/>
       </c>
-      <c r="R15" s="22" t="str">
+      <c r="R15" s="19" t="str">
         <f>IF(_acsReport_day_each!P9="","",_acsReport_day_each!P9)</f>
         <v/>
       </c>
-      <c r="S15" s="20" t="str">
+      <c r="S15" s="19" t="str">
         <f>IF(_acsReport_day_each!Q9="","",_acsReport_day_each!Q9)</f>
         <v/>
       </c>
-      <c r="T15" s="20" t="str">
+      <c r="T15" s="19" t="str">
         <f>IF(_acsReport_day_each!R9="","",_acsReport_day_each!R9)</f>
         <v/>
       </c>
-      <c r="U15" s="32" t="str">
+      <c r="U15" s="19" t="str">
         <f>IF(_acsReport_day_each!S9="","",_acsReport_day_each!S9)</f>
         <v/>
       </c>
-      <c r="V15" s="20" t="str">
+      <c r="V15" s="19" t="str">
         <f>IF(_acsReport_day_each!T9="","",_acsReport_day_each!T9)</f>
         <v/>
       </c>
-      <c r="W15" s="20" t="str">
+      <c r="W15" s="19" t="str">
         <f>IF(_acsReport_day_each!U9="","",_acsReport_day_each!U9)</f>
         <v/>
       </c>
-      <c r="X15" s="22" t="str">
+      <c r="X15" s="19" t="str">
         <f>IF(_acsReport_day_each!V9="","",_acsReport_day_each!V9)</f>
         <v/>
       </c>
-      <c r="Y15" s="20" t="str">
+      <c r="Y15" s="19" t="str">
         <f>IF(_acsReport_day_each!W9="","",_acsReport_day_each!W9)</f>
         <v/>
       </c>
-      <c r="Z15" s="20" t="str">
+      <c r="Z15" s="19" t="str">
         <f>IF(_acsReport_day_each!X9="","",_acsReport_day_each!X9)</f>
         <v/>
       </c>
-      <c r="AA15" s="34" t="str">
+      <c r="AA15" s="19" t="str">
         <f>IF(_acsReport_day_each!Y9="","",_acsReport_day_each!Y9)</f>
         <v/>
       </c>
-      <c r="AB15" s="25" t="str">
+      <c r="AB15" s="19" t="str">
         <f>IF(_acsReport_day_each!Z9="","",_acsReport_day_each!Z9)</f>
         <v/>
       </c>
-      <c r="AC15" s="25" t="str">
+      <c r="AC15" s="19" t="str">
         <f>IF(_acsReport_day_each!AA9="","",_acsReport_day_each!AA9)</f>
         <v/>
       </c>
-      <c r="AD15" s="24" t="str">
+      <c r="AD15" s="19" t="str">
         <f>IF(_acsReport_day_each!AB9="","",_acsReport_day_each!AB9)</f>
         <v/>
       </c>
-      <c r="AE15" s="25" t="str">
+      <c r="AE15" s="19" t="str">
         <f>IF(_acsReport_day_each!AC9="","",_acsReport_day_each!AC9)</f>
         <v/>
       </c>
-      <c r="AF15" s="25" t="str">
+      <c r="AF15" s="19" t="str">
         <f>IF(_acsReport_day_each!AD9="","",_acsReport_day_each!AD9)</f>
         <v/>
       </c>
-      <c r="AG15" s="34" t="str">
+      <c r="AG15" s="19" t="str">
         <f>IF(_acsReport_day_each!AE9="","",_acsReport_day_each!AE9)</f>
         <v/>
       </c>
-      <c r="AH15" s="25" t="str">
+      <c r="AH15" s="19" t="str">
         <f>IF(_acsReport_day_each!AF9="","",_acsReport_day_each!AF9)</f>
         <v/>
       </c>
-      <c r="AI15" s="20" t="str">
+      <c r="AI15" s="19" t="str">
         <f>IF(_acsReport_day_each!AG9="","",_acsReport_day_each!AG9)</f>
         <v/>
       </c>
-      <c r="AJ15" s="22" t="str">
+      <c r="AJ15" s="19" t="str">
         <f>IF(_acsReport_day_each!AH9="","",_acsReport_day_each!AH9)</f>
         <v/>
       </c>
-      <c r="AK15" s="20" t="str">
+      <c r="AK15" s="19" t="str">
         <f>IF(_acsReport_day_each!AI9="","",_acsReport_day_each!AI9)</f>
         <v/>
       </c>
-      <c r="AL15" s="20" t="str">
+      <c r="AL15" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ9="","",_acsReport_day_each!AJ9)</f>
         <v/>
       </c>
-      <c r="AM15" s="32" t="str">
+      <c r="AM15" s="19" t="str">
         <f>IF(_acsReport_day_each!AK9="","",_acsReport_day_each!AK9)</f>
         <v/>
       </c>
-      <c r="AN15" s="20" t="str">
+      <c r="AN15" s="19" t="str">
         <f>IF(_acsReport_day_each!AL9="","",_acsReport_day_each!AL9)</f>
         <v/>
       </c>
-      <c r="AO15" s="20" t="str">
+      <c r="AO15" s="19" t="str">
         <f>IF(_acsReport_day_each!AM9="","",_acsReport_day_each!AM9)</f>
         <v/>
       </c>
-      <c r="AP15" s="22" t="str">
+      <c r="AP15" s="19" t="str">
         <f>IF(_acsReport_day_each!AN9="","",_acsReport_day_each!AN9)</f>
         <v/>
       </c>
-      <c r="AQ15" s="20" t="str">
+      <c r="AQ15" s="19" t="str">
         <f>IF(_acsReport_day_each!AO9="","",_acsReport_day_each!AO9)</f>
         <v/>
       </c>
-      <c r="AR15" s="20" t="str">
+      <c r="AR15" s="19" t="str">
         <f>IF(_acsReport_day_each!AP9="","",_acsReport_day_each!AP9)</f>
         <v/>
       </c>
-      <c r="AS15" s="32" t="str">
+      <c r="AS15" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ9="","",_acsReport_day_each!AQ9)</f>
         <v/>
       </c>
-      <c r="AT15" s="20" t="str">
+      <c r="AT15" s="19" t="str">
         <f>IF(_acsReport_day_each!AR9="","",_acsReport_day_each!AR9)</f>
         <v/>
       </c>
-      <c r="AU15" s="20" t="str">
+      <c r="AU15" s="19" t="str">
         <f>IF(_acsReport_day_each!AS9="","",_acsReport_day_each!AS9)</f>
         <v/>
       </c>
-      <c r="AV15" s="22" t="str">
+      <c r="AV15" s="19" t="str">
         <f>IF(_acsReport_day_each!AT9="","",_acsReport_day_each!AT9)</f>
         <v/>
       </c>
-      <c r="AW15" s="20" t="str">
+      <c r="AW15" s="19" t="str">
         <f>IF(_acsReport_day_each!AU9="","",_acsReport_day_each!AU9)</f>
         <v/>
       </c>
-      <c r="AX15" s="20" t="str">
+      <c r="AX15" s="19" t="str">
         <f>IF(_acsReport_day_each!AV9="","",_acsReport_day_each!AV9)</f>
         <v/>
       </c>
-      <c r="AY15" s="32" t="str">
+      <c r="AY15" s="19" t="str">
         <f>IF(_acsReport_day_each!AW9="","",_acsReport_day_each!AW9)</f>
         <v/>
       </c>
-      <c r="AZ15" s="20" t="str">
+      <c r="AZ15" s="19" t="str">
         <f>IF(_acsReport_day_each!AX9="","",_acsReport_day_each!AX9)</f>
         <v/>
       </c>
-      <c r="BA15" s="20" t="str">
+      <c r="BA15" s="19" t="str">
         <f>IF(_acsReport_day_each!AY9="","",_acsReport_day_each!AY9)</f>
         <v/>
       </c>
-      <c r="BB15" s="32" t="str">
+      <c r="BB15" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ9="","",_acsReport_day_each!AZ9)</f>
         <v/>
       </c>
-      <c r="BC15" s="20" t="str">
+      <c r="BC15" s="19" t="str">
         <f>IF(_acsReport_day_each!BA9="","",_acsReport_day_each!BA9)</f>
         <v/>
       </c>
-      <c r="BD15" s="20" t="str">
+      <c r="BD15" s="19" t="str">
         <f>IF(_acsReport_day_each!BB9="","",_acsReport_day_each!BB9)</f>
         <v/>
       </c>
@@ -4419,6 +4413,9 @@
         <f>_acsReport_day_each!BD9:BF9</f>
         <v>0</v>
       </c>
+      <c r="BF15" s="19"/>
+      <c r="BG15" s="19"/>
+      <c r="BH15" s="19"/>
       <c r="BI15" s="19">
         <f>_acsReport_day_each!BG9:BI9</f>
         <v>0</v>
@@ -4437,222 +4434,222 @@
       </c>
     </row>
     <row r="16" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B16" s="26">
+      <c r="B16" s="22">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C16" s="27" t="str">
+      <c r="C16" s="19" t="str">
         <f>IF(_acsReport_day_each!A10="","",_acsReport_day_each!A10)</f>
         <v/>
       </c>
-      <c r="D16" s="28" t="str">
+      <c r="D16" s="19" t="str">
         <f>IF(_acsReport_day_each!B10="","",_acsReport_day_each!B10)</f>
         <v/>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="19" t="str">
         <f>IF(_acsReport_day_each!C10="","",_acsReport_day_each!C10)</f>
         <v/>
       </c>
-      <c r="F16" s="27" t="str">
+      <c r="F16" s="19" t="str">
         <f>IF(_acsReport_day_each!D10="","",_acsReport_day_each!D10)</f>
         <v/>
       </c>
-      <c r="G16" s="28" t="str">
+      <c r="G16" s="19" t="str">
         <f>IF(_acsReport_day_each!E10="","",_acsReport_day_each!E10)</f>
         <v/>
       </c>
-      <c r="H16" s="28" t="str">
+      <c r="H16" s="19" t="str">
         <f>IF(_acsReport_day_each!F10="","",_acsReport_day_each!F10)</f>
         <v/>
       </c>
-      <c r="I16" s="33" t="str">
+      <c r="I16" s="19" t="str">
         <f>IF(_acsReport_day_each!G10="","",_acsReport_day_each!G10)</f>
         <v/>
       </c>
-      <c r="J16" s="28" t="str">
+      <c r="J16" s="19" t="str">
         <f>IF(_acsReport_day_each!H10="","",_acsReport_day_each!H10)</f>
         <v/>
       </c>
-      <c r="K16" s="28" t="str">
+      <c r="K16" s="19" t="str">
         <f>IF(_acsReport_day_each!I10="","",_acsReport_day_each!I10)</f>
         <v/>
       </c>
-      <c r="L16" s="27" t="str">
+      <c r="L16" s="19" t="str">
         <f>IF(_acsReport_day_each!J10="","",_acsReport_day_each!J10)</f>
         <v/>
       </c>
-      <c r="M16" s="28" t="str">
+      <c r="M16" s="19" t="str">
         <f>IF(_acsReport_day_each!K10="","",_acsReport_day_each!K10)</f>
         <v/>
       </c>
-      <c r="N16" s="28" t="str">
+      <c r="N16" s="19" t="str">
         <f>IF(_acsReport_day_each!L10="","",_acsReport_day_each!L10)</f>
         <v/>
       </c>
-      <c r="O16" s="33" t="str">
+      <c r="O16" s="19" t="str">
         <f>IF(_acsReport_day_each!M10="","",_acsReport_day_each!M10)</f>
         <v/>
       </c>
-      <c r="P16" s="28" t="str">
+      <c r="P16" s="19" t="str">
         <f>IF(_acsReport_day_each!N10="","",_acsReport_day_each!N10)</f>
         <v/>
       </c>
-      <c r="Q16" s="28" t="str">
+      <c r="Q16" s="19" t="str">
         <f>IF(_acsReport_day_each!O10="","",_acsReport_day_each!O10)</f>
         <v/>
       </c>
-      <c r="R16" s="27" t="str">
+      <c r="R16" s="19" t="str">
         <f>IF(_acsReport_day_each!P10="","",_acsReport_day_each!P10)</f>
         <v/>
       </c>
-      <c r="S16" s="28" t="str">
+      <c r="S16" s="19" t="str">
         <f>IF(_acsReport_day_each!Q10="","",_acsReport_day_each!Q10)</f>
         <v/>
       </c>
-      <c r="T16" s="28" t="str">
+      <c r="T16" s="19" t="str">
         <f>IF(_acsReport_day_each!R10="","",_acsReport_day_each!R10)</f>
         <v/>
       </c>
-      <c r="U16" s="33" t="str">
+      <c r="U16" s="19" t="str">
         <f>IF(_acsReport_day_each!S10="","",_acsReport_day_each!S10)</f>
         <v/>
       </c>
-      <c r="V16" s="28" t="str">
+      <c r="V16" s="19" t="str">
         <f>IF(_acsReport_day_each!T10="","",_acsReport_day_each!T10)</f>
         <v/>
       </c>
-      <c r="W16" s="28" t="str">
+      <c r="W16" s="19" t="str">
         <f>IF(_acsReport_day_each!U10="","",_acsReport_day_each!U10)</f>
         <v/>
       </c>
-      <c r="X16" s="27" t="str">
+      <c r="X16" s="19" t="str">
         <f>IF(_acsReport_day_each!V10="","",_acsReport_day_each!V10)</f>
         <v/>
       </c>
-      <c r="Y16" s="28" t="str">
+      <c r="Y16" s="19" t="str">
         <f>IF(_acsReport_day_each!W10="","",_acsReport_day_each!W10)</f>
         <v/>
       </c>
-      <c r="Z16" s="28" t="str">
+      <c r="Z16" s="19" t="str">
         <f>IF(_acsReport_day_each!X10="","",_acsReport_day_each!X10)</f>
         <v/>
       </c>
-      <c r="AA16" s="33" t="str">
+      <c r="AA16" s="19" t="str">
         <f>IF(_acsReport_day_each!Y10="","",_acsReport_day_each!Y10)</f>
         <v/>
       </c>
-      <c r="AB16" s="28" t="str">
+      <c r="AB16" s="19" t="str">
         <f>IF(_acsReport_day_each!Z10="","",_acsReport_day_each!Z10)</f>
         <v/>
       </c>
-      <c r="AC16" s="28" t="str">
+      <c r="AC16" s="19" t="str">
         <f>IF(_acsReport_day_each!AA10="","",_acsReport_day_each!AA10)</f>
         <v/>
       </c>
-      <c r="AD16" s="27" t="str">
+      <c r="AD16" s="19" t="str">
         <f>IF(_acsReport_day_each!AB10="","",_acsReport_day_each!AB10)</f>
         <v/>
       </c>
-      <c r="AE16" s="28" t="str">
+      <c r="AE16" s="19" t="str">
         <f>IF(_acsReport_day_each!AC10="","",_acsReport_day_each!AC10)</f>
         <v/>
       </c>
-      <c r="AF16" s="28" t="str">
+      <c r="AF16" s="19" t="str">
         <f>IF(_acsReport_day_each!AD10="","",_acsReport_day_each!AD10)</f>
         <v/>
       </c>
-      <c r="AG16" s="33" t="str">
+      <c r="AG16" s="19" t="str">
         <f>IF(_acsReport_day_each!AE10="","",_acsReport_day_each!AE10)</f>
         <v/>
       </c>
-      <c r="AH16" s="28" t="str">
+      <c r="AH16" s="19" t="str">
         <f>IF(_acsReport_day_each!AF10="","",_acsReport_day_each!AF10)</f>
         <v/>
       </c>
-      <c r="AI16" s="28" t="str">
+      <c r="AI16" s="19" t="str">
         <f>IF(_acsReport_day_each!AG10="","",_acsReport_day_each!AG10)</f>
         <v/>
       </c>
-      <c r="AJ16" s="27" t="str">
+      <c r="AJ16" s="19" t="str">
         <f>IF(_acsReport_day_each!AH10="","",_acsReport_day_each!AH10)</f>
         <v/>
       </c>
-      <c r="AK16" s="28" t="str">
+      <c r="AK16" s="19" t="str">
         <f>IF(_acsReport_day_each!AI10="","",_acsReport_day_each!AI10)</f>
         <v/>
       </c>
-      <c r="AL16" s="28" t="str">
+      <c r="AL16" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ10="","",_acsReport_day_each!AJ10)</f>
         <v/>
       </c>
-      <c r="AM16" s="33" t="str">
+      <c r="AM16" s="19" t="str">
         <f>IF(_acsReport_day_each!AK10="","",_acsReport_day_each!AK10)</f>
         <v/>
       </c>
-      <c r="AN16" s="28" t="str">
+      <c r="AN16" s="19" t="str">
         <f>IF(_acsReport_day_each!AL10="","",_acsReport_day_each!AL10)</f>
         <v/>
       </c>
-      <c r="AO16" s="28" t="str">
+      <c r="AO16" s="19" t="str">
         <f>IF(_acsReport_day_each!AM10="","",_acsReport_day_each!AM10)</f>
         <v/>
       </c>
-      <c r="AP16" s="27" t="str">
+      <c r="AP16" s="19" t="str">
         <f>IF(_acsReport_day_each!AN10="","",_acsReport_day_each!AN10)</f>
         <v/>
       </c>
-      <c r="AQ16" s="28" t="str">
+      <c r="AQ16" s="19" t="str">
         <f>IF(_acsReport_day_each!AO10="","",_acsReport_day_each!AO10)</f>
         <v/>
       </c>
-      <c r="AR16" s="28" t="str">
+      <c r="AR16" s="19" t="str">
         <f>IF(_acsReport_day_each!AP10="","",_acsReport_day_each!AP10)</f>
         <v/>
       </c>
-      <c r="AS16" s="33" t="str">
+      <c r="AS16" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ10="","",_acsReport_day_each!AQ10)</f>
         <v/>
       </c>
-      <c r="AT16" s="28" t="str">
+      <c r="AT16" s="19" t="str">
         <f>IF(_acsReport_day_each!AR10="","",_acsReport_day_each!AR10)</f>
         <v/>
       </c>
-      <c r="AU16" s="28" t="str">
+      <c r="AU16" s="19" t="str">
         <f>IF(_acsReport_day_each!AS10="","",_acsReport_day_each!AS10)</f>
         <v/>
       </c>
-      <c r="AV16" s="27" t="str">
+      <c r="AV16" s="19" t="str">
         <f>IF(_acsReport_day_each!AT10="","",_acsReport_day_each!AT10)</f>
         <v/>
       </c>
-      <c r="AW16" s="28" t="str">
+      <c r="AW16" s="19" t="str">
         <f>IF(_acsReport_day_each!AU10="","",_acsReport_day_each!AU10)</f>
         <v/>
       </c>
-      <c r="AX16" s="28" t="str">
+      <c r="AX16" s="19" t="str">
         <f>IF(_acsReport_day_each!AV10="","",_acsReport_day_each!AV10)</f>
         <v/>
       </c>
-      <c r="AY16" s="33" t="str">
+      <c r="AY16" s="19" t="str">
         <f>IF(_acsReport_day_each!AW10="","",_acsReport_day_each!AW10)</f>
         <v/>
       </c>
-      <c r="AZ16" s="28" t="str">
+      <c r="AZ16" s="19" t="str">
         <f>IF(_acsReport_day_each!AX10="","",_acsReport_day_each!AX10)</f>
         <v/>
       </c>
-      <c r="BA16" s="28" t="str">
+      <c r="BA16" s="19" t="str">
         <f>IF(_acsReport_day_each!AY10="","",_acsReport_day_each!AY10)</f>
         <v/>
       </c>
-      <c r="BB16" s="33" t="str">
+      <c r="BB16" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ10="","",_acsReport_day_each!AZ10)</f>
         <v/>
       </c>
-      <c r="BC16" s="28" t="str">
+      <c r="BC16" s="19" t="str">
         <f>IF(_acsReport_day_each!BA10="","",_acsReport_day_each!BA10)</f>
         <v/>
       </c>
-      <c r="BD16" s="28" t="str">
+      <c r="BD16" s="19" t="str">
         <f>IF(_acsReport_day_each!BB10="","",_acsReport_day_each!BB10)</f>
         <v/>
       </c>
@@ -4660,6 +4657,9 @@
         <f>_acsReport_day_each!BD10:BF10</f>
         <v>0</v>
       </c>
+      <c r="BF16" s="19"/>
+      <c r="BG16" s="19"/>
+      <c r="BH16" s="19"/>
       <c r="BI16" s="19">
         <f>_acsReport_day_each!BG10:BI10</f>
         <v>0</v>
@@ -4678,222 +4678,222 @@
       </c>
     </row>
     <row r="17" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>0.375</v>
       </c>
-      <c r="C17" s="22" t="str">
+      <c r="C17" s="19" t="str">
         <f>IF(_acsReport_day_each!A11="","",_acsReport_day_each!A11)</f>
         <v/>
       </c>
-      <c r="D17" s="20" t="str">
+      <c r="D17" s="19" t="str">
         <f>IF(_acsReport_day_each!B11="","",_acsReport_day_each!B11)</f>
         <v/>
       </c>
-      <c r="E17" s="20" t="str">
+      <c r="E17" s="19" t="str">
         <f>IF(_acsReport_day_each!C11="","",_acsReport_day_each!C11)</f>
         <v/>
       </c>
-      <c r="F17" s="22" t="str">
+      <c r="F17" s="19" t="str">
         <f>IF(_acsReport_day_each!D11="","",_acsReport_day_each!D11)</f>
         <v/>
       </c>
-      <c r="G17" s="20" t="str">
+      <c r="G17" s="19" t="str">
         <f>IF(_acsReport_day_each!E11="","",_acsReport_day_each!E11)</f>
         <v/>
       </c>
-      <c r="H17" s="20" t="str">
+      <c r="H17" s="19" t="str">
         <f>IF(_acsReport_day_each!F11="","",_acsReport_day_each!F11)</f>
         <v/>
       </c>
-      <c r="I17" s="32" t="str">
+      <c r="I17" s="19" t="str">
         <f>IF(_acsReport_day_each!G11="","",_acsReport_day_each!G11)</f>
         <v/>
       </c>
-      <c r="J17" s="20" t="str">
+      <c r="J17" s="19" t="str">
         <f>IF(_acsReport_day_each!H11="","",_acsReport_day_each!H11)</f>
         <v/>
       </c>
-      <c r="K17" s="20" t="str">
+      <c r="K17" s="19" t="str">
         <f>IF(_acsReport_day_each!I11="","",_acsReport_day_each!I11)</f>
         <v/>
       </c>
-      <c r="L17" s="22" t="str">
+      <c r="L17" s="19" t="str">
         <f>IF(_acsReport_day_each!J11="","",_acsReport_day_each!J11)</f>
         <v/>
       </c>
-      <c r="M17" s="20" t="str">
+      <c r="M17" s="19" t="str">
         <f>IF(_acsReport_day_each!K11="","",_acsReport_day_each!K11)</f>
         <v/>
       </c>
-      <c r="N17" s="20" t="str">
+      <c r="N17" s="19" t="str">
         <f>IF(_acsReport_day_each!L11="","",_acsReport_day_each!L11)</f>
         <v/>
       </c>
-      <c r="O17" s="32" t="str">
+      <c r="O17" s="19" t="str">
         <f>IF(_acsReport_day_each!M11="","",_acsReport_day_each!M11)</f>
         <v/>
       </c>
-      <c r="P17" s="20" t="str">
+      <c r="P17" s="19" t="str">
         <f>IF(_acsReport_day_each!N11="","",_acsReport_day_each!N11)</f>
         <v/>
       </c>
-      <c r="Q17" s="20" t="str">
+      <c r="Q17" s="19" t="str">
         <f>IF(_acsReport_day_each!O11="","",_acsReport_day_each!O11)</f>
         <v/>
       </c>
-      <c r="R17" s="22" t="str">
+      <c r="R17" s="19" t="str">
         <f>IF(_acsReport_day_each!P11="","",_acsReport_day_each!P11)</f>
         <v/>
       </c>
-      <c r="S17" s="20" t="str">
+      <c r="S17" s="19" t="str">
         <f>IF(_acsReport_day_each!Q11="","",_acsReport_day_each!Q11)</f>
         <v/>
       </c>
-      <c r="T17" s="20" t="str">
+      <c r="T17" s="19" t="str">
         <f>IF(_acsReport_day_each!R11="","",_acsReport_day_each!R11)</f>
         <v/>
       </c>
-      <c r="U17" s="32" t="str">
+      <c r="U17" s="19" t="str">
         <f>IF(_acsReport_day_each!S11="","",_acsReport_day_each!S11)</f>
         <v/>
       </c>
-      <c r="V17" s="20" t="str">
+      <c r="V17" s="19" t="str">
         <f>IF(_acsReport_day_each!T11="","",_acsReport_day_each!T11)</f>
         <v/>
       </c>
-      <c r="W17" s="20" t="str">
+      <c r="W17" s="19" t="str">
         <f>IF(_acsReport_day_each!U11="","",_acsReport_day_each!U11)</f>
         <v/>
       </c>
-      <c r="X17" s="22" t="str">
+      <c r="X17" s="19" t="str">
         <f>IF(_acsReport_day_each!V11="","",_acsReport_day_each!V11)</f>
         <v/>
       </c>
-      <c r="Y17" s="20" t="str">
+      <c r="Y17" s="19" t="str">
         <f>IF(_acsReport_day_each!W11="","",_acsReport_day_each!W11)</f>
         <v/>
       </c>
-      <c r="Z17" s="20" t="str">
+      <c r="Z17" s="19" t="str">
         <f>IF(_acsReport_day_each!X11="","",_acsReport_day_each!X11)</f>
         <v/>
       </c>
-      <c r="AA17" s="32" t="str">
+      <c r="AA17" s="19" t="str">
         <f>IF(_acsReport_day_each!Y11="","",_acsReport_day_each!Y11)</f>
         <v/>
       </c>
-      <c r="AB17" s="20" t="str">
+      <c r="AB17" s="19" t="str">
         <f>IF(_acsReport_day_each!Z11="","",_acsReport_day_each!Z11)</f>
         <v/>
       </c>
-      <c r="AC17" s="20" t="str">
+      <c r="AC17" s="19" t="str">
         <f>IF(_acsReport_day_each!AA11="","",_acsReport_day_each!AA11)</f>
         <v/>
       </c>
-      <c r="AD17" s="22" t="str">
+      <c r="AD17" s="19" t="str">
         <f>IF(_acsReport_day_each!AB11="","",_acsReport_day_each!AB11)</f>
         <v/>
       </c>
-      <c r="AE17" s="20" t="str">
+      <c r="AE17" s="19" t="str">
         <f>IF(_acsReport_day_each!AC11="","",_acsReport_day_each!AC11)</f>
         <v/>
       </c>
-      <c r="AF17" s="20" t="str">
+      <c r="AF17" s="19" t="str">
         <f>IF(_acsReport_day_each!AD11="","",_acsReport_day_each!AD11)</f>
         <v/>
       </c>
-      <c r="AG17" s="32" t="str">
+      <c r="AG17" s="19" t="str">
         <f>IF(_acsReport_day_each!AE11="","",_acsReport_day_each!AE11)</f>
         <v/>
       </c>
-      <c r="AH17" s="20" t="str">
+      <c r="AH17" s="19" t="str">
         <f>IF(_acsReport_day_each!AF11="","",_acsReport_day_each!AF11)</f>
         <v/>
       </c>
-      <c r="AI17" s="20" t="str">
+      <c r="AI17" s="19" t="str">
         <f>IF(_acsReport_day_each!AG11="","",_acsReport_day_each!AG11)</f>
         <v/>
       </c>
-      <c r="AJ17" s="22" t="str">
+      <c r="AJ17" s="19" t="str">
         <f>IF(_acsReport_day_each!AH11="","",_acsReport_day_each!AH11)</f>
         <v/>
       </c>
-      <c r="AK17" s="20" t="str">
+      <c r="AK17" s="19" t="str">
         <f>IF(_acsReport_day_each!AI11="","",_acsReport_day_each!AI11)</f>
         <v/>
       </c>
-      <c r="AL17" s="20" t="str">
+      <c r="AL17" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ11="","",_acsReport_day_each!AJ11)</f>
         <v/>
       </c>
-      <c r="AM17" s="32" t="str">
+      <c r="AM17" s="19" t="str">
         <f>IF(_acsReport_day_each!AK11="","",_acsReport_day_each!AK11)</f>
         <v/>
       </c>
-      <c r="AN17" s="20" t="str">
+      <c r="AN17" s="19" t="str">
         <f>IF(_acsReport_day_each!AL11="","",_acsReport_day_each!AL11)</f>
         <v/>
       </c>
-      <c r="AO17" s="20" t="str">
+      <c r="AO17" s="19" t="str">
         <f>IF(_acsReport_day_each!AM11="","",_acsReport_day_each!AM11)</f>
         <v/>
       </c>
-      <c r="AP17" s="22" t="str">
+      <c r="AP17" s="19" t="str">
         <f>IF(_acsReport_day_each!AN11="","",_acsReport_day_each!AN11)</f>
         <v/>
       </c>
-      <c r="AQ17" s="20" t="str">
+      <c r="AQ17" s="19" t="str">
         <f>IF(_acsReport_day_each!AO11="","",_acsReport_day_each!AO11)</f>
         <v/>
       </c>
-      <c r="AR17" s="20" t="str">
+      <c r="AR17" s="19" t="str">
         <f>IF(_acsReport_day_each!AP11="","",_acsReport_day_each!AP11)</f>
         <v/>
       </c>
-      <c r="AS17" s="32" t="str">
+      <c r="AS17" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ11="","",_acsReport_day_each!AQ11)</f>
         <v/>
       </c>
-      <c r="AT17" s="20" t="str">
+      <c r="AT17" s="19" t="str">
         <f>IF(_acsReport_day_each!AR11="","",_acsReport_day_each!AR11)</f>
         <v/>
       </c>
-      <c r="AU17" s="20" t="str">
+      <c r="AU17" s="19" t="str">
         <f>IF(_acsReport_day_each!AS11="","",_acsReport_day_each!AS11)</f>
         <v/>
       </c>
-      <c r="AV17" s="22" t="str">
+      <c r="AV17" s="19" t="str">
         <f>IF(_acsReport_day_each!AT11="","",_acsReport_day_each!AT11)</f>
         <v/>
       </c>
-      <c r="AW17" s="20" t="str">
+      <c r="AW17" s="19" t="str">
         <f>IF(_acsReport_day_each!AU11="","",_acsReport_day_each!AU11)</f>
         <v/>
       </c>
-      <c r="AX17" s="20" t="str">
+      <c r="AX17" s="19" t="str">
         <f>IF(_acsReport_day_each!AV11="","",_acsReport_day_each!AV11)</f>
         <v/>
       </c>
-      <c r="AY17" s="32" t="str">
+      <c r="AY17" s="19" t="str">
         <f>IF(_acsReport_day_each!AW11="","",_acsReport_day_each!AW11)</f>
         <v/>
       </c>
-      <c r="AZ17" s="20" t="str">
+      <c r="AZ17" s="19" t="str">
         <f>IF(_acsReport_day_each!AX11="","",_acsReport_day_each!AX11)</f>
         <v/>
       </c>
-      <c r="BA17" s="20" t="str">
+      <c r="BA17" s="19" t="str">
         <f>IF(_acsReport_day_each!AY11="","",_acsReport_day_each!AY11)</f>
         <v/>
       </c>
-      <c r="BB17" s="32" t="str">
+      <c r="BB17" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ11="","",_acsReport_day_each!AZ11)</f>
         <v/>
       </c>
-      <c r="BC17" s="20" t="str">
+      <c r="BC17" s="19" t="str">
         <f>IF(_acsReport_day_each!BA11="","",_acsReport_day_each!BA11)</f>
         <v/>
       </c>
-      <c r="BD17" s="20" t="str">
+      <c r="BD17" s="19" t="str">
         <f>IF(_acsReport_day_each!BB11="","",_acsReport_day_each!BB11)</f>
         <v/>
       </c>
@@ -4901,6 +4901,9 @@
         <f>_acsReport_day_each!BD11:BF11</f>
         <v>0</v>
       </c>
+      <c r="BF17" s="19"/>
+      <c r="BG17" s="19"/>
+      <c r="BH17" s="19"/>
       <c r="BI17" s="19">
         <f>_acsReport_day_each!BG11:BI11</f>
         <v>0</v>
@@ -4919,222 +4922,222 @@
       </c>
     </row>
     <row r="18" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C18" s="22" t="str">
+      <c r="C18" s="19" t="str">
         <f>IF(_acsReport_day_each!A12="","",_acsReport_day_each!A12)</f>
         <v/>
       </c>
-      <c r="D18" s="20" t="str">
+      <c r="D18" s="19" t="str">
         <f>IF(_acsReport_day_each!B12="","",_acsReport_day_each!B12)</f>
         <v/>
       </c>
-      <c r="E18" s="20" t="str">
+      <c r="E18" s="19" t="str">
         <f>IF(_acsReport_day_each!C12="","",_acsReport_day_each!C12)</f>
         <v/>
       </c>
-      <c r="F18" s="22" t="str">
+      <c r="F18" s="19" t="str">
         <f>IF(_acsReport_day_each!D12="","",_acsReport_day_each!D12)</f>
         <v/>
       </c>
-      <c r="G18" s="20" t="str">
+      <c r="G18" s="19" t="str">
         <f>IF(_acsReport_day_each!E12="","",_acsReport_day_each!E12)</f>
         <v/>
       </c>
-      <c r="H18" s="20" t="str">
+      <c r="H18" s="19" t="str">
         <f>IF(_acsReport_day_each!F12="","",_acsReport_day_each!F12)</f>
         <v/>
       </c>
-      <c r="I18" s="32" t="str">
+      <c r="I18" s="19" t="str">
         <f>IF(_acsReport_day_each!G12="","",_acsReport_day_each!G12)</f>
         <v/>
       </c>
-      <c r="J18" s="20" t="str">
+      <c r="J18" s="19" t="str">
         <f>IF(_acsReport_day_each!H12="","",_acsReport_day_each!H12)</f>
         <v/>
       </c>
-      <c r="K18" s="20" t="str">
+      <c r="K18" s="19" t="str">
         <f>IF(_acsReport_day_each!I12="","",_acsReport_day_each!I12)</f>
         <v/>
       </c>
-      <c r="L18" s="22" t="str">
+      <c r="L18" s="19" t="str">
         <f>IF(_acsReport_day_each!J12="","",_acsReport_day_each!J12)</f>
         <v/>
       </c>
-      <c r="M18" s="20" t="str">
+      <c r="M18" s="19" t="str">
         <f>IF(_acsReport_day_each!K12="","",_acsReport_day_each!K12)</f>
         <v/>
       </c>
-      <c r="N18" s="20" t="str">
+      <c r="N18" s="19" t="str">
         <f>IF(_acsReport_day_each!L12="","",_acsReport_day_each!L12)</f>
         <v/>
       </c>
-      <c r="O18" s="32" t="str">
+      <c r="O18" s="19" t="str">
         <f>IF(_acsReport_day_each!M12="","",_acsReport_day_each!M12)</f>
         <v/>
       </c>
-      <c r="P18" s="20" t="str">
+      <c r="P18" s="19" t="str">
         <f>IF(_acsReport_day_each!N12="","",_acsReport_day_each!N12)</f>
         <v/>
       </c>
-      <c r="Q18" s="20" t="str">
+      <c r="Q18" s="19" t="str">
         <f>IF(_acsReport_day_each!O12="","",_acsReport_day_each!O12)</f>
         <v/>
       </c>
-      <c r="R18" s="22" t="str">
+      <c r="R18" s="19" t="str">
         <f>IF(_acsReport_day_each!P12="","",_acsReport_day_each!P12)</f>
         <v/>
       </c>
-      <c r="S18" s="20" t="str">
+      <c r="S18" s="19" t="str">
         <f>IF(_acsReport_day_each!Q12="","",_acsReport_day_each!Q12)</f>
         <v/>
       </c>
-      <c r="T18" s="20" t="str">
+      <c r="T18" s="19" t="str">
         <f>IF(_acsReport_day_each!R12="","",_acsReport_day_each!R12)</f>
         <v/>
       </c>
-      <c r="U18" s="32" t="str">
+      <c r="U18" s="19" t="str">
         <f>IF(_acsReport_day_each!S12="","",_acsReport_day_each!S12)</f>
         <v/>
       </c>
-      <c r="V18" s="20" t="str">
+      <c r="V18" s="19" t="str">
         <f>IF(_acsReport_day_each!T12="","",_acsReport_day_each!T12)</f>
         <v/>
       </c>
-      <c r="W18" s="20" t="str">
+      <c r="W18" s="19" t="str">
         <f>IF(_acsReport_day_each!U12="","",_acsReport_day_each!U12)</f>
         <v/>
       </c>
-      <c r="X18" s="22" t="str">
+      <c r="X18" s="19" t="str">
         <f>IF(_acsReport_day_each!V12="","",_acsReport_day_each!V12)</f>
         <v/>
       </c>
-      <c r="Y18" s="20" t="str">
+      <c r="Y18" s="19" t="str">
         <f>IF(_acsReport_day_each!W12="","",_acsReport_day_each!W12)</f>
         <v/>
       </c>
-      <c r="Z18" s="20" t="str">
+      <c r="Z18" s="19" t="str">
         <f>IF(_acsReport_day_each!X12="","",_acsReport_day_each!X12)</f>
         <v/>
       </c>
-      <c r="AA18" s="32" t="str">
+      <c r="AA18" s="19" t="str">
         <f>IF(_acsReport_day_each!Y12="","",_acsReport_day_each!Y12)</f>
         <v/>
       </c>
-      <c r="AB18" s="20" t="str">
+      <c r="AB18" s="19" t="str">
         <f>IF(_acsReport_day_each!Z12="","",_acsReport_day_each!Z12)</f>
         <v/>
       </c>
-      <c r="AC18" s="20" t="str">
+      <c r="AC18" s="19" t="str">
         <f>IF(_acsReport_day_each!AA12="","",_acsReport_day_each!AA12)</f>
         <v/>
       </c>
-      <c r="AD18" s="22" t="str">
+      <c r="AD18" s="19" t="str">
         <f>IF(_acsReport_day_each!AB12="","",_acsReport_day_each!AB12)</f>
         <v/>
       </c>
-      <c r="AE18" s="20" t="str">
+      <c r="AE18" s="19" t="str">
         <f>IF(_acsReport_day_each!AC12="","",_acsReport_day_each!AC12)</f>
         <v/>
       </c>
-      <c r="AF18" s="20" t="str">
+      <c r="AF18" s="19" t="str">
         <f>IF(_acsReport_day_each!AD12="","",_acsReport_day_each!AD12)</f>
         <v/>
       </c>
-      <c r="AG18" s="32" t="str">
+      <c r="AG18" s="19" t="str">
         <f>IF(_acsReport_day_each!AE12="","",_acsReport_day_each!AE12)</f>
         <v/>
       </c>
-      <c r="AH18" s="20" t="str">
+      <c r="AH18" s="19" t="str">
         <f>IF(_acsReport_day_each!AF12="","",_acsReport_day_each!AF12)</f>
         <v/>
       </c>
-      <c r="AI18" s="20" t="str">
+      <c r="AI18" s="19" t="str">
         <f>IF(_acsReport_day_each!AG12="","",_acsReport_day_each!AG12)</f>
         <v/>
       </c>
-      <c r="AJ18" s="22" t="str">
+      <c r="AJ18" s="19" t="str">
         <f>IF(_acsReport_day_each!AH12="","",_acsReport_day_each!AH12)</f>
         <v/>
       </c>
-      <c r="AK18" s="20" t="str">
+      <c r="AK18" s="19" t="str">
         <f>IF(_acsReport_day_each!AI12="","",_acsReport_day_each!AI12)</f>
         <v/>
       </c>
-      <c r="AL18" s="20" t="str">
+      <c r="AL18" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ12="","",_acsReport_day_each!AJ12)</f>
         <v/>
       </c>
-      <c r="AM18" s="32" t="str">
+      <c r="AM18" s="19" t="str">
         <f>IF(_acsReport_day_each!AK12="","",_acsReport_day_each!AK12)</f>
         <v/>
       </c>
-      <c r="AN18" s="20" t="str">
+      <c r="AN18" s="19" t="str">
         <f>IF(_acsReport_day_each!AL12="","",_acsReport_day_each!AL12)</f>
         <v/>
       </c>
-      <c r="AO18" s="20" t="str">
+      <c r="AO18" s="19" t="str">
         <f>IF(_acsReport_day_each!AM12="","",_acsReport_day_each!AM12)</f>
         <v/>
       </c>
-      <c r="AP18" s="22" t="str">
+      <c r="AP18" s="19" t="str">
         <f>IF(_acsReport_day_each!AN12="","",_acsReport_day_each!AN12)</f>
         <v/>
       </c>
-      <c r="AQ18" s="20" t="str">
+      <c r="AQ18" s="19" t="str">
         <f>IF(_acsReport_day_each!AO12="","",_acsReport_day_each!AO12)</f>
         <v/>
       </c>
-      <c r="AR18" s="20" t="str">
+      <c r="AR18" s="19" t="str">
         <f>IF(_acsReport_day_each!AP12="","",_acsReport_day_each!AP12)</f>
         <v/>
       </c>
-      <c r="AS18" s="32" t="str">
+      <c r="AS18" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ12="","",_acsReport_day_each!AQ12)</f>
         <v/>
       </c>
-      <c r="AT18" s="20" t="str">
+      <c r="AT18" s="19" t="str">
         <f>IF(_acsReport_day_each!AR12="","",_acsReport_day_each!AR12)</f>
         <v/>
       </c>
-      <c r="AU18" s="20" t="str">
+      <c r="AU18" s="19" t="str">
         <f>IF(_acsReport_day_each!AS12="","",_acsReport_day_each!AS12)</f>
         <v/>
       </c>
-      <c r="AV18" s="22" t="str">
+      <c r="AV18" s="19" t="str">
         <f>IF(_acsReport_day_each!AT12="","",_acsReport_day_each!AT12)</f>
         <v/>
       </c>
-      <c r="AW18" s="20" t="str">
+      <c r="AW18" s="19" t="str">
         <f>IF(_acsReport_day_each!AU12="","",_acsReport_day_each!AU12)</f>
         <v/>
       </c>
-      <c r="AX18" s="20" t="str">
+      <c r="AX18" s="19" t="str">
         <f>IF(_acsReport_day_each!AV12="","",_acsReport_day_each!AV12)</f>
         <v/>
       </c>
-      <c r="AY18" s="32" t="str">
+      <c r="AY18" s="19" t="str">
         <f>IF(_acsReport_day_each!AW12="","",_acsReport_day_each!AW12)</f>
         <v/>
       </c>
-      <c r="AZ18" s="20" t="str">
+      <c r="AZ18" s="19" t="str">
         <f>IF(_acsReport_day_each!AX12="","",_acsReport_day_each!AX12)</f>
         <v/>
       </c>
-      <c r="BA18" s="20" t="str">
+      <c r="BA18" s="19" t="str">
         <f>IF(_acsReport_day_each!AY12="","",_acsReport_day_each!AY12)</f>
         <v/>
       </c>
-      <c r="BB18" s="32" t="str">
+      <c r="BB18" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ12="","",_acsReport_day_each!AZ12)</f>
         <v/>
       </c>
-      <c r="BC18" s="20" t="str">
+      <c r="BC18" s="19" t="str">
         <f>IF(_acsReport_day_each!BA12="","",_acsReport_day_each!BA12)</f>
         <v/>
       </c>
-      <c r="BD18" s="20" t="str">
+      <c r="BD18" s="19" t="str">
         <f>IF(_acsReport_day_each!BB12="","",_acsReport_day_each!BB12)</f>
         <v/>
       </c>
@@ -5142,6 +5145,9 @@
         <f>_acsReport_day_each!BD12:BF12</f>
         <v>0</v>
       </c>
+      <c r="BF18" s="19"/>
+      <c r="BG18" s="19"/>
+      <c r="BH18" s="19"/>
       <c r="BI18" s="19">
         <f>_acsReport_day_each!BG12:BI12</f>
         <v>0</v>
@@ -5160,222 +5166,222 @@
       </c>
     </row>
     <row r="19" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C19" s="22" t="str">
+      <c r="C19" s="19" t="str">
         <f>IF(_acsReport_day_each!A13="","",_acsReport_day_each!A13)</f>
         <v/>
       </c>
-      <c r="D19" s="20" t="str">
+      <c r="D19" s="19" t="str">
         <f>IF(_acsReport_day_each!B13="","",_acsReport_day_each!B13)</f>
         <v/>
       </c>
-      <c r="E19" s="20" t="str">
+      <c r="E19" s="19" t="str">
         <f>IF(_acsReport_day_each!C13="","",_acsReport_day_each!C13)</f>
         <v/>
       </c>
-      <c r="F19" s="22" t="str">
+      <c r="F19" s="19" t="str">
         <f>IF(_acsReport_day_each!D13="","",_acsReport_day_each!D13)</f>
         <v/>
       </c>
-      <c r="G19" s="20" t="str">
+      <c r="G19" s="19" t="str">
         <f>IF(_acsReport_day_each!E13="","",_acsReport_day_each!E13)</f>
         <v/>
       </c>
-      <c r="H19" s="20" t="str">
+      <c r="H19" s="19" t="str">
         <f>IF(_acsReport_day_each!F13="","",_acsReport_day_each!F13)</f>
         <v/>
       </c>
-      <c r="I19" s="32" t="str">
+      <c r="I19" s="19" t="str">
         <f>IF(_acsReport_day_each!G13="","",_acsReport_day_each!G13)</f>
         <v/>
       </c>
-      <c r="J19" s="20" t="str">
+      <c r="J19" s="19" t="str">
         <f>IF(_acsReport_day_each!H13="","",_acsReport_day_each!H13)</f>
         <v/>
       </c>
-      <c r="K19" s="20" t="str">
+      <c r="K19" s="19" t="str">
         <f>IF(_acsReport_day_each!I13="","",_acsReport_day_each!I13)</f>
         <v/>
       </c>
-      <c r="L19" s="22" t="str">
+      <c r="L19" s="19" t="str">
         <f>IF(_acsReport_day_each!J13="","",_acsReport_day_each!J13)</f>
         <v/>
       </c>
-      <c r="M19" s="20" t="str">
+      <c r="M19" s="19" t="str">
         <f>IF(_acsReport_day_each!K13="","",_acsReport_day_each!K13)</f>
         <v/>
       </c>
-      <c r="N19" s="20" t="str">
+      <c r="N19" s="19" t="str">
         <f>IF(_acsReport_day_each!L13="","",_acsReport_day_each!L13)</f>
         <v/>
       </c>
-      <c r="O19" s="32" t="str">
+      <c r="O19" s="19" t="str">
         <f>IF(_acsReport_day_each!M13="","",_acsReport_day_each!M13)</f>
         <v/>
       </c>
-      <c r="P19" s="20" t="str">
+      <c r="P19" s="19" t="str">
         <f>IF(_acsReport_day_each!N13="","",_acsReport_day_each!N13)</f>
         <v/>
       </c>
-      <c r="Q19" s="20" t="str">
+      <c r="Q19" s="19" t="str">
         <f>IF(_acsReport_day_each!O13="","",_acsReport_day_each!O13)</f>
         <v/>
       </c>
-      <c r="R19" s="22" t="str">
+      <c r="R19" s="19" t="str">
         <f>IF(_acsReport_day_each!P13="","",_acsReport_day_each!P13)</f>
         <v/>
       </c>
-      <c r="S19" s="20" t="str">
+      <c r="S19" s="19" t="str">
         <f>IF(_acsReport_day_each!Q13="","",_acsReport_day_each!Q13)</f>
         <v/>
       </c>
-      <c r="T19" s="20" t="str">
+      <c r="T19" s="19" t="str">
         <f>IF(_acsReport_day_each!R13="","",_acsReport_day_each!R13)</f>
         <v/>
       </c>
-      <c r="U19" s="32" t="str">
+      <c r="U19" s="19" t="str">
         <f>IF(_acsReport_day_each!S13="","",_acsReport_day_each!S13)</f>
         <v/>
       </c>
-      <c r="V19" s="20" t="str">
+      <c r="V19" s="19" t="str">
         <f>IF(_acsReport_day_each!T13="","",_acsReport_day_each!T13)</f>
         <v/>
       </c>
-      <c r="W19" s="20" t="str">
+      <c r="W19" s="19" t="str">
         <f>IF(_acsReport_day_each!U13="","",_acsReport_day_each!U13)</f>
         <v/>
       </c>
-      <c r="X19" s="22" t="str">
+      <c r="X19" s="19" t="str">
         <f>IF(_acsReport_day_each!V13="","",_acsReport_day_each!V13)</f>
         <v/>
       </c>
-      <c r="Y19" s="20" t="str">
+      <c r="Y19" s="19" t="str">
         <f>IF(_acsReport_day_each!W13="","",_acsReport_day_each!W13)</f>
         <v/>
       </c>
-      <c r="Z19" s="20" t="str">
+      <c r="Z19" s="19" t="str">
         <f>IF(_acsReport_day_each!X13="","",_acsReport_day_each!X13)</f>
         <v/>
       </c>
-      <c r="AA19" s="32" t="str">
+      <c r="AA19" s="19" t="str">
         <f>IF(_acsReport_day_each!Y13="","",_acsReport_day_each!Y13)</f>
         <v/>
       </c>
-      <c r="AB19" s="20" t="str">
+      <c r="AB19" s="19" t="str">
         <f>IF(_acsReport_day_each!Z13="","",_acsReport_day_each!Z13)</f>
         <v/>
       </c>
-      <c r="AC19" s="20" t="str">
+      <c r="AC19" s="19" t="str">
         <f>IF(_acsReport_day_each!AA13="","",_acsReport_day_each!AA13)</f>
         <v/>
       </c>
-      <c r="AD19" s="22" t="str">
+      <c r="AD19" s="19" t="str">
         <f>IF(_acsReport_day_each!AB13="","",_acsReport_day_each!AB13)</f>
         <v/>
       </c>
-      <c r="AE19" s="20" t="str">
+      <c r="AE19" s="19" t="str">
         <f>IF(_acsReport_day_each!AC13="","",_acsReport_day_each!AC13)</f>
         <v/>
       </c>
-      <c r="AF19" s="20" t="str">
+      <c r="AF19" s="19" t="str">
         <f>IF(_acsReport_day_each!AD13="","",_acsReport_day_each!AD13)</f>
         <v/>
       </c>
-      <c r="AG19" s="32" t="str">
+      <c r="AG19" s="19" t="str">
         <f>IF(_acsReport_day_each!AE13="","",_acsReport_day_each!AE13)</f>
         <v/>
       </c>
-      <c r="AH19" s="20" t="str">
+      <c r="AH19" s="19" t="str">
         <f>IF(_acsReport_day_each!AF13="","",_acsReport_day_each!AF13)</f>
         <v/>
       </c>
-      <c r="AI19" s="20" t="str">
+      <c r="AI19" s="19" t="str">
         <f>IF(_acsReport_day_each!AG13="","",_acsReport_day_each!AG13)</f>
         <v/>
       </c>
-      <c r="AJ19" s="22" t="str">
+      <c r="AJ19" s="19" t="str">
         <f>IF(_acsReport_day_each!AH13="","",_acsReport_day_each!AH13)</f>
         <v/>
       </c>
-      <c r="AK19" s="20" t="str">
+      <c r="AK19" s="19" t="str">
         <f>IF(_acsReport_day_each!AI13="","",_acsReport_day_each!AI13)</f>
         <v/>
       </c>
-      <c r="AL19" s="20" t="str">
+      <c r="AL19" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ13="","",_acsReport_day_each!AJ13)</f>
         <v/>
       </c>
-      <c r="AM19" s="32" t="str">
+      <c r="AM19" s="19" t="str">
         <f>IF(_acsReport_day_each!AK13="","",_acsReport_day_each!AK13)</f>
         <v/>
       </c>
-      <c r="AN19" s="20" t="str">
+      <c r="AN19" s="19" t="str">
         <f>IF(_acsReport_day_each!AL13="","",_acsReport_day_each!AL13)</f>
         <v/>
       </c>
-      <c r="AO19" s="20" t="str">
+      <c r="AO19" s="19" t="str">
         <f>IF(_acsReport_day_each!AM13="","",_acsReport_day_each!AM13)</f>
         <v/>
       </c>
-      <c r="AP19" s="22" t="str">
+      <c r="AP19" s="19" t="str">
         <f>IF(_acsReport_day_each!AN13="","",_acsReport_day_each!AN13)</f>
         <v/>
       </c>
-      <c r="AQ19" s="20" t="str">
+      <c r="AQ19" s="19" t="str">
         <f>IF(_acsReport_day_each!AO13="","",_acsReport_day_each!AO13)</f>
         <v/>
       </c>
-      <c r="AR19" s="20" t="str">
+      <c r="AR19" s="19" t="str">
         <f>IF(_acsReport_day_each!AP13="","",_acsReport_day_each!AP13)</f>
         <v/>
       </c>
-      <c r="AS19" s="32" t="str">
+      <c r="AS19" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ13="","",_acsReport_day_each!AQ13)</f>
         <v/>
       </c>
-      <c r="AT19" s="20" t="str">
+      <c r="AT19" s="19" t="str">
         <f>IF(_acsReport_day_each!AR13="","",_acsReport_day_each!AR13)</f>
         <v/>
       </c>
-      <c r="AU19" s="20" t="str">
+      <c r="AU19" s="19" t="str">
         <f>IF(_acsReport_day_each!AS13="","",_acsReport_day_each!AS13)</f>
         <v/>
       </c>
-      <c r="AV19" s="22" t="str">
+      <c r="AV19" s="19" t="str">
         <f>IF(_acsReport_day_each!AT13="","",_acsReport_day_each!AT13)</f>
         <v/>
       </c>
-      <c r="AW19" s="20" t="str">
+      <c r="AW19" s="19" t="str">
         <f>IF(_acsReport_day_each!AU13="","",_acsReport_day_each!AU13)</f>
         <v/>
       </c>
-      <c r="AX19" s="20" t="str">
+      <c r="AX19" s="19" t="str">
         <f>IF(_acsReport_day_each!AV13="","",_acsReport_day_each!AV13)</f>
         <v/>
       </c>
-      <c r="AY19" s="32" t="str">
+      <c r="AY19" s="19" t="str">
         <f>IF(_acsReport_day_each!AW13="","",_acsReport_day_each!AW13)</f>
         <v/>
       </c>
-      <c r="AZ19" s="20" t="str">
+      <c r="AZ19" s="19" t="str">
         <f>IF(_acsReport_day_each!AX13="","",_acsReport_day_each!AX13)</f>
         <v/>
       </c>
-      <c r="BA19" s="20" t="str">
+      <c r="BA19" s="19" t="str">
         <f>IF(_acsReport_day_each!AY13="","",_acsReport_day_each!AY13)</f>
         <v/>
       </c>
-      <c r="BB19" s="32" t="str">
+      <c r="BB19" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ13="","",_acsReport_day_each!AZ13)</f>
         <v/>
       </c>
-      <c r="BC19" s="20" t="str">
+      <c r="BC19" s="19" t="str">
         <f>IF(_acsReport_day_each!BA13="","",_acsReport_day_each!BA13)</f>
         <v/>
       </c>
-      <c r="BD19" s="20" t="str">
+      <c r="BD19" s="19" t="str">
         <f>IF(_acsReport_day_each!BB13="","",_acsReport_day_each!BB13)</f>
         <v/>
       </c>
@@ -5383,6 +5389,9 @@
         <f>_acsReport_day_each!BD13:BF13</f>
         <v>0</v>
       </c>
+      <c r="BF19" s="19"/>
+      <c r="BG19" s="19"/>
+      <c r="BH19" s="19"/>
       <c r="BI19" s="19">
         <f>_acsReport_day_each!BG13:BI13</f>
         <v>0</v>
@@ -5401,222 +5410,222 @@
       </c>
     </row>
     <row r="20" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>0.5</v>
       </c>
-      <c r="C20" s="22" t="str">
+      <c r="C20" s="19" t="str">
         <f>IF(_acsReport_day_each!A14="","",_acsReport_day_each!A14)</f>
         <v/>
       </c>
-      <c r="D20" s="20" t="str">
+      <c r="D20" s="19" t="str">
         <f>IF(_acsReport_day_each!B14="","",_acsReport_day_each!B14)</f>
         <v/>
       </c>
-      <c r="E20" s="20" t="str">
+      <c r="E20" s="19" t="str">
         <f>IF(_acsReport_day_each!C14="","",_acsReport_day_each!C14)</f>
         <v/>
       </c>
-      <c r="F20" s="22" t="str">
+      <c r="F20" s="19" t="str">
         <f>IF(_acsReport_day_each!D14="","",_acsReport_day_each!D14)</f>
         <v/>
       </c>
-      <c r="G20" s="20" t="str">
+      <c r="G20" s="19" t="str">
         <f>IF(_acsReport_day_each!E14="","",_acsReport_day_each!E14)</f>
         <v/>
       </c>
-      <c r="H20" s="20" t="str">
+      <c r="H20" s="19" t="str">
         <f>IF(_acsReport_day_each!F14="","",_acsReport_day_each!F14)</f>
         <v/>
       </c>
-      <c r="I20" s="32" t="str">
+      <c r="I20" s="19" t="str">
         <f>IF(_acsReport_day_each!G14="","",_acsReport_day_each!G14)</f>
         <v/>
       </c>
-      <c r="J20" s="20" t="str">
+      <c r="J20" s="19" t="str">
         <f>IF(_acsReport_day_each!H14="","",_acsReport_day_each!H14)</f>
         <v/>
       </c>
-      <c r="K20" s="20" t="str">
+      <c r="K20" s="19" t="str">
         <f>IF(_acsReport_day_each!I14="","",_acsReport_day_each!I14)</f>
         <v/>
       </c>
-      <c r="L20" s="22" t="str">
+      <c r="L20" s="19" t="str">
         <f>IF(_acsReport_day_each!J14="","",_acsReport_day_each!J14)</f>
         <v/>
       </c>
-      <c r="M20" s="20" t="str">
+      <c r="M20" s="19" t="str">
         <f>IF(_acsReport_day_each!K14="","",_acsReport_day_each!K14)</f>
         <v/>
       </c>
-      <c r="N20" s="20" t="str">
+      <c r="N20" s="19" t="str">
         <f>IF(_acsReport_day_each!L14="","",_acsReport_day_each!L14)</f>
         <v/>
       </c>
-      <c r="O20" s="32" t="str">
+      <c r="O20" s="19" t="str">
         <f>IF(_acsReport_day_each!M14="","",_acsReport_day_each!M14)</f>
         <v/>
       </c>
-      <c r="P20" s="20" t="str">
+      <c r="P20" s="19" t="str">
         <f>IF(_acsReport_day_each!N14="","",_acsReport_day_each!N14)</f>
         <v/>
       </c>
-      <c r="Q20" s="20" t="str">
+      <c r="Q20" s="19" t="str">
         <f>IF(_acsReport_day_each!O14="","",_acsReport_day_each!O14)</f>
         <v/>
       </c>
-      <c r="R20" s="22" t="str">
+      <c r="R20" s="19" t="str">
         <f>IF(_acsReport_day_each!P14="","",_acsReport_day_each!P14)</f>
         <v/>
       </c>
-      <c r="S20" s="20" t="str">
+      <c r="S20" s="19" t="str">
         <f>IF(_acsReport_day_each!Q14="","",_acsReport_day_each!Q14)</f>
         <v/>
       </c>
-      <c r="T20" s="20" t="str">
+      <c r="T20" s="19" t="str">
         <f>IF(_acsReport_day_each!R14="","",_acsReport_day_each!R14)</f>
         <v/>
       </c>
-      <c r="U20" s="32" t="str">
+      <c r="U20" s="19" t="str">
         <f>IF(_acsReport_day_each!S14="","",_acsReport_day_each!S14)</f>
         <v/>
       </c>
-      <c r="V20" s="20" t="str">
+      <c r="V20" s="19" t="str">
         <f>IF(_acsReport_day_each!T14="","",_acsReport_day_each!T14)</f>
         <v/>
       </c>
-      <c r="W20" s="20" t="str">
+      <c r="W20" s="19" t="str">
         <f>IF(_acsReport_day_each!U14="","",_acsReport_day_each!U14)</f>
         <v/>
       </c>
-      <c r="X20" s="22" t="str">
+      <c r="X20" s="19" t="str">
         <f>IF(_acsReport_day_each!V14="","",_acsReport_day_each!V14)</f>
         <v/>
       </c>
-      <c r="Y20" s="20" t="str">
+      <c r="Y20" s="19" t="str">
         <f>IF(_acsReport_day_each!W14="","",_acsReport_day_each!W14)</f>
         <v/>
       </c>
-      <c r="Z20" s="20" t="str">
+      <c r="Z20" s="19" t="str">
         <f>IF(_acsReport_day_each!X14="","",_acsReport_day_each!X14)</f>
         <v/>
       </c>
-      <c r="AA20" s="32" t="str">
+      <c r="AA20" s="19" t="str">
         <f>IF(_acsReport_day_each!Y14="","",_acsReport_day_each!Y14)</f>
         <v/>
       </c>
-      <c r="AB20" s="20" t="str">
+      <c r="AB20" s="19" t="str">
         <f>IF(_acsReport_day_each!Z14="","",_acsReport_day_each!Z14)</f>
         <v/>
       </c>
-      <c r="AC20" s="20" t="str">
+      <c r="AC20" s="19" t="str">
         <f>IF(_acsReport_day_each!AA14="","",_acsReport_day_each!AA14)</f>
         <v/>
       </c>
-      <c r="AD20" s="22" t="str">
+      <c r="AD20" s="19" t="str">
         <f>IF(_acsReport_day_each!AB14="","",_acsReport_day_each!AB14)</f>
         <v/>
       </c>
-      <c r="AE20" s="20" t="str">
+      <c r="AE20" s="19" t="str">
         <f>IF(_acsReport_day_each!AC14="","",_acsReport_day_each!AC14)</f>
         <v/>
       </c>
-      <c r="AF20" s="20" t="str">
+      <c r="AF20" s="19" t="str">
         <f>IF(_acsReport_day_each!AD14="","",_acsReport_day_each!AD14)</f>
         <v/>
       </c>
-      <c r="AG20" s="32" t="str">
+      <c r="AG20" s="19" t="str">
         <f>IF(_acsReport_day_each!AE14="","",_acsReport_day_each!AE14)</f>
         <v/>
       </c>
-      <c r="AH20" s="20" t="str">
+      <c r="AH20" s="19" t="str">
         <f>IF(_acsReport_day_each!AF14="","",_acsReport_day_each!AF14)</f>
         <v/>
       </c>
-      <c r="AI20" s="20" t="str">
+      <c r="AI20" s="19" t="str">
         <f>IF(_acsReport_day_each!AG14="","",_acsReport_day_each!AG14)</f>
         <v/>
       </c>
-      <c r="AJ20" s="22" t="str">
+      <c r="AJ20" s="19" t="str">
         <f>IF(_acsReport_day_each!AH14="","",_acsReport_day_each!AH14)</f>
         <v/>
       </c>
-      <c r="AK20" s="20" t="str">
+      <c r="AK20" s="19" t="str">
         <f>IF(_acsReport_day_each!AI14="","",_acsReport_day_each!AI14)</f>
         <v/>
       </c>
-      <c r="AL20" s="20" t="str">
+      <c r="AL20" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ14="","",_acsReport_day_each!AJ14)</f>
         <v/>
       </c>
-      <c r="AM20" s="32" t="str">
+      <c r="AM20" s="19" t="str">
         <f>IF(_acsReport_day_each!AK14="","",_acsReport_day_each!AK14)</f>
         <v/>
       </c>
-      <c r="AN20" s="20" t="str">
+      <c r="AN20" s="19" t="str">
         <f>IF(_acsReport_day_each!AL14="","",_acsReport_day_each!AL14)</f>
         <v/>
       </c>
-      <c r="AO20" s="20" t="str">
+      <c r="AO20" s="19" t="str">
         <f>IF(_acsReport_day_each!AM14="","",_acsReport_day_each!AM14)</f>
         <v/>
       </c>
-      <c r="AP20" s="22" t="str">
+      <c r="AP20" s="19" t="str">
         <f>IF(_acsReport_day_each!AN14="","",_acsReport_day_each!AN14)</f>
         <v/>
       </c>
-      <c r="AQ20" s="20" t="str">
+      <c r="AQ20" s="19" t="str">
         <f>IF(_acsReport_day_each!AO14="","",_acsReport_day_each!AO14)</f>
         <v/>
       </c>
-      <c r="AR20" s="20" t="str">
+      <c r="AR20" s="19" t="str">
         <f>IF(_acsReport_day_each!AP14="","",_acsReport_day_each!AP14)</f>
         <v/>
       </c>
-      <c r="AS20" s="32" t="str">
+      <c r="AS20" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ14="","",_acsReport_day_each!AQ14)</f>
         <v/>
       </c>
-      <c r="AT20" s="20" t="str">
+      <c r="AT20" s="19" t="str">
         <f>IF(_acsReport_day_each!AR14="","",_acsReport_day_each!AR14)</f>
         <v/>
       </c>
-      <c r="AU20" s="20" t="str">
+      <c r="AU20" s="19" t="str">
         <f>IF(_acsReport_day_each!AS14="","",_acsReport_day_each!AS14)</f>
         <v/>
       </c>
-      <c r="AV20" s="22" t="str">
+      <c r="AV20" s="19" t="str">
         <f>IF(_acsReport_day_each!AT14="","",_acsReport_day_each!AT14)</f>
         <v/>
       </c>
-      <c r="AW20" s="20" t="str">
+      <c r="AW20" s="19" t="str">
         <f>IF(_acsReport_day_each!AU14="","",_acsReport_day_each!AU14)</f>
         <v/>
       </c>
-      <c r="AX20" s="20" t="str">
+      <c r="AX20" s="19" t="str">
         <f>IF(_acsReport_day_each!AV14="","",_acsReport_day_each!AV14)</f>
         <v/>
       </c>
-      <c r="AY20" s="32" t="str">
+      <c r="AY20" s="19" t="str">
         <f>IF(_acsReport_day_each!AW14="","",_acsReport_day_each!AW14)</f>
         <v/>
       </c>
-      <c r="AZ20" s="20" t="str">
+      <c r="AZ20" s="19" t="str">
         <f>IF(_acsReport_day_each!AX14="","",_acsReport_day_each!AX14)</f>
         <v/>
       </c>
-      <c r="BA20" s="20" t="str">
+      <c r="BA20" s="19" t="str">
         <f>IF(_acsReport_day_each!AY14="","",_acsReport_day_each!AY14)</f>
         <v/>
       </c>
-      <c r="BB20" s="32" t="str">
+      <c r="BB20" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ14="","",_acsReport_day_each!AZ14)</f>
         <v/>
       </c>
-      <c r="BC20" s="20" t="str">
+      <c r="BC20" s="19" t="str">
         <f>IF(_acsReport_day_each!BA14="","",_acsReport_day_each!BA14)</f>
         <v/>
       </c>
-      <c r="BD20" s="20" t="str">
+      <c r="BD20" s="19" t="str">
         <f>IF(_acsReport_day_each!BB14="","",_acsReport_day_each!BB14)</f>
         <v/>
       </c>
@@ -5624,6 +5633,9 @@
         <f>_acsReport_day_each!BD14:BF14</f>
         <v>0</v>
       </c>
+      <c r="BF20" s="19"/>
+      <c r="BG20" s="19"/>
+      <c r="BH20" s="19"/>
       <c r="BI20" s="19">
         <f>_acsReport_day_each!BG14:BI14</f>
         <v>0</v>
@@ -5642,222 +5654,222 @@
       </c>
     </row>
     <row r="21" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C21" s="22" t="str">
+      <c r="C21" s="19" t="str">
         <f>IF(_acsReport_day_each!A15="","",_acsReport_day_each!A15)</f>
         <v/>
       </c>
-      <c r="D21" s="20" t="str">
+      <c r="D21" s="19" t="str">
         <f>IF(_acsReport_day_each!B15="","",_acsReport_day_each!B15)</f>
         <v/>
       </c>
-      <c r="E21" s="20" t="str">
+      <c r="E21" s="19" t="str">
         <f>IF(_acsReport_day_each!C15="","",_acsReport_day_each!C15)</f>
         <v/>
       </c>
-      <c r="F21" s="22" t="str">
+      <c r="F21" s="19" t="str">
         <f>IF(_acsReport_day_each!D15="","",_acsReport_day_each!D15)</f>
         <v/>
       </c>
-      <c r="G21" s="20" t="str">
+      <c r="G21" s="19" t="str">
         <f>IF(_acsReport_day_each!E15="","",_acsReport_day_each!E15)</f>
         <v/>
       </c>
-      <c r="H21" s="20" t="str">
+      <c r="H21" s="19" t="str">
         <f>IF(_acsReport_day_each!F15="","",_acsReport_day_each!F15)</f>
         <v/>
       </c>
-      <c r="I21" s="32" t="str">
+      <c r="I21" s="19" t="str">
         <f>IF(_acsReport_day_each!G15="","",_acsReport_day_each!G15)</f>
         <v/>
       </c>
-      <c r="J21" s="20" t="str">
+      <c r="J21" s="19" t="str">
         <f>IF(_acsReport_day_each!H15="","",_acsReport_day_each!H15)</f>
         <v/>
       </c>
-      <c r="K21" s="20" t="str">
+      <c r="K21" s="19" t="str">
         <f>IF(_acsReport_day_each!I15="","",_acsReport_day_each!I15)</f>
         <v/>
       </c>
-      <c r="L21" s="22" t="str">
+      <c r="L21" s="19" t="str">
         <f>IF(_acsReport_day_each!J15="","",_acsReport_day_each!J15)</f>
         <v/>
       </c>
-      <c r="M21" s="20" t="str">
+      <c r="M21" s="19" t="str">
         <f>IF(_acsReport_day_each!K15="","",_acsReport_day_each!K15)</f>
         <v/>
       </c>
-      <c r="N21" s="20" t="str">
+      <c r="N21" s="19" t="str">
         <f>IF(_acsReport_day_each!L15="","",_acsReport_day_each!L15)</f>
         <v/>
       </c>
-      <c r="O21" s="32" t="str">
+      <c r="O21" s="19" t="str">
         <f>IF(_acsReport_day_each!M15="","",_acsReport_day_each!M15)</f>
         <v/>
       </c>
-      <c r="P21" s="20" t="str">
+      <c r="P21" s="19" t="str">
         <f>IF(_acsReport_day_each!N15="","",_acsReport_day_each!N15)</f>
         <v/>
       </c>
-      <c r="Q21" s="20" t="str">
+      <c r="Q21" s="19" t="str">
         <f>IF(_acsReport_day_each!O15="","",_acsReport_day_each!O15)</f>
         <v/>
       </c>
-      <c r="R21" s="22" t="str">
+      <c r="R21" s="19" t="str">
         <f>IF(_acsReport_day_each!P15="","",_acsReport_day_each!P15)</f>
         <v/>
       </c>
-      <c r="S21" s="20" t="str">
+      <c r="S21" s="19" t="str">
         <f>IF(_acsReport_day_each!Q15="","",_acsReport_day_each!Q15)</f>
         <v/>
       </c>
-      <c r="T21" s="20" t="str">
+      <c r="T21" s="19" t="str">
         <f>IF(_acsReport_day_each!R15="","",_acsReport_day_each!R15)</f>
         <v/>
       </c>
-      <c r="U21" s="32" t="str">
+      <c r="U21" s="19" t="str">
         <f>IF(_acsReport_day_each!S15="","",_acsReport_day_each!S15)</f>
         <v/>
       </c>
-      <c r="V21" s="20" t="str">
+      <c r="V21" s="19" t="str">
         <f>IF(_acsReport_day_each!T15="","",_acsReport_day_each!T15)</f>
         <v/>
       </c>
-      <c r="W21" s="20" t="str">
+      <c r="W21" s="19" t="str">
         <f>IF(_acsReport_day_each!U15="","",_acsReport_day_each!U15)</f>
         <v/>
       </c>
-      <c r="X21" s="22" t="str">
+      <c r="X21" s="19" t="str">
         <f>IF(_acsReport_day_each!V15="","",_acsReport_day_each!V15)</f>
         <v/>
       </c>
-      <c r="Y21" s="20" t="str">
+      <c r="Y21" s="19" t="str">
         <f>IF(_acsReport_day_each!W15="","",_acsReport_day_each!W15)</f>
         <v/>
       </c>
-      <c r="Z21" s="20" t="str">
+      <c r="Z21" s="19" t="str">
         <f>IF(_acsReport_day_each!X15="","",_acsReport_day_each!X15)</f>
         <v/>
       </c>
-      <c r="AA21" s="32" t="str">
+      <c r="AA21" s="19" t="str">
         <f>IF(_acsReport_day_each!Y15="","",_acsReport_day_each!Y15)</f>
         <v/>
       </c>
-      <c r="AB21" s="20" t="str">
+      <c r="AB21" s="19" t="str">
         <f>IF(_acsReport_day_each!Z15="","",_acsReport_day_each!Z15)</f>
         <v/>
       </c>
-      <c r="AC21" s="20" t="str">
+      <c r="AC21" s="19" t="str">
         <f>IF(_acsReport_day_each!AA15="","",_acsReport_day_each!AA15)</f>
         <v/>
       </c>
-      <c r="AD21" s="22" t="str">
+      <c r="AD21" s="19" t="str">
         <f>IF(_acsReport_day_each!AB15="","",_acsReport_day_each!AB15)</f>
         <v/>
       </c>
-      <c r="AE21" s="20" t="str">
+      <c r="AE21" s="19" t="str">
         <f>IF(_acsReport_day_each!AC15="","",_acsReport_day_each!AC15)</f>
         <v/>
       </c>
-      <c r="AF21" s="20" t="str">
+      <c r="AF21" s="19" t="str">
         <f>IF(_acsReport_day_each!AD15="","",_acsReport_day_each!AD15)</f>
         <v/>
       </c>
-      <c r="AG21" s="32" t="str">
+      <c r="AG21" s="19" t="str">
         <f>IF(_acsReport_day_each!AE15="","",_acsReport_day_each!AE15)</f>
         <v/>
       </c>
-      <c r="AH21" s="20" t="str">
+      <c r="AH21" s="19" t="str">
         <f>IF(_acsReport_day_each!AF15="","",_acsReport_day_each!AF15)</f>
         <v/>
       </c>
-      <c r="AI21" s="20" t="str">
+      <c r="AI21" s="19" t="str">
         <f>IF(_acsReport_day_each!AG15="","",_acsReport_day_each!AG15)</f>
         <v/>
       </c>
-      <c r="AJ21" s="22" t="str">
+      <c r="AJ21" s="19" t="str">
         <f>IF(_acsReport_day_each!AH15="","",_acsReport_day_each!AH15)</f>
         <v/>
       </c>
-      <c r="AK21" s="20" t="str">
+      <c r="AK21" s="19" t="str">
         <f>IF(_acsReport_day_each!AI15="","",_acsReport_day_each!AI15)</f>
         <v/>
       </c>
-      <c r="AL21" s="20" t="str">
+      <c r="AL21" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ15="","",_acsReport_day_each!AJ15)</f>
         <v/>
       </c>
-      <c r="AM21" s="32" t="str">
+      <c r="AM21" s="19" t="str">
         <f>IF(_acsReport_day_each!AK15="","",_acsReport_day_each!AK15)</f>
         <v/>
       </c>
-      <c r="AN21" s="20" t="str">
+      <c r="AN21" s="19" t="str">
         <f>IF(_acsReport_day_each!AL15="","",_acsReport_day_each!AL15)</f>
         <v/>
       </c>
-      <c r="AO21" s="20" t="str">
+      <c r="AO21" s="19" t="str">
         <f>IF(_acsReport_day_each!AM15="","",_acsReport_day_each!AM15)</f>
         <v/>
       </c>
-      <c r="AP21" s="22" t="str">
+      <c r="AP21" s="19" t="str">
         <f>IF(_acsReport_day_each!AN15="","",_acsReport_day_each!AN15)</f>
         <v/>
       </c>
-      <c r="AQ21" s="20" t="str">
+      <c r="AQ21" s="19" t="str">
         <f>IF(_acsReport_day_each!AO15="","",_acsReport_day_each!AO15)</f>
         <v/>
       </c>
-      <c r="AR21" s="20" t="str">
+      <c r="AR21" s="19" t="str">
         <f>IF(_acsReport_day_each!AP15="","",_acsReport_day_each!AP15)</f>
         <v/>
       </c>
-      <c r="AS21" s="32" t="str">
+      <c r="AS21" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ15="","",_acsReport_day_each!AQ15)</f>
         <v/>
       </c>
-      <c r="AT21" s="20" t="str">
+      <c r="AT21" s="19" t="str">
         <f>IF(_acsReport_day_each!AR15="","",_acsReport_day_each!AR15)</f>
         <v/>
       </c>
-      <c r="AU21" s="20" t="str">
+      <c r="AU21" s="19" t="str">
         <f>IF(_acsReport_day_each!AS15="","",_acsReport_day_each!AS15)</f>
         <v/>
       </c>
-      <c r="AV21" s="22" t="str">
+      <c r="AV21" s="19" t="str">
         <f>IF(_acsReport_day_each!AT15="","",_acsReport_day_each!AT15)</f>
         <v/>
       </c>
-      <c r="AW21" s="20" t="str">
+      <c r="AW21" s="19" t="str">
         <f>IF(_acsReport_day_each!AU15="","",_acsReport_day_each!AU15)</f>
         <v/>
       </c>
-      <c r="AX21" s="20" t="str">
+      <c r="AX21" s="19" t="str">
         <f>IF(_acsReport_day_each!AV15="","",_acsReport_day_each!AV15)</f>
         <v/>
       </c>
-      <c r="AY21" s="32" t="str">
+      <c r="AY21" s="19" t="str">
         <f>IF(_acsReport_day_each!AW15="","",_acsReport_day_each!AW15)</f>
         <v/>
       </c>
-      <c r="AZ21" s="20" t="str">
+      <c r="AZ21" s="19" t="str">
         <f>IF(_acsReport_day_each!AX15="","",_acsReport_day_each!AX15)</f>
         <v/>
       </c>
-      <c r="BA21" s="20" t="str">
+      <c r="BA21" s="19" t="str">
         <f>IF(_acsReport_day_each!AY15="","",_acsReport_day_each!AY15)</f>
         <v/>
       </c>
-      <c r="BB21" s="32" t="str">
+      <c r="BB21" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ15="","",_acsReport_day_each!AZ15)</f>
         <v/>
       </c>
-      <c r="BC21" s="20" t="str">
+      <c r="BC21" s="19" t="str">
         <f>IF(_acsReport_day_each!BA15="","",_acsReport_day_each!BA15)</f>
         <v/>
       </c>
-      <c r="BD21" s="20" t="str">
+      <c r="BD21" s="19" t="str">
         <f>IF(_acsReport_day_each!BB15="","",_acsReport_day_each!BB15)</f>
         <v/>
       </c>
@@ -5865,6 +5877,9 @@
         <f>_acsReport_day_each!BD15:BF15</f>
         <v>0</v>
       </c>
+      <c r="BF21" s="19"/>
+      <c r="BG21" s="19"/>
+      <c r="BH21" s="19"/>
       <c r="BI21" s="19">
         <f>_acsReport_day_each!BG15:BI15</f>
         <v>0</v>
@@ -5883,222 +5898,222 @@
       </c>
     </row>
     <row r="22" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B22" s="21">
+      <c r="B22" s="20">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C22" s="22" t="str">
+      <c r="C22" s="19" t="str">
         <f>IF(_acsReport_day_each!A16="","",_acsReport_day_each!A16)</f>
         <v/>
       </c>
-      <c r="D22" s="20" t="str">
+      <c r="D22" s="19" t="str">
         <f>IF(_acsReport_day_each!B16="","",_acsReport_day_each!B16)</f>
         <v/>
       </c>
-      <c r="E22" s="20" t="str">
+      <c r="E22" s="19" t="str">
         <f>IF(_acsReport_day_each!C16="","",_acsReport_day_each!C16)</f>
         <v/>
       </c>
-      <c r="F22" s="22" t="str">
+      <c r="F22" s="19" t="str">
         <f>IF(_acsReport_day_each!D16="","",_acsReport_day_each!D16)</f>
         <v/>
       </c>
-      <c r="G22" s="20" t="str">
+      <c r="G22" s="19" t="str">
         <f>IF(_acsReport_day_each!E16="","",_acsReport_day_each!E16)</f>
         <v/>
       </c>
-      <c r="H22" s="20" t="str">
+      <c r="H22" s="19" t="str">
         <f>IF(_acsReport_day_each!F16="","",_acsReport_day_each!F16)</f>
         <v/>
       </c>
-      <c r="I22" s="32" t="str">
+      <c r="I22" s="19" t="str">
         <f>IF(_acsReport_day_each!G16="","",_acsReport_day_each!G16)</f>
         <v/>
       </c>
-      <c r="J22" s="20" t="str">
+      <c r="J22" s="19" t="str">
         <f>IF(_acsReport_day_each!H16="","",_acsReport_day_each!H16)</f>
         <v/>
       </c>
-      <c r="K22" s="20" t="str">
+      <c r="K22" s="19" t="str">
         <f>IF(_acsReport_day_each!I16="","",_acsReport_day_each!I16)</f>
         <v/>
       </c>
-      <c r="L22" s="22" t="str">
+      <c r="L22" s="19" t="str">
         <f>IF(_acsReport_day_each!J16="","",_acsReport_day_each!J16)</f>
         <v/>
       </c>
-      <c r="M22" s="20" t="str">
+      <c r="M22" s="19" t="str">
         <f>IF(_acsReport_day_each!K16="","",_acsReport_day_each!K16)</f>
         <v/>
       </c>
-      <c r="N22" s="20" t="str">
+      <c r="N22" s="19" t="str">
         <f>IF(_acsReport_day_each!L16="","",_acsReport_day_each!L16)</f>
         <v/>
       </c>
-      <c r="O22" s="32" t="str">
+      <c r="O22" s="19" t="str">
         <f>IF(_acsReport_day_each!M16="","",_acsReport_day_each!M16)</f>
         <v/>
       </c>
-      <c r="P22" s="20" t="str">
+      <c r="P22" s="19" t="str">
         <f>IF(_acsReport_day_each!N16="","",_acsReport_day_each!N16)</f>
         <v/>
       </c>
-      <c r="Q22" s="20" t="str">
+      <c r="Q22" s="19" t="str">
         <f>IF(_acsReport_day_each!O16="","",_acsReport_day_each!O16)</f>
         <v/>
       </c>
-      <c r="R22" s="22" t="str">
+      <c r="R22" s="19" t="str">
         <f>IF(_acsReport_day_each!P16="","",_acsReport_day_each!P16)</f>
         <v/>
       </c>
-      <c r="S22" s="20" t="str">
+      <c r="S22" s="19" t="str">
         <f>IF(_acsReport_day_each!Q16="","",_acsReport_day_each!Q16)</f>
         <v/>
       </c>
-      <c r="T22" s="20" t="str">
+      <c r="T22" s="19" t="str">
         <f>IF(_acsReport_day_each!R16="","",_acsReport_day_each!R16)</f>
         <v/>
       </c>
-      <c r="U22" s="32" t="str">
+      <c r="U22" s="19" t="str">
         <f>IF(_acsReport_day_each!S16="","",_acsReport_day_each!S16)</f>
         <v/>
       </c>
-      <c r="V22" s="20" t="str">
+      <c r="V22" s="19" t="str">
         <f>IF(_acsReport_day_each!T16="","",_acsReport_day_each!T16)</f>
         <v/>
       </c>
-      <c r="W22" s="20" t="str">
+      <c r="W22" s="19" t="str">
         <f>IF(_acsReport_day_each!U16="","",_acsReport_day_each!U16)</f>
         <v/>
       </c>
-      <c r="X22" s="22" t="str">
+      <c r="X22" s="19" t="str">
         <f>IF(_acsReport_day_each!V16="","",_acsReport_day_each!V16)</f>
         <v/>
       </c>
-      <c r="Y22" s="20" t="str">
+      <c r="Y22" s="19" t="str">
         <f>IF(_acsReport_day_each!W16="","",_acsReport_day_each!W16)</f>
         <v/>
       </c>
-      <c r="Z22" s="20" t="str">
+      <c r="Z22" s="19" t="str">
         <f>IF(_acsReport_day_each!X16="","",_acsReport_day_each!X16)</f>
         <v/>
       </c>
-      <c r="AA22" s="32" t="str">
+      <c r="AA22" s="19" t="str">
         <f>IF(_acsReport_day_each!Y16="","",_acsReport_day_each!Y16)</f>
         <v/>
       </c>
-      <c r="AB22" s="20" t="str">
+      <c r="AB22" s="19" t="str">
         <f>IF(_acsReport_day_each!Z16="","",_acsReport_day_each!Z16)</f>
         <v/>
       </c>
-      <c r="AC22" s="20" t="str">
+      <c r="AC22" s="19" t="str">
         <f>IF(_acsReport_day_each!AA16="","",_acsReport_day_each!AA16)</f>
         <v/>
       </c>
-      <c r="AD22" s="22" t="str">
+      <c r="AD22" s="19" t="str">
         <f>IF(_acsReport_day_each!AB16="","",_acsReport_day_each!AB16)</f>
         <v/>
       </c>
-      <c r="AE22" s="20" t="str">
+      <c r="AE22" s="19" t="str">
         <f>IF(_acsReport_day_each!AC16="","",_acsReport_day_each!AC16)</f>
         <v/>
       </c>
-      <c r="AF22" s="20" t="str">
+      <c r="AF22" s="19" t="str">
         <f>IF(_acsReport_day_each!AD16="","",_acsReport_day_each!AD16)</f>
         <v/>
       </c>
-      <c r="AG22" s="32" t="str">
+      <c r="AG22" s="19" t="str">
         <f>IF(_acsReport_day_each!AE16="","",_acsReport_day_each!AE16)</f>
         <v/>
       </c>
-      <c r="AH22" s="20" t="str">
+      <c r="AH22" s="19" t="str">
         <f>IF(_acsReport_day_each!AF16="","",_acsReport_day_each!AF16)</f>
         <v/>
       </c>
-      <c r="AI22" s="20" t="str">
+      <c r="AI22" s="19" t="str">
         <f>IF(_acsReport_day_each!AG16="","",_acsReport_day_each!AG16)</f>
         <v/>
       </c>
-      <c r="AJ22" s="22" t="str">
+      <c r="AJ22" s="19" t="str">
         <f>IF(_acsReport_day_each!AH16="","",_acsReport_day_each!AH16)</f>
         <v/>
       </c>
-      <c r="AK22" s="20" t="str">
+      <c r="AK22" s="19" t="str">
         <f>IF(_acsReport_day_each!AI16="","",_acsReport_day_each!AI16)</f>
         <v/>
       </c>
-      <c r="AL22" s="20" t="str">
+      <c r="AL22" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ16="","",_acsReport_day_each!AJ16)</f>
         <v/>
       </c>
-      <c r="AM22" s="32" t="str">
+      <c r="AM22" s="19" t="str">
         <f>IF(_acsReport_day_each!AK16="","",_acsReport_day_each!AK16)</f>
         <v/>
       </c>
-      <c r="AN22" s="20" t="str">
+      <c r="AN22" s="19" t="str">
         <f>IF(_acsReport_day_each!AL16="","",_acsReport_day_each!AL16)</f>
         <v/>
       </c>
-      <c r="AO22" s="20" t="str">
+      <c r="AO22" s="19" t="str">
         <f>IF(_acsReport_day_each!AM16="","",_acsReport_day_each!AM16)</f>
         <v/>
       </c>
-      <c r="AP22" s="22" t="str">
+      <c r="AP22" s="19" t="str">
         <f>IF(_acsReport_day_each!AN16="","",_acsReport_day_each!AN16)</f>
         <v/>
       </c>
-      <c r="AQ22" s="20" t="str">
+      <c r="AQ22" s="19" t="str">
         <f>IF(_acsReport_day_each!AO16="","",_acsReport_day_each!AO16)</f>
         <v/>
       </c>
-      <c r="AR22" s="20" t="str">
+      <c r="AR22" s="19" t="str">
         <f>IF(_acsReport_day_each!AP16="","",_acsReport_day_each!AP16)</f>
         <v/>
       </c>
-      <c r="AS22" s="32" t="str">
+      <c r="AS22" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ16="","",_acsReport_day_each!AQ16)</f>
         <v/>
       </c>
-      <c r="AT22" s="20" t="str">
+      <c r="AT22" s="19" t="str">
         <f>IF(_acsReport_day_each!AR16="","",_acsReport_day_each!AR16)</f>
         <v/>
       </c>
-      <c r="AU22" s="20" t="str">
+      <c r="AU22" s="19" t="str">
         <f>IF(_acsReport_day_each!AS16="","",_acsReport_day_each!AS16)</f>
         <v/>
       </c>
-      <c r="AV22" s="22" t="str">
+      <c r="AV22" s="19" t="str">
         <f>IF(_acsReport_day_each!AT16="","",_acsReport_day_each!AT16)</f>
         <v/>
       </c>
-      <c r="AW22" s="20" t="str">
+      <c r="AW22" s="19" t="str">
         <f>IF(_acsReport_day_each!AU16="","",_acsReport_day_each!AU16)</f>
         <v/>
       </c>
-      <c r="AX22" s="20" t="str">
+      <c r="AX22" s="19" t="str">
         <f>IF(_acsReport_day_each!AV16="","",_acsReport_day_each!AV16)</f>
         <v/>
       </c>
-      <c r="AY22" s="32" t="str">
+      <c r="AY22" s="19" t="str">
         <f>IF(_acsReport_day_each!AW16="","",_acsReport_day_each!AW16)</f>
         <v/>
       </c>
-      <c r="AZ22" s="20" t="str">
+      <c r="AZ22" s="19" t="str">
         <f>IF(_acsReport_day_each!AX16="","",_acsReport_day_each!AX16)</f>
         <v/>
       </c>
-      <c r="BA22" s="20" t="str">
+      <c r="BA22" s="19" t="str">
         <f>IF(_acsReport_day_each!AY16="","",_acsReport_day_each!AY16)</f>
         <v/>
       </c>
-      <c r="BB22" s="32" t="str">
+      <c r="BB22" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ16="","",_acsReport_day_each!AZ16)</f>
         <v/>
       </c>
-      <c r="BC22" s="20" t="str">
+      <c r="BC22" s="19" t="str">
         <f>IF(_acsReport_day_each!BA16="","",_acsReport_day_each!BA16)</f>
         <v/>
       </c>
-      <c r="BD22" s="20" t="str">
+      <c r="BD22" s="19" t="str">
         <f>IF(_acsReport_day_each!BB16="","",_acsReport_day_each!BB16)</f>
         <v/>
       </c>
@@ -6106,6 +6121,9 @@
         <f>_acsReport_day_each!BD16:BF16</f>
         <v>0</v>
       </c>
+      <c r="BF22" s="19"/>
+      <c r="BG22" s="19"/>
+      <c r="BH22" s="19"/>
       <c r="BI22" s="19">
         <f>_acsReport_day_each!BG16:BI16</f>
         <v>0</v>
@@ -6124,222 +6142,222 @@
       </c>
     </row>
     <row r="23" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B23" s="23">
+      <c r="B23" s="21">
         <v>0.625</v>
       </c>
-      <c r="C23" s="24" t="str">
+      <c r="C23" s="19" t="str">
         <f>IF(_acsReport_day_each!A17="","",_acsReport_day_each!A17)</f>
         <v/>
       </c>
-      <c r="D23" s="25" t="str">
+      <c r="D23" s="19" t="str">
         <f>IF(_acsReport_day_each!B17="","",_acsReport_day_each!B17)</f>
         <v/>
       </c>
-      <c r="E23" s="25" t="str">
+      <c r="E23" s="19" t="str">
         <f>IF(_acsReport_day_each!C17="","",_acsReport_day_each!C17)</f>
         <v/>
       </c>
-      <c r="F23" s="22" t="str">
+      <c r="F23" s="19" t="str">
         <f>IF(_acsReport_day_each!D17="","",_acsReport_day_each!D17)</f>
         <v/>
       </c>
-      <c r="G23" s="20" t="str">
+      <c r="G23" s="19" t="str">
         <f>IF(_acsReport_day_each!E17="","",_acsReport_day_each!E17)</f>
         <v/>
       </c>
-      <c r="H23" s="20" t="str">
+      <c r="H23" s="19" t="str">
         <f>IF(_acsReport_day_each!F17="","",_acsReport_day_each!F17)</f>
         <v/>
       </c>
-      <c r="I23" s="32" t="str">
+      <c r="I23" s="19" t="str">
         <f>IF(_acsReport_day_each!G17="","",_acsReport_day_each!G17)</f>
         <v/>
       </c>
-      <c r="J23" s="20" t="str">
+      <c r="J23" s="19" t="str">
         <f>IF(_acsReport_day_each!H17="","",_acsReport_day_each!H17)</f>
         <v/>
       </c>
-      <c r="K23" s="20" t="str">
+      <c r="K23" s="19" t="str">
         <f>IF(_acsReport_day_each!I17="","",_acsReport_day_each!I17)</f>
         <v/>
       </c>
-      <c r="L23" s="22" t="str">
+      <c r="L23" s="19" t="str">
         <f>IF(_acsReport_day_each!J17="","",_acsReport_day_each!J17)</f>
         <v/>
       </c>
-      <c r="M23" s="20" t="str">
+      <c r="M23" s="19" t="str">
         <f>IF(_acsReport_day_each!K17="","",_acsReport_day_each!K17)</f>
         <v/>
       </c>
-      <c r="N23" s="20" t="str">
+      <c r="N23" s="19" t="str">
         <f>IF(_acsReport_day_each!L17="","",_acsReport_day_each!L17)</f>
         <v/>
       </c>
-      <c r="O23" s="32" t="str">
+      <c r="O23" s="19" t="str">
         <f>IF(_acsReport_day_each!M17="","",_acsReport_day_each!M17)</f>
         <v/>
       </c>
-      <c r="P23" s="20" t="str">
+      <c r="P23" s="19" t="str">
         <f>IF(_acsReport_day_each!N17="","",_acsReport_day_each!N17)</f>
         <v/>
       </c>
-      <c r="Q23" s="20" t="str">
+      <c r="Q23" s="19" t="str">
         <f>IF(_acsReport_day_each!O17="","",_acsReport_day_each!O17)</f>
         <v/>
       </c>
-      <c r="R23" s="22" t="str">
+      <c r="R23" s="19" t="str">
         <f>IF(_acsReport_day_each!P17="","",_acsReport_day_each!P17)</f>
         <v/>
       </c>
-      <c r="S23" s="20" t="str">
+      <c r="S23" s="19" t="str">
         <f>IF(_acsReport_day_each!Q17="","",_acsReport_day_each!Q17)</f>
         <v/>
       </c>
-      <c r="T23" s="20" t="str">
+      <c r="T23" s="19" t="str">
         <f>IF(_acsReport_day_each!R17="","",_acsReport_day_each!R17)</f>
         <v/>
       </c>
-      <c r="U23" s="32" t="str">
+      <c r="U23" s="19" t="str">
         <f>IF(_acsReport_day_each!S17="","",_acsReport_day_each!S17)</f>
         <v/>
       </c>
-      <c r="V23" s="20" t="str">
+      <c r="V23" s="19" t="str">
         <f>IF(_acsReport_day_each!T17="","",_acsReport_day_each!T17)</f>
         <v/>
       </c>
-      <c r="W23" s="20" t="str">
+      <c r="W23" s="19" t="str">
         <f>IF(_acsReport_day_each!U17="","",_acsReport_day_each!U17)</f>
         <v/>
       </c>
-      <c r="X23" s="22" t="str">
+      <c r="X23" s="19" t="str">
         <f>IF(_acsReport_day_each!V17="","",_acsReport_day_each!V17)</f>
         <v/>
       </c>
-      <c r="Y23" s="20" t="str">
+      <c r="Y23" s="19" t="str">
         <f>IF(_acsReport_day_each!W17="","",_acsReport_day_each!W17)</f>
         <v/>
       </c>
-      <c r="Z23" s="20" t="str">
+      <c r="Z23" s="19" t="str">
         <f>IF(_acsReport_day_each!X17="","",_acsReport_day_each!X17)</f>
         <v/>
       </c>
-      <c r="AA23" s="32" t="str">
+      <c r="AA23" s="19" t="str">
         <f>IF(_acsReport_day_each!Y17="","",_acsReport_day_each!Y17)</f>
         <v/>
       </c>
-      <c r="AB23" s="20" t="str">
+      <c r="AB23" s="19" t="str">
         <f>IF(_acsReport_day_each!Z17="","",_acsReport_day_each!Z17)</f>
         <v/>
       </c>
-      <c r="AC23" s="20" t="str">
+      <c r="AC23" s="19" t="str">
         <f>IF(_acsReport_day_each!AA17="","",_acsReport_day_each!AA17)</f>
         <v/>
       </c>
-      <c r="AD23" s="22" t="str">
+      <c r="AD23" s="19" t="str">
         <f>IF(_acsReport_day_each!AB17="","",_acsReport_day_each!AB17)</f>
         <v/>
       </c>
-      <c r="AE23" s="20" t="str">
+      <c r="AE23" s="19" t="str">
         <f>IF(_acsReport_day_each!AC17="","",_acsReport_day_each!AC17)</f>
         <v/>
       </c>
-      <c r="AF23" s="20" t="str">
+      <c r="AF23" s="19" t="str">
         <f>IF(_acsReport_day_each!AD17="","",_acsReport_day_each!AD17)</f>
         <v/>
       </c>
-      <c r="AG23" s="32" t="str">
+      <c r="AG23" s="19" t="str">
         <f>IF(_acsReport_day_each!AE17="","",_acsReport_day_each!AE17)</f>
         <v/>
       </c>
-      <c r="AH23" s="20" t="str">
+      <c r="AH23" s="19" t="str">
         <f>IF(_acsReport_day_each!AF17="","",_acsReport_day_each!AF17)</f>
         <v/>
       </c>
-      <c r="AI23" s="20" t="str">
+      <c r="AI23" s="19" t="str">
         <f>IF(_acsReport_day_each!AG17="","",_acsReport_day_each!AG17)</f>
         <v/>
       </c>
-      <c r="AJ23" s="22" t="str">
+      <c r="AJ23" s="19" t="str">
         <f>IF(_acsReport_day_each!AH17="","",_acsReport_day_each!AH17)</f>
         <v/>
       </c>
-      <c r="AK23" s="20" t="str">
+      <c r="AK23" s="19" t="str">
         <f>IF(_acsReport_day_each!AI17="","",_acsReport_day_each!AI17)</f>
         <v/>
       </c>
-      <c r="AL23" s="20" t="str">
+      <c r="AL23" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ17="","",_acsReport_day_each!AJ17)</f>
         <v/>
       </c>
-      <c r="AM23" s="32" t="str">
+      <c r="AM23" s="19" t="str">
         <f>IF(_acsReport_day_each!AK17="","",_acsReport_day_each!AK17)</f>
         <v/>
       </c>
-      <c r="AN23" s="20" t="str">
+      <c r="AN23" s="19" t="str">
         <f>IF(_acsReport_day_each!AL17="","",_acsReport_day_each!AL17)</f>
         <v/>
       </c>
-      <c r="AO23" s="20" t="str">
+      <c r="AO23" s="19" t="str">
         <f>IF(_acsReport_day_each!AM17="","",_acsReport_day_each!AM17)</f>
         <v/>
       </c>
-      <c r="AP23" s="22" t="str">
+      <c r="AP23" s="19" t="str">
         <f>IF(_acsReport_day_each!AN17="","",_acsReport_day_each!AN17)</f>
         <v/>
       </c>
-      <c r="AQ23" s="20" t="str">
+      <c r="AQ23" s="19" t="str">
         <f>IF(_acsReport_day_each!AO17="","",_acsReport_day_each!AO17)</f>
         <v/>
       </c>
-      <c r="AR23" s="20" t="str">
+      <c r="AR23" s="19" t="str">
         <f>IF(_acsReport_day_each!AP17="","",_acsReport_day_each!AP17)</f>
         <v/>
       </c>
-      <c r="AS23" s="32" t="str">
+      <c r="AS23" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ17="","",_acsReport_day_each!AQ17)</f>
         <v/>
       </c>
-      <c r="AT23" s="20" t="str">
+      <c r="AT23" s="19" t="str">
         <f>IF(_acsReport_day_each!AR17="","",_acsReport_day_each!AR17)</f>
         <v/>
       </c>
-      <c r="AU23" s="20" t="str">
+      <c r="AU23" s="19" t="str">
         <f>IF(_acsReport_day_each!AS17="","",_acsReport_day_each!AS17)</f>
         <v/>
       </c>
-      <c r="AV23" s="22" t="str">
+      <c r="AV23" s="19" t="str">
         <f>IF(_acsReport_day_each!AT17="","",_acsReport_day_each!AT17)</f>
         <v/>
       </c>
-      <c r="AW23" s="20" t="str">
+      <c r="AW23" s="19" t="str">
         <f>IF(_acsReport_day_each!AU17="","",_acsReport_day_each!AU17)</f>
         <v/>
       </c>
-      <c r="AX23" s="20" t="str">
+      <c r="AX23" s="19" t="str">
         <f>IF(_acsReport_day_each!AV17="","",_acsReport_day_each!AV17)</f>
         <v/>
       </c>
-      <c r="AY23" s="32" t="str">
+      <c r="AY23" s="19" t="str">
         <f>IF(_acsReport_day_each!AW17="","",_acsReport_day_each!AW17)</f>
         <v/>
       </c>
-      <c r="AZ23" s="20" t="str">
+      <c r="AZ23" s="19" t="str">
         <f>IF(_acsReport_day_each!AX17="","",_acsReport_day_each!AX17)</f>
         <v/>
       </c>
-      <c r="BA23" s="20" t="str">
+      <c r="BA23" s="19" t="str">
         <f>IF(_acsReport_day_each!AY17="","",_acsReport_day_each!AY17)</f>
         <v/>
       </c>
-      <c r="BB23" s="32" t="str">
+      <c r="BB23" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ17="","",_acsReport_day_each!AZ17)</f>
         <v/>
       </c>
-      <c r="BC23" s="20" t="str">
+      <c r="BC23" s="19" t="str">
         <f>IF(_acsReport_day_each!BA17="","",_acsReport_day_each!BA17)</f>
         <v/>
       </c>
-      <c r="BD23" s="20" t="str">
+      <c r="BD23" s="19" t="str">
         <f>IF(_acsReport_day_each!BB17="","",_acsReport_day_each!BB17)</f>
         <v/>
       </c>
@@ -6347,6 +6365,9 @@
         <f>_acsReport_day_each!BD17:BF17</f>
         <v>0</v>
       </c>
+      <c r="BF23" s="19"/>
+      <c r="BG23" s="19"/>
+      <c r="BH23" s="19"/>
       <c r="BI23" s="19">
         <f>_acsReport_day_each!BG17:BI17</f>
         <v>0</v>
@@ -6365,222 +6386,222 @@
       </c>
     </row>
     <row r="24" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B24" s="26">
+      <c r="B24" s="22">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C24" s="27" t="str">
+      <c r="C24" s="19" t="str">
         <f>IF(_acsReport_day_each!A18="","",_acsReport_day_each!A18)</f>
         <v/>
       </c>
-      <c r="D24" s="28" t="str">
+      <c r="D24" s="19" t="str">
         <f>IF(_acsReport_day_each!B18="","",_acsReport_day_each!B18)</f>
         <v/>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="19" t="str">
         <f>IF(_acsReport_day_each!C18="","",_acsReport_day_each!C18)</f>
         <v/>
       </c>
-      <c r="F24" s="27" t="str">
+      <c r="F24" s="19" t="str">
         <f>IF(_acsReport_day_each!D18="","",_acsReport_day_each!D18)</f>
         <v/>
       </c>
-      <c r="G24" s="28" t="str">
+      <c r="G24" s="19" t="str">
         <f>IF(_acsReport_day_each!E18="","",_acsReport_day_each!E18)</f>
         <v/>
       </c>
-      <c r="H24" s="28" t="str">
+      <c r="H24" s="19" t="str">
         <f>IF(_acsReport_day_each!F18="","",_acsReport_day_each!F18)</f>
         <v/>
       </c>
-      <c r="I24" s="33" t="str">
+      <c r="I24" s="19" t="str">
         <f>IF(_acsReport_day_each!G18="","",_acsReport_day_each!G18)</f>
         <v/>
       </c>
-      <c r="J24" s="28" t="str">
+      <c r="J24" s="19" t="str">
         <f>IF(_acsReport_day_each!H18="","",_acsReport_day_each!H18)</f>
         <v/>
       </c>
-      <c r="K24" s="28" t="str">
+      <c r="K24" s="19" t="str">
         <f>IF(_acsReport_day_each!I18="","",_acsReport_day_each!I18)</f>
         <v/>
       </c>
-      <c r="L24" s="27" t="str">
+      <c r="L24" s="19" t="str">
         <f>IF(_acsReport_day_each!J18="","",_acsReport_day_each!J18)</f>
         <v/>
       </c>
-      <c r="M24" s="28" t="str">
+      <c r="M24" s="19" t="str">
         <f>IF(_acsReport_day_each!K18="","",_acsReport_day_each!K18)</f>
         <v/>
       </c>
-      <c r="N24" s="28" t="str">
+      <c r="N24" s="19" t="str">
         <f>IF(_acsReport_day_each!L18="","",_acsReport_day_each!L18)</f>
         <v/>
       </c>
-      <c r="O24" s="33" t="str">
+      <c r="O24" s="19" t="str">
         <f>IF(_acsReport_day_each!M18="","",_acsReport_day_each!M18)</f>
         <v/>
       </c>
-      <c r="P24" s="28" t="str">
+      <c r="P24" s="19" t="str">
         <f>IF(_acsReport_day_each!N18="","",_acsReport_day_each!N18)</f>
         <v/>
       </c>
-      <c r="Q24" s="28" t="str">
+      <c r="Q24" s="19" t="str">
         <f>IF(_acsReport_day_each!O18="","",_acsReport_day_each!O18)</f>
         <v/>
       </c>
-      <c r="R24" s="27" t="str">
+      <c r="R24" s="19" t="str">
         <f>IF(_acsReport_day_each!P18="","",_acsReport_day_each!P18)</f>
         <v/>
       </c>
-      <c r="S24" s="28" t="str">
+      <c r="S24" s="19" t="str">
         <f>IF(_acsReport_day_each!Q18="","",_acsReport_day_each!Q18)</f>
         <v/>
       </c>
-      <c r="T24" s="28" t="str">
+      <c r="T24" s="19" t="str">
         <f>IF(_acsReport_day_each!R18="","",_acsReport_day_each!R18)</f>
         <v/>
       </c>
-      <c r="U24" s="33" t="str">
+      <c r="U24" s="19" t="str">
         <f>IF(_acsReport_day_each!S18="","",_acsReport_day_each!S18)</f>
         <v/>
       </c>
-      <c r="V24" s="28" t="str">
+      <c r="V24" s="19" t="str">
         <f>IF(_acsReport_day_each!T18="","",_acsReport_day_each!T18)</f>
         <v/>
       </c>
-      <c r="W24" s="28" t="str">
+      <c r="W24" s="19" t="str">
         <f>IF(_acsReport_day_each!U18="","",_acsReport_day_each!U18)</f>
         <v/>
       </c>
-      <c r="X24" s="27" t="str">
+      <c r="X24" s="19" t="str">
         <f>IF(_acsReport_day_each!V18="","",_acsReport_day_each!V18)</f>
         <v/>
       </c>
-      <c r="Y24" s="28" t="str">
+      <c r="Y24" s="19" t="str">
         <f>IF(_acsReport_day_each!W18="","",_acsReport_day_each!W18)</f>
         <v/>
       </c>
-      <c r="Z24" s="28" t="str">
+      <c r="Z24" s="19" t="str">
         <f>IF(_acsReport_day_each!X18="","",_acsReport_day_each!X18)</f>
         <v/>
       </c>
-      <c r="AA24" s="33" t="str">
+      <c r="AA24" s="19" t="str">
         <f>IF(_acsReport_day_each!Y18="","",_acsReport_day_each!Y18)</f>
         <v/>
       </c>
-      <c r="AB24" s="28" t="str">
+      <c r="AB24" s="19" t="str">
         <f>IF(_acsReport_day_each!Z18="","",_acsReport_day_each!Z18)</f>
         <v/>
       </c>
-      <c r="AC24" s="28" t="str">
+      <c r="AC24" s="19" t="str">
         <f>IF(_acsReport_day_each!AA18="","",_acsReport_day_each!AA18)</f>
         <v/>
       </c>
-      <c r="AD24" s="27" t="str">
+      <c r="AD24" s="19" t="str">
         <f>IF(_acsReport_day_each!AB18="","",_acsReport_day_each!AB18)</f>
         <v/>
       </c>
-      <c r="AE24" s="28" t="str">
+      <c r="AE24" s="19" t="str">
         <f>IF(_acsReport_day_each!AC18="","",_acsReport_day_each!AC18)</f>
         <v/>
       </c>
-      <c r="AF24" s="28" t="str">
+      <c r="AF24" s="19" t="str">
         <f>IF(_acsReport_day_each!AD18="","",_acsReport_day_each!AD18)</f>
         <v/>
       </c>
-      <c r="AG24" s="33" t="str">
+      <c r="AG24" s="19" t="str">
         <f>IF(_acsReport_day_each!AE18="","",_acsReport_day_each!AE18)</f>
         <v/>
       </c>
-      <c r="AH24" s="28" t="str">
+      <c r="AH24" s="19" t="str">
         <f>IF(_acsReport_day_each!AF18="","",_acsReport_day_each!AF18)</f>
         <v/>
       </c>
-      <c r="AI24" s="28" t="str">
+      <c r="AI24" s="19" t="str">
         <f>IF(_acsReport_day_each!AG18="","",_acsReport_day_each!AG18)</f>
         <v/>
       </c>
-      <c r="AJ24" s="27" t="str">
+      <c r="AJ24" s="19" t="str">
         <f>IF(_acsReport_day_each!AH18="","",_acsReport_day_each!AH18)</f>
         <v/>
       </c>
-      <c r="AK24" s="28" t="str">
+      <c r="AK24" s="19" t="str">
         <f>IF(_acsReport_day_each!AI18="","",_acsReport_day_each!AI18)</f>
         <v/>
       </c>
-      <c r="AL24" s="28" t="str">
+      <c r="AL24" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ18="","",_acsReport_day_each!AJ18)</f>
         <v/>
       </c>
-      <c r="AM24" s="33" t="str">
+      <c r="AM24" s="19" t="str">
         <f>IF(_acsReport_day_each!AK18="","",_acsReport_day_each!AK18)</f>
         <v/>
       </c>
-      <c r="AN24" s="28" t="str">
+      <c r="AN24" s="19" t="str">
         <f>IF(_acsReport_day_each!AL18="","",_acsReport_day_each!AL18)</f>
         <v/>
       </c>
-      <c r="AO24" s="28" t="str">
+      <c r="AO24" s="19" t="str">
         <f>IF(_acsReport_day_each!AM18="","",_acsReport_day_each!AM18)</f>
         <v/>
       </c>
-      <c r="AP24" s="27" t="str">
+      <c r="AP24" s="19" t="str">
         <f>IF(_acsReport_day_each!AN18="","",_acsReport_day_each!AN18)</f>
         <v/>
       </c>
-      <c r="AQ24" s="28" t="str">
+      <c r="AQ24" s="19" t="str">
         <f>IF(_acsReport_day_each!AO18="","",_acsReport_day_each!AO18)</f>
         <v/>
       </c>
-      <c r="AR24" s="28" t="str">
+      <c r="AR24" s="19" t="str">
         <f>IF(_acsReport_day_each!AP18="","",_acsReport_day_each!AP18)</f>
         <v/>
       </c>
-      <c r="AS24" s="33" t="str">
+      <c r="AS24" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ18="","",_acsReport_day_each!AQ18)</f>
         <v/>
       </c>
-      <c r="AT24" s="28" t="str">
+      <c r="AT24" s="19" t="str">
         <f>IF(_acsReport_day_each!AR18="","",_acsReport_day_each!AR18)</f>
         <v/>
       </c>
-      <c r="AU24" s="28" t="str">
+      <c r="AU24" s="19" t="str">
         <f>IF(_acsReport_day_each!AS18="","",_acsReport_day_each!AS18)</f>
         <v/>
       </c>
-      <c r="AV24" s="27" t="str">
+      <c r="AV24" s="19" t="str">
         <f>IF(_acsReport_day_each!AT18="","",_acsReport_day_each!AT18)</f>
         <v/>
       </c>
-      <c r="AW24" s="28" t="str">
+      <c r="AW24" s="19" t="str">
         <f>IF(_acsReport_day_each!AU18="","",_acsReport_day_each!AU18)</f>
         <v/>
       </c>
-      <c r="AX24" s="28" t="str">
+      <c r="AX24" s="19" t="str">
         <f>IF(_acsReport_day_each!AV18="","",_acsReport_day_each!AV18)</f>
         <v/>
       </c>
-      <c r="AY24" s="33" t="str">
+      <c r="AY24" s="19" t="str">
         <f>IF(_acsReport_day_each!AW18="","",_acsReport_day_each!AW18)</f>
         <v/>
       </c>
-      <c r="AZ24" s="28" t="str">
+      <c r="AZ24" s="19" t="str">
         <f>IF(_acsReport_day_each!AX18="","",_acsReport_day_each!AX18)</f>
         <v/>
       </c>
-      <c r="BA24" s="28" t="str">
+      <c r="BA24" s="19" t="str">
         <f>IF(_acsReport_day_each!AY18="","",_acsReport_day_each!AY18)</f>
         <v/>
       </c>
-      <c r="BB24" s="33" t="str">
+      <c r="BB24" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ18="","",_acsReport_day_each!AZ18)</f>
         <v/>
       </c>
-      <c r="BC24" s="28" t="str">
+      <c r="BC24" s="19" t="str">
         <f>IF(_acsReport_day_each!BA18="","",_acsReport_day_each!BA18)</f>
         <v/>
       </c>
-      <c r="BD24" s="28" t="str">
+      <c r="BD24" s="19" t="str">
         <f>IF(_acsReport_day_each!BB18="","",_acsReport_day_each!BB18)</f>
         <v/>
       </c>
@@ -6588,6 +6609,9 @@
         <f>_acsReport_day_each!BD18:BF18</f>
         <v>0</v>
       </c>
+      <c r="BF24" s="19"/>
+      <c r="BG24" s="19"/>
+      <c r="BH24" s="19"/>
       <c r="BI24" s="19">
         <f>_acsReport_day_each!BG18:BI18</f>
         <v>0</v>
@@ -6606,222 +6630,222 @@
       </c>
     </row>
     <row r="25" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B25" s="21">
+      <c r="B25" s="20">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C25" s="22" t="str">
+      <c r="C25" s="19" t="str">
         <f>IF(_acsReport_day_each!A19="","",_acsReport_day_each!A19)</f>
         <v/>
       </c>
-      <c r="D25" s="20" t="str">
+      <c r="D25" s="19" t="str">
         <f>IF(_acsReport_day_each!B19="","",_acsReport_day_each!B19)</f>
         <v/>
       </c>
-      <c r="E25" s="20" t="str">
+      <c r="E25" s="19" t="str">
         <f>IF(_acsReport_day_each!C19="","",_acsReport_day_each!C19)</f>
         <v/>
       </c>
-      <c r="F25" s="22" t="str">
+      <c r="F25" s="19" t="str">
         <f>IF(_acsReport_day_each!D19="","",_acsReport_day_each!D19)</f>
         <v/>
       </c>
-      <c r="G25" s="20" t="str">
+      <c r="G25" s="19" t="str">
         <f>IF(_acsReport_day_each!E19="","",_acsReport_day_each!E19)</f>
         <v/>
       </c>
-      <c r="H25" s="20" t="str">
+      <c r="H25" s="19" t="str">
         <f>IF(_acsReport_day_each!F19="","",_acsReport_day_each!F19)</f>
         <v/>
       </c>
-      <c r="I25" s="32" t="str">
+      <c r="I25" s="19" t="str">
         <f>IF(_acsReport_day_each!G19="","",_acsReport_day_each!G19)</f>
         <v/>
       </c>
-      <c r="J25" s="20" t="str">
+      <c r="J25" s="19" t="str">
         <f>IF(_acsReport_day_each!H19="","",_acsReport_day_each!H19)</f>
         <v/>
       </c>
-      <c r="K25" s="20" t="str">
+      <c r="K25" s="19" t="str">
         <f>IF(_acsReport_day_each!I19="","",_acsReport_day_each!I19)</f>
         <v/>
       </c>
-      <c r="L25" s="22" t="str">
+      <c r="L25" s="19" t="str">
         <f>IF(_acsReport_day_each!J19="","",_acsReport_day_each!J19)</f>
         <v/>
       </c>
-      <c r="M25" s="20" t="str">
+      <c r="M25" s="19" t="str">
         <f>IF(_acsReport_day_each!K19="","",_acsReport_day_each!K19)</f>
         <v/>
       </c>
-      <c r="N25" s="20" t="str">
+      <c r="N25" s="19" t="str">
         <f>IF(_acsReport_day_each!L19="","",_acsReport_day_each!L19)</f>
         <v/>
       </c>
-      <c r="O25" s="32" t="str">
+      <c r="O25" s="19" t="str">
         <f>IF(_acsReport_day_each!M19="","",_acsReport_day_each!M19)</f>
         <v/>
       </c>
-      <c r="P25" s="20" t="str">
+      <c r="P25" s="19" t="str">
         <f>IF(_acsReport_day_each!N19="","",_acsReport_day_each!N19)</f>
         <v/>
       </c>
-      <c r="Q25" s="20" t="str">
+      <c r="Q25" s="19" t="str">
         <f>IF(_acsReport_day_each!O19="","",_acsReport_day_each!O19)</f>
         <v/>
       </c>
-      <c r="R25" s="22" t="str">
+      <c r="R25" s="19" t="str">
         <f>IF(_acsReport_day_each!P19="","",_acsReport_day_each!P19)</f>
         <v/>
       </c>
-      <c r="S25" s="20" t="str">
+      <c r="S25" s="19" t="str">
         <f>IF(_acsReport_day_each!Q19="","",_acsReport_day_each!Q19)</f>
         <v/>
       </c>
-      <c r="T25" s="20" t="str">
+      <c r="T25" s="19" t="str">
         <f>IF(_acsReport_day_each!R19="","",_acsReport_day_each!R19)</f>
         <v/>
       </c>
-      <c r="U25" s="32" t="str">
+      <c r="U25" s="19" t="str">
         <f>IF(_acsReport_day_each!S19="","",_acsReport_day_each!S19)</f>
         <v/>
       </c>
-      <c r="V25" s="20" t="str">
+      <c r="V25" s="19" t="str">
         <f>IF(_acsReport_day_each!T19="","",_acsReport_day_each!T19)</f>
         <v/>
       </c>
-      <c r="W25" s="20" t="str">
+      <c r="W25" s="19" t="str">
         <f>IF(_acsReport_day_each!U19="","",_acsReport_day_each!U19)</f>
         <v/>
       </c>
-      <c r="X25" s="22" t="str">
+      <c r="X25" s="19" t="str">
         <f>IF(_acsReport_day_each!V19="","",_acsReport_day_each!V19)</f>
         <v/>
       </c>
-      <c r="Y25" s="20" t="str">
+      <c r="Y25" s="19" t="str">
         <f>IF(_acsReport_day_each!W19="","",_acsReport_day_each!W19)</f>
         <v/>
       </c>
-      <c r="Z25" s="20" t="str">
+      <c r="Z25" s="19" t="str">
         <f>IF(_acsReport_day_each!X19="","",_acsReport_day_each!X19)</f>
         <v/>
       </c>
-      <c r="AA25" s="32" t="str">
+      <c r="AA25" s="19" t="str">
         <f>IF(_acsReport_day_each!Y19="","",_acsReport_day_each!Y19)</f>
         <v/>
       </c>
-      <c r="AB25" s="20" t="str">
+      <c r="AB25" s="19" t="str">
         <f>IF(_acsReport_day_each!Z19="","",_acsReport_day_each!Z19)</f>
         <v/>
       </c>
-      <c r="AC25" s="20" t="str">
+      <c r="AC25" s="19" t="str">
         <f>IF(_acsReport_day_each!AA19="","",_acsReport_day_each!AA19)</f>
         <v/>
       </c>
-      <c r="AD25" s="22" t="str">
+      <c r="AD25" s="19" t="str">
         <f>IF(_acsReport_day_each!AB19="","",_acsReport_day_each!AB19)</f>
         <v/>
       </c>
-      <c r="AE25" s="20" t="str">
+      <c r="AE25" s="19" t="str">
         <f>IF(_acsReport_day_each!AC19="","",_acsReport_day_each!AC19)</f>
         <v/>
       </c>
-      <c r="AF25" s="20" t="str">
+      <c r="AF25" s="19" t="str">
         <f>IF(_acsReport_day_each!AD19="","",_acsReport_day_each!AD19)</f>
         <v/>
       </c>
-      <c r="AG25" s="32" t="str">
+      <c r="AG25" s="19" t="str">
         <f>IF(_acsReport_day_each!AE19="","",_acsReport_day_each!AE19)</f>
         <v/>
       </c>
-      <c r="AH25" s="20" t="str">
+      <c r="AH25" s="19" t="str">
         <f>IF(_acsReport_day_each!AF19="","",_acsReport_day_each!AF19)</f>
         <v/>
       </c>
-      <c r="AI25" s="20" t="str">
+      <c r="AI25" s="19" t="str">
         <f>IF(_acsReport_day_each!AG19="","",_acsReport_day_each!AG19)</f>
         <v/>
       </c>
-      <c r="AJ25" s="22" t="str">
+      <c r="AJ25" s="19" t="str">
         <f>IF(_acsReport_day_each!AH19="","",_acsReport_day_each!AH19)</f>
         <v/>
       </c>
-      <c r="AK25" s="20" t="str">
+      <c r="AK25" s="19" t="str">
         <f>IF(_acsReport_day_each!AI19="","",_acsReport_day_each!AI19)</f>
         <v/>
       </c>
-      <c r="AL25" s="20" t="str">
+      <c r="AL25" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ19="","",_acsReport_day_each!AJ19)</f>
         <v/>
       </c>
-      <c r="AM25" s="32" t="str">
+      <c r="AM25" s="19" t="str">
         <f>IF(_acsReport_day_each!AK19="","",_acsReport_day_each!AK19)</f>
         <v/>
       </c>
-      <c r="AN25" s="20" t="str">
+      <c r="AN25" s="19" t="str">
         <f>IF(_acsReport_day_each!AL19="","",_acsReport_day_each!AL19)</f>
         <v/>
       </c>
-      <c r="AO25" s="20" t="str">
+      <c r="AO25" s="19" t="str">
         <f>IF(_acsReport_day_each!AM19="","",_acsReport_day_each!AM19)</f>
         <v/>
       </c>
-      <c r="AP25" s="22" t="str">
+      <c r="AP25" s="19" t="str">
         <f>IF(_acsReport_day_each!AN19="","",_acsReport_day_each!AN19)</f>
         <v/>
       </c>
-      <c r="AQ25" s="20" t="str">
+      <c r="AQ25" s="19" t="str">
         <f>IF(_acsReport_day_each!AO19="","",_acsReport_day_each!AO19)</f>
         <v/>
       </c>
-      <c r="AR25" s="20" t="str">
+      <c r="AR25" s="19" t="str">
         <f>IF(_acsReport_day_each!AP19="","",_acsReport_day_each!AP19)</f>
         <v/>
       </c>
-      <c r="AS25" s="32" t="str">
+      <c r="AS25" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ19="","",_acsReport_day_each!AQ19)</f>
         <v/>
       </c>
-      <c r="AT25" s="20" t="str">
+      <c r="AT25" s="19" t="str">
         <f>IF(_acsReport_day_each!AR19="","",_acsReport_day_each!AR19)</f>
         <v/>
       </c>
-      <c r="AU25" s="20" t="str">
+      <c r="AU25" s="19" t="str">
         <f>IF(_acsReport_day_each!AS19="","",_acsReport_day_each!AS19)</f>
         <v/>
       </c>
-      <c r="AV25" s="22" t="str">
+      <c r="AV25" s="19" t="str">
         <f>IF(_acsReport_day_each!AT19="","",_acsReport_day_each!AT19)</f>
         <v/>
       </c>
-      <c r="AW25" s="20" t="str">
+      <c r="AW25" s="19" t="str">
         <f>IF(_acsReport_day_each!AU19="","",_acsReport_day_each!AU19)</f>
         <v/>
       </c>
-      <c r="AX25" s="20" t="str">
+      <c r="AX25" s="19" t="str">
         <f>IF(_acsReport_day_each!AV19="","",_acsReport_day_each!AV19)</f>
         <v/>
       </c>
-      <c r="AY25" s="32" t="str">
+      <c r="AY25" s="19" t="str">
         <f>IF(_acsReport_day_each!AW19="","",_acsReport_day_each!AW19)</f>
         <v/>
       </c>
-      <c r="AZ25" s="20" t="str">
+      <c r="AZ25" s="19" t="str">
         <f>IF(_acsReport_day_each!AX19="","",_acsReport_day_each!AX19)</f>
         <v/>
       </c>
-      <c r="BA25" s="20" t="str">
+      <c r="BA25" s="19" t="str">
         <f>IF(_acsReport_day_each!AY19="","",_acsReport_day_each!AY19)</f>
         <v/>
       </c>
-      <c r="BB25" s="32" t="str">
+      <c r="BB25" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ19="","",_acsReport_day_each!AZ19)</f>
         <v/>
       </c>
-      <c r="BC25" s="20" t="str">
+      <c r="BC25" s="19" t="str">
         <f>IF(_acsReport_day_each!BA19="","",_acsReport_day_each!BA19)</f>
         <v/>
       </c>
-      <c r="BD25" s="20" t="str">
+      <c r="BD25" s="19" t="str">
         <f>IF(_acsReport_day_each!BB19="","",_acsReport_day_each!BB19)</f>
         <v/>
       </c>
@@ -6829,6 +6853,9 @@
         <f>_acsReport_day_each!BD19:BF19</f>
         <v>0</v>
       </c>
+      <c r="BF25" s="19"/>
+      <c r="BG25" s="19"/>
+      <c r="BH25" s="19"/>
       <c r="BI25" s="19">
         <f>_acsReport_day_each!BG19:BI19</f>
         <v>0</v>
@@ -6847,222 +6874,222 @@
       </c>
     </row>
     <row r="26" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B26" s="21">
+      <c r="B26" s="20">
         <v>0.75</v>
       </c>
-      <c r="C26" s="22" t="str">
+      <c r="C26" s="19" t="str">
         <f>IF(_acsReport_day_each!A20="","",_acsReport_day_each!A20)</f>
         <v/>
       </c>
-      <c r="D26" s="20" t="str">
+      <c r="D26" s="19" t="str">
         <f>IF(_acsReport_day_each!B20="","",_acsReport_day_each!B20)</f>
         <v/>
       </c>
-      <c r="E26" s="20" t="str">
+      <c r="E26" s="19" t="str">
         <f>IF(_acsReport_day_each!C20="","",_acsReport_day_each!C20)</f>
         <v/>
       </c>
-      <c r="F26" s="22" t="str">
+      <c r="F26" s="19" t="str">
         <f>IF(_acsReport_day_each!D20="","",_acsReport_day_each!D20)</f>
         <v/>
       </c>
-      <c r="G26" s="20" t="str">
+      <c r="G26" s="19" t="str">
         <f>IF(_acsReport_day_each!E20="","",_acsReport_day_each!E20)</f>
         <v/>
       </c>
-      <c r="H26" s="20" t="str">
+      <c r="H26" s="19" t="str">
         <f>IF(_acsReport_day_each!F20="","",_acsReport_day_each!F20)</f>
         <v/>
       </c>
-      <c r="I26" s="32" t="str">
+      <c r="I26" s="19" t="str">
         <f>IF(_acsReport_day_each!G20="","",_acsReport_day_each!G20)</f>
         <v/>
       </c>
-      <c r="J26" s="20" t="str">
+      <c r="J26" s="19" t="str">
         <f>IF(_acsReport_day_each!H20="","",_acsReport_day_each!H20)</f>
         <v/>
       </c>
-      <c r="K26" s="20" t="str">
+      <c r="K26" s="19" t="str">
         <f>IF(_acsReport_day_each!I20="","",_acsReport_day_each!I20)</f>
         <v/>
       </c>
-      <c r="L26" s="22" t="str">
+      <c r="L26" s="19" t="str">
         <f>IF(_acsReport_day_each!J20="","",_acsReport_day_each!J20)</f>
         <v/>
       </c>
-      <c r="M26" s="20" t="str">
+      <c r="M26" s="19" t="str">
         <f>IF(_acsReport_day_each!K20="","",_acsReport_day_each!K20)</f>
         <v/>
       </c>
-      <c r="N26" s="20" t="str">
+      <c r="N26" s="19" t="str">
         <f>IF(_acsReport_day_each!L20="","",_acsReport_day_each!L20)</f>
         <v/>
       </c>
-      <c r="O26" s="32" t="str">
+      <c r="O26" s="19" t="str">
         <f>IF(_acsReport_day_each!M20="","",_acsReport_day_each!M20)</f>
         <v/>
       </c>
-      <c r="P26" s="20" t="str">
+      <c r="P26" s="19" t="str">
         <f>IF(_acsReport_day_each!N20="","",_acsReport_day_each!N20)</f>
         <v/>
       </c>
-      <c r="Q26" s="20" t="str">
+      <c r="Q26" s="19" t="str">
         <f>IF(_acsReport_day_each!O20="","",_acsReport_day_each!O20)</f>
         <v/>
       </c>
-      <c r="R26" s="22" t="str">
+      <c r="R26" s="19" t="str">
         <f>IF(_acsReport_day_each!P20="","",_acsReport_day_each!P20)</f>
         <v/>
       </c>
-      <c r="S26" s="20" t="str">
+      <c r="S26" s="19" t="str">
         <f>IF(_acsReport_day_each!Q20="","",_acsReport_day_each!Q20)</f>
         <v/>
       </c>
-      <c r="T26" s="20" t="str">
+      <c r="T26" s="19" t="str">
         <f>IF(_acsReport_day_each!R20="","",_acsReport_day_each!R20)</f>
         <v/>
       </c>
-      <c r="U26" s="32" t="str">
+      <c r="U26" s="19" t="str">
         <f>IF(_acsReport_day_each!S20="","",_acsReport_day_each!S20)</f>
         <v/>
       </c>
-      <c r="V26" s="20" t="str">
+      <c r="V26" s="19" t="str">
         <f>IF(_acsReport_day_each!T20="","",_acsReport_day_each!T20)</f>
         <v/>
       </c>
-      <c r="W26" s="20" t="str">
+      <c r="W26" s="19" t="str">
         <f>IF(_acsReport_day_each!U20="","",_acsReport_day_each!U20)</f>
         <v/>
       </c>
-      <c r="X26" s="22" t="str">
+      <c r="X26" s="19" t="str">
         <f>IF(_acsReport_day_each!V20="","",_acsReport_day_each!V20)</f>
         <v/>
       </c>
-      <c r="Y26" s="20" t="str">
+      <c r="Y26" s="19" t="str">
         <f>IF(_acsReport_day_each!W20="","",_acsReport_day_each!W20)</f>
         <v/>
       </c>
-      <c r="Z26" s="20" t="str">
+      <c r="Z26" s="19" t="str">
         <f>IF(_acsReport_day_each!X20="","",_acsReport_day_each!X20)</f>
         <v/>
       </c>
-      <c r="AA26" s="32" t="str">
+      <c r="AA26" s="19" t="str">
         <f>IF(_acsReport_day_each!Y20="","",_acsReport_day_each!Y20)</f>
         <v/>
       </c>
-      <c r="AB26" s="20" t="str">
+      <c r="AB26" s="19" t="str">
         <f>IF(_acsReport_day_each!Z20="","",_acsReport_day_each!Z20)</f>
         <v/>
       </c>
-      <c r="AC26" s="20" t="str">
+      <c r="AC26" s="19" t="str">
         <f>IF(_acsReport_day_each!AA20="","",_acsReport_day_each!AA20)</f>
         <v/>
       </c>
-      <c r="AD26" s="22" t="str">
+      <c r="AD26" s="19" t="str">
         <f>IF(_acsReport_day_each!AB20="","",_acsReport_day_each!AB20)</f>
         <v/>
       </c>
-      <c r="AE26" s="20" t="str">
+      <c r="AE26" s="19" t="str">
         <f>IF(_acsReport_day_each!AC20="","",_acsReport_day_each!AC20)</f>
         <v/>
       </c>
-      <c r="AF26" s="20" t="str">
+      <c r="AF26" s="19" t="str">
         <f>IF(_acsReport_day_each!AD20="","",_acsReport_day_each!AD20)</f>
         <v/>
       </c>
-      <c r="AG26" s="32" t="str">
+      <c r="AG26" s="19" t="str">
         <f>IF(_acsReport_day_each!AE20="","",_acsReport_day_each!AE20)</f>
         <v/>
       </c>
-      <c r="AH26" s="20" t="str">
+      <c r="AH26" s="19" t="str">
         <f>IF(_acsReport_day_each!AF20="","",_acsReport_day_each!AF20)</f>
         <v/>
       </c>
-      <c r="AI26" s="20" t="str">
+      <c r="AI26" s="19" t="str">
         <f>IF(_acsReport_day_each!AG20="","",_acsReport_day_each!AG20)</f>
         <v/>
       </c>
-      <c r="AJ26" s="22" t="str">
+      <c r="AJ26" s="19" t="str">
         <f>IF(_acsReport_day_each!AH20="","",_acsReport_day_each!AH20)</f>
         <v/>
       </c>
-      <c r="AK26" s="20" t="str">
+      <c r="AK26" s="19" t="str">
         <f>IF(_acsReport_day_each!AI20="","",_acsReport_day_each!AI20)</f>
         <v/>
       </c>
-      <c r="AL26" s="20" t="str">
+      <c r="AL26" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ20="","",_acsReport_day_each!AJ20)</f>
         <v/>
       </c>
-      <c r="AM26" s="32" t="str">
+      <c r="AM26" s="19" t="str">
         <f>IF(_acsReport_day_each!AK20="","",_acsReport_day_each!AK20)</f>
         <v/>
       </c>
-      <c r="AN26" s="20" t="str">
+      <c r="AN26" s="19" t="str">
         <f>IF(_acsReport_day_each!AL20="","",_acsReport_day_each!AL20)</f>
         <v/>
       </c>
-      <c r="AO26" s="20" t="str">
+      <c r="AO26" s="19" t="str">
         <f>IF(_acsReport_day_each!AM20="","",_acsReport_day_each!AM20)</f>
         <v/>
       </c>
-      <c r="AP26" s="22" t="str">
+      <c r="AP26" s="19" t="str">
         <f>IF(_acsReport_day_each!AN20="","",_acsReport_day_each!AN20)</f>
         <v/>
       </c>
-      <c r="AQ26" s="20" t="str">
+      <c r="AQ26" s="19" t="str">
         <f>IF(_acsReport_day_each!AO20="","",_acsReport_day_each!AO20)</f>
         <v/>
       </c>
-      <c r="AR26" s="20" t="str">
+      <c r="AR26" s="19" t="str">
         <f>IF(_acsReport_day_each!AP20="","",_acsReport_day_each!AP20)</f>
         <v/>
       </c>
-      <c r="AS26" s="32" t="str">
+      <c r="AS26" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ20="","",_acsReport_day_each!AQ20)</f>
         <v/>
       </c>
-      <c r="AT26" s="20" t="str">
+      <c r="AT26" s="19" t="str">
         <f>IF(_acsReport_day_each!AR20="","",_acsReport_day_each!AR20)</f>
         <v/>
       </c>
-      <c r="AU26" s="20" t="str">
+      <c r="AU26" s="19" t="str">
         <f>IF(_acsReport_day_each!AS20="","",_acsReport_day_each!AS20)</f>
         <v/>
       </c>
-      <c r="AV26" s="22" t="str">
+      <c r="AV26" s="19" t="str">
         <f>IF(_acsReport_day_each!AT20="","",_acsReport_day_each!AT20)</f>
         <v/>
       </c>
-      <c r="AW26" s="20" t="str">
+      <c r="AW26" s="19" t="str">
         <f>IF(_acsReport_day_each!AU20="","",_acsReport_day_each!AU20)</f>
         <v/>
       </c>
-      <c r="AX26" s="20" t="str">
+      <c r="AX26" s="19" t="str">
         <f>IF(_acsReport_day_each!AV20="","",_acsReport_day_each!AV20)</f>
         <v/>
       </c>
-      <c r="AY26" s="32" t="str">
+      <c r="AY26" s="19" t="str">
         <f>IF(_acsReport_day_each!AW20="","",_acsReport_day_each!AW20)</f>
         <v/>
       </c>
-      <c r="AZ26" s="20" t="str">
+      <c r="AZ26" s="19" t="str">
         <f>IF(_acsReport_day_each!AX20="","",_acsReport_day_each!AX20)</f>
         <v/>
       </c>
-      <c r="BA26" s="20" t="str">
+      <c r="BA26" s="19" t="str">
         <f>IF(_acsReport_day_each!AY20="","",_acsReport_day_each!AY20)</f>
         <v/>
       </c>
-      <c r="BB26" s="32" t="str">
+      <c r="BB26" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ20="","",_acsReport_day_each!AZ20)</f>
         <v/>
       </c>
-      <c r="BC26" s="20" t="str">
+      <c r="BC26" s="19" t="str">
         <f>IF(_acsReport_day_each!BA20="","",_acsReport_day_each!BA20)</f>
         <v/>
       </c>
-      <c r="BD26" s="20" t="str">
+      <c r="BD26" s="19" t="str">
         <f>IF(_acsReport_day_each!BB20="","",_acsReport_day_each!BB20)</f>
         <v/>
       </c>
@@ -7070,6 +7097,9 @@
         <f>_acsReport_day_each!BD20:BF20</f>
         <v>0</v>
       </c>
+      <c r="BF26" s="19"/>
+      <c r="BG26" s="19"/>
+      <c r="BH26" s="19"/>
       <c r="BI26" s="19">
         <f>_acsReport_day_each!BG20:BI20</f>
         <v>0</v>
@@ -7088,222 +7118,222 @@
       </c>
     </row>
     <row r="27" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B27" s="21">
+      <c r="B27" s="20">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C27" s="22" t="str">
+      <c r="C27" s="19" t="str">
         <f>IF(_acsReport_day_each!A21="","",_acsReport_day_each!A21)</f>
         <v/>
       </c>
-      <c r="D27" s="20" t="str">
+      <c r="D27" s="19" t="str">
         <f>IF(_acsReport_day_each!B21="","",_acsReport_day_each!B21)</f>
         <v/>
       </c>
-      <c r="E27" s="20" t="str">
+      <c r="E27" s="19" t="str">
         <f>IF(_acsReport_day_each!C21="","",_acsReport_day_each!C21)</f>
         <v/>
       </c>
-      <c r="F27" s="22" t="str">
+      <c r="F27" s="19" t="str">
         <f>IF(_acsReport_day_each!D21="","",_acsReport_day_each!D21)</f>
         <v/>
       </c>
-      <c r="G27" s="20" t="str">
+      <c r="G27" s="19" t="str">
         <f>IF(_acsReport_day_each!E21="","",_acsReport_day_each!E21)</f>
         <v/>
       </c>
-      <c r="H27" s="20" t="str">
+      <c r="H27" s="19" t="str">
         <f>IF(_acsReport_day_each!F21="","",_acsReport_day_each!F21)</f>
         <v/>
       </c>
-      <c r="I27" s="32" t="str">
+      <c r="I27" s="19" t="str">
         <f>IF(_acsReport_day_each!G21="","",_acsReport_day_each!G21)</f>
         <v/>
       </c>
-      <c r="J27" s="20" t="str">
+      <c r="J27" s="19" t="str">
         <f>IF(_acsReport_day_each!H21="","",_acsReport_day_each!H21)</f>
         <v/>
       </c>
-      <c r="K27" s="20" t="str">
+      <c r="K27" s="19" t="str">
         <f>IF(_acsReport_day_each!I21="","",_acsReport_day_each!I21)</f>
         <v/>
       </c>
-      <c r="L27" s="22" t="str">
+      <c r="L27" s="19" t="str">
         <f>IF(_acsReport_day_each!J21="","",_acsReport_day_each!J21)</f>
         <v/>
       </c>
-      <c r="M27" s="20" t="str">
+      <c r="M27" s="19" t="str">
         <f>IF(_acsReport_day_each!K21="","",_acsReport_day_each!K21)</f>
         <v/>
       </c>
-      <c r="N27" s="20" t="str">
+      <c r="N27" s="19" t="str">
         <f>IF(_acsReport_day_each!L21="","",_acsReport_day_each!L21)</f>
         <v/>
       </c>
-      <c r="O27" s="32" t="str">
+      <c r="O27" s="19" t="str">
         <f>IF(_acsReport_day_each!M21="","",_acsReport_day_each!M21)</f>
         <v/>
       </c>
-      <c r="P27" s="20" t="str">
+      <c r="P27" s="19" t="str">
         <f>IF(_acsReport_day_each!N21="","",_acsReport_day_each!N21)</f>
         <v/>
       </c>
-      <c r="Q27" s="20" t="str">
+      <c r="Q27" s="19" t="str">
         <f>IF(_acsReport_day_each!O21="","",_acsReport_day_each!O21)</f>
         <v/>
       </c>
-      <c r="R27" s="22" t="str">
+      <c r="R27" s="19" t="str">
         <f>IF(_acsReport_day_each!P21="","",_acsReport_day_each!P21)</f>
         <v/>
       </c>
-      <c r="S27" s="20" t="str">
+      <c r="S27" s="19" t="str">
         <f>IF(_acsReport_day_each!Q21="","",_acsReport_day_each!Q21)</f>
         <v/>
       </c>
-      <c r="T27" s="20" t="str">
+      <c r="T27" s="19" t="str">
         <f>IF(_acsReport_day_each!R21="","",_acsReport_day_each!R21)</f>
         <v/>
       </c>
-      <c r="U27" s="32" t="str">
+      <c r="U27" s="19" t="str">
         <f>IF(_acsReport_day_each!S21="","",_acsReport_day_each!S21)</f>
         <v/>
       </c>
-      <c r="V27" s="20" t="str">
+      <c r="V27" s="19" t="str">
         <f>IF(_acsReport_day_each!T21="","",_acsReport_day_each!T21)</f>
         <v/>
       </c>
-      <c r="W27" s="20" t="str">
+      <c r="W27" s="19" t="str">
         <f>IF(_acsReport_day_each!U21="","",_acsReport_day_each!U21)</f>
         <v/>
       </c>
-      <c r="X27" s="22" t="str">
+      <c r="X27" s="19" t="str">
         <f>IF(_acsReport_day_each!V21="","",_acsReport_day_each!V21)</f>
         <v/>
       </c>
-      <c r="Y27" s="20" t="str">
+      <c r="Y27" s="19" t="str">
         <f>IF(_acsReport_day_each!W21="","",_acsReport_day_each!W21)</f>
         <v/>
       </c>
-      <c r="Z27" s="20" t="str">
+      <c r="Z27" s="19" t="str">
         <f>IF(_acsReport_day_each!X21="","",_acsReport_day_each!X21)</f>
         <v/>
       </c>
-      <c r="AA27" s="32" t="str">
+      <c r="AA27" s="19" t="str">
         <f>IF(_acsReport_day_each!Y21="","",_acsReport_day_each!Y21)</f>
         <v/>
       </c>
-      <c r="AB27" s="20" t="str">
+      <c r="AB27" s="19" t="str">
         <f>IF(_acsReport_day_each!Z21="","",_acsReport_day_each!Z21)</f>
         <v/>
       </c>
-      <c r="AC27" s="20" t="str">
+      <c r="AC27" s="19" t="str">
         <f>IF(_acsReport_day_each!AA21="","",_acsReport_day_each!AA21)</f>
         <v/>
       </c>
-      <c r="AD27" s="22" t="str">
+      <c r="AD27" s="19" t="str">
         <f>IF(_acsReport_day_each!AB21="","",_acsReport_day_each!AB21)</f>
         <v/>
       </c>
-      <c r="AE27" s="20" t="str">
+      <c r="AE27" s="19" t="str">
         <f>IF(_acsReport_day_each!AC21="","",_acsReport_day_each!AC21)</f>
         <v/>
       </c>
-      <c r="AF27" s="20" t="str">
+      <c r="AF27" s="19" t="str">
         <f>IF(_acsReport_day_each!AD21="","",_acsReport_day_each!AD21)</f>
         <v/>
       </c>
-      <c r="AG27" s="32" t="str">
+      <c r="AG27" s="19" t="str">
         <f>IF(_acsReport_day_each!AE21="","",_acsReport_day_each!AE21)</f>
         <v/>
       </c>
-      <c r="AH27" s="20" t="str">
+      <c r="AH27" s="19" t="str">
         <f>IF(_acsReport_day_each!AF21="","",_acsReport_day_each!AF21)</f>
         <v/>
       </c>
-      <c r="AI27" s="20" t="str">
+      <c r="AI27" s="19" t="str">
         <f>IF(_acsReport_day_each!AG21="","",_acsReport_day_each!AG21)</f>
         <v/>
       </c>
-      <c r="AJ27" s="22" t="str">
+      <c r="AJ27" s="19" t="str">
         <f>IF(_acsReport_day_each!AH21="","",_acsReport_day_each!AH21)</f>
         <v/>
       </c>
-      <c r="AK27" s="20" t="str">
+      <c r="AK27" s="19" t="str">
         <f>IF(_acsReport_day_each!AI21="","",_acsReport_day_each!AI21)</f>
         <v/>
       </c>
-      <c r="AL27" s="20" t="str">
+      <c r="AL27" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ21="","",_acsReport_day_each!AJ21)</f>
         <v/>
       </c>
-      <c r="AM27" s="32" t="str">
+      <c r="AM27" s="19" t="str">
         <f>IF(_acsReport_day_each!AK21="","",_acsReport_day_each!AK21)</f>
         <v/>
       </c>
-      <c r="AN27" s="20" t="str">
+      <c r="AN27" s="19" t="str">
         <f>IF(_acsReport_day_each!AL21="","",_acsReport_day_each!AL21)</f>
         <v/>
       </c>
-      <c r="AO27" s="20" t="str">
+      <c r="AO27" s="19" t="str">
         <f>IF(_acsReport_day_each!AM21="","",_acsReport_day_each!AM21)</f>
         <v/>
       </c>
-      <c r="AP27" s="22" t="str">
+      <c r="AP27" s="19" t="str">
         <f>IF(_acsReport_day_each!AN21="","",_acsReport_day_each!AN21)</f>
         <v/>
       </c>
-      <c r="AQ27" s="20" t="str">
+      <c r="AQ27" s="19" t="str">
         <f>IF(_acsReport_day_each!AO21="","",_acsReport_day_each!AO21)</f>
         <v/>
       </c>
-      <c r="AR27" s="20" t="str">
+      <c r="AR27" s="19" t="str">
         <f>IF(_acsReport_day_each!AP21="","",_acsReport_day_each!AP21)</f>
         <v/>
       </c>
-      <c r="AS27" s="32" t="str">
+      <c r="AS27" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ21="","",_acsReport_day_each!AQ21)</f>
         <v/>
       </c>
-      <c r="AT27" s="20" t="str">
+      <c r="AT27" s="19" t="str">
         <f>IF(_acsReport_day_each!AR21="","",_acsReport_day_each!AR21)</f>
         <v/>
       </c>
-      <c r="AU27" s="20" t="str">
+      <c r="AU27" s="19" t="str">
         <f>IF(_acsReport_day_each!AS21="","",_acsReport_day_each!AS21)</f>
         <v/>
       </c>
-      <c r="AV27" s="22" t="str">
+      <c r="AV27" s="19" t="str">
         <f>IF(_acsReport_day_each!AT21="","",_acsReport_day_each!AT21)</f>
         <v/>
       </c>
-      <c r="AW27" s="20" t="str">
+      <c r="AW27" s="19" t="str">
         <f>IF(_acsReport_day_each!AU21="","",_acsReport_day_each!AU21)</f>
         <v/>
       </c>
-      <c r="AX27" s="20" t="str">
+      <c r="AX27" s="19" t="str">
         <f>IF(_acsReport_day_each!AV21="","",_acsReport_day_each!AV21)</f>
         <v/>
       </c>
-      <c r="AY27" s="32" t="str">
+      <c r="AY27" s="19" t="str">
         <f>IF(_acsReport_day_each!AW21="","",_acsReport_day_each!AW21)</f>
         <v/>
       </c>
-      <c r="AZ27" s="20" t="str">
+      <c r="AZ27" s="19" t="str">
         <f>IF(_acsReport_day_each!AX21="","",_acsReport_day_each!AX21)</f>
         <v/>
       </c>
-      <c r="BA27" s="20" t="str">
+      <c r="BA27" s="19" t="str">
         <f>IF(_acsReport_day_each!AY21="","",_acsReport_day_each!AY21)</f>
         <v/>
       </c>
-      <c r="BB27" s="32" t="str">
+      <c r="BB27" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ21="","",_acsReport_day_each!AZ21)</f>
         <v/>
       </c>
-      <c r="BC27" s="20" t="str">
+      <c r="BC27" s="19" t="str">
         <f>IF(_acsReport_day_each!BA21="","",_acsReport_day_each!BA21)</f>
         <v/>
       </c>
-      <c r="BD27" s="20" t="str">
+      <c r="BD27" s="19" t="str">
         <f>IF(_acsReport_day_each!BB21="","",_acsReport_day_each!BB21)</f>
         <v/>
       </c>
@@ -7311,6 +7341,9 @@
         <f>_acsReport_day_each!BD21:BF21</f>
         <v>0</v>
       </c>
+      <c r="BF27" s="19"/>
+      <c r="BG27" s="19"/>
+      <c r="BH27" s="19"/>
       <c r="BI27" s="19">
         <f>_acsReport_day_each!BG21:BI21</f>
         <v>0</v>
@@ -7329,222 +7362,222 @@
       </c>
     </row>
     <row r="28" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B28" s="21">
+      <c r="B28" s="20">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C28" s="22" t="str">
+      <c r="C28" s="19" t="str">
         <f>IF(_acsReport_day_each!A22="","",_acsReport_day_each!A22)</f>
         <v/>
       </c>
-      <c r="D28" s="20" t="str">
+      <c r="D28" s="19" t="str">
         <f>IF(_acsReport_day_each!B22="","",_acsReport_day_each!B22)</f>
         <v/>
       </c>
-      <c r="E28" s="20" t="str">
+      <c r="E28" s="19" t="str">
         <f>IF(_acsReport_day_each!C22="","",_acsReport_day_each!C22)</f>
         <v/>
       </c>
-      <c r="F28" s="22" t="str">
+      <c r="F28" s="19" t="str">
         <f>IF(_acsReport_day_each!D22="","",_acsReport_day_each!D22)</f>
         <v/>
       </c>
-      <c r="G28" s="20" t="str">
+      <c r="G28" s="19" t="str">
         <f>IF(_acsReport_day_each!E22="","",_acsReport_day_each!E22)</f>
         <v/>
       </c>
-      <c r="H28" s="20" t="str">
+      <c r="H28" s="19" t="str">
         <f>IF(_acsReport_day_each!F22="","",_acsReport_day_each!F22)</f>
         <v/>
       </c>
-      <c r="I28" s="32" t="str">
+      <c r="I28" s="19" t="str">
         <f>IF(_acsReport_day_each!G22="","",_acsReport_day_each!G22)</f>
         <v/>
       </c>
-      <c r="J28" s="20" t="str">
+      <c r="J28" s="19" t="str">
         <f>IF(_acsReport_day_each!H22="","",_acsReport_day_each!H22)</f>
         <v/>
       </c>
-      <c r="K28" s="20" t="str">
+      <c r="K28" s="19" t="str">
         <f>IF(_acsReport_day_each!I22="","",_acsReport_day_each!I22)</f>
         <v/>
       </c>
-      <c r="L28" s="22" t="str">
+      <c r="L28" s="19" t="str">
         <f>IF(_acsReport_day_each!J22="","",_acsReport_day_each!J22)</f>
         <v/>
       </c>
-      <c r="M28" s="20" t="str">
+      <c r="M28" s="19" t="str">
         <f>IF(_acsReport_day_each!K22="","",_acsReport_day_each!K22)</f>
         <v/>
       </c>
-      <c r="N28" s="20" t="str">
+      <c r="N28" s="19" t="str">
         <f>IF(_acsReport_day_each!L22="","",_acsReport_day_each!L22)</f>
         <v/>
       </c>
-      <c r="O28" s="32" t="str">
+      <c r="O28" s="19" t="str">
         <f>IF(_acsReport_day_each!M22="","",_acsReport_day_each!M22)</f>
         <v/>
       </c>
-      <c r="P28" s="20" t="str">
+      <c r="P28" s="19" t="str">
         <f>IF(_acsReport_day_each!N22="","",_acsReport_day_each!N22)</f>
         <v/>
       </c>
-      <c r="Q28" s="20" t="str">
+      <c r="Q28" s="19" t="str">
         <f>IF(_acsReport_day_each!O22="","",_acsReport_day_each!O22)</f>
         <v/>
       </c>
-      <c r="R28" s="22" t="str">
+      <c r="R28" s="19" t="str">
         <f>IF(_acsReport_day_each!P22="","",_acsReport_day_each!P22)</f>
         <v/>
       </c>
-      <c r="S28" s="20" t="str">
+      <c r="S28" s="19" t="str">
         <f>IF(_acsReport_day_each!Q22="","",_acsReport_day_each!Q22)</f>
         <v/>
       </c>
-      <c r="T28" s="20" t="str">
+      <c r="T28" s="19" t="str">
         <f>IF(_acsReport_day_each!R22="","",_acsReport_day_each!R22)</f>
         <v/>
       </c>
-      <c r="U28" s="32" t="str">
+      <c r="U28" s="19" t="str">
         <f>IF(_acsReport_day_each!S22="","",_acsReport_day_each!S22)</f>
         <v/>
       </c>
-      <c r="V28" s="20" t="str">
+      <c r="V28" s="19" t="str">
         <f>IF(_acsReport_day_each!T22="","",_acsReport_day_each!T22)</f>
         <v/>
       </c>
-      <c r="W28" s="20" t="str">
+      <c r="W28" s="19" t="str">
         <f>IF(_acsReport_day_each!U22="","",_acsReport_day_each!U22)</f>
         <v/>
       </c>
-      <c r="X28" s="22" t="str">
+      <c r="X28" s="19" t="str">
         <f>IF(_acsReport_day_each!V22="","",_acsReport_day_each!V22)</f>
         <v/>
       </c>
-      <c r="Y28" s="20" t="str">
+      <c r="Y28" s="19" t="str">
         <f>IF(_acsReport_day_each!W22="","",_acsReport_day_each!W22)</f>
         <v/>
       </c>
-      <c r="Z28" s="20" t="str">
+      <c r="Z28" s="19" t="str">
         <f>IF(_acsReport_day_each!X22="","",_acsReport_day_each!X22)</f>
         <v/>
       </c>
-      <c r="AA28" s="32" t="str">
+      <c r="AA28" s="19" t="str">
         <f>IF(_acsReport_day_each!Y22="","",_acsReport_day_each!Y22)</f>
         <v/>
       </c>
-      <c r="AB28" s="20" t="str">
+      <c r="AB28" s="19" t="str">
         <f>IF(_acsReport_day_each!Z22="","",_acsReport_day_each!Z22)</f>
         <v/>
       </c>
-      <c r="AC28" s="20" t="str">
+      <c r="AC28" s="19" t="str">
         <f>IF(_acsReport_day_each!AA22="","",_acsReport_day_each!AA22)</f>
         <v/>
       </c>
-      <c r="AD28" s="22" t="str">
+      <c r="AD28" s="19" t="str">
         <f>IF(_acsReport_day_each!AB22="","",_acsReport_day_each!AB22)</f>
         <v/>
       </c>
-      <c r="AE28" s="20" t="str">
+      <c r="AE28" s="19" t="str">
         <f>IF(_acsReport_day_each!AC22="","",_acsReport_day_each!AC22)</f>
         <v/>
       </c>
-      <c r="AF28" s="20" t="str">
+      <c r="AF28" s="19" t="str">
         <f>IF(_acsReport_day_each!AD22="","",_acsReport_day_each!AD22)</f>
         <v/>
       </c>
-      <c r="AG28" s="32" t="str">
+      <c r="AG28" s="19" t="str">
         <f>IF(_acsReport_day_each!AE22="","",_acsReport_day_each!AE22)</f>
         <v/>
       </c>
-      <c r="AH28" s="20" t="str">
+      <c r="AH28" s="19" t="str">
         <f>IF(_acsReport_day_each!AF22="","",_acsReport_day_each!AF22)</f>
         <v/>
       </c>
-      <c r="AI28" s="20" t="str">
+      <c r="AI28" s="19" t="str">
         <f>IF(_acsReport_day_each!AG22="","",_acsReport_day_each!AG22)</f>
         <v/>
       </c>
-      <c r="AJ28" s="22" t="str">
+      <c r="AJ28" s="19" t="str">
         <f>IF(_acsReport_day_each!AH22="","",_acsReport_day_each!AH22)</f>
         <v/>
       </c>
-      <c r="AK28" s="20" t="str">
+      <c r="AK28" s="19" t="str">
         <f>IF(_acsReport_day_each!AI22="","",_acsReport_day_each!AI22)</f>
         <v/>
       </c>
-      <c r="AL28" s="20" t="str">
+      <c r="AL28" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ22="","",_acsReport_day_each!AJ22)</f>
         <v/>
       </c>
-      <c r="AM28" s="32" t="str">
+      <c r="AM28" s="19" t="str">
         <f>IF(_acsReport_day_each!AK22="","",_acsReport_day_each!AK22)</f>
         <v/>
       </c>
-      <c r="AN28" s="20" t="str">
+      <c r="AN28" s="19" t="str">
         <f>IF(_acsReport_day_each!AL22="","",_acsReport_day_each!AL22)</f>
         <v/>
       </c>
-      <c r="AO28" s="20" t="str">
+      <c r="AO28" s="19" t="str">
         <f>IF(_acsReport_day_each!AM22="","",_acsReport_day_each!AM22)</f>
         <v/>
       </c>
-      <c r="AP28" s="22" t="str">
+      <c r="AP28" s="19" t="str">
         <f>IF(_acsReport_day_each!AN22="","",_acsReport_day_each!AN22)</f>
         <v/>
       </c>
-      <c r="AQ28" s="20" t="str">
+      <c r="AQ28" s="19" t="str">
         <f>IF(_acsReport_day_each!AO22="","",_acsReport_day_each!AO22)</f>
         <v/>
       </c>
-      <c r="AR28" s="20" t="str">
+      <c r="AR28" s="19" t="str">
         <f>IF(_acsReport_day_each!AP22="","",_acsReport_day_each!AP22)</f>
         <v/>
       </c>
-      <c r="AS28" s="32" t="str">
+      <c r="AS28" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ22="","",_acsReport_day_each!AQ22)</f>
         <v/>
       </c>
-      <c r="AT28" s="20" t="str">
+      <c r="AT28" s="19" t="str">
         <f>IF(_acsReport_day_each!AR22="","",_acsReport_day_each!AR22)</f>
         <v/>
       </c>
-      <c r="AU28" s="20" t="str">
+      <c r="AU28" s="19" t="str">
         <f>IF(_acsReport_day_each!AS22="","",_acsReport_day_each!AS22)</f>
         <v/>
       </c>
-      <c r="AV28" s="22" t="str">
+      <c r="AV28" s="19" t="str">
         <f>IF(_acsReport_day_each!AT22="","",_acsReport_day_each!AT22)</f>
         <v/>
       </c>
-      <c r="AW28" s="20" t="str">
+      <c r="AW28" s="19" t="str">
         <f>IF(_acsReport_day_each!AU22="","",_acsReport_day_each!AU22)</f>
         <v/>
       </c>
-      <c r="AX28" s="20" t="str">
+      <c r="AX28" s="19" t="str">
         <f>IF(_acsReport_day_each!AV22="","",_acsReport_day_each!AV22)</f>
         <v/>
       </c>
-      <c r="AY28" s="32" t="str">
+      <c r="AY28" s="19" t="str">
         <f>IF(_acsReport_day_each!AW22="","",_acsReport_day_each!AW22)</f>
         <v/>
       </c>
-      <c r="AZ28" s="20" t="str">
+      <c r="AZ28" s="19" t="str">
         <f>IF(_acsReport_day_each!AX22="","",_acsReport_day_each!AX22)</f>
         <v/>
       </c>
-      <c r="BA28" s="20" t="str">
+      <c r="BA28" s="19" t="str">
         <f>IF(_acsReport_day_each!AY22="","",_acsReport_day_each!AY22)</f>
         <v/>
       </c>
-      <c r="BB28" s="32" t="str">
+      <c r="BB28" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ22="","",_acsReport_day_each!AZ22)</f>
         <v/>
       </c>
-      <c r="BC28" s="20" t="str">
+      <c r="BC28" s="19" t="str">
         <f>IF(_acsReport_day_each!BA22="","",_acsReport_day_each!BA22)</f>
         <v/>
       </c>
-      <c r="BD28" s="20" t="str">
+      <c r="BD28" s="19" t="str">
         <f>IF(_acsReport_day_each!BB22="","",_acsReport_day_each!BB22)</f>
         <v/>
       </c>
@@ -7552,6 +7585,9 @@
         <f>_acsReport_day_each!BD22:BF22</f>
         <v>0</v>
       </c>
+      <c r="BF28" s="19"/>
+      <c r="BG28" s="19"/>
+      <c r="BH28" s="19"/>
       <c r="BI28" s="19">
         <f>_acsReport_day_each!BG22:BI22</f>
         <v>0</v>
@@ -7570,222 +7606,222 @@
       </c>
     </row>
     <row r="29" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B29" s="21">
+      <c r="B29" s="20">
         <v>0.875</v>
       </c>
-      <c r="C29" s="22" t="str">
+      <c r="C29" s="19" t="str">
         <f>IF(_acsReport_day_each!A23="","",_acsReport_day_each!A23)</f>
         <v/>
       </c>
-      <c r="D29" s="20" t="str">
+      <c r="D29" s="19" t="str">
         <f>IF(_acsReport_day_each!B23="","",_acsReport_day_each!B23)</f>
         <v/>
       </c>
-      <c r="E29" s="20" t="str">
+      <c r="E29" s="19" t="str">
         <f>IF(_acsReport_day_each!C23="","",_acsReport_day_each!C23)</f>
         <v/>
       </c>
-      <c r="F29" s="22" t="str">
+      <c r="F29" s="19" t="str">
         <f>IF(_acsReport_day_each!D23="","",_acsReport_day_each!D23)</f>
         <v/>
       </c>
-      <c r="G29" s="20" t="str">
+      <c r="G29" s="19" t="str">
         <f>IF(_acsReport_day_each!E23="","",_acsReport_day_each!E23)</f>
         <v/>
       </c>
-      <c r="H29" s="20" t="str">
+      <c r="H29" s="19" t="str">
         <f>IF(_acsReport_day_each!F23="","",_acsReport_day_each!F23)</f>
         <v/>
       </c>
-      <c r="I29" s="32" t="str">
+      <c r="I29" s="19" t="str">
         <f>IF(_acsReport_day_each!G23="","",_acsReport_day_each!G23)</f>
         <v/>
       </c>
-      <c r="J29" s="20" t="str">
+      <c r="J29" s="19" t="str">
         <f>IF(_acsReport_day_each!H23="","",_acsReport_day_each!H23)</f>
         <v/>
       </c>
-      <c r="K29" s="20" t="str">
+      <c r="K29" s="19" t="str">
         <f>IF(_acsReport_day_each!I23="","",_acsReport_day_each!I23)</f>
         <v/>
       </c>
-      <c r="L29" s="22" t="str">
+      <c r="L29" s="19" t="str">
         <f>IF(_acsReport_day_each!J23="","",_acsReport_day_each!J23)</f>
         <v/>
       </c>
-      <c r="M29" s="20" t="str">
+      <c r="M29" s="19" t="str">
         <f>IF(_acsReport_day_each!K23="","",_acsReport_day_each!K23)</f>
         <v/>
       </c>
-      <c r="N29" s="20" t="str">
+      <c r="N29" s="19" t="str">
         <f>IF(_acsReport_day_each!L23="","",_acsReport_day_each!L23)</f>
         <v/>
       </c>
-      <c r="O29" s="32" t="str">
+      <c r="O29" s="19" t="str">
         <f>IF(_acsReport_day_each!M23="","",_acsReport_day_each!M23)</f>
         <v/>
       </c>
-      <c r="P29" s="20" t="str">
+      <c r="P29" s="19" t="str">
         <f>IF(_acsReport_day_each!N23="","",_acsReport_day_each!N23)</f>
         <v/>
       </c>
-      <c r="Q29" s="20" t="str">
+      <c r="Q29" s="19" t="str">
         <f>IF(_acsReport_day_each!O23="","",_acsReport_day_each!O23)</f>
         <v/>
       </c>
-      <c r="R29" s="22" t="str">
+      <c r="R29" s="19" t="str">
         <f>IF(_acsReport_day_each!P23="","",_acsReport_day_each!P23)</f>
         <v/>
       </c>
-      <c r="S29" s="20" t="str">
+      <c r="S29" s="19" t="str">
         <f>IF(_acsReport_day_each!Q23="","",_acsReport_day_each!Q23)</f>
         <v/>
       </c>
-      <c r="T29" s="20" t="str">
+      <c r="T29" s="19" t="str">
         <f>IF(_acsReport_day_each!R23="","",_acsReport_day_each!R23)</f>
         <v/>
       </c>
-      <c r="U29" s="32" t="str">
+      <c r="U29" s="19" t="str">
         <f>IF(_acsReport_day_each!S23="","",_acsReport_day_each!S23)</f>
         <v/>
       </c>
-      <c r="V29" s="20" t="str">
+      <c r="V29" s="19" t="str">
         <f>IF(_acsReport_day_each!T23="","",_acsReport_day_each!T23)</f>
         <v/>
       </c>
-      <c r="W29" s="20" t="str">
+      <c r="W29" s="19" t="str">
         <f>IF(_acsReport_day_each!U23="","",_acsReport_day_each!U23)</f>
         <v/>
       </c>
-      <c r="X29" s="22" t="str">
+      <c r="X29" s="19" t="str">
         <f>IF(_acsReport_day_each!V23="","",_acsReport_day_each!V23)</f>
         <v/>
       </c>
-      <c r="Y29" s="20" t="str">
+      <c r="Y29" s="19" t="str">
         <f>IF(_acsReport_day_each!W23="","",_acsReport_day_each!W23)</f>
         <v/>
       </c>
-      <c r="Z29" s="20" t="str">
+      <c r="Z29" s="19" t="str">
         <f>IF(_acsReport_day_each!X23="","",_acsReport_day_each!X23)</f>
         <v/>
       </c>
-      <c r="AA29" s="32" t="str">
+      <c r="AA29" s="19" t="str">
         <f>IF(_acsReport_day_each!Y23="","",_acsReport_day_each!Y23)</f>
         <v/>
       </c>
-      <c r="AB29" s="20" t="str">
+      <c r="AB29" s="19" t="str">
         <f>IF(_acsReport_day_each!Z23="","",_acsReport_day_each!Z23)</f>
         <v/>
       </c>
-      <c r="AC29" s="20" t="str">
+      <c r="AC29" s="19" t="str">
         <f>IF(_acsReport_day_each!AA23="","",_acsReport_day_each!AA23)</f>
         <v/>
       </c>
-      <c r="AD29" s="22" t="str">
+      <c r="AD29" s="19" t="str">
         <f>IF(_acsReport_day_each!AB23="","",_acsReport_day_each!AB23)</f>
         <v/>
       </c>
-      <c r="AE29" s="20" t="str">
+      <c r="AE29" s="19" t="str">
         <f>IF(_acsReport_day_each!AC23="","",_acsReport_day_each!AC23)</f>
         <v/>
       </c>
-      <c r="AF29" s="20" t="str">
+      <c r="AF29" s="19" t="str">
         <f>IF(_acsReport_day_each!AD23="","",_acsReport_day_each!AD23)</f>
         <v/>
       </c>
-      <c r="AG29" s="32" t="str">
+      <c r="AG29" s="19" t="str">
         <f>IF(_acsReport_day_each!AE23="","",_acsReport_day_each!AE23)</f>
         <v/>
       </c>
-      <c r="AH29" s="20" t="str">
+      <c r="AH29" s="19" t="str">
         <f>IF(_acsReport_day_each!AF23="","",_acsReport_day_each!AF23)</f>
         <v/>
       </c>
-      <c r="AI29" s="20" t="str">
+      <c r="AI29" s="19" t="str">
         <f>IF(_acsReport_day_each!AG23="","",_acsReport_day_each!AG23)</f>
         <v/>
       </c>
-      <c r="AJ29" s="22" t="str">
+      <c r="AJ29" s="19" t="str">
         <f>IF(_acsReport_day_each!AH23="","",_acsReport_day_each!AH23)</f>
         <v/>
       </c>
-      <c r="AK29" s="20" t="str">
+      <c r="AK29" s="19" t="str">
         <f>IF(_acsReport_day_each!AI23="","",_acsReport_day_each!AI23)</f>
         <v/>
       </c>
-      <c r="AL29" s="20" t="str">
+      <c r="AL29" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ23="","",_acsReport_day_each!AJ23)</f>
         <v/>
       </c>
-      <c r="AM29" s="32" t="str">
+      <c r="AM29" s="19" t="str">
         <f>IF(_acsReport_day_each!AK23="","",_acsReport_day_each!AK23)</f>
         <v/>
       </c>
-      <c r="AN29" s="20" t="str">
+      <c r="AN29" s="19" t="str">
         <f>IF(_acsReport_day_each!AL23="","",_acsReport_day_each!AL23)</f>
         <v/>
       </c>
-      <c r="AO29" s="20" t="str">
+      <c r="AO29" s="19" t="str">
         <f>IF(_acsReport_day_each!AM23="","",_acsReport_day_each!AM23)</f>
         <v/>
       </c>
-      <c r="AP29" s="22" t="str">
+      <c r="AP29" s="19" t="str">
         <f>IF(_acsReport_day_each!AN23="","",_acsReport_day_each!AN23)</f>
         <v/>
       </c>
-      <c r="AQ29" s="20" t="str">
+      <c r="AQ29" s="19" t="str">
         <f>IF(_acsReport_day_each!AO23="","",_acsReport_day_each!AO23)</f>
         <v/>
       </c>
-      <c r="AR29" s="20" t="str">
+      <c r="AR29" s="19" t="str">
         <f>IF(_acsReport_day_each!AP23="","",_acsReport_day_each!AP23)</f>
         <v/>
       </c>
-      <c r="AS29" s="32" t="str">
+      <c r="AS29" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ23="","",_acsReport_day_each!AQ23)</f>
         <v/>
       </c>
-      <c r="AT29" s="20" t="str">
+      <c r="AT29" s="19" t="str">
         <f>IF(_acsReport_day_each!AR23="","",_acsReport_day_each!AR23)</f>
         <v/>
       </c>
-      <c r="AU29" s="20" t="str">
+      <c r="AU29" s="19" t="str">
         <f>IF(_acsReport_day_each!AS23="","",_acsReport_day_each!AS23)</f>
         <v/>
       </c>
-      <c r="AV29" s="22" t="str">
+      <c r="AV29" s="19" t="str">
         <f>IF(_acsReport_day_each!AT23="","",_acsReport_day_each!AT23)</f>
         <v/>
       </c>
-      <c r="AW29" s="20" t="str">
+      <c r="AW29" s="19" t="str">
         <f>IF(_acsReport_day_each!AU23="","",_acsReport_day_each!AU23)</f>
         <v/>
       </c>
-      <c r="AX29" s="20" t="str">
+      <c r="AX29" s="19" t="str">
         <f>IF(_acsReport_day_each!AV23="","",_acsReport_day_each!AV23)</f>
         <v/>
       </c>
-      <c r="AY29" s="32" t="str">
+      <c r="AY29" s="19" t="str">
         <f>IF(_acsReport_day_each!AW23="","",_acsReport_day_each!AW23)</f>
         <v/>
       </c>
-      <c r="AZ29" s="20" t="str">
+      <c r="AZ29" s="19" t="str">
         <f>IF(_acsReport_day_each!AX23="","",_acsReport_day_each!AX23)</f>
         <v/>
       </c>
-      <c r="BA29" s="20" t="str">
+      <c r="BA29" s="19" t="str">
         <f>IF(_acsReport_day_each!AY23="","",_acsReport_day_each!AY23)</f>
         <v/>
       </c>
-      <c r="BB29" s="32" t="str">
+      <c r="BB29" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ23="","",_acsReport_day_each!AZ23)</f>
         <v/>
       </c>
-      <c r="BC29" s="20" t="str">
+      <c r="BC29" s="19" t="str">
         <f>IF(_acsReport_day_each!BA23="","",_acsReport_day_each!BA23)</f>
         <v/>
       </c>
-      <c r="BD29" s="20" t="str">
+      <c r="BD29" s="19" t="str">
         <f>IF(_acsReport_day_each!BB23="","",_acsReport_day_each!BB23)</f>
         <v/>
       </c>
@@ -7793,6 +7829,9 @@
         <f>_acsReport_day_each!BD23:BF23</f>
         <v>0</v>
       </c>
+      <c r="BF29" s="19"/>
+      <c r="BG29" s="19"/>
+      <c r="BH29" s="19"/>
       <c r="BI29" s="19">
         <f>_acsReport_day_each!BG23:BI23</f>
         <v>0</v>
@@ -7811,222 +7850,222 @@
       </c>
     </row>
     <row r="30" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B30" s="21">
+      <c r="B30" s="20">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C30" s="22" t="str">
+      <c r="C30" s="19" t="str">
         <f>IF(_acsReport_day_each!A24="","",_acsReport_day_each!A24)</f>
         <v/>
       </c>
-      <c r="D30" s="20" t="str">
+      <c r="D30" s="19" t="str">
         <f>IF(_acsReport_day_each!B24="","",_acsReport_day_each!B24)</f>
         <v/>
       </c>
-      <c r="E30" s="20" t="str">
+      <c r="E30" s="19" t="str">
         <f>IF(_acsReport_day_each!C24="","",_acsReport_day_each!C24)</f>
         <v/>
       </c>
-      <c r="F30" s="22" t="str">
+      <c r="F30" s="19" t="str">
         <f>IF(_acsReport_day_each!D24="","",_acsReport_day_each!D24)</f>
         <v/>
       </c>
-      <c r="G30" s="20" t="str">
+      <c r="G30" s="19" t="str">
         <f>IF(_acsReport_day_each!E24="","",_acsReport_day_each!E24)</f>
         <v/>
       </c>
-      <c r="H30" s="20" t="str">
+      <c r="H30" s="19" t="str">
         <f>IF(_acsReport_day_each!F24="","",_acsReport_day_each!F24)</f>
         <v/>
       </c>
-      <c r="I30" s="32" t="str">
+      <c r="I30" s="19" t="str">
         <f>IF(_acsReport_day_each!G24="","",_acsReport_day_each!G24)</f>
         <v/>
       </c>
-      <c r="J30" s="20" t="str">
+      <c r="J30" s="19" t="str">
         <f>IF(_acsReport_day_each!H24="","",_acsReport_day_each!H24)</f>
         <v/>
       </c>
-      <c r="K30" s="20" t="str">
+      <c r="K30" s="19" t="str">
         <f>IF(_acsReport_day_each!I24="","",_acsReport_day_each!I24)</f>
         <v/>
       </c>
-      <c r="L30" s="22" t="str">
+      <c r="L30" s="19" t="str">
         <f>IF(_acsReport_day_each!J24="","",_acsReport_day_each!J24)</f>
         <v/>
       </c>
-      <c r="M30" s="20" t="str">
+      <c r="M30" s="19" t="str">
         <f>IF(_acsReport_day_each!K24="","",_acsReport_day_each!K24)</f>
         <v/>
       </c>
-      <c r="N30" s="20" t="str">
+      <c r="N30" s="19" t="str">
         <f>IF(_acsReport_day_each!L24="","",_acsReport_day_each!L24)</f>
         <v/>
       </c>
-      <c r="O30" s="32" t="str">
+      <c r="O30" s="19" t="str">
         <f>IF(_acsReport_day_each!M24="","",_acsReport_day_each!M24)</f>
         <v/>
       </c>
-      <c r="P30" s="20" t="str">
+      <c r="P30" s="19" t="str">
         <f>IF(_acsReport_day_each!N24="","",_acsReport_day_each!N24)</f>
         <v/>
       </c>
-      <c r="Q30" s="20" t="str">
+      <c r="Q30" s="19" t="str">
         <f>IF(_acsReport_day_each!O24="","",_acsReport_day_each!O24)</f>
         <v/>
       </c>
-      <c r="R30" s="22" t="str">
+      <c r="R30" s="19" t="str">
         <f>IF(_acsReport_day_each!P24="","",_acsReport_day_each!P24)</f>
         <v/>
       </c>
-      <c r="S30" s="20" t="str">
+      <c r="S30" s="19" t="str">
         <f>IF(_acsReport_day_each!Q24="","",_acsReport_day_each!Q24)</f>
         <v/>
       </c>
-      <c r="T30" s="20" t="str">
+      <c r="T30" s="19" t="str">
         <f>IF(_acsReport_day_each!R24="","",_acsReport_day_each!R24)</f>
         <v/>
       </c>
-      <c r="U30" s="32" t="str">
+      <c r="U30" s="19" t="str">
         <f>IF(_acsReport_day_each!S24="","",_acsReport_day_each!S24)</f>
         <v/>
       </c>
-      <c r="V30" s="20" t="str">
+      <c r="V30" s="19" t="str">
         <f>IF(_acsReport_day_each!T24="","",_acsReport_day_each!T24)</f>
         <v/>
       </c>
-      <c r="W30" s="20" t="str">
+      <c r="W30" s="19" t="str">
         <f>IF(_acsReport_day_each!U24="","",_acsReport_day_each!U24)</f>
         <v/>
       </c>
-      <c r="X30" s="22" t="str">
+      <c r="X30" s="19" t="str">
         <f>IF(_acsReport_day_each!V24="","",_acsReport_day_each!V24)</f>
         <v/>
       </c>
-      <c r="Y30" s="20" t="str">
+      <c r="Y30" s="19" t="str">
         <f>IF(_acsReport_day_each!W24="","",_acsReport_day_each!W24)</f>
         <v/>
       </c>
-      <c r="Z30" s="20" t="str">
+      <c r="Z30" s="19" t="str">
         <f>IF(_acsReport_day_each!X24="","",_acsReport_day_each!X24)</f>
         <v/>
       </c>
-      <c r="AA30" s="32" t="str">
+      <c r="AA30" s="19" t="str">
         <f>IF(_acsReport_day_each!Y24="","",_acsReport_day_each!Y24)</f>
         <v/>
       </c>
-      <c r="AB30" s="20" t="str">
+      <c r="AB30" s="19" t="str">
         <f>IF(_acsReport_day_each!Z24="","",_acsReport_day_each!Z24)</f>
         <v/>
       </c>
-      <c r="AC30" s="20" t="str">
+      <c r="AC30" s="19" t="str">
         <f>IF(_acsReport_day_each!AA24="","",_acsReport_day_each!AA24)</f>
         <v/>
       </c>
-      <c r="AD30" s="22" t="str">
+      <c r="AD30" s="19" t="str">
         <f>IF(_acsReport_day_each!AB24="","",_acsReport_day_each!AB24)</f>
         <v/>
       </c>
-      <c r="AE30" s="20" t="str">
+      <c r="AE30" s="19" t="str">
         <f>IF(_acsReport_day_each!AC24="","",_acsReport_day_each!AC24)</f>
         <v/>
       </c>
-      <c r="AF30" s="20" t="str">
+      <c r="AF30" s="19" t="str">
         <f>IF(_acsReport_day_each!AD24="","",_acsReport_day_each!AD24)</f>
         <v/>
       </c>
-      <c r="AG30" s="32" t="str">
+      <c r="AG30" s="19" t="str">
         <f>IF(_acsReport_day_each!AE24="","",_acsReport_day_each!AE24)</f>
         <v/>
       </c>
-      <c r="AH30" s="20" t="str">
+      <c r="AH30" s="19" t="str">
         <f>IF(_acsReport_day_each!AF24="","",_acsReport_day_each!AF24)</f>
         <v/>
       </c>
-      <c r="AI30" s="20" t="str">
+      <c r="AI30" s="19" t="str">
         <f>IF(_acsReport_day_each!AG24="","",_acsReport_day_each!AG24)</f>
         <v/>
       </c>
-      <c r="AJ30" s="22" t="str">
+      <c r="AJ30" s="19" t="str">
         <f>IF(_acsReport_day_each!AH24="","",_acsReport_day_each!AH24)</f>
         <v/>
       </c>
-      <c r="AK30" s="20" t="str">
+      <c r="AK30" s="19" t="str">
         <f>IF(_acsReport_day_each!AI24="","",_acsReport_day_each!AI24)</f>
         <v/>
       </c>
-      <c r="AL30" s="20" t="str">
+      <c r="AL30" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ24="","",_acsReport_day_each!AJ24)</f>
         <v/>
       </c>
-      <c r="AM30" s="32" t="str">
+      <c r="AM30" s="19" t="str">
         <f>IF(_acsReport_day_each!AK24="","",_acsReport_day_each!AK24)</f>
         <v/>
       </c>
-      <c r="AN30" s="20" t="str">
+      <c r="AN30" s="19" t="str">
         <f>IF(_acsReport_day_each!AL24="","",_acsReport_day_each!AL24)</f>
         <v/>
       </c>
-      <c r="AO30" s="20" t="str">
+      <c r="AO30" s="19" t="str">
         <f>IF(_acsReport_day_each!AM24="","",_acsReport_day_each!AM24)</f>
         <v/>
       </c>
-      <c r="AP30" s="22" t="str">
+      <c r="AP30" s="19" t="str">
         <f>IF(_acsReport_day_each!AN24="","",_acsReport_day_each!AN24)</f>
         <v/>
       </c>
-      <c r="AQ30" s="20" t="str">
+      <c r="AQ30" s="19" t="str">
         <f>IF(_acsReport_day_each!AO24="","",_acsReport_day_each!AO24)</f>
         <v/>
       </c>
-      <c r="AR30" s="20" t="str">
+      <c r="AR30" s="19" t="str">
         <f>IF(_acsReport_day_each!AP24="","",_acsReport_day_each!AP24)</f>
         <v/>
       </c>
-      <c r="AS30" s="32" t="str">
+      <c r="AS30" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ24="","",_acsReport_day_each!AQ24)</f>
         <v/>
       </c>
-      <c r="AT30" s="20" t="str">
+      <c r="AT30" s="19" t="str">
         <f>IF(_acsReport_day_each!AR24="","",_acsReport_day_each!AR24)</f>
         <v/>
       </c>
-      <c r="AU30" s="20" t="str">
+      <c r="AU30" s="19" t="str">
         <f>IF(_acsReport_day_each!AS24="","",_acsReport_day_each!AS24)</f>
         <v/>
       </c>
-      <c r="AV30" s="22" t="str">
+      <c r="AV30" s="19" t="str">
         <f>IF(_acsReport_day_each!AT24="","",_acsReport_day_each!AT24)</f>
         <v/>
       </c>
-      <c r="AW30" s="20" t="str">
+      <c r="AW30" s="19" t="str">
         <f>IF(_acsReport_day_each!AU24="","",_acsReport_day_each!AU24)</f>
         <v/>
       </c>
-      <c r="AX30" s="20" t="str">
+      <c r="AX30" s="19" t="str">
         <f>IF(_acsReport_day_each!AV24="","",_acsReport_day_each!AV24)</f>
         <v/>
       </c>
-      <c r="AY30" s="32" t="str">
+      <c r="AY30" s="19" t="str">
         <f>IF(_acsReport_day_each!AW24="","",_acsReport_day_each!AW24)</f>
         <v/>
       </c>
-      <c r="AZ30" s="20" t="str">
+      <c r="AZ30" s="19" t="str">
         <f>IF(_acsReport_day_each!AX24="","",_acsReport_day_each!AX24)</f>
         <v/>
       </c>
-      <c r="BA30" s="20" t="str">
+      <c r="BA30" s="19" t="str">
         <f>IF(_acsReport_day_each!AY24="","",_acsReport_day_each!AY24)</f>
         <v/>
       </c>
-      <c r="BB30" s="32" t="str">
+      <c r="BB30" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ24="","",_acsReport_day_each!AZ24)</f>
         <v/>
       </c>
-      <c r="BC30" s="20" t="str">
+      <c r="BC30" s="19" t="str">
         <f>IF(_acsReport_day_each!BA24="","",_acsReport_day_each!BA24)</f>
         <v/>
       </c>
-      <c r="BD30" s="20" t="str">
+      <c r="BD30" s="19" t="str">
         <f>IF(_acsReport_day_each!BB24="","",_acsReport_day_each!BB24)</f>
         <v/>
       </c>
@@ -8034,6 +8073,9 @@
         <f>_acsReport_day_each!BD24:BF24</f>
         <v>0</v>
       </c>
+      <c r="BF30" s="19"/>
+      <c r="BG30" s="19"/>
+      <c r="BH30" s="19"/>
       <c r="BI30" s="19">
         <f>_acsReport_day_each!BG24:BI24</f>
         <v>0</v>
@@ -8052,230 +8094,233 @@
       </c>
     </row>
     <row r="31" spans="2:64" ht="15" x14ac:dyDescent="0.15">
-      <c r="B31" s="23">
+      <c r="B31" s="21">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C31" s="24" t="str">
+      <c r="C31" s="19" t="str">
         <f>IF(_acsReport_day_each!A25="","",_acsReport_day_each!A25)</f>
         <v/>
       </c>
-      <c r="D31" s="25" t="str">
+      <c r="D31" s="19" t="str">
         <f>IF(_acsReport_day_each!B25="","",_acsReport_day_each!B25)</f>
         <v/>
       </c>
-      <c r="E31" s="25" t="str">
+      <c r="E31" s="19" t="str">
         <f>IF(_acsReport_day_each!C25="","",_acsReport_day_each!C25)</f>
         <v/>
       </c>
-      <c r="F31" s="24" t="str">
+      <c r="F31" s="19" t="str">
         <f>IF(_acsReport_day_each!D25="","",_acsReport_day_each!D25)</f>
         <v/>
       </c>
-      <c r="G31" s="25" t="str">
+      <c r="G31" s="19" t="str">
         <f>IF(_acsReport_day_each!E25="","",_acsReport_day_each!E25)</f>
         <v/>
       </c>
-      <c r="H31" s="25" t="str">
+      <c r="H31" s="19" t="str">
         <f>IF(_acsReport_day_each!F25="","",_acsReport_day_each!F25)</f>
         <v/>
       </c>
-      <c r="I31" s="34" t="str">
+      <c r="I31" s="19" t="str">
         <f>IF(_acsReport_day_each!G25="","",_acsReport_day_each!G25)</f>
         <v/>
       </c>
-      <c r="J31" s="25" t="str">
+      <c r="J31" s="19" t="str">
         <f>IF(_acsReport_day_each!H25="","",_acsReport_day_each!H25)</f>
         <v/>
       </c>
-      <c r="K31" s="25" t="str">
+      <c r="K31" s="19" t="str">
         <f>IF(_acsReport_day_each!I25="","",_acsReport_day_each!I25)</f>
         <v/>
       </c>
-      <c r="L31" s="24" t="str">
+      <c r="L31" s="19" t="str">
         <f>IF(_acsReport_day_each!J25="","",_acsReport_day_each!J25)</f>
         <v/>
       </c>
-      <c r="M31" s="25" t="str">
+      <c r="M31" s="19" t="str">
         <f>IF(_acsReport_day_each!K25="","",_acsReport_day_each!K25)</f>
         <v/>
       </c>
-      <c r="N31" s="25" t="str">
+      <c r="N31" s="19" t="str">
         <f>IF(_acsReport_day_each!L25="","",_acsReport_day_each!L25)</f>
         <v/>
       </c>
-      <c r="O31" s="34" t="str">
+      <c r="O31" s="19" t="str">
         <f>IF(_acsReport_day_each!M25="","",_acsReport_day_each!M25)</f>
         <v/>
       </c>
-      <c r="P31" s="25" t="str">
+      <c r="P31" s="19" t="str">
         <f>IF(_acsReport_day_each!N25="","",_acsReport_day_each!N25)</f>
         <v/>
       </c>
-      <c r="Q31" s="25" t="str">
+      <c r="Q31" s="19" t="str">
         <f>IF(_acsReport_day_each!O25="","",_acsReport_day_each!O25)</f>
         <v/>
       </c>
-      <c r="R31" s="24" t="str">
+      <c r="R31" s="19" t="str">
         <f>IF(_acsReport_day_each!P25="","",_acsReport_day_each!P25)</f>
         <v/>
       </c>
-      <c r="S31" s="25" t="str">
+      <c r="S31" s="19" t="str">
         <f>IF(_acsReport_day_each!Q25="","",_acsReport_day_each!Q25)</f>
         <v/>
       </c>
-      <c r="T31" s="25" t="str">
+      <c r="T31" s="19" t="str">
         <f>IF(_acsReport_day_each!R25="","",_acsReport_day_each!R25)</f>
         <v/>
       </c>
-      <c r="U31" s="34" t="str">
+      <c r="U31" s="19" t="str">
         <f>IF(_acsReport_day_each!S25="","",_acsReport_day_each!S25)</f>
         <v/>
       </c>
-      <c r="V31" s="25" t="str">
+      <c r="V31" s="19" t="str">
         <f>IF(_acsReport_day_each!T25="","",_acsReport_day_each!T25)</f>
         <v/>
       </c>
-      <c r="W31" s="25" t="str">
+      <c r="W31" s="19" t="str">
         <f>IF(_acsReport_day_each!U25="","",_acsReport_day_each!U25)</f>
         <v/>
       </c>
-      <c r="X31" s="24" t="str">
+      <c r="X31" s="19" t="str">
         <f>IF(_acsReport_day_each!V25="","",_acsReport_day_each!V25)</f>
         <v/>
       </c>
-      <c r="Y31" s="25" t="str">
+      <c r="Y31" s="19" t="str">
         <f>IF(_acsReport_day_each!W25="","",_acsReport_day_each!W25)</f>
         <v/>
       </c>
-      <c r="Z31" s="25" t="str">
+      <c r="Z31" s="19" t="str">
         <f>IF(_acsReport_day_each!X25="","",_acsReport_day_each!X25)</f>
         <v/>
       </c>
-      <c r="AA31" s="34" t="str">
+      <c r="AA31" s="19" t="str">
         <f>IF(_acsReport_day_each!Y25="","",_acsReport_day_each!Y25)</f>
         <v/>
       </c>
-      <c r="AB31" s="25" t="str">
+      <c r="AB31" s="19" t="str">
         <f>IF(_acsReport_day_each!Z25="","",_acsReport_day_each!Z25)</f>
         <v/>
       </c>
-      <c r="AC31" s="25" t="str">
+      <c r="AC31" s="19" t="str">
         <f>IF(_acsReport_day_each!AA25="","",_acsReport_day_each!AA25)</f>
         <v/>
       </c>
-      <c r="AD31" s="24" t="str">
+      <c r="AD31" s="19" t="str">
         <f>IF(_acsReport_day_each!AB25="","",_acsReport_day_each!AB25)</f>
         <v/>
       </c>
-      <c r="AE31" s="25" t="str">
+      <c r="AE31" s="19" t="str">
         <f>IF(_acsReport_day_each!AC25="","",_acsReport_day_each!AC25)</f>
         <v/>
       </c>
-      <c r="AF31" s="25" t="str">
+      <c r="AF31" s="19" t="str">
         <f>IF(_acsReport_day_each!AD25="","",_acsReport_day_each!AD25)</f>
         <v/>
       </c>
-      <c r="AG31" s="34" t="str">
+      <c r="AG31" s="19" t="str">
         <f>IF(_acsReport_day_each!AE25="","",_acsReport_day_each!AE25)</f>
         <v/>
       </c>
-      <c r="AH31" s="25" t="str">
+      <c r="AH31" s="19" t="str">
         <f>IF(_acsReport_day_each!AF25="","",_acsReport_day_each!AF25)</f>
         <v/>
       </c>
-      <c r="AI31" s="25" t="str">
+      <c r="AI31" s="19" t="str">
         <f>IF(_acsReport_day_each!AG25="","",_acsReport_day_each!AG25)</f>
         <v/>
       </c>
-      <c r="AJ31" s="24" t="str">
+      <c r="AJ31" s="19" t="str">
         <f>IF(_acsReport_day_each!AH25="","",_acsReport_day_each!AH25)</f>
         <v/>
       </c>
-      <c r="AK31" s="25" t="str">
+      <c r="AK31" s="19" t="str">
         <f>IF(_acsReport_day_each!AI25="","",_acsReport_day_each!AI25)</f>
         <v/>
       </c>
-      <c r="AL31" s="25" t="str">
+      <c r="AL31" s="19" t="str">
         <f>IF(_acsReport_day_each!AJ25="","",_acsReport_day_each!AJ25)</f>
         <v/>
       </c>
-      <c r="AM31" s="34" t="str">
+      <c r="AM31" s="19" t="str">
         <f>IF(_acsReport_day_each!AK25="","",_acsReport_day_each!AK25)</f>
         <v/>
       </c>
-      <c r="AN31" s="25" t="str">
+      <c r="AN31" s="19" t="str">
         <f>IF(_acsReport_day_each!AL25="","",_acsReport_day_each!AL25)</f>
         <v/>
       </c>
-      <c r="AO31" s="25" t="str">
+      <c r="AO31" s="19" t="str">
         <f>IF(_acsReport_day_each!AM25="","",_acsReport_day_each!AM25)</f>
         <v/>
       </c>
-      <c r="AP31" s="24" t="str">
+      <c r="AP31" s="19" t="str">
         <f>IF(_acsReport_day_each!AN25="","",_acsReport_day_each!AN25)</f>
         <v/>
       </c>
-      <c r="AQ31" s="25" t="str">
+      <c r="AQ31" s="19" t="str">
         <f>IF(_acsReport_day_each!AO25="","",_acsReport_day_each!AO25)</f>
         <v/>
       </c>
-      <c r="AR31" s="25" t="str">
+      <c r="AR31" s="19" t="str">
         <f>IF(_acsReport_day_each!AP25="","",_acsReport_day_each!AP25)</f>
         <v/>
       </c>
-      <c r="AS31" s="34" t="str">
+      <c r="AS31" s="19" t="str">
         <f>IF(_acsReport_day_each!AQ25="","",_acsReport_day_each!AQ25)</f>
         <v/>
       </c>
-      <c r="AT31" s="25" t="str">
+      <c r="AT31" s="19" t="str">
         <f>IF(_acsReport_day_each!AR25="","",_acsReport_day_each!AR25)</f>
         <v/>
       </c>
-      <c r="AU31" s="25" t="str">
+      <c r="AU31" s="19" t="str">
         <f>IF(_acsReport_day_each!AS25="","",_acsReport_day_each!AS25)</f>
         <v/>
       </c>
-      <c r="AV31" s="24" t="str">
+      <c r="AV31" s="19" t="str">
         <f>IF(_acsReport_day_each!AT25="","",_acsReport_day_each!AT25)</f>
         <v/>
       </c>
-      <c r="AW31" s="25" t="str">
+      <c r="AW31" s="19" t="str">
         <f>IF(_acsReport_day_each!AU25="","",_acsReport_day_each!AU25)</f>
         <v/>
       </c>
-      <c r="AX31" s="25" t="str">
+      <c r="AX31" s="19" t="str">
         <f>IF(_acsReport_day_each!AV25="","",_acsReport_day_each!AV25)</f>
         <v/>
       </c>
-      <c r="AY31" s="34" t="str">
+      <c r="AY31" s="19" t="str">
         <f>IF(_acsReport_day_each!AW25="","",_acsReport_day_each!AW25)</f>
         <v/>
       </c>
-      <c r="AZ31" s="25" t="str">
+      <c r="AZ31" s="19" t="str">
         <f>IF(_acsReport_day_each!AX25="","",_acsReport_day_each!AX25)</f>
         <v/>
       </c>
-      <c r="BA31" s="25" t="str">
+      <c r="BA31" s="19" t="str">
         <f>IF(_acsReport_day_each!AY25="","",_acsReport_day_each!AY25)</f>
         <v/>
       </c>
-      <c r="BB31" s="34" t="str">
+      <c r="BB31" s="19" t="str">
         <f>IF(_acsReport_day_each!AZ25="","",_acsReport_day_each!AZ25)</f>
         <v/>
       </c>
-      <c r="BC31" s="25" t="str">
+      <c r="BC31" s="19" t="str">
         <f>IF(_acsReport_day_each!BA25="","",_acsReport_day_each!BA25)</f>
         <v/>
       </c>
-      <c r="BD31" s="25" t="str">
+      <c r="BD31" s="19" t="str">
         <f>IF(_acsReport_day_each!BB25="","",_acsReport_day_each!BB25)</f>
         <v/>
       </c>
-      <c r="BE31" s="25">
+      <c r="BE31" s="19">
         <f>_acsReport_day_each!BD25:BF25</f>
         <v>0</v>
       </c>
-      <c r="BI31" s="25">
+      <c r="BF31" s="19"/>
+      <c r="BG31" s="19"/>
+      <c r="BH31" s="19"/>
+      <c r="BI31" s="19">
         <f>_acsReport_day_each!BG25:BI25</f>
         <v>0</v>
       </c>
@@ -8317,49 +8362,49 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="35"/>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="35"/>
-      <c r="AF32" s="35"/>
-      <c r="AG32" s="35"/>
-      <c r="AH32" s="35"/>
-      <c r="AI32" s="35"/>
-      <c r="AJ32" s="35"/>
-      <c r="AK32" s="35"/>
-      <c r="AL32" s="35"/>
-      <c r="AM32" s="35"/>
-      <c r="AN32" s="35"/>
-      <c r="AO32" s="35"/>
-      <c r="AP32" s="35"/>
-      <c r="AQ32" s="35"/>
-      <c r="AR32" s="35"/>
-      <c r="AS32" s="35"/>
-      <c r="AT32" s="35"/>
-      <c r="AU32" s="35"/>
-      <c r="AV32" s="35"/>
-      <c r="AW32" s="35"/>
-      <c r="AX32" s="35"/>
-      <c r="AY32" s="35"/>
-      <c r="AZ32" s="35"/>
-      <c r="BA32" s="35"/>
-      <c r="BB32" s="35"/>
-      <c r="BC32" s="35"/>
-      <c r="BD32" s="35"/>
-      <c r="BE32" s="35"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="26"/>
+      <c r="AL32" s="26"/>
+      <c r="AM32" s="26"/>
+      <c r="AN32" s="26"/>
+      <c r="AO32" s="26"/>
+      <c r="AP32" s="26"/>
+      <c r="AQ32" s="26"/>
+      <c r="AR32" s="26"/>
+      <c r="AS32" s="26"/>
+      <c r="AT32" s="26"/>
+      <c r="AU32" s="26"/>
+      <c r="AV32" s="26"/>
+      <c r="AW32" s="26"/>
+      <c r="AX32" s="26"/>
+      <c r="AY32" s="26"/>
+      <c r="AZ32" s="26"/>
+      <c r="BA32" s="26"/>
+      <c r="BB32" s="26"/>
+      <c r="BC32" s="26"/>
+      <c r="BD32" s="26"/>
+      <c r="BE32" s="26"/>
     </row>
     <row r="33" spans="2:57" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B33" s="12"/>
@@ -8372,55 +8417,55 @@
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
-      <c r="AF33" s="35"/>
-      <c r="AG33" s="35"/>
-      <c r="AH33" s="35"/>
-      <c r="AI33" s="35"/>
-      <c r="AJ33" s="35"/>
-      <c r="AK33" s="35"/>
-      <c r="AL33" s="35"/>
-      <c r="AM33" s="35"/>
-      <c r="AN33" s="35"/>
-      <c r="AO33" s="35"/>
-      <c r="AP33" s="35"/>
-      <c r="AQ33" s="35"/>
-      <c r="AR33" s="35"/>
-      <c r="AS33" s="35"/>
-      <c r="AT33" s="35"/>
-      <c r="AU33" s="35"/>
-      <c r="AV33" s="35"/>
-      <c r="AW33" s="35"/>
-      <c r="AX33" s="35"/>
-      <c r="AY33" s="35"/>
-      <c r="AZ33" s="35"/>
-      <c r="BA33" s="35"/>
-      <c r="BB33" s="35"/>
-      <c r="BC33" s="35"/>
-      <c r="BD33" s="35"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
+      <c r="AM33" s="26"/>
+      <c r="AN33" s="26"/>
+      <c r="AO33" s="26"/>
+      <c r="AP33" s="26"/>
+      <c r="AQ33" s="26"/>
+      <c r="AR33" s="26"/>
+      <c r="AS33" s="26"/>
+      <c r="AT33" s="26"/>
+      <c r="AU33" s="26"/>
+      <c r="AV33" s="26"/>
+      <c r="AW33" s="26"/>
+      <c r="AX33" s="26"/>
+      <c r="AY33" s="26"/>
+      <c r="AZ33" s="26"/>
+      <c r="BA33" s="26"/>
+      <c r="BB33" s="26"/>
+      <c r="BC33" s="26"/>
+      <c r="BD33" s="26"/>
       <c r="BE33" s="7"/>
     </row>
     <row r="34" spans="2:57" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="23" t="s">
         <v>88</v>
       </c>
       <c r="C34" s="12">
@@ -8441,51 +8486,51 @@
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="35"/>
-      <c r="AD34" s="35"/>
-      <c r="AE34" s="35"/>
-      <c r="AF34" s="35"/>
-      <c r="AG34" s="35"/>
-      <c r="AH34" s="35"/>
-      <c r="AI34" s="35"/>
-      <c r="AJ34" s="35"/>
-      <c r="AK34" s="35"/>
-      <c r="AL34" s="35"/>
-      <c r="AM34" s="35"/>
-      <c r="AN34" s="35"/>
-      <c r="AO34" s="35"/>
-      <c r="AP34" s="35"/>
-      <c r="AQ34" s="35"/>
-      <c r="AR34" s="35"/>
-      <c r="AS34" s="35"/>
-      <c r="AT34" s="35"/>
-      <c r="AU34" s="35"/>
-      <c r="AV34" s="35"/>
-      <c r="AW34" s="35"/>
-      <c r="AX34" s="35"/>
-      <c r="AY34" s="35"/>
-      <c r="AZ34" s="35"/>
-      <c r="BA34" s="35"/>
-      <c r="BB34" s="35"/>
-      <c r="BC34" s="35"/>
-      <c r="BD34" s="35"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="26"/>
+      <c r="AL34" s="26"/>
+      <c r="AM34" s="26"/>
+      <c r="AN34" s="26"/>
+      <c r="AO34" s="26"/>
+      <c r="AP34" s="26"/>
+      <c r="AQ34" s="26"/>
+      <c r="AR34" s="26"/>
+      <c r="AS34" s="26"/>
+      <c r="AT34" s="26"/>
+      <c r="AU34" s="26"/>
+      <c r="AV34" s="26"/>
+      <c r="AW34" s="26"/>
+      <c r="AX34" s="26"/>
+      <c r="AY34" s="26"/>
+      <c r="AZ34" s="26"/>
+      <c r="BA34" s="26"/>
+      <c r="BB34" s="26"/>
+      <c r="BC34" s="26"/>
+      <c r="BD34" s="26"/>
       <c r="BE34" s="7"/>
     </row>
     <row r="35" spans="2:57" ht="22.5" x14ac:dyDescent="0.25">
@@ -8499,51 +8544,51 @@
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="35"/>
-      <c r="AD35" s="35"/>
-      <c r="AE35" s="35"/>
-      <c r="AF35" s="35"/>
-      <c r="AG35" s="35"/>
-      <c r="AH35" s="35"/>
-      <c r="AI35" s="35"/>
-      <c r="AJ35" s="35"/>
-      <c r="AK35" s="35"/>
-      <c r="AL35" s="35"/>
-      <c r="AM35" s="35"/>
-      <c r="AN35" s="35"/>
-      <c r="AO35" s="35"/>
-      <c r="AP35" s="35"/>
-      <c r="AQ35" s="35"/>
-      <c r="AR35" s="35"/>
-      <c r="AS35" s="35"/>
-      <c r="AT35" s="35"/>
-      <c r="AU35" s="35"/>
-      <c r="AV35" s="35"/>
-      <c r="AW35" s="35"/>
-      <c r="AX35" s="35"/>
-      <c r="AY35" s="35"/>
-      <c r="AZ35" s="35"/>
-      <c r="BA35" s="35"/>
-      <c r="BB35" s="35"/>
-      <c r="BC35" s="35"/>
-      <c r="BD35" s="35"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="26"/>
+      <c r="AM35" s="26"/>
+      <c r="AN35" s="26"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="26"/>
+      <c r="AR35" s="26"/>
+      <c r="AS35" s="26"/>
+      <c r="AT35" s="26"/>
+      <c r="AU35" s="26"/>
+      <c r="AV35" s="26"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="26"/>
+      <c r="AY35" s="26"/>
+      <c r="AZ35" s="26"/>
+      <c r="BA35" s="26"/>
+      <c r="BB35" s="26"/>
+      <c r="BC35" s="26"/>
+      <c r="BD35" s="26"/>
       <c r="BE35" s="7"/>
     </row>
     <row r="36" spans="2:57" ht="22.5" x14ac:dyDescent="0.25">
@@ -8557,51 +8602,51 @@
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="35"/>
-      <c r="AF36" s="35"/>
-      <c r="AG36" s="35"/>
-      <c r="AH36" s="35"/>
-      <c r="AI36" s="35"/>
-      <c r="AJ36" s="35"/>
-      <c r="AK36" s="35"/>
-      <c r="AL36" s="35"/>
-      <c r="AM36" s="35"/>
-      <c r="AN36" s="35"/>
-      <c r="AO36" s="35"/>
-      <c r="AP36" s="35"/>
-      <c r="AQ36" s="35"/>
-      <c r="AR36" s="35"/>
-      <c r="AS36" s="35"/>
-      <c r="AT36" s="35"/>
-      <c r="AU36" s="35"/>
-      <c r="AV36" s="35"/>
-      <c r="AW36" s="35"/>
-      <c r="AX36" s="35"/>
-      <c r="AY36" s="35"/>
-      <c r="AZ36" s="35"/>
-      <c r="BA36" s="35"/>
-      <c r="BB36" s="35"/>
-      <c r="BC36" s="35"/>
-      <c r="BD36" s="35"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="26"/>
+      <c r="AM36" s="26"/>
+      <c r="AN36" s="26"/>
+      <c r="AO36" s="26"/>
+      <c r="AP36" s="26"/>
+      <c r="AQ36" s="26"/>
+      <c r="AR36" s="26"/>
+      <c r="AS36" s="26"/>
+      <c r="AT36" s="26"/>
+      <c r="AU36" s="26"/>
+      <c r="AV36" s="26"/>
+      <c r="AW36" s="26"/>
+      <c r="AX36" s="26"/>
+      <c r="AY36" s="26"/>
+      <c r="AZ36" s="26"/>
+      <c r="BA36" s="26"/>
+      <c r="BB36" s="26"/>
+      <c r="BC36" s="26"/>
+      <c r="BD36" s="26"/>
       <c r="BE36" s="7"/>
     </row>
     <row r="37" spans="2:57" ht="22.5" x14ac:dyDescent="0.25">
@@ -8615,51 +8660,51 @@
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="35"/>
-      <c r="AE37" s="35"/>
-      <c r="AF37" s="35"/>
-      <c r="AG37" s="35"/>
-      <c r="AH37" s="35"/>
-      <c r="AI37" s="35"/>
-      <c r="AJ37" s="35"/>
-      <c r="AK37" s="35"/>
-      <c r="AL37" s="35"/>
-      <c r="AM37" s="35"/>
-      <c r="AN37" s="35"/>
-      <c r="AO37" s="35"/>
-      <c r="AP37" s="35"/>
-      <c r="AQ37" s="35"/>
-      <c r="AR37" s="35"/>
-      <c r="AS37" s="35"/>
-      <c r="AT37" s="35"/>
-      <c r="AU37" s="35"/>
-      <c r="AV37" s="35"/>
-      <c r="AW37" s="35"/>
-      <c r="AX37" s="35"/>
-      <c r="AY37" s="35"/>
-      <c r="AZ37" s="35"/>
-      <c r="BA37" s="35"/>
-      <c r="BB37" s="35"/>
-      <c r="BC37" s="35"/>
-      <c r="BD37" s="35"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="26"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="26"/>
+      <c r="AJ37" s="26"/>
+      <c r="AK37" s="26"/>
+      <c r="AL37" s="26"/>
+      <c r="AM37" s="26"/>
+      <c r="AN37" s="26"/>
+      <c r="AO37" s="26"/>
+      <c r="AP37" s="26"/>
+      <c r="AQ37" s="26"/>
+      <c r="AR37" s="26"/>
+      <c r="AS37" s="26"/>
+      <c r="AT37" s="26"/>
+      <c r="AU37" s="26"/>
+      <c r="AV37" s="26"/>
+      <c r="AW37" s="26"/>
+      <c r="AX37" s="26"/>
+      <c r="AY37" s="26"/>
+      <c r="AZ37" s="26"/>
+      <c r="BA37" s="26"/>
+      <c r="BB37" s="26"/>
+      <c r="BC37" s="26"/>
+      <c r="BD37" s="26"/>
       <c r="BE37" s="7"/>
     </row>
     <row r="38" spans="2:57" ht="22.5" x14ac:dyDescent="0.25">
@@ -8673,51 +8718,51 @@
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="35"/>
-      <c r="AD38" s="35"/>
-      <c r="AE38" s="35"/>
-      <c r="AF38" s="35"/>
-      <c r="AG38" s="35"/>
-      <c r="AH38" s="35"/>
-      <c r="AI38" s="35"/>
-      <c r="AJ38" s="35"/>
-      <c r="AK38" s="35"/>
-      <c r="AL38" s="35"/>
-      <c r="AM38" s="35"/>
-      <c r="AN38" s="35"/>
-      <c r="AO38" s="35"/>
-      <c r="AP38" s="35"/>
-      <c r="AQ38" s="35"/>
-      <c r="AR38" s="35"/>
-      <c r="AS38" s="35"/>
-      <c r="AT38" s="35"/>
-      <c r="AU38" s="35"/>
-      <c r="AV38" s="35"/>
-      <c r="AW38" s="35"/>
-      <c r="AX38" s="35"/>
-      <c r="AY38" s="35"/>
-      <c r="AZ38" s="35"/>
-      <c r="BA38" s="35"/>
-      <c r="BB38" s="35"/>
-      <c r="BC38" s="35"/>
-      <c r="BD38" s="35"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="26"/>
+      <c r="AK38" s="26"/>
+      <c r="AL38" s="26"/>
+      <c r="AM38" s="26"/>
+      <c r="AN38" s="26"/>
+      <c r="AO38" s="26"/>
+      <c r="AP38" s="26"/>
+      <c r="AQ38" s="26"/>
+      <c r="AR38" s="26"/>
+      <c r="AS38" s="26"/>
+      <c r="AT38" s="26"/>
+      <c r="AU38" s="26"/>
+      <c r="AV38" s="26"/>
+      <c r="AW38" s="26"/>
+      <c r="AX38" s="26"/>
+      <c r="AY38" s="26"/>
+      <c r="AZ38" s="26"/>
+      <c r="BA38" s="26"/>
+      <c r="BB38" s="26"/>
+      <c r="BC38" s="26"/>
+      <c r="BD38" s="26"/>
       <c r="BE38" s="7"/>
     </row>
     <row r="39" spans="2:57" ht="22.5" x14ac:dyDescent="0.25">
@@ -8731,51 +8776,51 @@
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="35"/>
-      <c r="AF39" s="35"/>
-      <c r="AG39" s="35"/>
-      <c r="AH39" s="35"/>
-      <c r="AI39" s="35"/>
-      <c r="AJ39" s="35"/>
-      <c r="AK39" s="35"/>
-      <c r="AL39" s="35"/>
-      <c r="AM39" s="35"/>
-      <c r="AN39" s="35"/>
-      <c r="AO39" s="35"/>
-      <c r="AP39" s="35"/>
-      <c r="AQ39" s="35"/>
-      <c r="AR39" s="35"/>
-      <c r="AS39" s="35"/>
-      <c r="AT39" s="35"/>
-      <c r="AU39" s="35"/>
-      <c r="AV39" s="35"/>
-      <c r="AW39" s="35"/>
-      <c r="AX39" s="35"/>
-      <c r="AY39" s="35"/>
-      <c r="AZ39" s="35"/>
-      <c r="BA39" s="35"/>
-      <c r="BB39" s="35"/>
-      <c r="BC39" s="35"/>
-      <c r="BD39" s="35"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="26"/>
+      <c r="AK39" s="26"/>
+      <c r="AL39" s="26"/>
+      <c r="AM39" s="26"/>
+      <c r="AN39" s="26"/>
+      <c r="AO39" s="26"/>
+      <c r="AP39" s="26"/>
+      <c r="AQ39" s="26"/>
+      <c r="AR39" s="26"/>
+      <c r="AS39" s="26"/>
+      <c r="AT39" s="26"/>
+      <c r="AU39" s="26"/>
+      <c r="AV39" s="26"/>
+      <c r="AW39" s="26"/>
+      <c r="AX39" s="26"/>
+      <c r="AY39" s="26"/>
+      <c r="AZ39" s="26"/>
+      <c r="BA39" s="26"/>
+      <c r="BB39" s="26"/>
+      <c r="BC39" s="26"/>
+      <c r="BD39" s="26"/>
       <c r="BE39" s="7"/>
     </row>
     <row r="40" spans="2:57" ht="14.25" x14ac:dyDescent="0.15">
@@ -8838,6 +8883,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B1:BE1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="AA3:AL3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
     <mergeCell ref="AV5:AX5"/>
     <mergeCell ref="AY5:BA5"/>
     <mergeCell ref="BB5:BD5"/>
@@ -8854,17 +8910,6 @@
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="X5:Z5"/>
     <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="B1:BE1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="AA3:AL3"/>
-    <mergeCell ref="BB3:BE3"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/finished/能介/新一空压站运行记录表.xlsx
+++ b/excel/finished/能介/新一空压站运行记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="ACS_ACM1_MAIN" sheetId="1" r:id="rId1"/>
@@ -853,14 +853,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,12 +931,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <name val="宋体"/>
@@ -956,25 +950,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -990,7 +988,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1003,39 +1055,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,21 +1079,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1072,40 +1086,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1138,61 +1121,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,19 +1151,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,19 +1247,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,43 +1283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,13 +1301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,6 +1931,50 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1981,30 +2008,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2024,27 +2027,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2054,10 +2037,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2066,138 +2049,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="54" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2313,9 +2296,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2384,7 +2364,7 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="39" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2399,7 +2379,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2420,7 +2400,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="39" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="39" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2432,7 +2412,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2441,46 +2421,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="45" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="45" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="45" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="46" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="35" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="46" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2492,7 +2442,7 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="23" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2846,8 +2796,8 @@
   <sheetPr/>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:E33"/>
+    <sheetView tabSelected="1" topLeftCell="AV4" workbookViewId="0">
+      <selection activeCell="BI4" sqref="BI$1:BK$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5"/>
@@ -2973,7 +2923,7 @@
       <c r="AY2" s="7"/>
       <c r="AZ2" s="7"/>
       <c r="BA2" s="7"/>
-      <c r="BB2" s="74"/>
+      <c r="BB2" s="73"/>
       <c r="BC2" s="7"/>
       <c r="BD2" s="15"/>
       <c r="BE2" s="7"/>
@@ -2992,7 +2942,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="13"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="44"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -3009,18 +2959,18 @@
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="70"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
       <c r="AM3" s="15"/>
       <c r="AN3" s="15"/>
       <c r="AO3" s="15"/>
@@ -3036,10 +2986,10 @@
       <c r="AY3" s="8"/>
       <c r="AZ3" s="8"/>
       <c r="BA3" s="8"/>
-      <c r="BB3" s="75"/>
-      <c r="BC3" s="75"/>
-      <c r="BD3" s="75"/>
-      <c r="BE3" s="75"/>
+      <c r="BB3" s="74"/>
+      <c r="BC3" s="74"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="74"/>
     </row>
     <row r="4" ht="18.5" customHeight="1" spans="2:57">
       <c r="B4" s="14"/>
@@ -3118,16 +3068,16 @@
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="19"/>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48" t="s">
+      <c r="M5" s="45"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="47"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="46"/>
       <c r="R5" s="17" t="s">
         <v>8</v>
       </c>
@@ -3183,21 +3133,21 @@
       </c>
       <c r="AW5" s="18"/>
       <c r="AX5" s="19"/>
-      <c r="AY5" s="76" t="s">
+      <c r="AY5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="AZ5" s="77"/>
-      <c r="BA5" s="78"/>
-      <c r="BB5" s="77" t="s">
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="77"/>
+      <c r="BB5" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="BC5" s="77"/>
-      <c r="BD5" s="77"/>
-      <c r="BE5" s="84" t="s">
+      <c r="BC5" s="76"/>
+      <c r="BD5" s="76"/>
+      <c r="BE5" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="BF5" s="85"/>
-      <c r="BG5" s="85"/>
+      <c r="BF5" s="84"/>
+      <c r="BG5" s="84"/>
       <c r="BH5" s="17" t="s">
         <v>22</v>
       </c>
@@ -3233,25 +3183,25 @@
       <c r="J6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="49" t="s">
+      <c r="K6" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="52" t="s">
+      <c r="N6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="53" t="s">
+      <c r="O6" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="51" t="s">
+      <c r="P6" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="52" t="s">
+      <c r="Q6" s="51" t="s">
         <v>25</v>
       </c>
       <c r="R6" s="23" t="s">
@@ -3260,10 +3210,10 @@
       <c r="S6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="49" t="s">
+      <c r="T6" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="67" t="s">
         <v>23</v>
       </c>
       <c r="V6" s="24" t="s">
@@ -3278,10 +3228,10 @@
       <c r="Y6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" s="49" t="s">
+      <c r="Z6" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AA6" s="68" t="s">
+      <c r="AA6" s="67" t="s">
         <v>23</v>
       </c>
       <c r="AB6" s="24" t="s">
@@ -3296,7 +3246,7 @@
       <c r="AE6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AF6" s="49" t="s">
+      <c r="AF6" s="48" t="s">
         <v>25</v>
       </c>
       <c r="AG6" s="23" t="s">
@@ -3305,7 +3255,7 @@
       <c r="AH6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AI6" s="49" t="s">
+      <c r="AI6" s="48" t="s">
         <v>25</v>
       </c>
       <c r="AJ6" s="23" t="s">
@@ -3314,7 +3264,7 @@
       <c r="AK6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AL6" s="49" t="s">
+      <c r="AL6" s="48" t="s">
         <v>25</v>
       </c>
       <c r="AM6" s="23" t="s">
@@ -3323,7 +3273,7 @@
       <c r="AN6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AO6" s="49" t="s">
+      <c r="AO6" s="48" t="s">
         <v>25</v>
       </c>
       <c r="AP6" s="23" t="s">
@@ -3332,7 +3282,7 @@
       <c r="AQ6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AR6" s="49" t="s">
+      <c r="AR6" s="48" t="s">
         <v>25</v>
       </c>
       <c r="AS6" s="23" t="s">
@@ -3341,7 +3291,7 @@
       <c r="AT6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AU6" s="49" t="s">
+      <c r="AU6" s="48" t="s">
         <v>25</v>
       </c>
       <c r="AV6" s="23" t="s">
@@ -3350,52 +3300,52 @@
       <c r="AW6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AX6" s="49" t="s">
+      <c r="AX6" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AY6" s="79" t="s">
+      <c r="AY6" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="AZ6" s="80" t="s">
+      <c r="AZ6" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="BA6" s="81" t="s">
+      <c r="BA6" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="BB6" s="82" t="s">
+      <c r="BB6" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="BC6" s="80" t="s">
+      <c r="BC6" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="BD6" s="83" t="s">
+      <c r="BD6" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="BE6" s="86" t="s">
+      <c r="BE6" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="BF6" s="51" t="s">
+      <c r="BF6" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="BG6" s="87" t="s">
+      <c r="BG6" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="BH6" s="86" t="s">
+      <c r="BH6" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="BI6" s="88" t="s">
+      <c r="BI6" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="BJ6" s="88" t="s">
+      <c r="BJ6" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="BK6" s="88" t="s">
+      <c r="BK6" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="BL6" s="89" t="s">
+      <c r="BL6" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="BM6" s="106" t="s">
+      <c r="BM6" s="95" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3419,43 +3369,43 @@
       <c r="H7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="53" t="s">
         <v>32</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="L7" s="53" t="s">
         <v>35</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="55" t="s">
+      <c r="N7" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="56" t="s">
+      <c r="O7" s="55" t="s">
         <v>38</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="55" t="s">
+      <c r="Q7" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="54" t="s">
+      <c r="R7" s="53" t="s">
         <v>41</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T7" s="55" t="s">
+      <c r="T7" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="56" t="s">
+      <c r="U7" s="55" t="s">
         <v>44</v>
       </c>
       <c r="V7" s="4" t="s">
@@ -3464,16 +3414,16 @@
       <c r="W7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="X7" s="54" t="s">
+      <c r="X7" s="53" t="s">
         <v>47</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Z7" s="55" t="s">
+      <c r="Z7" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="AA7" s="56" t="s">
+      <c r="AA7" s="55" t="s">
         <v>50</v>
       </c>
       <c r="AB7" s="4" t="s">
@@ -3482,79 +3432,79 @@
       <c r="AC7" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AD7" s="54" t="s">
+      <c r="AD7" s="53" t="s">
         <v>53</v>
       </c>
       <c r="AE7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AF7" s="55" t="s">
+      <c r="AF7" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="AG7" s="54" t="s">
+      <c r="AG7" s="53" t="s">
         <v>56</v>
       </c>
       <c r="AH7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AI7" s="55" t="s">
+      <c r="AI7" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="AJ7" s="54" t="s">
+      <c r="AJ7" s="53" t="s">
         <v>59</v>
       </c>
       <c r="AK7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AL7" s="55" t="s">
+      <c r="AL7" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="AM7" s="54" t="s">
+      <c r="AM7" s="53" t="s">
         <v>62</v>
       </c>
       <c r="AN7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AO7" s="55" t="s">
+      <c r="AO7" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="AP7" s="54" t="s">
+      <c r="AP7" s="53" t="s">
         <v>65</v>
       </c>
       <c r="AQ7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AR7" s="55" t="s">
+      <c r="AR7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="AS7" s="54" t="s">
+      <c r="AS7" s="53" t="s">
         <v>68</v>
       </c>
       <c r="AT7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AU7" s="55" t="s">
+      <c r="AU7" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="AV7" s="54" t="s">
+      <c r="AV7" s="53" t="s">
         <v>71</v>
       </c>
       <c r="AW7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AX7" s="55" t="s">
+      <c r="AX7" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="AY7" s="54" t="s">
+      <c r="AY7" s="53" t="s">
         <v>74</v>
       </c>
       <c r="AZ7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BA7" s="55" t="s">
+      <c r="BA7" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="BB7" s="56" t="s">
+      <c r="BB7" s="55" t="s">
         <v>77</v>
       </c>
       <c r="BC7" s="4" t="s">
@@ -3563,12 +3513,12 @@
       <c r="BD7" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="BE7" s="54"/>
-      <c r="BF7" s="80"/>
-      <c r="BG7" s="81"/>
-      <c r="BH7" s="54"/>
-      <c r="BM7" s="55"/>
-      <c r="BN7" s="56"/>
+      <c r="BE7" s="53"/>
+      <c r="BF7" s="79"/>
+      <c r="BG7" s="80"/>
+      <c r="BH7" s="53"/>
+      <c r="BM7" s="54"/>
+      <c r="BN7" s="55"/>
     </row>
     <row r="8" ht="15" spans="2:65">
       <c r="B8" s="28">
@@ -3606,11 +3556,11 @@
         <f>IF(_acsReport_day_each!H2="","",_acsReport_day_each!H2)</f>
         <v/>
       </c>
-      <c r="K8" s="57" t="str">
+      <c r="K8" s="56" t="str">
         <f>IF(_acsReport_day_each!I2="","",_acsReport_day_each!I2)</f>
         <v/>
       </c>
-      <c r="L8" s="58" t="str">
+      <c r="L8" s="57" t="str">
         <f>IF(_acsReport_day_each!J2="","",_acsReport_day_each!J2)</f>
         <v/>
       </c>
@@ -3618,11 +3568,11 @@
         <f>IF(_acsReport_day_each!K2="","",_acsReport_day_each!K2)</f>
         <v/>
       </c>
-      <c r="N8" s="59" t="str">
+      <c r="N8" s="58" t="str">
         <f>IF(_acsReport_day_each!L2="","",_acsReport_day_each!L2)</f>
         <v/>
       </c>
-      <c r="O8" s="60" t="str">
+      <c r="O8" s="59" t="str">
         <f>IF(_acsReport_day_each!M2="","",_acsReport_day_each!M2)</f>
         <v/>
       </c>
@@ -3630,11 +3580,11 @@
         <f>IF(_acsReport_day_each!N2="","",_acsReport_day_each!N2)</f>
         <v/>
       </c>
-      <c r="Q8" s="59" t="str">
+      <c r="Q8" s="58" t="str">
         <f>IF(_acsReport_day_each!O2="","",_acsReport_day_each!O2)</f>
         <v/>
       </c>
-      <c r="R8" s="58" t="str">
+      <c r="R8" s="57" t="str">
         <f>IF(_acsReport_day_each!P2="","",_acsReport_day_each!P2)</f>
         <v/>
       </c>
@@ -3642,11 +3592,11 @@
         <f>IF(_acsReport_day_each!Q2="","",_acsReport_day_each!Q2)</f>
         <v/>
       </c>
-      <c r="T8" s="61" t="str">
+      <c r="T8" s="60" t="str">
         <f>IF(_acsReport_day_each!R2="","",_acsReport_day_each!R2)</f>
         <v/>
       </c>
-      <c r="U8" s="69" t="str">
+      <c r="U8" s="68" t="str">
         <f>IF(_acsReport_day_each!S2="","",_acsReport_day_each!S2)</f>
         <v/>
       </c>
@@ -3654,11 +3604,11 @@
         <f>IF(_acsReport_day_each!T2="","",_acsReport_day_each!T2)</f>
         <v/>
       </c>
-      <c r="W8" s="60" t="str">
+      <c r="W8" s="59" t="str">
         <f>IF(_acsReport_day_each!U2="","",_acsReport_day_each!U2)</f>
         <v/>
       </c>
-      <c r="X8" s="58" t="str">
+      <c r="X8" s="57" t="str">
         <f>IF(_acsReport_day_each!V2="","",_acsReport_day_each!V2)</f>
         <v/>
       </c>
@@ -3666,11 +3616,11 @@
         <f>IF(_acsReport_day_each!W2="","",_acsReport_day_each!W2)</f>
         <v/>
       </c>
-      <c r="Z8" s="59" t="str">
+      <c r="Z8" s="58" t="str">
         <f>IF(_acsReport_day_each!X2="","",_acsReport_day_each!X2)</f>
         <v/>
       </c>
-      <c r="AA8" s="71" t="str">
+      <c r="AA8" s="70" t="str">
         <f>IF(_acsReport_day_each!Y2="","",_acsReport_day_each!Y2)</f>
         <v/>
       </c>
@@ -3690,7 +3640,7 @@
         <f>IF(_acsReport_day_each!AC2="","",_acsReport_day_each!AC2)</f>
         <v/>
       </c>
-      <c r="AF8" s="61" t="str">
+      <c r="AF8" s="60" t="str">
         <f>IF(_acsReport_day_each!AD2="","",_acsReport_day_each!AD2)</f>
         <v/>
       </c>
@@ -3702,7 +3652,7 @@
         <f>IF(_acsReport_day_each!AF2="","",_acsReport_day_each!AF2)</f>
         <v/>
       </c>
-      <c r="AI8" s="61" t="str">
+      <c r="AI8" s="60" t="str">
         <f>IF(_acsReport_day_each!AG2="","",_acsReport_day_each!AG2)</f>
         <v/>
       </c>
@@ -3714,7 +3664,7 @@
         <f>IF(_acsReport_day_each!AI2="","",_acsReport_day_each!AI2)</f>
         <v/>
       </c>
-      <c r="AL8" s="61" t="str">
+      <c r="AL8" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ2="","",_acsReport_day_each!AJ2)</f>
         <v/>
       </c>
@@ -3726,7 +3676,7 @@
         <f>IF(_acsReport_day_each!AL2="","",_acsReport_day_each!AL2)</f>
         <v/>
       </c>
-      <c r="AO8" s="61" t="str">
+      <c r="AO8" s="60" t="str">
         <f>IF(_acsReport_day_each!AM2="","",_acsReport_day_each!AM2)</f>
         <v/>
       </c>
@@ -3738,7 +3688,7 @@
         <f>IF(_acsReport_day_each!AO2="","",_acsReport_day_each!AO2)</f>
         <v/>
       </c>
-      <c r="AR8" s="61" t="str">
+      <c r="AR8" s="60" t="str">
         <f>IF(_acsReport_day_each!AP2="","",_acsReport_day_each!AP2)</f>
         <v/>
       </c>
@@ -3750,7 +3700,7 @@
         <f>IF(_acsReport_day_each!AR2="","",_acsReport_day_each!AR2)</f>
         <v/>
       </c>
-      <c r="AU8" s="61" t="str">
+      <c r="AU8" s="60" t="str">
         <f>IF(_acsReport_day_each!AS2="","",_acsReport_day_each!AS2)</f>
         <v/>
       </c>
@@ -3762,7 +3712,7 @@
         <f>IF(_acsReport_day_each!AU2="","",_acsReport_day_each!AU2)</f>
         <v/>
       </c>
-      <c r="AX8" s="61" t="str">
+      <c r="AX8" s="60" t="str">
         <f>IF(_acsReport_day_each!AV2="","",_acsReport_day_each!AV2)</f>
         <v/>
       </c>
@@ -3774,11 +3724,11 @@
         <f>IF(_acsReport_day_each!AX2="","",_acsReport_day_each!AX2)</f>
         <v/>
       </c>
-      <c r="BA8" s="61" t="str">
+      <c r="BA8" s="60" t="str">
         <f>IF(_acsReport_day_each!AY2="","",_acsReport_day_each!AY2)</f>
         <v/>
       </c>
-      <c r="BB8" s="71" t="str">
+      <c r="BB8" s="70" t="str">
         <f>IF(_acsReport_day_each!AZ2="","",_acsReport_day_each!AZ2)</f>
         <v/>
       </c>
@@ -3790,39 +3740,39 @@
         <f>IF(_acsReport_day_each!BB2="","",_acsReport_day_each!BB2)</f>
         <v/>
       </c>
-      <c r="BE8" s="90" t="str">
+      <c r="BE8" s="33" t="str">
         <f>IF(_acsReport_day_each!BD2="","",ACS_ACM1_MAIN!BD2)</f>
         <v/>
       </c>
-      <c r="BF8" s="91" t="str">
+      <c r="BF8" s="30" t="str">
         <f>IF(_acsReport_day_each!BE2="","",ACS_ACM1_MAIN!BE2)</f>
         <v/>
       </c>
-      <c r="BG8" s="92" t="str">
+      <c r="BG8" s="60" t="str">
         <f>IF(_acsReport_day_each!BF2="","",ACS_ACM1_MAIN!BF2)</f>
         <v/>
       </c>
-      <c r="BH8" s="90" t="str">
+      <c r="BH8" s="33" t="str">
         <f>IF(_acsReport_day_each!BG2="","",ACS_ACM1_MAIN!BG2)</f>
         <v/>
       </c>
-      <c r="BI8" s="91" t="str">
+      <c r="BI8" s="30" t="str">
         <f>IF(_acsReport_day_each!BH2="","",ACS_ACM1_MAIN!BH2)</f>
         <v/>
       </c>
-      <c r="BJ8" s="91" t="str">
+      <c r="BJ8" s="30" t="str">
         <f>IF(_acsReport_day_each!BI2="","",ACS_ACM1_MAIN!BI2)</f>
         <v/>
       </c>
-      <c r="BK8" s="91" t="str">
+      <c r="BK8" s="30" t="str">
         <f>IF(_acsReport_day_each!BJ2="","",ACS_ACM1_MAIN!BJ2)</f>
         <v/>
       </c>
-      <c r="BL8" s="91" t="str">
+      <c r="BL8" s="30" t="str">
         <f>IF(_acsReport_day_each!BH2="","",ACS_ACM1_MAIN!BH2)</f>
         <v/>
       </c>
-      <c r="BM8" s="92" t="str">
+      <c r="BM8" s="60" t="str">
         <f>IF(_acsReport_day_each!BI2="","",ACS_ACM1_MAIN!BI2)</f>
         <v/>
       </c>
@@ -3863,7 +3813,7 @@
         <f>IF(_acsReport_day_each!H3="","",_acsReport_day_each!H3)</f>
         <v/>
       </c>
-      <c r="K9" s="61" t="str">
+      <c r="K9" s="60" t="str">
         <f>IF(_acsReport_day_each!I3="","",_acsReport_day_each!I3)</f>
         <v/>
       </c>
@@ -3875,11 +3825,11 @@
         <f>IF(_acsReport_day_each!K3="","",_acsReport_day_each!K3)</f>
         <v/>
       </c>
-      <c r="N9" s="61" t="str">
+      <c r="N9" s="60" t="str">
         <f>IF(_acsReport_day_each!L3="","",_acsReport_day_each!L3)</f>
         <v/>
       </c>
-      <c r="O9" s="62" t="str">
+      <c r="O9" s="61" t="str">
         <f>IF(_acsReport_day_each!M3="","",_acsReport_day_each!M3)</f>
         <v/>
       </c>
@@ -3887,7 +3837,7 @@
         <f>IF(_acsReport_day_each!N3="","",_acsReport_day_each!N3)</f>
         <v/>
       </c>
-      <c r="Q9" s="61" t="str">
+      <c r="Q9" s="60" t="str">
         <f>IF(_acsReport_day_each!O3="","",_acsReport_day_each!O3)</f>
         <v/>
       </c>
@@ -3899,11 +3849,11 @@
         <f>IF(_acsReport_day_each!Q3="","",_acsReport_day_each!Q3)</f>
         <v/>
       </c>
-      <c r="T9" s="61" t="str">
+      <c r="T9" s="60" t="str">
         <f>IF(_acsReport_day_each!R3="","",_acsReport_day_each!R3)</f>
         <v/>
       </c>
-      <c r="U9" s="62" t="str">
+      <c r="U9" s="61" t="str">
         <f>IF(_acsReport_day_each!S3="","",_acsReport_day_each!S3)</f>
         <v/>
       </c>
@@ -3923,11 +3873,11 @@
         <f>IF(_acsReport_day_each!W3="","",_acsReport_day_each!W3)</f>
         <v/>
       </c>
-      <c r="Z9" s="61" t="str">
+      <c r="Z9" s="60" t="str">
         <f>IF(_acsReport_day_each!X3="","",_acsReport_day_each!X3)</f>
         <v/>
       </c>
-      <c r="AA9" s="62" t="str">
+      <c r="AA9" s="61" t="str">
         <f>IF(_acsReport_day_each!Y3="","",_acsReport_day_each!Y3)</f>
         <v/>
       </c>
@@ -3947,7 +3897,7 @@
         <f>IF(_acsReport_day_each!AC3="","",_acsReport_day_each!AC3)</f>
         <v/>
       </c>
-      <c r="AF9" s="61" t="str">
+      <c r="AF9" s="60" t="str">
         <f>IF(_acsReport_day_each!AD3="","",_acsReport_day_each!AD3)</f>
         <v/>
       </c>
@@ -3959,7 +3909,7 @@
         <f>IF(_acsReport_day_each!AF3="","",_acsReport_day_each!AF3)</f>
         <v/>
       </c>
-      <c r="AI9" s="61" t="str">
+      <c r="AI9" s="60" t="str">
         <f>IF(_acsReport_day_each!AG3="","",_acsReport_day_each!AG3)</f>
         <v/>
       </c>
@@ -3971,7 +3921,7 @@
         <f>IF(_acsReport_day_each!AI3="","",_acsReport_day_each!AI3)</f>
         <v/>
       </c>
-      <c r="AL9" s="61" t="str">
+      <c r="AL9" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ3="","",_acsReport_day_each!AJ3)</f>
         <v/>
       </c>
@@ -3983,7 +3933,7 @@
         <f>IF(_acsReport_day_each!AL3="","",_acsReport_day_each!AL3)</f>
         <v/>
       </c>
-      <c r="AO9" s="61" t="str">
+      <c r="AO9" s="60" t="str">
         <f>IF(_acsReport_day_each!AM3="","",_acsReport_day_each!AM3)</f>
         <v/>
       </c>
@@ -3995,7 +3945,7 @@
         <f>IF(_acsReport_day_each!AO3="","",_acsReport_day_each!AO3)</f>
         <v/>
       </c>
-      <c r="AR9" s="61" t="str">
+      <c r="AR9" s="60" t="str">
         <f>IF(_acsReport_day_each!AP3="","",_acsReport_day_each!AP3)</f>
         <v/>
       </c>
@@ -4007,7 +3957,7 @@
         <f>IF(_acsReport_day_each!AR3="","",_acsReport_day_each!AR3)</f>
         <v/>
       </c>
-      <c r="AU9" s="61" t="str">
+      <c r="AU9" s="60" t="str">
         <f>IF(_acsReport_day_each!AS3="","",_acsReport_day_each!AS3)</f>
         <v/>
       </c>
@@ -4019,7 +3969,7 @@
         <f>IF(_acsReport_day_each!AU3="","",_acsReport_day_each!AU3)</f>
         <v/>
       </c>
-      <c r="AX9" s="61" t="str">
+      <c r="AX9" s="60" t="str">
         <f>IF(_acsReport_day_each!AV3="","",_acsReport_day_each!AV3)</f>
         <v/>
       </c>
@@ -4031,11 +3981,11 @@
         <f>IF(_acsReport_day_each!AX3="","",_acsReport_day_each!AX3)</f>
         <v/>
       </c>
-      <c r="BA9" s="61" t="str">
+      <c r="BA9" s="60" t="str">
         <f>IF(_acsReport_day_each!AY3="","",_acsReport_day_each!AY3)</f>
         <v/>
       </c>
-      <c r="BB9" s="62" t="str">
+      <c r="BB9" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ3="","",_acsReport_day_each!AZ3)</f>
         <v/>
       </c>
@@ -4047,39 +3997,39 @@
         <f>IF(_acsReport_day_each!BB3="","",_acsReport_day_each!BB3)</f>
         <v/>
       </c>
-      <c r="BE9" s="90" t="str">
+      <c r="BE9" s="33" t="str">
         <f>IF(_acsReport_day_each!BD3="","",ACS_ACM1_MAIN!BD3)</f>
         <v/>
       </c>
-      <c r="BF9" s="91" t="str">
+      <c r="BF9" s="30" t="str">
         <f>IF(_acsReport_day_each!BE3="","",ACS_ACM1_MAIN!BE3)</f>
         <v/>
       </c>
-      <c r="BG9" s="92" t="str">
+      <c r="BG9" s="60" t="str">
         <f>IF(_acsReport_day_each!BF3="","",ACS_ACM1_MAIN!BF3)</f>
         <v/>
       </c>
-      <c r="BH9" s="90" t="str">
+      <c r="BH9" s="33" t="str">
         <f>IF(_acsReport_day_each!BG3="","",ACS_ACM1_MAIN!BG3)</f>
         <v/>
       </c>
-      <c r="BI9" s="93">
-        <f>IF(_acsReport_day_each!BJ3&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="93">
-        <f>IF(_acsReport_day_each!BK3&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK9" s="29">
-        <f>IF(_acsReport_day_each!BL3&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL9" s="91" t="str">
+      <c r="BI9" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ3="","",IF(_acsReport_day_each!BJ3&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ9" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK3="","",IF(_acsReport_day_each!BK3&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK9" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL3="","",IF(_acsReport_day_each!BL3&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL9" s="30" t="str">
         <f>IF(_acsReport_day_each!BH3="","",ACS_ACM1_MAIN!BH3)</f>
         <v/>
       </c>
-      <c r="BM9" s="92" t="str">
+      <c r="BM9" s="60" t="str">
         <f>IF(_acsReport_day_each!BI3="","",ACS_ACM1_MAIN!BI3)</f>
         <v/>
       </c>
@@ -4120,7 +4070,7 @@
         <f>IF(_acsReport_day_each!H4="","",_acsReport_day_each!H4)</f>
         <v/>
       </c>
-      <c r="K10" s="61" t="str">
+      <c r="K10" s="60" t="str">
         <f>IF(_acsReport_day_each!I4="","",_acsReport_day_each!I4)</f>
         <v/>
       </c>
@@ -4132,11 +4082,11 @@
         <f>IF(_acsReport_day_each!K4="","",_acsReport_day_each!K4)</f>
         <v/>
       </c>
-      <c r="N10" s="61" t="str">
+      <c r="N10" s="60" t="str">
         <f>IF(_acsReport_day_each!L4="","",_acsReport_day_each!L4)</f>
         <v/>
       </c>
-      <c r="O10" s="62" t="str">
+      <c r="O10" s="61" t="str">
         <f>IF(_acsReport_day_each!M4="","",_acsReport_day_each!M4)</f>
         <v/>
       </c>
@@ -4144,7 +4094,7 @@
         <f>IF(_acsReport_day_each!N4="","",_acsReport_day_each!N4)</f>
         <v/>
       </c>
-      <c r="Q10" s="61" t="str">
+      <c r="Q10" s="60" t="str">
         <f>IF(_acsReport_day_each!O4="","",_acsReport_day_each!O4)</f>
         <v/>
       </c>
@@ -4156,11 +4106,11 @@
         <f>IF(_acsReport_day_each!Q4="","",_acsReport_day_each!Q4)</f>
         <v/>
       </c>
-      <c r="T10" s="61" t="str">
+      <c r="T10" s="60" t="str">
         <f>IF(_acsReport_day_each!R4="","",_acsReport_day_each!R4)</f>
         <v/>
       </c>
-      <c r="U10" s="62" t="str">
+      <c r="U10" s="61" t="str">
         <f>IF(_acsReport_day_each!S4="","",_acsReport_day_each!S4)</f>
         <v/>
       </c>
@@ -4180,11 +4130,11 @@
         <f>IF(_acsReport_day_each!W4="","",_acsReport_day_each!W4)</f>
         <v/>
       </c>
-      <c r="Z10" s="61" t="str">
+      <c r="Z10" s="60" t="str">
         <f>IF(_acsReport_day_each!X4="","",_acsReport_day_each!X4)</f>
         <v/>
       </c>
-      <c r="AA10" s="62" t="str">
+      <c r="AA10" s="61" t="str">
         <f>IF(_acsReport_day_each!Y4="","",_acsReport_day_each!Y4)</f>
         <v/>
       </c>
@@ -4204,7 +4154,7 @@
         <f>IF(_acsReport_day_each!AC4="","",_acsReport_day_each!AC4)</f>
         <v/>
       </c>
-      <c r="AF10" s="61" t="str">
+      <c r="AF10" s="60" t="str">
         <f>IF(_acsReport_day_each!AD4="","",_acsReport_day_each!AD4)</f>
         <v/>
       </c>
@@ -4216,7 +4166,7 @@
         <f>IF(_acsReport_day_each!AF4="","",_acsReport_day_each!AF4)</f>
         <v/>
       </c>
-      <c r="AI10" s="61" t="str">
+      <c r="AI10" s="60" t="str">
         <f>IF(_acsReport_day_each!AG4="","",_acsReport_day_each!AG4)</f>
         <v/>
       </c>
@@ -4228,7 +4178,7 @@
         <f>IF(_acsReport_day_each!AI4="","",_acsReport_day_each!AI4)</f>
         <v/>
       </c>
-      <c r="AL10" s="61" t="str">
+      <c r="AL10" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ4="","",_acsReport_day_each!AJ4)</f>
         <v/>
       </c>
@@ -4240,7 +4190,7 @@
         <f>IF(_acsReport_day_each!AL4="","",_acsReport_day_each!AL4)</f>
         <v/>
       </c>
-      <c r="AO10" s="61" t="str">
+      <c r="AO10" s="60" t="str">
         <f>IF(_acsReport_day_each!AM4="","",_acsReport_day_each!AM4)</f>
         <v/>
       </c>
@@ -4252,7 +4202,7 @@
         <f>IF(_acsReport_day_each!AO4="","",_acsReport_day_each!AO4)</f>
         <v/>
       </c>
-      <c r="AR10" s="61" t="str">
+      <c r="AR10" s="60" t="str">
         <f>IF(_acsReport_day_each!AP4="","",_acsReport_day_each!AP4)</f>
         <v/>
       </c>
@@ -4264,7 +4214,7 @@
         <f>IF(_acsReport_day_each!AR4="","",_acsReport_day_each!AR4)</f>
         <v/>
       </c>
-      <c r="AU10" s="61" t="str">
+      <c r="AU10" s="60" t="str">
         <f>IF(_acsReport_day_each!AS4="","",_acsReport_day_each!AS4)</f>
         <v/>
       </c>
@@ -4276,7 +4226,7 @@
         <f>IF(_acsReport_day_each!AU4="","",_acsReport_day_each!AU4)</f>
         <v/>
       </c>
-      <c r="AX10" s="61" t="str">
+      <c r="AX10" s="60" t="str">
         <f>IF(_acsReport_day_each!AV4="","",_acsReport_day_each!AV4)</f>
         <v/>
       </c>
@@ -4288,11 +4238,11 @@
         <f>IF(_acsReport_day_each!AX4="","",_acsReport_day_each!AX4)</f>
         <v/>
       </c>
-      <c r="BA10" s="61" t="str">
+      <c r="BA10" s="60" t="str">
         <f>IF(_acsReport_day_each!AY4="","",_acsReport_day_each!AY4)</f>
         <v/>
       </c>
-      <c r="BB10" s="62" t="str">
+      <c r="BB10" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ4="","",_acsReport_day_each!AZ4)</f>
         <v/>
       </c>
@@ -4304,39 +4254,39 @@
         <f>IF(_acsReport_day_each!BB4="","",_acsReport_day_each!BB4)</f>
         <v/>
       </c>
-      <c r="BE10" s="90" t="str">
+      <c r="BE10" s="33" t="str">
         <f>IF(_acsReport_day_each!BD4="","",ACS_ACM1_MAIN!BD4)</f>
         <v/>
       </c>
-      <c r="BF10" s="91" t="str">
+      <c r="BF10" s="30" t="str">
         <f>IF(_acsReport_day_each!BE4="","",ACS_ACM1_MAIN!BE4)</f>
         <v/>
       </c>
-      <c r="BG10" s="92" t="str">
+      <c r="BG10" s="60" t="str">
         <f>IF(_acsReport_day_each!BF4="","",ACS_ACM1_MAIN!BF4)</f>
         <v/>
       </c>
-      <c r="BH10" s="90" t="str">
+      <c r="BH10" s="33" t="str">
         <f>IF(_acsReport_day_each!BG4="","",ACS_ACM1_MAIN!BG4)</f>
         <v/>
       </c>
-      <c r="BI10" s="93">
-        <f>IF(_acsReport_day_each!BJ4&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="93">
-        <f>IF(_acsReport_day_each!BK4&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK10" s="29">
-        <f>IF(_acsReport_day_each!BL4&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL10" s="91" t="str">
+      <c r="BI10" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ4="","",IF(_acsReport_day_each!BJ4&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ10" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK4="","",IF(_acsReport_day_each!BK4&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK10" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL4="","",IF(_acsReport_day_each!BL4&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL10" s="30" t="str">
         <f>IF(_acsReport_day_each!BH4="","",ACS_ACM1_MAIN!BH4)</f>
         <v/>
       </c>
-      <c r="BM10" s="92" t="str">
+      <c r="BM10" s="60" t="str">
         <f>IF(_acsReport_day_each!BI4="","",ACS_ACM1_MAIN!BI4)</f>
         <v/>
       </c>
@@ -4377,7 +4327,7 @@
         <f>IF(_acsReport_day_each!H5="","",_acsReport_day_each!H5)</f>
         <v/>
       </c>
-      <c r="K11" s="61" t="str">
+      <c r="K11" s="60" t="str">
         <f>IF(_acsReport_day_each!I5="","",_acsReport_day_each!I5)</f>
         <v/>
       </c>
@@ -4389,11 +4339,11 @@
         <f>IF(_acsReport_day_each!K5="","",_acsReport_day_each!K5)</f>
         <v/>
       </c>
-      <c r="N11" s="61" t="str">
+      <c r="N11" s="60" t="str">
         <f>IF(_acsReport_day_each!L5="","",_acsReport_day_each!L5)</f>
         <v/>
       </c>
-      <c r="O11" s="62" t="str">
+      <c r="O11" s="61" t="str">
         <f>IF(_acsReport_day_each!M5="","",_acsReport_day_each!M5)</f>
         <v/>
       </c>
@@ -4401,7 +4351,7 @@
         <f>IF(_acsReport_day_each!N5="","",_acsReport_day_each!N5)</f>
         <v/>
       </c>
-      <c r="Q11" s="61" t="str">
+      <c r="Q11" s="60" t="str">
         <f>IF(_acsReport_day_each!O5="","",_acsReport_day_each!O5)</f>
         <v/>
       </c>
@@ -4413,11 +4363,11 @@
         <f>IF(_acsReport_day_each!Q5="","",_acsReport_day_each!Q5)</f>
         <v/>
       </c>
-      <c r="T11" s="61" t="str">
+      <c r="T11" s="60" t="str">
         <f>IF(_acsReport_day_each!R5="","",_acsReport_day_each!R5)</f>
         <v/>
       </c>
-      <c r="U11" s="62" t="str">
+      <c r="U11" s="61" t="str">
         <f>IF(_acsReport_day_each!S5="","",_acsReport_day_each!S5)</f>
         <v/>
       </c>
@@ -4437,11 +4387,11 @@
         <f>IF(_acsReport_day_each!W5="","",_acsReport_day_each!W5)</f>
         <v/>
       </c>
-      <c r="Z11" s="61" t="str">
+      <c r="Z11" s="60" t="str">
         <f>IF(_acsReport_day_each!X5="","",_acsReport_day_each!X5)</f>
         <v/>
       </c>
-      <c r="AA11" s="62" t="str">
+      <c r="AA11" s="61" t="str">
         <f>IF(_acsReport_day_each!Y5="","",_acsReport_day_each!Y5)</f>
         <v/>
       </c>
@@ -4461,7 +4411,7 @@
         <f>IF(_acsReport_day_each!AC5="","",_acsReport_day_each!AC5)</f>
         <v/>
       </c>
-      <c r="AF11" s="61" t="str">
+      <c r="AF11" s="60" t="str">
         <f>IF(_acsReport_day_each!AD5="","",_acsReport_day_each!AD5)</f>
         <v/>
       </c>
@@ -4473,7 +4423,7 @@
         <f>IF(_acsReport_day_each!AF5="","",_acsReport_day_each!AF5)</f>
         <v/>
       </c>
-      <c r="AI11" s="61" t="str">
+      <c r="AI11" s="60" t="str">
         <f>IF(_acsReport_day_each!AG5="","",_acsReport_day_each!AG5)</f>
         <v/>
       </c>
@@ -4485,7 +4435,7 @@
         <f>IF(_acsReport_day_each!AI5="","",_acsReport_day_each!AI5)</f>
         <v/>
       </c>
-      <c r="AL11" s="61" t="str">
+      <c r="AL11" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ5="","",_acsReport_day_each!AJ5)</f>
         <v/>
       </c>
@@ -4497,7 +4447,7 @@
         <f>IF(_acsReport_day_each!AL5="","",_acsReport_day_each!AL5)</f>
         <v/>
       </c>
-      <c r="AO11" s="61" t="str">
+      <c r="AO11" s="60" t="str">
         <f>IF(_acsReport_day_each!AM5="","",_acsReport_day_each!AM5)</f>
         <v/>
       </c>
@@ -4509,7 +4459,7 @@
         <f>IF(_acsReport_day_each!AO5="","",_acsReport_day_each!AO5)</f>
         <v/>
       </c>
-      <c r="AR11" s="61" t="str">
+      <c r="AR11" s="60" t="str">
         <f>IF(_acsReport_day_each!AP5="","",_acsReport_day_each!AP5)</f>
         <v/>
       </c>
@@ -4521,7 +4471,7 @@
         <f>IF(_acsReport_day_each!AR5="","",_acsReport_day_each!AR5)</f>
         <v/>
       </c>
-      <c r="AU11" s="61" t="str">
+      <c r="AU11" s="60" t="str">
         <f>IF(_acsReport_day_each!AS5="","",_acsReport_day_each!AS5)</f>
         <v/>
       </c>
@@ -4533,7 +4483,7 @@
         <f>IF(_acsReport_day_each!AU5="","",_acsReport_day_each!AU5)</f>
         <v/>
       </c>
-      <c r="AX11" s="61" t="str">
+      <c r="AX11" s="60" t="str">
         <f>IF(_acsReport_day_each!AV5="","",_acsReport_day_each!AV5)</f>
         <v/>
       </c>
@@ -4545,11 +4495,11 @@
         <f>IF(_acsReport_day_each!AX5="","",_acsReport_day_each!AX5)</f>
         <v/>
       </c>
-      <c r="BA11" s="61" t="str">
+      <c r="BA11" s="60" t="str">
         <f>IF(_acsReport_day_each!AY5="","",_acsReport_day_each!AY5)</f>
         <v/>
       </c>
-      <c r="BB11" s="62" t="str">
+      <c r="BB11" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ5="","",_acsReport_day_each!AZ5)</f>
         <v/>
       </c>
@@ -4561,39 +4511,39 @@
         <f>IF(_acsReport_day_each!BB5="","",_acsReport_day_each!BB5)</f>
         <v/>
       </c>
-      <c r="BE11" s="90" t="str">
+      <c r="BE11" s="33" t="str">
         <f>IF(_acsReport_day_each!BD5="","",ACS_ACM1_MAIN!BD5)</f>
         <v/>
       </c>
-      <c r="BF11" s="91" t="str">
+      <c r="BF11" s="30" t="str">
         <f>IF(_acsReport_day_each!BE5="","",ACS_ACM1_MAIN!BE5)</f>
         <v/>
       </c>
-      <c r="BG11" s="92" t="str">
+      <c r="BG11" s="60" t="str">
         <f>IF(_acsReport_day_each!BF5="","",ACS_ACM1_MAIN!BF5)</f>
         <v/>
       </c>
-      <c r="BH11" s="90" t="str">
+      <c r="BH11" s="33" t="str">
         <f>IF(_acsReport_day_each!BG5="","",ACS_ACM1_MAIN!BG5)</f>
         <v/>
       </c>
-      <c r="BI11" s="93">
-        <f>IF(_acsReport_day_each!BJ5&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="93">
-        <f>IF(_acsReport_day_each!BK5&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK11" s="29">
-        <f>IF(_acsReport_day_each!BL5&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL11" s="91" t="str">
+      <c r="BI11" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ5="","",IF(_acsReport_day_each!BJ5&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ11" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK5="","",IF(_acsReport_day_each!BK5&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK11" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL5="","",IF(_acsReport_day_each!BL5&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL11" s="30" t="str">
         <f>IF(_acsReport_day_each!BH5="","",ACS_ACM1_MAIN!BH5)</f>
         <v/>
       </c>
-      <c r="BM11" s="92" t="str">
+      <c r="BM11" s="60" t="str">
         <f>IF(_acsReport_day_each!BI5="","",ACS_ACM1_MAIN!BI5)</f>
         <v/>
       </c>
@@ -4634,7 +4584,7 @@
         <f>IF(_acsReport_day_each!H6="","",_acsReport_day_each!H6)</f>
         <v/>
       </c>
-      <c r="K12" s="61" t="str">
+      <c r="K12" s="60" t="str">
         <f>IF(_acsReport_day_each!I6="","",_acsReport_day_each!I6)</f>
         <v/>
       </c>
@@ -4646,11 +4596,11 @@
         <f>IF(_acsReport_day_each!K6="","",_acsReport_day_each!K6)</f>
         <v/>
       </c>
-      <c r="N12" s="61" t="str">
+      <c r="N12" s="60" t="str">
         <f>IF(_acsReport_day_each!L6="","",_acsReport_day_each!L6)</f>
         <v/>
       </c>
-      <c r="O12" s="62" t="str">
+      <c r="O12" s="61" t="str">
         <f>IF(_acsReport_day_each!M6="","",_acsReport_day_each!M6)</f>
         <v/>
       </c>
@@ -4658,7 +4608,7 @@
         <f>IF(_acsReport_day_each!N6="","",_acsReport_day_each!N6)</f>
         <v/>
       </c>
-      <c r="Q12" s="61" t="str">
+      <c r="Q12" s="60" t="str">
         <f>IF(_acsReport_day_each!O6="","",_acsReport_day_each!O6)</f>
         <v/>
       </c>
@@ -4670,11 +4620,11 @@
         <f>IF(_acsReport_day_each!Q6="","",_acsReport_day_each!Q6)</f>
         <v/>
       </c>
-      <c r="T12" s="61" t="str">
+      <c r="T12" s="60" t="str">
         <f>IF(_acsReport_day_each!R6="","",_acsReport_day_each!R6)</f>
         <v/>
       </c>
-      <c r="U12" s="62" t="str">
+      <c r="U12" s="61" t="str">
         <f>IF(_acsReport_day_each!S6="","",_acsReport_day_each!S6)</f>
         <v/>
       </c>
@@ -4694,11 +4644,11 @@
         <f>IF(_acsReport_day_each!W6="","",_acsReport_day_each!W6)</f>
         <v/>
       </c>
-      <c r="Z12" s="61" t="str">
+      <c r="Z12" s="60" t="str">
         <f>IF(_acsReport_day_each!X6="","",_acsReport_day_each!X6)</f>
         <v/>
       </c>
-      <c r="AA12" s="62" t="str">
+      <c r="AA12" s="61" t="str">
         <f>IF(_acsReport_day_each!Y6="","",_acsReport_day_each!Y6)</f>
         <v/>
       </c>
@@ -4718,7 +4668,7 @@
         <f>IF(_acsReport_day_each!AC6="","",_acsReport_day_each!AC6)</f>
         <v/>
       </c>
-      <c r="AF12" s="61" t="str">
+      <c r="AF12" s="60" t="str">
         <f>IF(_acsReport_day_each!AD6="","",_acsReport_day_each!AD6)</f>
         <v/>
       </c>
@@ -4730,7 +4680,7 @@
         <f>IF(_acsReport_day_each!AF6="","",_acsReport_day_each!AF6)</f>
         <v/>
       </c>
-      <c r="AI12" s="61" t="str">
+      <c r="AI12" s="60" t="str">
         <f>IF(_acsReport_day_each!AG6="","",_acsReport_day_each!AG6)</f>
         <v/>
       </c>
@@ -4742,7 +4692,7 @@
         <f>IF(_acsReport_day_each!AI6="","",_acsReport_day_each!AI6)</f>
         <v/>
       </c>
-      <c r="AL12" s="61" t="str">
+      <c r="AL12" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ6="","",_acsReport_day_each!AJ6)</f>
         <v/>
       </c>
@@ -4754,7 +4704,7 @@
         <f>IF(_acsReport_day_each!AL6="","",_acsReport_day_each!AL6)</f>
         <v/>
       </c>
-      <c r="AO12" s="61" t="str">
+      <c r="AO12" s="60" t="str">
         <f>IF(_acsReport_day_each!AM6="","",_acsReport_day_each!AM6)</f>
         <v/>
       </c>
@@ -4766,7 +4716,7 @@
         <f>IF(_acsReport_day_each!AO6="","",_acsReport_day_each!AO6)</f>
         <v/>
       </c>
-      <c r="AR12" s="61" t="str">
+      <c r="AR12" s="60" t="str">
         <f>IF(_acsReport_day_each!AP6="","",_acsReport_day_each!AP6)</f>
         <v/>
       </c>
@@ -4778,7 +4728,7 @@
         <f>IF(_acsReport_day_each!AR6="","",_acsReport_day_each!AR6)</f>
         <v/>
       </c>
-      <c r="AU12" s="61" t="str">
+      <c r="AU12" s="60" t="str">
         <f>IF(_acsReport_day_each!AS6="","",_acsReport_day_each!AS6)</f>
         <v/>
       </c>
@@ -4790,7 +4740,7 @@
         <f>IF(_acsReport_day_each!AU6="","",_acsReport_day_each!AU6)</f>
         <v/>
       </c>
-      <c r="AX12" s="61" t="str">
+      <c r="AX12" s="60" t="str">
         <f>IF(_acsReport_day_each!AV6="","",_acsReport_day_each!AV6)</f>
         <v/>
       </c>
@@ -4802,11 +4752,11 @@
         <f>IF(_acsReport_day_each!AX6="","",_acsReport_day_each!AX6)</f>
         <v/>
       </c>
-      <c r="BA12" s="61" t="str">
+      <c r="BA12" s="60" t="str">
         <f>IF(_acsReport_day_each!AY6="","",_acsReport_day_each!AY6)</f>
         <v/>
       </c>
-      <c r="BB12" s="62" t="str">
+      <c r="BB12" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ6="","",_acsReport_day_each!AZ6)</f>
         <v/>
       </c>
@@ -4818,39 +4768,39 @@
         <f>IF(_acsReport_day_each!BB6="","",_acsReport_day_each!BB6)</f>
         <v/>
       </c>
-      <c r="BE12" s="90" t="str">
+      <c r="BE12" s="33" t="str">
         <f>IF(_acsReport_day_each!BD6="","",ACS_ACM1_MAIN!BD6)</f>
         <v/>
       </c>
-      <c r="BF12" s="91" t="str">
+      <c r="BF12" s="30" t="str">
         <f>IF(_acsReport_day_each!BE6="","",ACS_ACM1_MAIN!BE6)</f>
         <v/>
       </c>
-      <c r="BG12" s="92" t="str">
+      <c r="BG12" s="60" t="str">
         <f>IF(_acsReport_day_each!BF6="","",ACS_ACM1_MAIN!BF6)</f>
         <v/>
       </c>
-      <c r="BH12" s="90" t="str">
+      <c r="BH12" s="33" t="str">
         <f>IF(_acsReport_day_each!BG6="","",ACS_ACM1_MAIN!BG6)</f>
         <v/>
       </c>
-      <c r="BI12" s="93">
-        <f>IF(_acsReport_day_each!BJ6&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="93">
-        <f>IF(_acsReport_day_each!BK6&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK12" s="29">
-        <f>IF(_acsReport_day_each!BL6&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL12" s="91" t="str">
+      <c r="BI12" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ6="","",IF(_acsReport_day_each!BJ6&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ12" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK6="","",IF(_acsReport_day_each!BK6&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK12" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL6="","",IF(_acsReport_day_each!BL6&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL12" s="30" t="str">
         <f>IF(_acsReport_day_each!BH6="","",ACS_ACM1_MAIN!BH6)</f>
         <v/>
       </c>
-      <c r="BM12" s="92" t="str">
+      <c r="BM12" s="60" t="str">
         <f>IF(_acsReport_day_each!BI6="","",ACS_ACM1_MAIN!BI6)</f>
         <v/>
       </c>
@@ -4891,7 +4841,7 @@
         <f>IF(_acsReport_day_each!H7="","",_acsReport_day_each!H7)</f>
         <v/>
       </c>
-      <c r="K13" s="61" t="str">
+      <c r="K13" s="60" t="str">
         <f>IF(_acsReport_day_each!I7="","",_acsReport_day_each!I7)</f>
         <v/>
       </c>
@@ -4903,11 +4853,11 @@
         <f>IF(_acsReport_day_each!K7="","",_acsReport_day_each!K7)</f>
         <v/>
       </c>
-      <c r="N13" s="61" t="str">
+      <c r="N13" s="60" t="str">
         <f>IF(_acsReport_day_each!L7="","",_acsReport_day_each!L7)</f>
         <v/>
       </c>
-      <c r="O13" s="62" t="str">
+      <c r="O13" s="61" t="str">
         <f>IF(_acsReport_day_each!M7="","",_acsReport_day_each!M7)</f>
         <v/>
       </c>
@@ -4915,7 +4865,7 @@
         <f>IF(_acsReport_day_each!N7="","",_acsReport_day_each!N7)</f>
         <v/>
       </c>
-      <c r="Q13" s="61" t="str">
+      <c r="Q13" s="60" t="str">
         <f>IF(_acsReport_day_each!O7="","",_acsReport_day_each!O7)</f>
         <v/>
       </c>
@@ -4927,11 +4877,11 @@
         <f>IF(_acsReport_day_each!Q7="","",_acsReport_day_each!Q7)</f>
         <v/>
       </c>
-      <c r="T13" s="61" t="str">
+      <c r="T13" s="60" t="str">
         <f>IF(_acsReport_day_each!R7="","",_acsReport_day_each!R7)</f>
         <v/>
       </c>
-      <c r="U13" s="62" t="str">
+      <c r="U13" s="61" t="str">
         <f>IF(_acsReport_day_each!S7="","",_acsReport_day_each!S7)</f>
         <v/>
       </c>
@@ -4951,11 +4901,11 @@
         <f>IF(_acsReport_day_each!W7="","",_acsReport_day_each!W7)</f>
         <v/>
       </c>
-      <c r="Z13" s="61" t="str">
+      <c r="Z13" s="60" t="str">
         <f>IF(_acsReport_day_each!X7="","",_acsReport_day_each!X7)</f>
         <v/>
       </c>
-      <c r="AA13" s="62" t="str">
+      <c r="AA13" s="61" t="str">
         <f>IF(_acsReport_day_each!Y7="","",_acsReport_day_each!Y7)</f>
         <v/>
       </c>
@@ -4975,7 +4925,7 @@
         <f>IF(_acsReport_day_each!AC7="","",_acsReport_day_each!AC7)</f>
         <v/>
       </c>
-      <c r="AF13" s="61" t="str">
+      <c r="AF13" s="60" t="str">
         <f>IF(_acsReport_day_each!AD7="","",_acsReport_day_each!AD7)</f>
         <v/>
       </c>
@@ -4987,7 +4937,7 @@
         <f>IF(_acsReport_day_each!AF7="","",_acsReport_day_each!AF7)</f>
         <v/>
       </c>
-      <c r="AI13" s="61" t="str">
+      <c r="AI13" s="60" t="str">
         <f>IF(_acsReport_day_each!AG7="","",_acsReport_day_each!AG7)</f>
         <v/>
       </c>
@@ -4999,7 +4949,7 @@
         <f>IF(_acsReport_day_each!AI7="","",_acsReport_day_each!AI7)</f>
         <v/>
       </c>
-      <c r="AL13" s="61" t="str">
+      <c r="AL13" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ7="","",_acsReport_day_each!AJ7)</f>
         <v/>
       </c>
@@ -5011,7 +4961,7 @@
         <f>IF(_acsReport_day_each!AL7="","",_acsReport_day_each!AL7)</f>
         <v/>
       </c>
-      <c r="AO13" s="61" t="str">
+      <c r="AO13" s="60" t="str">
         <f>IF(_acsReport_day_each!AM7="","",_acsReport_day_each!AM7)</f>
         <v/>
       </c>
@@ -5023,7 +4973,7 @@
         <f>IF(_acsReport_day_each!AO7="","",_acsReport_day_each!AO7)</f>
         <v/>
       </c>
-      <c r="AR13" s="61" t="str">
+      <c r="AR13" s="60" t="str">
         <f>IF(_acsReport_day_each!AP7="","",_acsReport_day_each!AP7)</f>
         <v/>
       </c>
@@ -5035,7 +4985,7 @@
         <f>IF(_acsReport_day_each!AR7="","",_acsReport_day_each!AR7)</f>
         <v/>
       </c>
-      <c r="AU13" s="61" t="str">
+      <c r="AU13" s="60" t="str">
         <f>IF(_acsReport_day_each!AS7="","",_acsReport_day_each!AS7)</f>
         <v/>
       </c>
@@ -5047,7 +4997,7 @@
         <f>IF(_acsReport_day_each!AU7="","",_acsReport_day_each!AU7)</f>
         <v/>
       </c>
-      <c r="AX13" s="61" t="str">
+      <c r="AX13" s="60" t="str">
         <f>IF(_acsReport_day_each!AV7="","",_acsReport_day_each!AV7)</f>
         <v/>
       </c>
@@ -5059,11 +5009,11 @@
         <f>IF(_acsReport_day_each!AX7="","",_acsReport_day_each!AX7)</f>
         <v/>
       </c>
-      <c r="BA13" s="61" t="str">
+      <c r="BA13" s="60" t="str">
         <f>IF(_acsReport_day_each!AY7="","",_acsReport_day_each!AY7)</f>
         <v/>
       </c>
-      <c r="BB13" s="62" t="str">
+      <c r="BB13" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ7="","",_acsReport_day_each!AZ7)</f>
         <v/>
       </c>
@@ -5075,39 +5025,39 @@
         <f>IF(_acsReport_day_each!BB7="","",_acsReport_day_each!BB7)</f>
         <v/>
       </c>
-      <c r="BE13" s="90" t="str">
+      <c r="BE13" s="33" t="str">
         <f>IF(_acsReport_day_each!BD7="","",ACS_ACM1_MAIN!BD7)</f>
         <v/>
       </c>
-      <c r="BF13" s="91" t="str">
+      <c r="BF13" s="30" t="str">
         <f>IF(_acsReport_day_each!BE7="","",ACS_ACM1_MAIN!BE7)</f>
         <v/>
       </c>
-      <c r="BG13" s="92" t="str">
+      <c r="BG13" s="60" t="str">
         <f>IF(_acsReport_day_each!BF7="","",ACS_ACM1_MAIN!BF7)</f>
         <v/>
       </c>
-      <c r="BH13" s="90" t="str">
+      <c r="BH13" s="33" t="str">
         <f>IF(_acsReport_day_each!BG7="","",ACS_ACM1_MAIN!BG7)</f>
         <v/>
       </c>
-      <c r="BI13" s="93">
-        <f>IF(_acsReport_day_each!BJ7&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="93">
-        <f>IF(_acsReport_day_each!BK7&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK13" s="29">
-        <f>IF(_acsReport_day_each!BL7&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL13" s="91" t="str">
+      <c r="BI13" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ7="","",IF(_acsReport_day_each!BJ7&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ13" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK7="","",IF(_acsReport_day_each!BK7&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK13" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL7="","",IF(_acsReport_day_each!BL7&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL13" s="30" t="str">
         <f>IF(_acsReport_day_each!BH7="","",ACS_ACM1_MAIN!BH7)</f>
         <v/>
       </c>
-      <c r="BM13" s="92" t="str">
+      <c r="BM13" s="60" t="str">
         <f>IF(_acsReport_day_each!BI7="","",ACS_ACM1_MAIN!BI7)</f>
         <v/>
       </c>
@@ -5148,7 +5098,7 @@
         <f>IF(_acsReport_day_each!H8="","",_acsReport_day_each!H8)</f>
         <v/>
       </c>
-      <c r="K14" s="61" t="str">
+      <c r="K14" s="60" t="str">
         <f>IF(_acsReport_day_each!I8="","",_acsReport_day_each!I8)</f>
         <v/>
       </c>
@@ -5160,11 +5110,11 @@
         <f>IF(_acsReport_day_each!K8="","",_acsReport_day_each!K8)</f>
         <v/>
       </c>
-      <c r="N14" s="61" t="str">
+      <c r="N14" s="60" t="str">
         <f>IF(_acsReport_day_each!L8="","",_acsReport_day_each!L8)</f>
         <v/>
       </c>
-      <c r="O14" s="62" t="str">
+      <c r="O14" s="61" t="str">
         <f>IF(_acsReport_day_each!M8="","",_acsReport_day_each!M8)</f>
         <v/>
       </c>
@@ -5172,7 +5122,7 @@
         <f>IF(_acsReport_day_each!N8="","",_acsReport_day_each!N8)</f>
         <v/>
       </c>
-      <c r="Q14" s="61" t="str">
+      <c r="Q14" s="60" t="str">
         <f>IF(_acsReport_day_each!O8="","",_acsReport_day_each!O8)</f>
         <v/>
       </c>
@@ -5184,11 +5134,11 @@
         <f>IF(_acsReport_day_each!Q8="","",_acsReport_day_each!Q8)</f>
         <v/>
       </c>
-      <c r="T14" s="61" t="str">
+      <c r="T14" s="60" t="str">
         <f>IF(_acsReport_day_each!R8="","",_acsReport_day_each!R8)</f>
         <v/>
       </c>
-      <c r="U14" s="62" t="str">
+      <c r="U14" s="61" t="str">
         <f>IF(_acsReport_day_each!S8="","",_acsReport_day_each!S8)</f>
         <v/>
       </c>
@@ -5208,11 +5158,11 @@
         <f>IF(_acsReport_day_each!W8="","",_acsReport_day_each!W8)</f>
         <v/>
       </c>
-      <c r="Z14" s="61" t="str">
+      <c r="Z14" s="60" t="str">
         <f>IF(_acsReport_day_each!X8="","",_acsReport_day_each!X8)</f>
         <v/>
       </c>
-      <c r="AA14" s="62" t="str">
+      <c r="AA14" s="61" t="str">
         <f>IF(_acsReport_day_each!Y8="","",_acsReport_day_each!Y8)</f>
         <v/>
       </c>
@@ -5232,7 +5182,7 @@
         <f>IF(_acsReport_day_each!AC8="","",_acsReport_day_each!AC8)</f>
         <v/>
       </c>
-      <c r="AF14" s="61" t="str">
+      <c r="AF14" s="60" t="str">
         <f>IF(_acsReport_day_each!AD8="","",_acsReport_day_each!AD8)</f>
         <v/>
       </c>
@@ -5244,7 +5194,7 @@
         <f>IF(_acsReport_day_each!AF8="","",_acsReport_day_each!AF8)</f>
         <v/>
       </c>
-      <c r="AI14" s="61" t="str">
+      <c r="AI14" s="60" t="str">
         <f>IF(_acsReport_day_each!AG8="","",_acsReport_day_each!AG8)</f>
         <v/>
       </c>
@@ -5256,7 +5206,7 @@
         <f>IF(_acsReport_day_each!AI8="","",_acsReport_day_each!AI8)</f>
         <v/>
       </c>
-      <c r="AL14" s="61" t="str">
+      <c r="AL14" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ8="","",_acsReport_day_each!AJ8)</f>
         <v/>
       </c>
@@ -5268,7 +5218,7 @@
         <f>IF(_acsReport_day_each!AL8="","",_acsReport_day_each!AL8)</f>
         <v/>
       </c>
-      <c r="AO14" s="61" t="str">
+      <c r="AO14" s="60" t="str">
         <f>IF(_acsReport_day_each!AM8="","",_acsReport_day_each!AM8)</f>
         <v/>
       </c>
@@ -5280,7 +5230,7 @@
         <f>IF(_acsReport_day_each!AO8="","",_acsReport_day_each!AO8)</f>
         <v/>
       </c>
-      <c r="AR14" s="61" t="str">
+      <c r="AR14" s="60" t="str">
         <f>IF(_acsReport_day_each!AP8="","",_acsReport_day_each!AP8)</f>
         <v/>
       </c>
@@ -5292,7 +5242,7 @@
         <f>IF(_acsReport_day_each!AR8="","",_acsReport_day_each!AR8)</f>
         <v/>
       </c>
-      <c r="AU14" s="61" t="str">
+      <c r="AU14" s="60" t="str">
         <f>IF(_acsReport_day_each!AS8="","",_acsReport_day_each!AS8)</f>
         <v/>
       </c>
@@ -5304,7 +5254,7 @@
         <f>IF(_acsReport_day_each!AU8="","",_acsReport_day_each!AU8)</f>
         <v/>
       </c>
-      <c r="AX14" s="61" t="str">
+      <c r="AX14" s="60" t="str">
         <f>IF(_acsReport_day_each!AV8="","",_acsReport_day_each!AV8)</f>
         <v/>
       </c>
@@ -5316,11 +5266,11 @@
         <f>IF(_acsReport_day_each!AX8="","",_acsReport_day_each!AX8)</f>
         <v/>
       </c>
-      <c r="BA14" s="61" t="str">
+      <c r="BA14" s="60" t="str">
         <f>IF(_acsReport_day_each!AY8="","",_acsReport_day_each!AY8)</f>
         <v/>
       </c>
-      <c r="BB14" s="62" t="str">
+      <c r="BB14" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ8="","",_acsReport_day_each!AZ8)</f>
         <v/>
       </c>
@@ -5332,39 +5282,39 @@
         <f>IF(_acsReport_day_each!BB8="","",_acsReport_day_each!BB8)</f>
         <v/>
       </c>
-      <c r="BE14" s="90" t="str">
+      <c r="BE14" s="33" t="str">
         <f>IF(_acsReport_day_each!BD8="","",ACS_ACM1_MAIN!BD8)</f>
         <v/>
       </c>
-      <c r="BF14" s="91" t="str">
+      <c r="BF14" s="30" t="str">
         <f>IF(_acsReport_day_each!BE8="","",ACS_ACM1_MAIN!BE8)</f>
         <v/>
       </c>
-      <c r="BG14" s="92" t="str">
+      <c r="BG14" s="60" t="str">
         <f>IF(_acsReport_day_each!BF8="","",ACS_ACM1_MAIN!BF8)</f>
         <v/>
       </c>
-      <c r="BH14" s="90" t="str">
+      <c r="BH14" s="33" t="str">
         <f>IF(_acsReport_day_each!BG8="","",ACS_ACM1_MAIN!BG8)</f>
         <v/>
       </c>
-      <c r="BI14" s="93">
-        <f>IF(_acsReport_day_each!BJ8&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="93">
-        <f>IF(_acsReport_day_each!BK8&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK14" s="29">
-        <f>IF(_acsReport_day_each!BL8&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL14" s="91" t="str">
+      <c r="BI14" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ8="","",IF(_acsReport_day_each!BJ8&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ14" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK8="","",IF(_acsReport_day_each!BK8&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK14" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL8="","",IF(_acsReport_day_each!BL8&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL14" s="30" t="str">
         <f>IF(_acsReport_day_each!BH8="","",ACS_ACM1_MAIN!BH8)</f>
         <v/>
       </c>
-      <c r="BM14" s="92" t="str">
+      <c r="BM14" s="60" t="str">
         <f>IF(_acsReport_day_each!BI8="","",ACS_ACM1_MAIN!BI8)</f>
         <v/>
       </c>
@@ -5405,7 +5355,7 @@
         <f>IF(_acsReport_day_each!H9="","",_acsReport_day_each!H9)</f>
         <v/>
       </c>
-      <c r="K15" s="61" t="str">
+      <c r="K15" s="60" t="str">
         <f>IF(_acsReport_day_each!I9="","",_acsReport_day_each!I9)</f>
         <v/>
       </c>
@@ -5417,11 +5367,11 @@
         <f>IF(_acsReport_day_each!K9="","",_acsReport_day_each!K9)</f>
         <v/>
       </c>
-      <c r="N15" s="63" t="str">
+      <c r="N15" s="62" t="str">
         <f>IF(_acsReport_day_each!L9="","",_acsReport_day_each!L9)</f>
         <v/>
       </c>
-      <c r="O15" s="64" t="str">
+      <c r="O15" s="63" t="str">
         <f>IF(_acsReport_day_each!M9="","",_acsReport_day_each!M9)</f>
         <v/>
       </c>
@@ -5429,7 +5379,7 @@
         <f>IF(_acsReport_day_each!N9="","",_acsReport_day_each!N9)</f>
         <v/>
       </c>
-      <c r="Q15" s="63" t="str">
+      <c r="Q15" s="62" t="str">
         <f>IF(_acsReport_day_each!O9="","",_acsReport_day_each!O9)</f>
         <v/>
       </c>
@@ -5441,11 +5391,11 @@
         <f>IF(_acsReport_day_each!Q9="","",_acsReport_day_each!Q9)</f>
         <v/>
       </c>
-      <c r="T15" s="61" t="str">
+      <c r="T15" s="60" t="str">
         <f>IF(_acsReport_day_each!R9="","",_acsReport_day_each!R9)</f>
         <v/>
       </c>
-      <c r="U15" s="62" t="str">
+      <c r="U15" s="61" t="str">
         <f>IF(_acsReport_day_each!S9="","",_acsReport_day_each!S9)</f>
         <v/>
       </c>
@@ -5465,11 +5415,11 @@
         <f>IF(_acsReport_day_each!W9="","",_acsReport_day_each!W9)</f>
         <v/>
       </c>
-      <c r="Z15" s="61" t="str">
+      <c r="Z15" s="60" t="str">
         <f>IF(_acsReport_day_each!X9="","",_acsReport_day_each!X9)</f>
         <v/>
       </c>
-      <c r="AA15" s="64" t="str">
+      <c r="AA15" s="63" t="str">
         <f>IF(_acsReport_day_each!Y9="","",_acsReport_day_each!Y9)</f>
         <v/>
       </c>
@@ -5489,7 +5439,7 @@
         <f>IF(_acsReport_day_each!AC9="","",_acsReport_day_each!AC9)</f>
         <v/>
       </c>
-      <c r="AF15" s="63" t="str">
+      <c r="AF15" s="62" t="str">
         <f>IF(_acsReport_day_each!AD9="","",_acsReport_day_each!AD9)</f>
         <v/>
       </c>
@@ -5501,7 +5451,7 @@
         <f>IF(_acsReport_day_each!AF9="","",_acsReport_day_each!AF9)</f>
         <v/>
       </c>
-      <c r="AI15" s="61" t="str">
+      <c r="AI15" s="60" t="str">
         <f>IF(_acsReport_day_each!AG9="","",_acsReport_day_each!AG9)</f>
         <v/>
       </c>
@@ -5513,7 +5463,7 @@
         <f>IF(_acsReport_day_each!AI9="","",_acsReport_day_each!AI9)</f>
         <v/>
       </c>
-      <c r="AL15" s="61" t="str">
+      <c r="AL15" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ9="","",_acsReport_day_each!AJ9)</f>
         <v/>
       </c>
@@ -5525,7 +5475,7 @@
         <f>IF(_acsReport_day_each!AL9="","",_acsReport_day_each!AL9)</f>
         <v/>
       </c>
-      <c r="AO15" s="61" t="str">
+      <c r="AO15" s="60" t="str">
         <f>IF(_acsReport_day_each!AM9="","",_acsReport_day_each!AM9)</f>
         <v/>
       </c>
@@ -5537,7 +5487,7 @@
         <f>IF(_acsReport_day_each!AO9="","",_acsReport_day_each!AO9)</f>
         <v/>
       </c>
-      <c r="AR15" s="61" t="str">
+      <c r="AR15" s="60" t="str">
         <f>IF(_acsReport_day_each!AP9="","",_acsReport_day_each!AP9)</f>
         <v/>
       </c>
@@ -5549,7 +5499,7 @@
         <f>IF(_acsReport_day_each!AR9="","",_acsReport_day_each!AR9)</f>
         <v/>
       </c>
-      <c r="AU15" s="61" t="str">
+      <c r="AU15" s="60" t="str">
         <f>IF(_acsReport_day_each!AS9="","",_acsReport_day_each!AS9)</f>
         <v/>
       </c>
@@ -5561,7 +5511,7 @@
         <f>IF(_acsReport_day_each!AU9="","",_acsReport_day_each!AU9)</f>
         <v/>
       </c>
-      <c r="AX15" s="61" t="str">
+      <c r="AX15" s="60" t="str">
         <f>IF(_acsReport_day_each!AV9="","",_acsReport_day_each!AV9)</f>
         <v/>
       </c>
@@ -5573,11 +5523,11 @@
         <f>IF(_acsReport_day_each!AX9="","",_acsReport_day_each!AX9)</f>
         <v/>
       </c>
-      <c r="BA15" s="61" t="str">
+      <c r="BA15" s="60" t="str">
         <f>IF(_acsReport_day_each!AY9="","",_acsReport_day_each!AY9)</f>
         <v/>
       </c>
-      <c r="BB15" s="62" t="str">
+      <c r="BB15" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ9="","",_acsReport_day_each!AZ9)</f>
         <v/>
       </c>
@@ -5589,39 +5539,39 @@
         <f>IF(_acsReport_day_each!BB9="","",_acsReport_day_each!BB9)</f>
         <v/>
       </c>
-      <c r="BE15" s="94" t="str">
+      <c r="BE15" s="29" t="str">
         <f>IF(_acsReport_day_each!BD9="","",ACS_ACM1_MAIN!BD9)</f>
         <v/>
       </c>
-      <c r="BF15" s="95" t="str">
+      <c r="BF15" s="90" t="str">
         <f>IF(_acsReport_day_each!BE9="","",ACS_ACM1_MAIN!BE9)</f>
         <v/>
       </c>
-      <c r="BG15" s="96" t="str">
+      <c r="BG15" s="91" t="str">
         <f>IF(_acsReport_day_each!BF9="","",ACS_ACM1_MAIN!BF9)</f>
         <v/>
       </c>
-      <c r="BH15" s="94" t="str">
+      <c r="BH15" s="29" t="str">
         <f>IF(_acsReport_day_each!BG9="","",ACS_ACM1_MAIN!BG9)</f>
         <v/>
       </c>
-      <c r="BI15" s="93">
-        <f>IF(_acsReport_day_each!BJ9&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="93">
-        <f>IF(_acsReport_day_each!BK9&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK15" s="29">
-        <f>IF(_acsReport_day_each!BL9&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL15" s="95" t="str">
+      <c r="BI15" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ9="","",IF(_acsReport_day_each!BJ9&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ15" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK9="","",IF(_acsReport_day_each!BK9&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK15" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL9="","",IF(_acsReport_day_each!BL9&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL15" s="90" t="str">
         <f>IF(_acsReport_day_each!BH9="","",ACS_ACM1_MAIN!BH9)</f>
         <v/>
       </c>
-      <c r="BM15" s="96" t="str">
+      <c r="BM15" s="91" t="str">
         <f>IF(_acsReport_day_each!BI9="","",ACS_ACM1_MAIN!BI9)</f>
         <v/>
       </c>
@@ -5662,7 +5612,7 @@
         <f>IF(_acsReport_day_each!H10="","",_acsReport_day_each!H10)</f>
         <v/>
       </c>
-      <c r="K16" s="65" t="str">
+      <c r="K16" s="64" t="str">
         <f>IF(_acsReport_day_each!I10="","",_acsReport_day_each!I10)</f>
         <v/>
       </c>
@@ -5674,11 +5624,11 @@
         <f>IF(_acsReport_day_each!K10="","",_acsReport_day_each!K10)</f>
         <v/>
       </c>
-      <c r="N16" s="65" t="str">
+      <c r="N16" s="64" t="str">
         <f>IF(_acsReport_day_each!L10="","",_acsReport_day_each!L10)</f>
         <v/>
       </c>
-      <c r="O16" s="66" t="str">
+      <c r="O16" s="65" t="str">
         <f>IF(_acsReport_day_each!M10="","",_acsReport_day_each!M10)</f>
         <v/>
       </c>
@@ -5698,11 +5648,11 @@
         <f>IF(_acsReport_day_each!Q10="","",_acsReport_day_each!Q10)</f>
         <v/>
       </c>
-      <c r="T16" s="65" t="str">
+      <c r="T16" s="64" t="str">
         <f>IF(_acsReport_day_each!R10="","",_acsReport_day_each!R10)</f>
         <v/>
       </c>
-      <c r="U16" s="66" t="str">
+      <c r="U16" s="65" t="str">
         <f>IF(_acsReport_day_each!S10="","",_acsReport_day_each!S10)</f>
         <v/>
       </c>
@@ -5722,11 +5672,11 @@
         <f>IF(_acsReport_day_each!W10="","",_acsReport_day_each!W10)</f>
         <v/>
       </c>
-      <c r="Z16" s="65" t="str">
+      <c r="Z16" s="64" t="str">
         <f>IF(_acsReport_day_each!X10="","",_acsReport_day_each!X10)</f>
         <v/>
       </c>
-      <c r="AA16" s="66" t="str">
+      <c r="AA16" s="65" t="str">
         <f>IF(_acsReport_day_each!Y10="","",_acsReport_day_each!Y10)</f>
         <v/>
       </c>
@@ -5746,7 +5696,7 @@
         <f>IF(_acsReport_day_each!AC10="","",_acsReport_day_each!AC10)</f>
         <v/>
       </c>
-      <c r="AF16" s="65" t="str">
+      <c r="AF16" s="64" t="str">
         <f>IF(_acsReport_day_each!AD10="","",_acsReport_day_each!AD10)</f>
         <v/>
       </c>
@@ -5758,7 +5708,7 @@
         <f>IF(_acsReport_day_each!AF10="","",_acsReport_day_each!AF10)</f>
         <v/>
       </c>
-      <c r="AI16" s="65" t="str">
+      <c r="AI16" s="64" t="str">
         <f>IF(_acsReport_day_each!AG10="","",_acsReport_day_each!AG10)</f>
         <v/>
       </c>
@@ -5770,7 +5720,7 @@
         <f>IF(_acsReport_day_each!AI10="","",_acsReport_day_each!AI10)</f>
         <v/>
       </c>
-      <c r="AL16" s="65" t="str">
+      <c r="AL16" s="64" t="str">
         <f>IF(_acsReport_day_each!AJ10="","",_acsReport_day_each!AJ10)</f>
         <v/>
       </c>
@@ -5782,7 +5732,7 @@
         <f>IF(_acsReport_day_each!AL10="","",_acsReport_day_each!AL10)</f>
         <v/>
       </c>
-      <c r="AO16" s="65" t="str">
+      <c r="AO16" s="64" t="str">
         <f>IF(_acsReport_day_each!AM10="","",_acsReport_day_each!AM10)</f>
         <v/>
       </c>
@@ -5794,7 +5744,7 @@
         <f>IF(_acsReport_day_each!AO10="","",_acsReport_day_each!AO10)</f>
         <v/>
       </c>
-      <c r="AR16" s="65" t="str">
+      <c r="AR16" s="64" t="str">
         <f>IF(_acsReport_day_each!AP10="","",_acsReport_day_each!AP10)</f>
         <v/>
       </c>
@@ -5806,7 +5756,7 @@
         <f>IF(_acsReport_day_each!AR10="","",_acsReport_day_each!AR10)</f>
         <v/>
       </c>
-      <c r="AU16" s="65" t="str">
+      <c r="AU16" s="64" t="str">
         <f>IF(_acsReport_day_each!AS10="","",_acsReport_day_each!AS10)</f>
         <v/>
       </c>
@@ -5818,7 +5768,7 @@
         <f>IF(_acsReport_day_each!AU10="","",_acsReport_day_each!AU10)</f>
         <v/>
       </c>
-      <c r="AX16" s="65" t="str">
+      <c r="AX16" s="64" t="str">
         <f>IF(_acsReport_day_each!AV10="","",_acsReport_day_each!AV10)</f>
         <v/>
       </c>
@@ -5830,11 +5780,11 @@
         <f>IF(_acsReport_day_each!AX10="","",_acsReport_day_each!AX10)</f>
         <v/>
       </c>
-      <c r="BA16" s="65" t="str">
+      <c r="BA16" s="64" t="str">
         <f>IF(_acsReport_day_each!AY10="","",_acsReport_day_each!AY10)</f>
         <v/>
       </c>
-      <c r="BB16" s="66" t="str">
+      <c r="BB16" s="65" t="str">
         <f>IF(_acsReport_day_each!AZ10="","",_acsReport_day_each!AZ10)</f>
         <v/>
       </c>
@@ -5846,39 +5796,39 @@
         <f>IF(_acsReport_day_each!BB10="","",_acsReport_day_each!BB10)</f>
         <v/>
       </c>
-      <c r="BE16" s="97" t="str">
+      <c r="BE16" s="38" t="str">
         <f>IF(_acsReport_day_each!BD10="","",ACS_ACM1_MAIN!BD10)</f>
         <v/>
       </c>
-      <c r="BF16" s="98" t="str">
+      <c r="BF16" s="39" t="str">
         <f>IF(_acsReport_day_each!BE10="","",ACS_ACM1_MAIN!BE10)</f>
         <v/>
       </c>
-      <c r="BG16" s="99" t="str">
+      <c r="BG16" s="64" t="str">
         <f>IF(_acsReport_day_each!BF10="","",ACS_ACM1_MAIN!BF10)</f>
         <v/>
       </c>
-      <c r="BH16" s="97" t="str">
+      <c r="BH16" s="38" t="str">
         <f>IF(_acsReport_day_each!BG10="","",ACS_ACM1_MAIN!BG10)</f>
         <v/>
       </c>
-      <c r="BI16" s="66">
-        <f>IF(_acsReport_day_each!BJ10&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="66">
-        <f>IF(_acsReport_day_each!BK10&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK16" s="66">
-        <f>IF(_acsReport_day_each!BL10&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL16" s="98" t="str">
+      <c r="BI16" s="65" t="str">
+        <f>IF(_acsReport_day_each!BJ10="","",IF(_acsReport_day_each!BJ10&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ16" s="65" t="str">
+        <f>IF(_acsReport_day_each!BK10="","",IF(_acsReport_day_each!BK10&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK16" s="65" t="str">
+        <f>IF(_acsReport_day_each!BL10="","",IF(_acsReport_day_each!BL10&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL16" s="39" t="str">
         <f>IF(_acsReport_day_each!BH10="","",ACS_ACM1_MAIN!BH10)</f>
         <v/>
       </c>
-      <c r="BM16" s="99" t="str">
+      <c r="BM16" s="64" t="str">
         <f>IF(_acsReport_day_each!BI10="","",ACS_ACM1_MAIN!BI10)</f>
         <v/>
       </c>
@@ -5919,7 +5869,7 @@
         <f>IF(_acsReport_day_each!H11="","",_acsReport_day_each!H11)</f>
         <v/>
       </c>
-      <c r="K17" s="61" t="str">
+      <c r="K17" s="60" t="str">
         <f>IF(_acsReport_day_each!I11="","",_acsReport_day_each!I11)</f>
         <v/>
       </c>
@@ -5931,11 +5881,11 @@
         <f>IF(_acsReport_day_each!K11="","",_acsReport_day_each!K11)</f>
         <v/>
       </c>
-      <c r="N17" s="61" t="str">
+      <c r="N17" s="60" t="str">
         <f>IF(_acsReport_day_each!L11="","",_acsReport_day_each!L11)</f>
         <v/>
       </c>
-      <c r="O17" s="62" t="str">
+      <c r="O17" s="61" t="str">
         <f>IF(_acsReport_day_each!M11="","",_acsReport_day_each!M11)</f>
         <v/>
       </c>
@@ -5955,11 +5905,11 @@
         <f>IF(_acsReport_day_each!Q11="","",_acsReport_day_each!Q11)</f>
         <v/>
       </c>
-      <c r="T17" s="61" t="str">
+      <c r="T17" s="60" t="str">
         <f>IF(_acsReport_day_each!R11="","",_acsReport_day_each!R11)</f>
         <v/>
       </c>
-      <c r="U17" s="62" t="str">
+      <c r="U17" s="61" t="str">
         <f>IF(_acsReport_day_each!S11="","",_acsReport_day_each!S11)</f>
         <v/>
       </c>
@@ -5979,11 +5929,11 @@
         <f>IF(_acsReport_day_each!W11="","",_acsReport_day_each!W11)</f>
         <v/>
       </c>
-      <c r="Z17" s="61" t="str">
+      <c r="Z17" s="60" t="str">
         <f>IF(_acsReport_day_each!X11="","",_acsReport_day_each!X11)</f>
         <v/>
       </c>
-      <c r="AA17" s="62" t="str">
+      <c r="AA17" s="61" t="str">
         <f>IF(_acsReport_day_each!Y11="","",_acsReport_day_each!Y11)</f>
         <v/>
       </c>
@@ -6003,7 +5953,7 @@
         <f>IF(_acsReport_day_each!AC11="","",_acsReport_day_each!AC11)</f>
         <v/>
       </c>
-      <c r="AF17" s="61" t="str">
+      <c r="AF17" s="60" t="str">
         <f>IF(_acsReport_day_each!AD11="","",_acsReport_day_each!AD11)</f>
         <v/>
       </c>
@@ -6015,7 +5965,7 @@
         <f>IF(_acsReport_day_each!AF11="","",_acsReport_day_each!AF11)</f>
         <v/>
       </c>
-      <c r="AI17" s="61" t="str">
+      <c r="AI17" s="60" t="str">
         <f>IF(_acsReport_day_each!AG11="","",_acsReport_day_each!AG11)</f>
         <v/>
       </c>
@@ -6027,7 +5977,7 @@
         <f>IF(_acsReport_day_each!AI11="","",_acsReport_day_each!AI11)</f>
         <v/>
       </c>
-      <c r="AL17" s="61" t="str">
+      <c r="AL17" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ11="","",_acsReport_day_each!AJ11)</f>
         <v/>
       </c>
@@ -6039,7 +5989,7 @@
         <f>IF(_acsReport_day_each!AL11="","",_acsReport_day_each!AL11)</f>
         <v/>
       </c>
-      <c r="AO17" s="61" t="str">
+      <c r="AO17" s="60" t="str">
         <f>IF(_acsReport_day_each!AM11="","",_acsReport_day_each!AM11)</f>
         <v/>
       </c>
@@ -6051,7 +6001,7 @@
         <f>IF(_acsReport_day_each!AO11="","",_acsReport_day_each!AO11)</f>
         <v/>
       </c>
-      <c r="AR17" s="61" t="str">
+      <c r="AR17" s="60" t="str">
         <f>IF(_acsReport_day_each!AP11="","",_acsReport_day_each!AP11)</f>
         <v/>
       </c>
@@ -6063,7 +6013,7 @@
         <f>IF(_acsReport_day_each!AR11="","",_acsReport_day_each!AR11)</f>
         <v/>
       </c>
-      <c r="AU17" s="61" t="str">
+      <c r="AU17" s="60" t="str">
         <f>IF(_acsReport_day_each!AS11="","",_acsReport_day_each!AS11)</f>
         <v/>
       </c>
@@ -6075,7 +6025,7 @@
         <f>IF(_acsReport_day_each!AU11="","",_acsReport_day_each!AU11)</f>
         <v/>
       </c>
-      <c r="AX17" s="61" t="str">
+      <c r="AX17" s="60" t="str">
         <f>IF(_acsReport_day_each!AV11="","",_acsReport_day_each!AV11)</f>
         <v/>
       </c>
@@ -6087,11 +6037,11 @@
         <f>IF(_acsReport_day_each!AX11="","",_acsReport_day_each!AX11)</f>
         <v/>
       </c>
-      <c r="BA17" s="61" t="str">
+      <c r="BA17" s="60" t="str">
         <f>IF(_acsReport_day_each!AY11="","",_acsReport_day_each!AY11)</f>
         <v/>
       </c>
-      <c r="BB17" s="62" t="str">
+      <c r="BB17" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ11="","",_acsReport_day_each!AZ11)</f>
         <v/>
       </c>
@@ -6103,39 +6053,39 @@
         <f>IF(_acsReport_day_each!BB11="","",_acsReport_day_each!BB11)</f>
         <v/>
       </c>
-      <c r="BE17" s="90" t="str">
+      <c r="BE17" s="33" t="str">
         <f>IF(_acsReport_day_each!BD11="","",ACS_ACM1_MAIN!BD11)</f>
         <v/>
       </c>
-      <c r="BF17" s="91" t="str">
+      <c r="BF17" s="30" t="str">
         <f>IF(_acsReport_day_each!BE11="","",ACS_ACM1_MAIN!BE11)</f>
         <v/>
       </c>
-      <c r="BG17" s="92" t="str">
+      <c r="BG17" s="60" t="str">
         <f>IF(_acsReport_day_each!BF11="","",ACS_ACM1_MAIN!BF11)</f>
         <v/>
       </c>
-      <c r="BH17" s="90" t="str">
+      <c r="BH17" s="33" t="str">
         <f>IF(_acsReport_day_each!BG11="","",ACS_ACM1_MAIN!BG11)</f>
         <v/>
       </c>
-      <c r="BI17" s="93">
-        <f>IF(_acsReport_day_each!BJ11&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="93">
-        <f>IF(_acsReport_day_each!BK11&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK17" s="29">
-        <f>IF(_acsReport_day_each!BL11&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL17" s="91" t="str">
+      <c r="BI17" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ11="","",IF(_acsReport_day_each!BJ11&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ17" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK11="","",IF(_acsReport_day_each!BK11&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK17" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL11="","",IF(_acsReport_day_each!BL11&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL17" s="30" t="str">
         <f>IF(_acsReport_day_each!BH11="","",ACS_ACM1_MAIN!BH11)</f>
         <v/>
       </c>
-      <c r="BM17" s="92" t="str">
+      <c r="BM17" s="60" t="str">
         <f>IF(_acsReport_day_each!BI11="","",ACS_ACM1_MAIN!BI11)</f>
         <v/>
       </c>
@@ -6176,7 +6126,7 @@
         <f>IF(_acsReport_day_each!H12="","",_acsReport_day_each!H12)</f>
         <v/>
       </c>
-      <c r="K18" s="61" t="str">
+      <c r="K18" s="60" t="str">
         <f>IF(_acsReport_day_each!I12="","",_acsReport_day_each!I12)</f>
         <v/>
       </c>
@@ -6188,11 +6138,11 @@
         <f>IF(_acsReport_day_each!K12="","",_acsReport_day_each!K12)</f>
         <v/>
       </c>
-      <c r="N18" s="61" t="str">
+      <c r="N18" s="60" t="str">
         <f>IF(_acsReport_day_each!L12="","",_acsReport_day_each!L12)</f>
         <v/>
       </c>
-      <c r="O18" s="62" t="str">
+      <c r="O18" s="61" t="str">
         <f>IF(_acsReport_day_each!M12="","",_acsReport_day_each!M12)</f>
         <v/>
       </c>
@@ -6212,11 +6162,11 @@
         <f>IF(_acsReport_day_each!Q12="","",_acsReport_day_each!Q12)</f>
         <v/>
       </c>
-      <c r="T18" s="61" t="str">
+      <c r="T18" s="60" t="str">
         <f>IF(_acsReport_day_each!R12="","",_acsReport_day_each!R12)</f>
         <v/>
       </c>
-      <c r="U18" s="62" t="str">
+      <c r="U18" s="61" t="str">
         <f>IF(_acsReport_day_each!S12="","",_acsReport_day_each!S12)</f>
         <v/>
       </c>
@@ -6236,11 +6186,11 @@
         <f>IF(_acsReport_day_each!W12="","",_acsReport_day_each!W12)</f>
         <v/>
       </c>
-      <c r="Z18" s="61" t="str">
+      <c r="Z18" s="60" t="str">
         <f>IF(_acsReport_day_each!X12="","",_acsReport_day_each!X12)</f>
         <v/>
       </c>
-      <c r="AA18" s="62" t="str">
+      <c r="AA18" s="61" t="str">
         <f>IF(_acsReport_day_each!Y12="","",_acsReport_day_each!Y12)</f>
         <v/>
       </c>
@@ -6260,7 +6210,7 @@
         <f>IF(_acsReport_day_each!AC12="","",_acsReport_day_each!AC12)</f>
         <v/>
       </c>
-      <c r="AF18" s="61" t="str">
+      <c r="AF18" s="60" t="str">
         <f>IF(_acsReport_day_each!AD12="","",_acsReport_day_each!AD12)</f>
         <v/>
       </c>
@@ -6272,7 +6222,7 @@
         <f>IF(_acsReport_day_each!AF12="","",_acsReport_day_each!AF12)</f>
         <v/>
       </c>
-      <c r="AI18" s="61" t="str">
+      <c r="AI18" s="60" t="str">
         <f>IF(_acsReport_day_each!AG12="","",_acsReport_day_each!AG12)</f>
         <v/>
       </c>
@@ -6284,7 +6234,7 @@
         <f>IF(_acsReport_day_each!AI12="","",_acsReport_day_each!AI12)</f>
         <v/>
       </c>
-      <c r="AL18" s="61" t="str">
+      <c r="AL18" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ12="","",_acsReport_day_each!AJ12)</f>
         <v/>
       </c>
@@ -6296,7 +6246,7 @@
         <f>IF(_acsReport_day_each!AL12="","",_acsReport_day_each!AL12)</f>
         <v/>
       </c>
-      <c r="AO18" s="61" t="str">
+      <c r="AO18" s="60" t="str">
         <f>IF(_acsReport_day_each!AM12="","",_acsReport_day_each!AM12)</f>
         <v/>
       </c>
@@ -6308,7 +6258,7 @@
         <f>IF(_acsReport_day_each!AO12="","",_acsReport_day_each!AO12)</f>
         <v/>
       </c>
-      <c r="AR18" s="61" t="str">
+      <c r="AR18" s="60" t="str">
         <f>IF(_acsReport_day_each!AP12="","",_acsReport_day_each!AP12)</f>
         <v/>
       </c>
@@ -6320,7 +6270,7 @@
         <f>IF(_acsReport_day_each!AR12="","",_acsReport_day_each!AR12)</f>
         <v/>
       </c>
-      <c r="AU18" s="61" t="str">
+      <c r="AU18" s="60" t="str">
         <f>IF(_acsReport_day_each!AS12="","",_acsReport_day_each!AS12)</f>
         <v/>
       </c>
@@ -6332,7 +6282,7 @@
         <f>IF(_acsReport_day_each!AU12="","",_acsReport_day_each!AU12)</f>
         <v/>
       </c>
-      <c r="AX18" s="61" t="str">
+      <c r="AX18" s="60" t="str">
         <f>IF(_acsReport_day_each!AV12="","",_acsReport_day_each!AV12)</f>
         <v/>
       </c>
@@ -6344,11 +6294,11 @@
         <f>IF(_acsReport_day_each!AX12="","",_acsReport_day_each!AX12)</f>
         <v/>
       </c>
-      <c r="BA18" s="61" t="str">
+      <c r="BA18" s="60" t="str">
         <f>IF(_acsReport_day_each!AY12="","",_acsReport_day_each!AY12)</f>
         <v/>
       </c>
-      <c r="BB18" s="62" t="str">
+      <c r="BB18" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ12="","",_acsReport_day_each!AZ12)</f>
         <v/>
       </c>
@@ -6360,39 +6310,39 @@
         <f>IF(_acsReport_day_each!BB12="","",_acsReport_day_each!BB12)</f>
         <v/>
       </c>
-      <c r="BE18" s="90" t="str">
+      <c r="BE18" s="33" t="str">
         <f>IF(_acsReport_day_each!BD12="","",ACS_ACM1_MAIN!BD12)</f>
         <v/>
       </c>
-      <c r="BF18" s="91" t="str">
+      <c r="BF18" s="30" t="str">
         <f>IF(_acsReport_day_each!BE12="","",ACS_ACM1_MAIN!BE12)</f>
         <v/>
       </c>
-      <c r="BG18" s="92" t="str">
+      <c r="BG18" s="60" t="str">
         <f>IF(_acsReport_day_each!BF12="","",ACS_ACM1_MAIN!BF12)</f>
         <v/>
       </c>
-      <c r="BH18" s="90" t="str">
+      <c r="BH18" s="33" t="str">
         <f>IF(_acsReport_day_each!BG12="","",ACS_ACM1_MAIN!BG12)</f>
         <v/>
       </c>
-      <c r="BI18" s="93">
-        <f>IF(_acsReport_day_each!BJ12&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="93">
-        <f>IF(_acsReport_day_each!BK12&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK18" s="29">
-        <f>IF(_acsReport_day_each!BL12&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL18" s="91" t="str">
+      <c r="BI18" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ12="","",IF(_acsReport_day_each!BJ12&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ18" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK12="","",IF(_acsReport_day_each!BK12&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK18" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL12="","",IF(_acsReport_day_each!BL12&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL18" s="30" t="str">
         <f>IF(_acsReport_day_each!BH12="","",ACS_ACM1_MAIN!BH12)</f>
         <v/>
       </c>
-      <c r="BM18" s="92" t="str">
+      <c r="BM18" s="60" t="str">
         <f>IF(_acsReport_day_each!BI12="","",ACS_ACM1_MAIN!BI12)</f>
         <v/>
       </c>
@@ -6433,7 +6383,7 @@
         <f>IF(_acsReport_day_each!H13="","",_acsReport_day_each!H13)</f>
         <v/>
       </c>
-      <c r="K19" s="61" t="str">
+      <c r="K19" s="60" t="str">
         <f>IF(_acsReport_day_each!I13="","",_acsReport_day_each!I13)</f>
         <v/>
       </c>
@@ -6445,11 +6395,11 @@
         <f>IF(_acsReport_day_each!K13="","",_acsReport_day_each!K13)</f>
         <v/>
       </c>
-      <c r="N19" s="61" t="str">
+      <c r="N19" s="60" t="str">
         <f>IF(_acsReport_day_each!L13="","",_acsReport_day_each!L13)</f>
         <v/>
       </c>
-      <c r="O19" s="62" t="str">
+      <c r="O19" s="61" t="str">
         <f>IF(_acsReport_day_each!M13="","",_acsReport_day_each!M13)</f>
         <v/>
       </c>
@@ -6469,11 +6419,11 @@
         <f>IF(_acsReport_day_each!Q13="","",_acsReport_day_each!Q13)</f>
         <v/>
       </c>
-      <c r="T19" s="61" t="str">
+      <c r="T19" s="60" t="str">
         <f>IF(_acsReport_day_each!R13="","",_acsReport_day_each!R13)</f>
         <v/>
       </c>
-      <c r="U19" s="62" t="str">
+      <c r="U19" s="61" t="str">
         <f>IF(_acsReport_day_each!S13="","",_acsReport_day_each!S13)</f>
         <v/>
       </c>
@@ -6493,11 +6443,11 @@
         <f>IF(_acsReport_day_each!W13="","",_acsReport_day_each!W13)</f>
         <v/>
       </c>
-      <c r="Z19" s="61" t="str">
+      <c r="Z19" s="60" t="str">
         <f>IF(_acsReport_day_each!X13="","",_acsReport_day_each!X13)</f>
         <v/>
       </c>
-      <c r="AA19" s="62" t="str">
+      <c r="AA19" s="61" t="str">
         <f>IF(_acsReport_day_each!Y13="","",_acsReport_day_each!Y13)</f>
         <v/>
       </c>
@@ -6517,7 +6467,7 @@
         <f>IF(_acsReport_day_each!AC13="","",_acsReport_day_each!AC13)</f>
         <v/>
       </c>
-      <c r="AF19" s="61" t="str">
+      <c r="AF19" s="60" t="str">
         <f>IF(_acsReport_day_each!AD13="","",_acsReport_day_each!AD13)</f>
         <v/>
       </c>
@@ -6529,7 +6479,7 @@
         <f>IF(_acsReport_day_each!AF13="","",_acsReport_day_each!AF13)</f>
         <v/>
       </c>
-      <c r="AI19" s="61" t="str">
+      <c r="AI19" s="60" t="str">
         <f>IF(_acsReport_day_each!AG13="","",_acsReport_day_each!AG13)</f>
         <v/>
       </c>
@@ -6541,7 +6491,7 @@
         <f>IF(_acsReport_day_each!AI13="","",_acsReport_day_each!AI13)</f>
         <v/>
       </c>
-      <c r="AL19" s="61" t="str">
+      <c r="AL19" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ13="","",_acsReport_day_each!AJ13)</f>
         <v/>
       </c>
@@ -6553,7 +6503,7 @@
         <f>IF(_acsReport_day_each!AL13="","",_acsReport_day_each!AL13)</f>
         <v/>
       </c>
-      <c r="AO19" s="61" t="str">
+      <c r="AO19" s="60" t="str">
         <f>IF(_acsReport_day_each!AM13="","",_acsReport_day_each!AM13)</f>
         <v/>
       </c>
@@ -6565,7 +6515,7 @@
         <f>IF(_acsReport_day_each!AO13="","",_acsReport_day_each!AO13)</f>
         <v/>
       </c>
-      <c r="AR19" s="61" t="str">
+      <c r="AR19" s="60" t="str">
         <f>IF(_acsReport_day_each!AP13="","",_acsReport_day_each!AP13)</f>
         <v/>
       </c>
@@ -6577,7 +6527,7 @@
         <f>IF(_acsReport_day_each!AR13="","",_acsReport_day_each!AR13)</f>
         <v/>
       </c>
-      <c r="AU19" s="61" t="str">
+      <c r="AU19" s="60" t="str">
         <f>IF(_acsReport_day_each!AS13="","",_acsReport_day_each!AS13)</f>
         <v/>
       </c>
@@ -6589,7 +6539,7 @@
         <f>IF(_acsReport_day_each!AU13="","",_acsReport_day_each!AU13)</f>
         <v/>
       </c>
-      <c r="AX19" s="61" t="str">
+      <c r="AX19" s="60" t="str">
         <f>IF(_acsReport_day_each!AV13="","",_acsReport_day_each!AV13)</f>
         <v/>
       </c>
@@ -6601,11 +6551,11 @@
         <f>IF(_acsReport_day_each!AX13="","",_acsReport_day_each!AX13)</f>
         <v/>
       </c>
-      <c r="BA19" s="61" t="str">
+      <c r="BA19" s="60" t="str">
         <f>IF(_acsReport_day_each!AY13="","",_acsReport_day_each!AY13)</f>
         <v/>
       </c>
-      <c r="BB19" s="62" t="str">
+      <c r="BB19" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ13="","",_acsReport_day_each!AZ13)</f>
         <v/>
       </c>
@@ -6617,39 +6567,39 @@
         <f>IF(_acsReport_day_each!BB13="","",_acsReport_day_each!BB13)</f>
         <v/>
       </c>
-      <c r="BE19" s="90" t="str">
+      <c r="BE19" s="33" t="str">
         <f>IF(_acsReport_day_each!BD13="","",ACS_ACM1_MAIN!BD13)</f>
         <v/>
       </c>
-      <c r="BF19" s="91" t="str">
+      <c r="BF19" s="30" t="str">
         <f>IF(_acsReport_day_each!BE13="","",ACS_ACM1_MAIN!BE13)</f>
         <v/>
       </c>
-      <c r="BG19" s="92" t="str">
+      <c r="BG19" s="60" t="str">
         <f>IF(_acsReport_day_each!BF13="","",ACS_ACM1_MAIN!BF13)</f>
         <v/>
       </c>
-      <c r="BH19" s="90" t="str">
+      <c r="BH19" s="33" t="str">
         <f>IF(_acsReport_day_each!BG13="","",ACS_ACM1_MAIN!BG13)</f>
         <v/>
       </c>
-      <c r="BI19" s="93">
-        <f>IF(_acsReport_day_each!BJ13&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="93">
-        <f>IF(_acsReport_day_each!BK13&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK19" s="29">
-        <f>IF(_acsReport_day_each!BL13&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL19" s="91" t="str">
+      <c r="BI19" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ13="","",IF(_acsReport_day_each!BJ13&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ19" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK13="","",IF(_acsReport_day_each!BK13&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK19" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL13="","",IF(_acsReport_day_each!BL13&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL19" s="30" t="str">
         <f>IF(_acsReport_day_each!BH13="","",ACS_ACM1_MAIN!BH13)</f>
         <v/>
       </c>
-      <c r="BM19" s="92" t="str">
+      <c r="BM19" s="60" t="str">
         <f>IF(_acsReport_day_each!BI13="","",ACS_ACM1_MAIN!BI13)</f>
         <v/>
       </c>
@@ -6690,7 +6640,7 @@
         <f>IF(_acsReport_day_each!H14="","",_acsReport_day_each!H14)</f>
         <v/>
       </c>
-      <c r="K20" s="61" t="str">
+      <c r="K20" s="60" t="str">
         <f>IF(_acsReport_day_each!I14="","",_acsReport_day_each!I14)</f>
         <v/>
       </c>
@@ -6702,11 +6652,11 @@
         <f>IF(_acsReport_day_each!K14="","",_acsReport_day_each!K14)</f>
         <v/>
       </c>
-      <c r="N20" s="61" t="str">
+      <c r="N20" s="60" t="str">
         <f>IF(_acsReport_day_each!L14="","",_acsReport_day_each!L14)</f>
         <v/>
       </c>
-      <c r="O20" s="62" t="str">
+      <c r="O20" s="61" t="str">
         <f>IF(_acsReport_day_each!M14="","",_acsReport_day_each!M14)</f>
         <v/>
       </c>
@@ -6726,11 +6676,11 @@
         <f>IF(_acsReport_day_each!Q14="","",_acsReport_day_each!Q14)</f>
         <v/>
       </c>
-      <c r="T20" s="61" t="str">
+      <c r="T20" s="60" t="str">
         <f>IF(_acsReport_day_each!R14="","",_acsReport_day_each!R14)</f>
         <v/>
       </c>
-      <c r="U20" s="62" t="str">
+      <c r="U20" s="61" t="str">
         <f>IF(_acsReport_day_each!S14="","",_acsReport_day_each!S14)</f>
         <v/>
       </c>
@@ -6750,11 +6700,11 @@
         <f>IF(_acsReport_day_each!W14="","",_acsReport_day_each!W14)</f>
         <v/>
       </c>
-      <c r="Z20" s="61" t="str">
+      <c r="Z20" s="60" t="str">
         <f>IF(_acsReport_day_each!X14="","",_acsReport_day_each!X14)</f>
         <v/>
       </c>
-      <c r="AA20" s="62" t="str">
+      <c r="AA20" s="61" t="str">
         <f>IF(_acsReport_day_each!Y14="","",_acsReport_day_each!Y14)</f>
         <v/>
       </c>
@@ -6774,7 +6724,7 @@
         <f>IF(_acsReport_day_each!AC14="","",_acsReport_day_each!AC14)</f>
         <v/>
       </c>
-      <c r="AF20" s="61" t="str">
+      <c r="AF20" s="60" t="str">
         <f>IF(_acsReport_day_each!AD14="","",_acsReport_day_each!AD14)</f>
         <v/>
       </c>
@@ -6786,7 +6736,7 @@
         <f>IF(_acsReport_day_each!AF14="","",_acsReport_day_each!AF14)</f>
         <v/>
       </c>
-      <c r="AI20" s="61" t="str">
+      <c r="AI20" s="60" t="str">
         <f>IF(_acsReport_day_each!AG14="","",_acsReport_day_each!AG14)</f>
         <v/>
       </c>
@@ -6798,7 +6748,7 @@
         <f>IF(_acsReport_day_each!AI14="","",_acsReport_day_each!AI14)</f>
         <v/>
       </c>
-      <c r="AL20" s="61" t="str">
+      <c r="AL20" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ14="","",_acsReport_day_each!AJ14)</f>
         <v/>
       </c>
@@ -6810,7 +6760,7 @@
         <f>IF(_acsReport_day_each!AL14="","",_acsReport_day_each!AL14)</f>
         <v/>
       </c>
-      <c r="AO20" s="61" t="str">
+      <c r="AO20" s="60" t="str">
         <f>IF(_acsReport_day_each!AM14="","",_acsReport_day_each!AM14)</f>
         <v/>
       </c>
@@ -6822,7 +6772,7 @@
         <f>IF(_acsReport_day_each!AO14="","",_acsReport_day_each!AO14)</f>
         <v/>
       </c>
-      <c r="AR20" s="61" t="str">
+      <c r="AR20" s="60" t="str">
         <f>IF(_acsReport_day_each!AP14="","",_acsReport_day_each!AP14)</f>
         <v/>
       </c>
@@ -6834,7 +6784,7 @@
         <f>IF(_acsReport_day_each!AR14="","",_acsReport_day_each!AR14)</f>
         <v/>
       </c>
-      <c r="AU20" s="61" t="str">
+      <c r="AU20" s="60" t="str">
         <f>IF(_acsReport_day_each!AS14="","",_acsReport_day_each!AS14)</f>
         <v/>
       </c>
@@ -6846,7 +6796,7 @@
         <f>IF(_acsReport_day_each!AU14="","",_acsReport_day_each!AU14)</f>
         <v/>
       </c>
-      <c r="AX20" s="61" t="str">
+      <c r="AX20" s="60" t="str">
         <f>IF(_acsReport_day_each!AV14="","",_acsReport_day_each!AV14)</f>
         <v/>
       </c>
@@ -6858,11 +6808,11 @@
         <f>IF(_acsReport_day_each!AX14="","",_acsReport_day_each!AX14)</f>
         <v/>
       </c>
-      <c r="BA20" s="61" t="str">
+      <c r="BA20" s="60" t="str">
         <f>IF(_acsReport_day_each!AY14="","",_acsReport_day_each!AY14)</f>
         <v/>
       </c>
-      <c r="BB20" s="62" t="str">
+      <c r="BB20" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ14="","",_acsReport_day_each!AZ14)</f>
         <v/>
       </c>
@@ -6874,39 +6824,39 @@
         <f>IF(_acsReport_day_each!BB14="","",_acsReport_day_each!BB14)</f>
         <v/>
       </c>
-      <c r="BE20" s="90" t="str">
+      <c r="BE20" s="33" t="str">
         <f>IF(_acsReport_day_each!BD14="","",ACS_ACM1_MAIN!BD14)</f>
         <v/>
       </c>
-      <c r="BF20" s="91" t="str">
+      <c r="BF20" s="30" t="str">
         <f>IF(_acsReport_day_each!BE14="","",ACS_ACM1_MAIN!BE14)</f>
         <v/>
       </c>
-      <c r="BG20" s="92" t="str">
+      <c r="BG20" s="60" t="str">
         <f>IF(_acsReport_day_each!BF14="","",ACS_ACM1_MAIN!BF14)</f>
         <v/>
       </c>
-      <c r="BH20" s="90" t="str">
+      <c r="BH20" s="33" t="str">
         <f>IF(_acsReport_day_each!BG14="","",ACS_ACM1_MAIN!BG14)</f>
         <v/>
       </c>
-      <c r="BI20" s="93">
-        <f>IF(_acsReport_day_each!BJ14&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="93">
-        <f>IF(_acsReport_day_each!BK14&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK20" s="29">
-        <f>IF(_acsReport_day_each!BL14&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL20" s="91" t="str">
+      <c r="BI20" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ14="","",IF(_acsReport_day_each!BJ14&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ20" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK14="","",IF(_acsReport_day_each!BK14&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK20" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL14="","",IF(_acsReport_day_each!BL14&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL20" s="30" t="str">
         <f>IF(_acsReport_day_each!BH14="","",ACS_ACM1_MAIN!BH14)</f>
         <v/>
       </c>
-      <c r="BM20" s="92" t="str">
+      <c r="BM20" s="60" t="str">
         <f>IF(_acsReport_day_each!BI14="","",ACS_ACM1_MAIN!BI14)</f>
         <v/>
       </c>
@@ -6947,7 +6897,7 @@
         <f>IF(_acsReport_day_each!H15="","",_acsReport_day_each!H15)</f>
         <v/>
       </c>
-      <c r="K21" s="61" t="str">
+      <c r="K21" s="60" t="str">
         <f>IF(_acsReport_day_each!I15="","",_acsReport_day_each!I15)</f>
         <v/>
       </c>
@@ -6959,11 +6909,11 @@
         <f>IF(_acsReport_day_each!K15="","",_acsReport_day_each!K15)</f>
         <v/>
       </c>
-      <c r="N21" s="61" t="str">
+      <c r="N21" s="60" t="str">
         <f>IF(_acsReport_day_each!L15="","",_acsReport_day_each!L15)</f>
         <v/>
       </c>
-      <c r="O21" s="62" t="str">
+      <c r="O21" s="61" t="str">
         <f>IF(_acsReport_day_each!M15="","",_acsReport_day_each!M15)</f>
         <v/>
       </c>
@@ -6983,11 +6933,11 @@
         <f>IF(_acsReport_day_each!Q15="","",_acsReport_day_each!Q15)</f>
         <v/>
       </c>
-      <c r="T21" s="61" t="str">
+      <c r="T21" s="60" t="str">
         <f>IF(_acsReport_day_each!R15="","",_acsReport_day_each!R15)</f>
         <v/>
       </c>
-      <c r="U21" s="62" t="str">
+      <c r="U21" s="61" t="str">
         <f>IF(_acsReport_day_each!S15="","",_acsReport_day_each!S15)</f>
         <v/>
       </c>
@@ -7007,11 +6957,11 @@
         <f>IF(_acsReport_day_each!W15="","",_acsReport_day_each!W15)</f>
         <v/>
       </c>
-      <c r="Z21" s="61" t="str">
+      <c r="Z21" s="60" t="str">
         <f>IF(_acsReport_day_each!X15="","",_acsReport_day_each!X15)</f>
         <v/>
       </c>
-      <c r="AA21" s="62" t="str">
+      <c r="AA21" s="61" t="str">
         <f>IF(_acsReport_day_each!Y15="","",_acsReport_day_each!Y15)</f>
         <v/>
       </c>
@@ -7031,7 +6981,7 @@
         <f>IF(_acsReport_day_each!AC15="","",_acsReport_day_each!AC15)</f>
         <v/>
       </c>
-      <c r="AF21" s="61" t="str">
+      <c r="AF21" s="60" t="str">
         <f>IF(_acsReport_day_each!AD15="","",_acsReport_day_each!AD15)</f>
         <v/>
       </c>
@@ -7043,7 +6993,7 @@
         <f>IF(_acsReport_day_each!AF15="","",_acsReport_day_each!AF15)</f>
         <v/>
       </c>
-      <c r="AI21" s="61" t="str">
+      <c r="AI21" s="60" t="str">
         <f>IF(_acsReport_day_each!AG15="","",_acsReport_day_each!AG15)</f>
         <v/>
       </c>
@@ -7055,7 +7005,7 @@
         <f>IF(_acsReport_day_each!AI15="","",_acsReport_day_each!AI15)</f>
         <v/>
       </c>
-      <c r="AL21" s="61" t="str">
+      <c r="AL21" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ15="","",_acsReport_day_each!AJ15)</f>
         <v/>
       </c>
@@ -7067,7 +7017,7 @@
         <f>IF(_acsReport_day_each!AL15="","",_acsReport_day_each!AL15)</f>
         <v/>
       </c>
-      <c r="AO21" s="61" t="str">
+      <c r="AO21" s="60" t="str">
         <f>IF(_acsReport_day_each!AM15="","",_acsReport_day_each!AM15)</f>
         <v/>
       </c>
@@ -7079,7 +7029,7 @@
         <f>IF(_acsReport_day_each!AO15="","",_acsReport_day_each!AO15)</f>
         <v/>
       </c>
-      <c r="AR21" s="61" t="str">
+      <c r="AR21" s="60" t="str">
         <f>IF(_acsReport_day_each!AP15="","",_acsReport_day_each!AP15)</f>
         <v/>
       </c>
@@ -7091,7 +7041,7 @@
         <f>IF(_acsReport_day_each!AR15="","",_acsReport_day_each!AR15)</f>
         <v/>
       </c>
-      <c r="AU21" s="61" t="str">
+      <c r="AU21" s="60" t="str">
         <f>IF(_acsReport_day_each!AS15="","",_acsReport_day_each!AS15)</f>
         <v/>
       </c>
@@ -7103,7 +7053,7 @@
         <f>IF(_acsReport_day_each!AU15="","",_acsReport_day_each!AU15)</f>
         <v/>
       </c>
-      <c r="AX21" s="61" t="str">
+      <c r="AX21" s="60" t="str">
         <f>IF(_acsReport_day_each!AV15="","",_acsReport_day_each!AV15)</f>
         <v/>
       </c>
@@ -7115,11 +7065,11 @@
         <f>IF(_acsReport_day_each!AX15="","",_acsReport_day_each!AX15)</f>
         <v/>
       </c>
-      <c r="BA21" s="61" t="str">
+      <c r="BA21" s="60" t="str">
         <f>IF(_acsReport_day_each!AY15="","",_acsReport_day_each!AY15)</f>
         <v/>
       </c>
-      <c r="BB21" s="62" t="str">
+      <c r="BB21" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ15="","",_acsReport_day_each!AZ15)</f>
         <v/>
       </c>
@@ -7131,39 +7081,39 @@
         <f>IF(_acsReport_day_each!BB15="","",_acsReport_day_each!BB15)</f>
         <v/>
       </c>
-      <c r="BE21" s="90" t="str">
+      <c r="BE21" s="33" t="str">
         <f>IF(_acsReport_day_each!BD15="","",ACS_ACM1_MAIN!BD15)</f>
         <v/>
       </c>
-      <c r="BF21" s="91" t="str">
+      <c r="BF21" s="30" t="str">
         <f>IF(_acsReport_day_each!BE15="","",ACS_ACM1_MAIN!BE15)</f>
         <v/>
       </c>
-      <c r="BG21" s="92" t="str">
+      <c r="BG21" s="60" t="str">
         <f>IF(_acsReport_day_each!BF15="","",ACS_ACM1_MAIN!BF15)</f>
         <v/>
       </c>
-      <c r="BH21" s="90" t="str">
+      <c r="BH21" s="33" t="str">
         <f>IF(_acsReport_day_each!BG15="","",ACS_ACM1_MAIN!BG15)</f>
         <v/>
       </c>
-      <c r="BI21" s="93">
-        <f>IF(_acsReport_day_each!BJ15&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ21" s="93">
-        <f>IF(_acsReport_day_each!BK15&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK21" s="29">
-        <f>IF(_acsReport_day_each!BL15&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL21" s="91" t="str">
+      <c r="BI21" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ15="","",IF(_acsReport_day_each!BJ15&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ21" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK15="","",IF(_acsReport_day_each!BK15&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK21" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL15="","",IF(_acsReport_day_each!BL15&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL21" s="30" t="str">
         <f>IF(_acsReport_day_each!BH15="","",ACS_ACM1_MAIN!BH15)</f>
         <v/>
       </c>
-      <c r="BM21" s="92" t="str">
+      <c r="BM21" s="60" t="str">
         <f>IF(_acsReport_day_each!BI15="","",ACS_ACM1_MAIN!BI15)</f>
         <v/>
       </c>
@@ -7204,7 +7154,7 @@
         <f>IF(_acsReport_day_each!H16="","",_acsReport_day_each!H16)</f>
         <v/>
       </c>
-      <c r="K22" s="61" t="str">
+      <c r="K22" s="60" t="str">
         <f>IF(_acsReport_day_each!I16="","",_acsReport_day_each!I16)</f>
         <v/>
       </c>
@@ -7216,11 +7166,11 @@
         <f>IF(_acsReport_day_each!K16="","",_acsReport_day_each!K16)</f>
         <v/>
       </c>
-      <c r="N22" s="61" t="str">
+      <c r="N22" s="60" t="str">
         <f>IF(_acsReport_day_each!L16="","",_acsReport_day_each!L16)</f>
         <v/>
       </c>
-      <c r="O22" s="62" t="str">
+      <c r="O22" s="61" t="str">
         <f>IF(_acsReport_day_each!M16="","",_acsReport_day_each!M16)</f>
         <v/>
       </c>
@@ -7240,11 +7190,11 @@
         <f>IF(_acsReport_day_each!Q16="","",_acsReport_day_each!Q16)</f>
         <v/>
       </c>
-      <c r="T22" s="61" t="str">
+      <c r="T22" s="60" t="str">
         <f>IF(_acsReport_day_each!R16="","",_acsReport_day_each!R16)</f>
         <v/>
       </c>
-      <c r="U22" s="62" t="str">
+      <c r="U22" s="61" t="str">
         <f>IF(_acsReport_day_each!S16="","",_acsReport_day_each!S16)</f>
         <v/>
       </c>
@@ -7264,11 +7214,11 @@
         <f>IF(_acsReport_day_each!W16="","",_acsReport_day_each!W16)</f>
         <v/>
       </c>
-      <c r="Z22" s="61" t="str">
+      <c r="Z22" s="60" t="str">
         <f>IF(_acsReport_day_each!X16="","",_acsReport_day_each!X16)</f>
         <v/>
       </c>
-      <c r="AA22" s="62" t="str">
+      <c r="AA22" s="61" t="str">
         <f>IF(_acsReport_day_each!Y16="","",_acsReport_day_each!Y16)</f>
         <v/>
       </c>
@@ -7288,7 +7238,7 @@
         <f>IF(_acsReport_day_each!AC16="","",_acsReport_day_each!AC16)</f>
         <v/>
       </c>
-      <c r="AF22" s="61" t="str">
+      <c r="AF22" s="60" t="str">
         <f>IF(_acsReport_day_each!AD16="","",_acsReport_day_each!AD16)</f>
         <v/>
       </c>
@@ -7300,7 +7250,7 @@
         <f>IF(_acsReport_day_each!AF16="","",_acsReport_day_each!AF16)</f>
         <v/>
       </c>
-      <c r="AI22" s="61" t="str">
+      <c r="AI22" s="60" t="str">
         <f>IF(_acsReport_day_each!AG16="","",_acsReport_day_each!AG16)</f>
         <v/>
       </c>
@@ -7312,7 +7262,7 @@
         <f>IF(_acsReport_day_each!AI16="","",_acsReport_day_each!AI16)</f>
         <v/>
       </c>
-      <c r="AL22" s="61" t="str">
+      <c r="AL22" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ16="","",_acsReport_day_each!AJ16)</f>
         <v/>
       </c>
@@ -7324,7 +7274,7 @@
         <f>IF(_acsReport_day_each!AL16="","",_acsReport_day_each!AL16)</f>
         <v/>
       </c>
-      <c r="AO22" s="61" t="str">
+      <c r="AO22" s="60" t="str">
         <f>IF(_acsReport_day_each!AM16="","",_acsReport_day_each!AM16)</f>
         <v/>
       </c>
@@ -7336,7 +7286,7 @@
         <f>IF(_acsReport_day_each!AO16="","",_acsReport_day_each!AO16)</f>
         <v/>
       </c>
-      <c r="AR22" s="61" t="str">
+      <c r="AR22" s="60" t="str">
         <f>IF(_acsReport_day_each!AP16="","",_acsReport_day_each!AP16)</f>
         <v/>
       </c>
@@ -7348,7 +7298,7 @@
         <f>IF(_acsReport_day_each!AR16="","",_acsReport_day_each!AR16)</f>
         <v/>
       </c>
-      <c r="AU22" s="61" t="str">
+      <c r="AU22" s="60" t="str">
         <f>IF(_acsReport_day_each!AS16="","",_acsReport_day_each!AS16)</f>
         <v/>
       </c>
@@ -7360,7 +7310,7 @@
         <f>IF(_acsReport_day_each!AU16="","",_acsReport_day_each!AU16)</f>
         <v/>
       </c>
-      <c r="AX22" s="61" t="str">
+      <c r="AX22" s="60" t="str">
         <f>IF(_acsReport_day_each!AV16="","",_acsReport_day_each!AV16)</f>
         <v/>
       </c>
@@ -7372,11 +7322,11 @@
         <f>IF(_acsReport_day_each!AX16="","",_acsReport_day_each!AX16)</f>
         <v/>
       </c>
-      <c r="BA22" s="61" t="str">
+      <c r="BA22" s="60" t="str">
         <f>IF(_acsReport_day_each!AY16="","",_acsReport_day_each!AY16)</f>
         <v/>
       </c>
-      <c r="BB22" s="62" t="str">
+      <c r="BB22" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ16="","",_acsReport_day_each!AZ16)</f>
         <v/>
       </c>
@@ -7388,39 +7338,39 @@
         <f>IF(_acsReport_day_each!BB16="","",_acsReport_day_each!BB16)</f>
         <v/>
       </c>
-      <c r="BE22" s="90" t="str">
+      <c r="BE22" s="33" t="str">
         <f>IF(_acsReport_day_each!BD16="","",ACS_ACM1_MAIN!BD16)</f>
         <v/>
       </c>
-      <c r="BF22" s="91" t="str">
+      <c r="BF22" s="30" t="str">
         <f>IF(_acsReport_day_each!BE16="","",ACS_ACM1_MAIN!BE16)</f>
         <v/>
       </c>
-      <c r="BG22" s="92" t="str">
+      <c r="BG22" s="60" t="str">
         <f>IF(_acsReport_day_each!BF16="","",ACS_ACM1_MAIN!BF16)</f>
         <v/>
       </c>
-      <c r="BH22" s="90" t="str">
+      <c r="BH22" s="33" t="str">
         <f>IF(_acsReport_day_each!BG16="","",ACS_ACM1_MAIN!BG16)</f>
         <v/>
       </c>
-      <c r="BI22" s="93">
-        <f>IF(_acsReport_day_each!BJ16&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ22" s="93">
-        <f>IF(_acsReport_day_each!BK16&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK22" s="29">
-        <f>IF(_acsReport_day_each!BL16&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL22" s="91" t="str">
+      <c r="BI22" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ16="","",IF(_acsReport_day_each!BJ16&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ22" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK16="","",IF(_acsReport_day_each!BK16&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK22" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL16="","",IF(_acsReport_day_each!BL16&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL22" s="30" t="str">
         <f>IF(_acsReport_day_each!BH16="","",ACS_ACM1_MAIN!BH16)</f>
         <v/>
       </c>
-      <c r="BM22" s="92" t="str">
+      <c r="BM22" s="60" t="str">
         <f>IF(_acsReport_day_each!BI16="","",ACS_ACM1_MAIN!BI16)</f>
         <v/>
       </c>
@@ -7461,7 +7411,7 @@
         <f>IF(_acsReport_day_each!H17="","",_acsReport_day_each!H17)</f>
         <v/>
       </c>
-      <c r="K23" s="61" t="str">
+      <c r="K23" s="60" t="str">
         <f>IF(_acsReport_day_each!I17="","",_acsReport_day_each!I17)</f>
         <v/>
       </c>
@@ -7473,11 +7423,11 @@
         <f>IF(_acsReport_day_each!K17="","",_acsReport_day_each!K17)</f>
         <v/>
       </c>
-      <c r="N23" s="61" t="str">
+      <c r="N23" s="60" t="str">
         <f>IF(_acsReport_day_each!L17="","",_acsReport_day_each!L17)</f>
         <v/>
       </c>
-      <c r="O23" s="62" t="str">
+      <c r="O23" s="61" t="str">
         <f>IF(_acsReport_day_each!M17="","",_acsReport_day_each!M17)</f>
         <v/>
       </c>
@@ -7497,11 +7447,11 @@
         <f>IF(_acsReport_day_each!Q17="","",_acsReport_day_each!Q17)</f>
         <v/>
       </c>
-      <c r="T23" s="61" t="str">
+      <c r="T23" s="60" t="str">
         <f>IF(_acsReport_day_each!R17="","",_acsReport_day_each!R17)</f>
         <v/>
       </c>
-      <c r="U23" s="62" t="str">
+      <c r="U23" s="61" t="str">
         <f>IF(_acsReport_day_each!S17="","",_acsReport_day_each!S17)</f>
         <v/>
       </c>
@@ -7521,11 +7471,11 @@
         <f>IF(_acsReport_day_each!W17="","",_acsReport_day_each!W17)</f>
         <v/>
       </c>
-      <c r="Z23" s="61" t="str">
+      <c r="Z23" s="60" t="str">
         <f>IF(_acsReport_day_each!X17="","",_acsReport_day_each!X17)</f>
         <v/>
       </c>
-      <c r="AA23" s="62" t="str">
+      <c r="AA23" s="61" t="str">
         <f>IF(_acsReport_day_each!Y17="","",_acsReport_day_each!Y17)</f>
         <v/>
       </c>
@@ -7545,7 +7495,7 @@
         <f>IF(_acsReport_day_each!AC17="","",_acsReport_day_each!AC17)</f>
         <v/>
       </c>
-      <c r="AF23" s="61" t="str">
+      <c r="AF23" s="60" t="str">
         <f>IF(_acsReport_day_each!AD17="","",_acsReport_day_each!AD17)</f>
         <v/>
       </c>
@@ -7557,7 +7507,7 @@
         <f>IF(_acsReport_day_each!AF17="","",_acsReport_day_each!AF17)</f>
         <v/>
       </c>
-      <c r="AI23" s="61" t="str">
+      <c r="AI23" s="60" t="str">
         <f>IF(_acsReport_day_each!AG17="","",_acsReport_day_each!AG17)</f>
         <v/>
       </c>
@@ -7569,7 +7519,7 @@
         <f>IF(_acsReport_day_each!AI17="","",_acsReport_day_each!AI17)</f>
         <v/>
       </c>
-      <c r="AL23" s="61" t="str">
+      <c r="AL23" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ17="","",_acsReport_day_each!AJ17)</f>
         <v/>
       </c>
@@ -7581,7 +7531,7 @@
         <f>IF(_acsReport_day_each!AL17="","",_acsReport_day_each!AL17)</f>
         <v/>
       </c>
-      <c r="AO23" s="61" t="str">
+      <c r="AO23" s="60" t="str">
         <f>IF(_acsReport_day_each!AM17="","",_acsReport_day_each!AM17)</f>
         <v/>
       </c>
@@ -7593,7 +7543,7 @@
         <f>IF(_acsReport_day_each!AO17="","",_acsReport_day_each!AO17)</f>
         <v/>
       </c>
-      <c r="AR23" s="61" t="str">
+      <c r="AR23" s="60" t="str">
         <f>IF(_acsReport_day_each!AP17="","",_acsReport_day_each!AP17)</f>
         <v/>
       </c>
@@ -7605,7 +7555,7 @@
         <f>IF(_acsReport_day_each!AR17="","",_acsReport_day_each!AR17)</f>
         <v/>
       </c>
-      <c r="AU23" s="61" t="str">
+      <c r="AU23" s="60" t="str">
         <f>IF(_acsReport_day_each!AS17="","",_acsReport_day_each!AS17)</f>
         <v/>
       </c>
@@ -7617,7 +7567,7 @@
         <f>IF(_acsReport_day_each!AU17="","",_acsReport_day_each!AU17)</f>
         <v/>
       </c>
-      <c r="AX23" s="61" t="str">
+      <c r="AX23" s="60" t="str">
         <f>IF(_acsReport_day_each!AV17="","",_acsReport_day_each!AV17)</f>
         <v/>
       </c>
@@ -7629,11 +7579,11 @@
         <f>IF(_acsReport_day_each!AX17="","",_acsReport_day_each!AX17)</f>
         <v/>
       </c>
-      <c r="BA23" s="61" t="str">
+      <c r="BA23" s="60" t="str">
         <f>IF(_acsReport_day_each!AY17="","",_acsReport_day_each!AY17)</f>
         <v/>
       </c>
-      <c r="BB23" s="62" t="str">
+      <c r="BB23" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ17="","",_acsReport_day_each!AZ17)</f>
         <v/>
       </c>
@@ -7645,39 +7595,39 @@
         <f>IF(_acsReport_day_each!BB17="","",_acsReport_day_each!BB17)</f>
         <v/>
       </c>
-      <c r="BE23" s="100" t="str">
+      <c r="BE23" s="35" t="str">
         <f>IF(_acsReport_day_each!BD17="","",ACS_ACM1_MAIN!BD17)</f>
         <v/>
       </c>
-      <c r="BF23" s="101" t="str">
+      <c r="BF23" s="36" t="str">
         <f>IF(_acsReport_day_each!BE17="","",ACS_ACM1_MAIN!BE17)</f>
         <v/>
       </c>
-      <c r="BG23" s="102" t="str">
+      <c r="BG23" s="62" t="str">
         <f>IF(_acsReport_day_each!BF17="","",ACS_ACM1_MAIN!BF17)</f>
         <v/>
       </c>
-      <c r="BH23" s="100" t="str">
+      <c r="BH23" s="35" t="str">
         <f>IF(_acsReport_day_each!BG17="","",ACS_ACM1_MAIN!BG17)</f>
         <v/>
       </c>
-      <c r="BI23" s="103">
-        <f>IF(_acsReport_day_each!BJ17&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="103">
-        <f>IF(_acsReport_day_each!BK17&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK23" s="35">
-        <f>IF(_acsReport_day_each!BL17&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL23" s="101" t="str">
+      <c r="BI23" s="92" t="str">
+        <f>IF(_acsReport_day_each!BJ17="","",IF(_acsReport_day_each!BJ17&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ23" s="92" t="str">
+        <f>IF(_acsReport_day_each!BK17="","",IF(_acsReport_day_each!BK17&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK23" s="35" t="str">
+        <f>IF(_acsReport_day_each!BL17="","",IF(_acsReport_day_each!BL17&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL23" s="36" t="str">
         <f>IF(_acsReport_day_each!BH17="","",ACS_ACM1_MAIN!BH17)</f>
         <v/>
       </c>
-      <c r="BM23" s="102" t="str">
+      <c r="BM23" s="62" t="str">
         <f>IF(_acsReport_day_each!BI17="","",ACS_ACM1_MAIN!BI17)</f>
         <v/>
       </c>
@@ -7718,7 +7668,7 @@
         <f>IF(_acsReport_day_each!H18="","",_acsReport_day_each!H18)</f>
         <v/>
       </c>
-      <c r="K24" s="65" t="str">
+      <c r="K24" s="64" t="str">
         <f>IF(_acsReport_day_each!I18="","",_acsReport_day_each!I18)</f>
         <v/>
       </c>
@@ -7730,11 +7680,11 @@
         <f>IF(_acsReport_day_each!K18="","",_acsReport_day_each!K18)</f>
         <v/>
       </c>
-      <c r="N24" s="65" t="str">
+      <c r="N24" s="64" t="str">
         <f>IF(_acsReport_day_each!L18="","",_acsReport_day_each!L18)</f>
         <v/>
       </c>
-      <c r="O24" s="66" t="str">
+      <c r="O24" s="65" t="str">
         <f>IF(_acsReport_day_each!M18="","",_acsReport_day_each!M18)</f>
         <v/>
       </c>
@@ -7754,11 +7704,11 @@
         <f>IF(_acsReport_day_each!Q18="","",_acsReport_day_each!Q18)</f>
         <v/>
       </c>
-      <c r="T24" s="65" t="str">
+      <c r="T24" s="64" t="str">
         <f>IF(_acsReport_day_each!R18="","",_acsReport_day_each!R18)</f>
         <v/>
       </c>
-      <c r="U24" s="66" t="str">
+      <c r="U24" s="65" t="str">
         <f>IF(_acsReport_day_each!S18="","",_acsReport_day_each!S18)</f>
         <v/>
       </c>
@@ -7778,11 +7728,11 @@
         <f>IF(_acsReport_day_each!W18="","",_acsReport_day_each!W18)</f>
         <v/>
       </c>
-      <c r="Z24" s="65" t="str">
+      <c r="Z24" s="64" t="str">
         <f>IF(_acsReport_day_each!X18="","",_acsReport_day_each!X18)</f>
         <v/>
       </c>
-      <c r="AA24" s="66" t="str">
+      <c r="AA24" s="65" t="str">
         <f>IF(_acsReport_day_each!Y18="","",_acsReport_day_each!Y18)</f>
         <v/>
       </c>
@@ -7802,7 +7752,7 @@
         <f>IF(_acsReport_day_each!AC18="","",_acsReport_day_each!AC18)</f>
         <v/>
       </c>
-      <c r="AF24" s="65" t="str">
+      <c r="AF24" s="64" t="str">
         <f>IF(_acsReport_day_each!AD18="","",_acsReport_day_each!AD18)</f>
         <v/>
       </c>
@@ -7814,7 +7764,7 @@
         <f>IF(_acsReport_day_each!AF18="","",_acsReport_day_each!AF18)</f>
         <v/>
       </c>
-      <c r="AI24" s="65" t="str">
+      <c r="AI24" s="64" t="str">
         <f>IF(_acsReport_day_each!AG18="","",_acsReport_day_each!AG18)</f>
         <v/>
       </c>
@@ -7826,7 +7776,7 @@
         <f>IF(_acsReport_day_each!AI18="","",_acsReport_day_each!AI18)</f>
         <v/>
       </c>
-      <c r="AL24" s="65" t="str">
+      <c r="AL24" s="64" t="str">
         <f>IF(_acsReport_day_each!AJ18="","",_acsReport_day_each!AJ18)</f>
         <v/>
       </c>
@@ -7838,7 +7788,7 @@
         <f>IF(_acsReport_day_each!AL18="","",_acsReport_day_each!AL18)</f>
         <v/>
       </c>
-      <c r="AO24" s="65" t="str">
+      <c r="AO24" s="64" t="str">
         <f>IF(_acsReport_day_each!AM18="","",_acsReport_day_each!AM18)</f>
         <v/>
       </c>
@@ -7850,7 +7800,7 @@
         <f>IF(_acsReport_day_each!AO18="","",_acsReport_day_each!AO18)</f>
         <v/>
       </c>
-      <c r="AR24" s="65" t="str">
+      <c r="AR24" s="64" t="str">
         <f>IF(_acsReport_day_each!AP18="","",_acsReport_day_each!AP18)</f>
         <v/>
       </c>
@@ -7862,7 +7812,7 @@
         <f>IF(_acsReport_day_each!AR18="","",_acsReport_day_each!AR18)</f>
         <v/>
       </c>
-      <c r="AU24" s="65" t="str">
+      <c r="AU24" s="64" t="str">
         <f>IF(_acsReport_day_each!AS18="","",_acsReport_day_each!AS18)</f>
         <v/>
       </c>
@@ -7874,7 +7824,7 @@
         <f>IF(_acsReport_day_each!AU18="","",_acsReport_day_each!AU18)</f>
         <v/>
       </c>
-      <c r="AX24" s="65" t="str">
+      <c r="AX24" s="64" t="str">
         <f>IF(_acsReport_day_each!AV18="","",_acsReport_day_each!AV18)</f>
         <v/>
       </c>
@@ -7886,11 +7836,11 @@
         <f>IF(_acsReport_day_each!AX18="","",_acsReport_day_each!AX18)</f>
         <v/>
       </c>
-      <c r="BA24" s="65" t="str">
+      <c r="BA24" s="64" t="str">
         <f>IF(_acsReport_day_each!AY18="","",_acsReport_day_each!AY18)</f>
         <v/>
       </c>
-      <c r="BB24" s="66" t="str">
+      <c r="BB24" s="65" t="str">
         <f>IF(_acsReport_day_each!AZ18="","",_acsReport_day_each!AZ18)</f>
         <v/>
       </c>
@@ -7902,39 +7852,39 @@
         <f>IF(_acsReport_day_each!BB18="","",_acsReport_day_each!BB18)</f>
         <v/>
       </c>
-      <c r="BE24" s="97" t="str">
+      <c r="BE24" s="38" t="str">
         <f>IF(_acsReport_day_each!BD18="","",ACS_ACM1_MAIN!BD18)</f>
         <v/>
       </c>
-      <c r="BF24" s="98" t="str">
+      <c r="BF24" s="39" t="str">
         <f>IF(_acsReport_day_each!BE18="","",ACS_ACM1_MAIN!BE18)</f>
         <v/>
       </c>
-      <c r="BG24" s="99" t="str">
+      <c r="BG24" s="64" t="str">
         <f>IF(_acsReport_day_each!BF18="","",ACS_ACM1_MAIN!BF18)</f>
         <v/>
       </c>
-      <c r="BH24" s="97" t="str">
+      <c r="BH24" s="38" t="str">
         <f>IF(_acsReport_day_each!BG18="","",ACS_ACM1_MAIN!BG18)</f>
         <v/>
       </c>
-      <c r="BI24" s="104">
-        <f>IF(_acsReport_day_each!BJ18&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="104">
-        <f>IF(_acsReport_day_each!BK18&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK24" s="105">
-        <f>IF(_acsReport_day_each!BL18&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL24" s="98" t="str">
+      <c r="BI24" s="93" t="str">
+        <f>IF(_acsReport_day_each!BJ18="","",IF(_acsReport_day_each!BJ18&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ24" s="93" t="str">
+        <f>IF(_acsReport_day_each!BK18="","",IF(_acsReport_day_each!BK18&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK24" s="94" t="str">
+        <f>IF(_acsReport_day_each!BL18="","",IF(_acsReport_day_each!BL18&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL24" s="39" t="str">
         <f>IF(_acsReport_day_each!BH18="","",ACS_ACM1_MAIN!BH18)</f>
         <v/>
       </c>
-      <c r="BM24" s="99" t="str">
+      <c r="BM24" s="64" t="str">
         <f>IF(_acsReport_day_each!BI18="","",ACS_ACM1_MAIN!BI18)</f>
         <v/>
       </c>
@@ -7975,7 +7925,7 @@
         <f>IF(_acsReport_day_each!H19="","",_acsReport_day_each!H19)</f>
         <v/>
       </c>
-      <c r="K25" s="61" t="str">
+      <c r="K25" s="60" t="str">
         <f>IF(_acsReport_day_each!I19="","",_acsReport_day_each!I19)</f>
         <v/>
       </c>
@@ -7987,11 +7937,11 @@
         <f>IF(_acsReport_day_each!K19="","",_acsReport_day_each!K19)</f>
         <v/>
       </c>
-      <c r="N25" s="61" t="str">
+      <c r="N25" s="60" t="str">
         <f>IF(_acsReport_day_each!L19="","",_acsReport_day_each!L19)</f>
         <v/>
       </c>
-      <c r="O25" s="62" t="str">
+      <c r="O25" s="61" t="str">
         <f>IF(_acsReport_day_each!M19="","",_acsReport_day_each!M19)</f>
         <v/>
       </c>
@@ -8011,11 +7961,11 @@
         <f>IF(_acsReport_day_each!Q19="","",_acsReport_day_each!Q19)</f>
         <v/>
       </c>
-      <c r="T25" s="61" t="str">
+      <c r="T25" s="60" t="str">
         <f>IF(_acsReport_day_each!R19="","",_acsReport_day_each!R19)</f>
         <v/>
       </c>
-      <c r="U25" s="62" t="str">
+      <c r="U25" s="61" t="str">
         <f>IF(_acsReport_day_each!S19="","",_acsReport_day_each!S19)</f>
         <v/>
       </c>
@@ -8035,11 +7985,11 @@
         <f>IF(_acsReport_day_each!W19="","",_acsReport_day_each!W19)</f>
         <v/>
       </c>
-      <c r="Z25" s="61" t="str">
+      <c r="Z25" s="60" t="str">
         <f>IF(_acsReport_day_each!X19="","",_acsReport_day_each!X19)</f>
         <v/>
       </c>
-      <c r="AA25" s="62" t="str">
+      <c r="AA25" s="61" t="str">
         <f>IF(_acsReport_day_each!Y19="","",_acsReport_day_each!Y19)</f>
         <v/>
       </c>
@@ -8059,7 +8009,7 @@
         <f>IF(_acsReport_day_each!AC19="","",_acsReport_day_each!AC19)</f>
         <v/>
       </c>
-      <c r="AF25" s="61" t="str">
+      <c r="AF25" s="60" t="str">
         <f>IF(_acsReport_day_each!AD19="","",_acsReport_day_each!AD19)</f>
         <v/>
       </c>
@@ -8071,7 +8021,7 @@
         <f>IF(_acsReport_day_each!AF19="","",_acsReport_day_each!AF19)</f>
         <v/>
       </c>
-      <c r="AI25" s="61" t="str">
+      <c r="AI25" s="60" t="str">
         <f>IF(_acsReport_day_each!AG19="","",_acsReport_day_each!AG19)</f>
         <v/>
       </c>
@@ -8083,7 +8033,7 @@
         <f>IF(_acsReport_day_each!AI19="","",_acsReport_day_each!AI19)</f>
         <v/>
       </c>
-      <c r="AL25" s="61" t="str">
+      <c r="AL25" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ19="","",_acsReport_day_each!AJ19)</f>
         <v/>
       </c>
@@ -8095,7 +8045,7 @@
         <f>IF(_acsReport_day_each!AL19="","",_acsReport_day_each!AL19)</f>
         <v/>
       </c>
-      <c r="AO25" s="61" t="str">
+      <c r="AO25" s="60" t="str">
         <f>IF(_acsReport_day_each!AM19="","",_acsReport_day_each!AM19)</f>
         <v/>
       </c>
@@ -8107,7 +8057,7 @@
         <f>IF(_acsReport_day_each!AO19="","",_acsReport_day_each!AO19)</f>
         <v/>
       </c>
-      <c r="AR25" s="61" t="str">
+      <c r="AR25" s="60" t="str">
         <f>IF(_acsReport_day_each!AP19="","",_acsReport_day_each!AP19)</f>
         <v/>
       </c>
@@ -8119,7 +8069,7 @@
         <f>IF(_acsReport_day_each!AR19="","",_acsReport_day_each!AR19)</f>
         <v/>
       </c>
-      <c r="AU25" s="61" t="str">
+      <c r="AU25" s="60" t="str">
         <f>IF(_acsReport_day_each!AS19="","",_acsReport_day_each!AS19)</f>
         <v/>
       </c>
@@ -8131,7 +8081,7 @@
         <f>IF(_acsReport_day_each!AU19="","",_acsReport_day_each!AU19)</f>
         <v/>
       </c>
-      <c r="AX25" s="61" t="str">
+      <c r="AX25" s="60" t="str">
         <f>IF(_acsReport_day_each!AV19="","",_acsReport_day_each!AV19)</f>
         <v/>
       </c>
@@ -8143,11 +8093,11 @@
         <f>IF(_acsReport_day_each!AX19="","",_acsReport_day_each!AX19)</f>
         <v/>
       </c>
-      <c r="BA25" s="61" t="str">
+      <c r="BA25" s="60" t="str">
         <f>IF(_acsReport_day_each!AY19="","",_acsReport_day_each!AY19)</f>
         <v/>
       </c>
-      <c r="BB25" s="62" t="str">
+      <c r="BB25" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ19="","",_acsReport_day_each!AZ19)</f>
         <v/>
       </c>
@@ -8159,39 +8109,39 @@
         <f>IF(_acsReport_day_each!BB19="","",_acsReport_day_each!BB19)</f>
         <v/>
       </c>
-      <c r="BE25" s="90" t="str">
+      <c r="BE25" s="33" t="str">
         <f>IF(_acsReport_day_each!BD19="","",ACS_ACM1_MAIN!BD19)</f>
         <v/>
       </c>
-      <c r="BF25" s="91" t="str">
+      <c r="BF25" s="30" t="str">
         <f>IF(_acsReport_day_each!BE19="","",ACS_ACM1_MAIN!BE19)</f>
         <v/>
       </c>
-      <c r="BG25" s="92" t="str">
+      <c r="BG25" s="60" t="str">
         <f>IF(_acsReport_day_each!BF19="","",ACS_ACM1_MAIN!BF19)</f>
         <v/>
       </c>
-      <c r="BH25" s="90" t="str">
+      <c r="BH25" s="33" t="str">
         <f>IF(_acsReport_day_each!BG19="","",ACS_ACM1_MAIN!BG19)</f>
         <v/>
       </c>
-      <c r="BI25" s="93">
-        <f>IF(_acsReport_day_each!BJ19&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ25" s="93">
-        <f>IF(_acsReport_day_each!BK19&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK25" s="29">
-        <f>IF(_acsReport_day_each!BL19&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL25" s="91" t="str">
+      <c r="BI25" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ19="","",IF(_acsReport_day_each!BJ19&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ25" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK19="","",IF(_acsReport_day_each!BK19&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK25" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL19="","",IF(_acsReport_day_each!BL19&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL25" s="30" t="str">
         <f>IF(_acsReport_day_each!BH19="","",ACS_ACM1_MAIN!BH19)</f>
         <v/>
       </c>
-      <c r="BM25" s="92" t="str">
+      <c r="BM25" s="60" t="str">
         <f>IF(_acsReport_day_each!BI19="","",ACS_ACM1_MAIN!BI19)</f>
         <v/>
       </c>
@@ -8232,7 +8182,7 @@
         <f>IF(_acsReport_day_each!H20="","",_acsReport_day_each!H20)</f>
         <v/>
       </c>
-      <c r="K26" s="61" t="str">
+      <c r="K26" s="60" t="str">
         <f>IF(_acsReport_day_each!I20="","",_acsReport_day_each!I20)</f>
         <v/>
       </c>
@@ -8244,11 +8194,11 @@
         <f>IF(_acsReport_day_each!K20="","",_acsReport_day_each!K20)</f>
         <v/>
       </c>
-      <c r="N26" s="61" t="str">
+      <c r="N26" s="60" t="str">
         <f>IF(_acsReport_day_each!L20="","",_acsReport_day_each!L20)</f>
         <v/>
       </c>
-      <c r="O26" s="62" t="str">
+      <c r="O26" s="61" t="str">
         <f>IF(_acsReport_day_each!M20="","",_acsReport_day_each!M20)</f>
         <v/>
       </c>
@@ -8268,11 +8218,11 @@
         <f>IF(_acsReport_day_each!Q20="","",_acsReport_day_each!Q20)</f>
         <v/>
       </c>
-      <c r="T26" s="61" t="str">
+      <c r="T26" s="60" t="str">
         <f>IF(_acsReport_day_each!R20="","",_acsReport_day_each!R20)</f>
         <v/>
       </c>
-      <c r="U26" s="62" t="str">
+      <c r="U26" s="61" t="str">
         <f>IF(_acsReport_day_each!S20="","",_acsReport_day_each!S20)</f>
         <v/>
       </c>
@@ -8292,11 +8242,11 @@
         <f>IF(_acsReport_day_each!W20="","",_acsReport_day_each!W20)</f>
         <v/>
       </c>
-      <c r="Z26" s="61" t="str">
+      <c r="Z26" s="60" t="str">
         <f>IF(_acsReport_day_each!X20="","",_acsReport_day_each!X20)</f>
         <v/>
       </c>
-      <c r="AA26" s="62" t="str">
+      <c r="AA26" s="61" t="str">
         <f>IF(_acsReport_day_each!Y20="","",_acsReport_day_each!Y20)</f>
         <v/>
       </c>
@@ -8316,7 +8266,7 @@
         <f>IF(_acsReport_day_each!AC20="","",_acsReport_day_each!AC20)</f>
         <v/>
       </c>
-      <c r="AF26" s="61" t="str">
+      <c r="AF26" s="60" t="str">
         <f>IF(_acsReport_day_each!AD20="","",_acsReport_day_each!AD20)</f>
         <v/>
       </c>
@@ -8328,7 +8278,7 @@
         <f>IF(_acsReport_day_each!AF20="","",_acsReport_day_each!AF20)</f>
         <v/>
       </c>
-      <c r="AI26" s="61" t="str">
+      <c r="AI26" s="60" t="str">
         <f>IF(_acsReport_day_each!AG20="","",_acsReport_day_each!AG20)</f>
         <v/>
       </c>
@@ -8340,7 +8290,7 @@
         <f>IF(_acsReport_day_each!AI20="","",_acsReport_day_each!AI20)</f>
         <v/>
       </c>
-      <c r="AL26" s="61" t="str">
+      <c r="AL26" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ20="","",_acsReport_day_each!AJ20)</f>
         <v/>
       </c>
@@ -8352,7 +8302,7 @@
         <f>IF(_acsReport_day_each!AL20="","",_acsReport_day_each!AL20)</f>
         <v/>
       </c>
-      <c r="AO26" s="61" t="str">
+      <c r="AO26" s="60" t="str">
         <f>IF(_acsReport_day_each!AM20="","",_acsReport_day_each!AM20)</f>
         <v/>
       </c>
@@ -8364,7 +8314,7 @@
         <f>IF(_acsReport_day_each!AO20="","",_acsReport_day_each!AO20)</f>
         <v/>
       </c>
-      <c r="AR26" s="61" t="str">
+      <c r="AR26" s="60" t="str">
         <f>IF(_acsReport_day_each!AP20="","",_acsReport_day_each!AP20)</f>
         <v/>
       </c>
@@ -8376,7 +8326,7 @@
         <f>IF(_acsReport_day_each!AR20="","",_acsReport_day_each!AR20)</f>
         <v/>
       </c>
-      <c r="AU26" s="61" t="str">
+      <c r="AU26" s="60" t="str">
         <f>IF(_acsReport_day_each!AS20="","",_acsReport_day_each!AS20)</f>
         <v/>
       </c>
@@ -8388,7 +8338,7 @@
         <f>IF(_acsReport_day_each!AU20="","",_acsReport_day_each!AU20)</f>
         <v/>
       </c>
-      <c r="AX26" s="61" t="str">
+      <c r="AX26" s="60" t="str">
         <f>IF(_acsReport_day_each!AV20="","",_acsReport_day_each!AV20)</f>
         <v/>
       </c>
@@ -8400,11 +8350,11 @@
         <f>IF(_acsReport_day_each!AX20="","",_acsReport_day_each!AX20)</f>
         <v/>
       </c>
-      <c r="BA26" s="61" t="str">
+      <c r="BA26" s="60" t="str">
         <f>IF(_acsReport_day_each!AY20="","",_acsReport_day_each!AY20)</f>
         <v/>
       </c>
-      <c r="BB26" s="62" t="str">
+      <c r="BB26" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ20="","",_acsReport_day_each!AZ20)</f>
         <v/>
       </c>
@@ -8416,39 +8366,39 @@
         <f>IF(_acsReport_day_each!BB20="","",_acsReport_day_each!BB20)</f>
         <v/>
       </c>
-      <c r="BE26" s="90" t="str">
+      <c r="BE26" s="33" t="str">
         <f>IF(_acsReport_day_each!BD20="","",ACS_ACM1_MAIN!BD20)</f>
         <v/>
       </c>
-      <c r="BF26" s="91" t="str">
+      <c r="BF26" s="30" t="str">
         <f>IF(_acsReport_day_each!BE20="","",ACS_ACM1_MAIN!BE20)</f>
         <v/>
       </c>
-      <c r="BG26" s="92" t="str">
+      <c r="BG26" s="60" t="str">
         <f>IF(_acsReport_day_each!BF20="","",ACS_ACM1_MAIN!BF20)</f>
         <v/>
       </c>
-      <c r="BH26" s="90" t="str">
+      <c r="BH26" s="33" t="str">
         <f>IF(_acsReport_day_each!BG20="","",ACS_ACM1_MAIN!BG20)</f>
         <v/>
       </c>
-      <c r="BI26" s="93">
-        <f>IF(_acsReport_day_each!BJ20&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ26" s="93">
-        <f>IF(_acsReport_day_each!BK20&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK26" s="29">
-        <f>IF(_acsReport_day_each!BL20&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL26" s="91" t="str">
+      <c r="BI26" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ20="","",IF(_acsReport_day_each!BJ20&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ26" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK20="","",IF(_acsReport_day_each!BK20&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK26" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL20="","",IF(_acsReport_day_each!BL20&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL26" s="30" t="str">
         <f>IF(_acsReport_day_each!BH20="","",ACS_ACM1_MAIN!BH20)</f>
         <v/>
       </c>
-      <c r="BM26" s="92" t="str">
+      <c r="BM26" s="60" t="str">
         <f>IF(_acsReport_day_each!BI20="","",ACS_ACM1_MAIN!BI20)</f>
         <v/>
       </c>
@@ -8489,7 +8439,7 @@
         <f>IF(_acsReport_day_each!H21="","",_acsReport_day_each!H21)</f>
         <v/>
       </c>
-      <c r="K27" s="61" t="str">
+      <c r="K27" s="60" t="str">
         <f>IF(_acsReport_day_each!I21="","",_acsReport_day_each!I21)</f>
         <v/>
       </c>
@@ -8501,11 +8451,11 @@
         <f>IF(_acsReport_day_each!K21="","",_acsReport_day_each!K21)</f>
         <v/>
       </c>
-      <c r="N27" s="61" t="str">
+      <c r="N27" s="60" t="str">
         <f>IF(_acsReport_day_each!L21="","",_acsReport_day_each!L21)</f>
         <v/>
       </c>
-      <c r="O27" s="62" t="str">
+      <c r="O27" s="61" t="str">
         <f>IF(_acsReport_day_each!M21="","",_acsReport_day_each!M21)</f>
         <v/>
       </c>
@@ -8525,11 +8475,11 @@
         <f>IF(_acsReport_day_each!Q21="","",_acsReport_day_each!Q21)</f>
         <v/>
       </c>
-      <c r="T27" s="61" t="str">
+      <c r="T27" s="60" t="str">
         <f>IF(_acsReport_day_each!R21="","",_acsReport_day_each!R21)</f>
         <v/>
       </c>
-      <c r="U27" s="62" t="str">
+      <c r="U27" s="61" t="str">
         <f>IF(_acsReport_day_each!S21="","",_acsReport_day_each!S21)</f>
         <v/>
       </c>
@@ -8549,11 +8499,11 @@
         <f>IF(_acsReport_day_each!W21="","",_acsReport_day_each!W21)</f>
         <v/>
       </c>
-      <c r="Z27" s="61" t="str">
+      <c r="Z27" s="60" t="str">
         <f>IF(_acsReport_day_each!X21="","",_acsReport_day_each!X21)</f>
         <v/>
       </c>
-      <c r="AA27" s="62" t="str">
+      <c r="AA27" s="61" t="str">
         <f>IF(_acsReport_day_each!Y21="","",_acsReport_day_each!Y21)</f>
         <v/>
       </c>
@@ -8573,7 +8523,7 @@
         <f>IF(_acsReport_day_each!AC21="","",_acsReport_day_each!AC21)</f>
         <v/>
       </c>
-      <c r="AF27" s="61" t="str">
+      <c r="AF27" s="60" t="str">
         <f>IF(_acsReport_day_each!AD21="","",_acsReport_day_each!AD21)</f>
         <v/>
       </c>
@@ -8585,7 +8535,7 @@
         <f>IF(_acsReport_day_each!AF21="","",_acsReport_day_each!AF21)</f>
         <v/>
       </c>
-      <c r="AI27" s="61" t="str">
+      <c r="AI27" s="60" t="str">
         <f>IF(_acsReport_day_each!AG21="","",_acsReport_day_each!AG21)</f>
         <v/>
       </c>
@@ -8597,7 +8547,7 @@
         <f>IF(_acsReport_day_each!AI21="","",_acsReport_day_each!AI21)</f>
         <v/>
       </c>
-      <c r="AL27" s="61" t="str">
+      <c r="AL27" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ21="","",_acsReport_day_each!AJ21)</f>
         <v/>
       </c>
@@ -8609,7 +8559,7 @@
         <f>IF(_acsReport_day_each!AL21="","",_acsReport_day_each!AL21)</f>
         <v/>
       </c>
-      <c r="AO27" s="61" t="str">
+      <c r="AO27" s="60" t="str">
         <f>IF(_acsReport_day_each!AM21="","",_acsReport_day_each!AM21)</f>
         <v/>
       </c>
@@ -8621,7 +8571,7 @@
         <f>IF(_acsReport_day_each!AO21="","",_acsReport_day_each!AO21)</f>
         <v/>
       </c>
-      <c r="AR27" s="61" t="str">
+      <c r="AR27" s="60" t="str">
         <f>IF(_acsReport_day_each!AP21="","",_acsReport_day_each!AP21)</f>
         <v/>
       </c>
@@ -8633,7 +8583,7 @@
         <f>IF(_acsReport_day_each!AR21="","",_acsReport_day_each!AR21)</f>
         <v/>
       </c>
-      <c r="AU27" s="61" t="str">
+      <c r="AU27" s="60" t="str">
         <f>IF(_acsReport_day_each!AS21="","",_acsReport_day_each!AS21)</f>
         <v/>
       </c>
@@ -8645,7 +8595,7 @@
         <f>IF(_acsReport_day_each!AU21="","",_acsReport_day_each!AU21)</f>
         <v/>
       </c>
-      <c r="AX27" s="61" t="str">
+      <c r="AX27" s="60" t="str">
         <f>IF(_acsReport_day_each!AV21="","",_acsReport_day_each!AV21)</f>
         <v/>
       </c>
@@ -8657,11 +8607,11 @@
         <f>IF(_acsReport_day_each!AX21="","",_acsReport_day_each!AX21)</f>
         <v/>
       </c>
-      <c r="BA27" s="61" t="str">
+      <c r="BA27" s="60" t="str">
         <f>IF(_acsReport_day_each!AY21="","",_acsReport_day_each!AY21)</f>
         <v/>
       </c>
-      <c r="BB27" s="62" t="str">
+      <c r="BB27" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ21="","",_acsReport_day_each!AZ21)</f>
         <v/>
       </c>
@@ -8673,39 +8623,39 @@
         <f>IF(_acsReport_day_each!BB21="","",_acsReport_day_each!BB21)</f>
         <v/>
       </c>
-      <c r="BE27" s="90" t="str">
+      <c r="BE27" s="33" t="str">
         <f>IF(_acsReport_day_each!BD21="","",ACS_ACM1_MAIN!BD21)</f>
         <v/>
       </c>
-      <c r="BF27" s="91" t="str">
+      <c r="BF27" s="30" t="str">
         <f>IF(_acsReport_day_each!BE21="","",ACS_ACM1_MAIN!BE21)</f>
         <v/>
       </c>
-      <c r="BG27" s="92" t="str">
+      <c r="BG27" s="60" t="str">
         <f>IF(_acsReport_day_each!BF21="","",ACS_ACM1_MAIN!BF21)</f>
         <v/>
       </c>
-      <c r="BH27" s="90" t="str">
+      <c r="BH27" s="33" t="str">
         <f>IF(_acsReport_day_each!BG21="","",ACS_ACM1_MAIN!BG21)</f>
         <v/>
       </c>
-      <c r="BI27" s="93">
-        <f>IF(_acsReport_day_each!BJ21&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ27" s="93">
-        <f>IF(_acsReport_day_each!BK21&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK27" s="29">
-        <f>IF(_acsReport_day_each!BL21&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL27" s="91" t="str">
+      <c r="BI27" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ21="","",IF(_acsReport_day_each!BJ21&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ27" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK21="","",IF(_acsReport_day_each!BK21&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK27" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL21="","",IF(_acsReport_day_each!BL21&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL27" s="30" t="str">
         <f>IF(_acsReport_day_each!BH21="","",ACS_ACM1_MAIN!BH21)</f>
         <v/>
       </c>
-      <c r="BM27" s="92" t="str">
+      <c r="BM27" s="60" t="str">
         <f>IF(_acsReport_day_each!BI21="","",ACS_ACM1_MAIN!BI21)</f>
         <v/>
       </c>
@@ -8746,7 +8696,7 @@
         <f>IF(_acsReport_day_each!H22="","",_acsReport_day_each!H22)</f>
         <v/>
       </c>
-      <c r="K28" s="61" t="str">
+      <c r="K28" s="60" t="str">
         <f>IF(_acsReport_day_each!I22="","",_acsReport_day_each!I22)</f>
         <v/>
       </c>
@@ -8758,11 +8708,11 @@
         <f>IF(_acsReport_day_each!K22="","",_acsReport_day_each!K22)</f>
         <v/>
       </c>
-      <c r="N28" s="61" t="str">
+      <c r="N28" s="60" t="str">
         <f>IF(_acsReport_day_each!L22="","",_acsReport_day_each!L22)</f>
         <v/>
       </c>
-      <c r="O28" s="62" t="str">
+      <c r="O28" s="61" t="str">
         <f>IF(_acsReport_day_each!M22="","",_acsReport_day_each!M22)</f>
         <v/>
       </c>
@@ -8782,11 +8732,11 @@
         <f>IF(_acsReport_day_each!Q22="","",_acsReport_day_each!Q22)</f>
         <v/>
       </c>
-      <c r="T28" s="61" t="str">
+      <c r="T28" s="60" t="str">
         <f>IF(_acsReport_day_each!R22="","",_acsReport_day_each!R22)</f>
         <v/>
       </c>
-      <c r="U28" s="62" t="str">
+      <c r="U28" s="61" t="str">
         <f>IF(_acsReport_day_each!S22="","",_acsReport_day_each!S22)</f>
         <v/>
       </c>
@@ -8806,11 +8756,11 @@
         <f>IF(_acsReport_day_each!W22="","",_acsReport_day_each!W22)</f>
         <v/>
       </c>
-      <c r="Z28" s="61" t="str">
+      <c r="Z28" s="60" t="str">
         <f>IF(_acsReport_day_each!X22="","",_acsReport_day_each!X22)</f>
         <v/>
       </c>
-      <c r="AA28" s="62" t="str">
+      <c r="AA28" s="61" t="str">
         <f>IF(_acsReport_day_each!Y22="","",_acsReport_day_each!Y22)</f>
         <v/>
       </c>
@@ -8830,7 +8780,7 @@
         <f>IF(_acsReport_day_each!AC22="","",_acsReport_day_each!AC22)</f>
         <v/>
       </c>
-      <c r="AF28" s="61" t="str">
+      <c r="AF28" s="60" t="str">
         <f>IF(_acsReport_day_each!AD22="","",_acsReport_day_each!AD22)</f>
         <v/>
       </c>
@@ -8842,7 +8792,7 @@
         <f>IF(_acsReport_day_each!AF22="","",_acsReport_day_each!AF22)</f>
         <v/>
       </c>
-      <c r="AI28" s="61" t="str">
+      <c r="AI28" s="60" t="str">
         <f>IF(_acsReport_day_each!AG22="","",_acsReport_day_each!AG22)</f>
         <v/>
       </c>
@@ -8854,7 +8804,7 @@
         <f>IF(_acsReport_day_each!AI22="","",_acsReport_day_each!AI22)</f>
         <v/>
       </c>
-      <c r="AL28" s="61" t="str">
+      <c r="AL28" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ22="","",_acsReport_day_each!AJ22)</f>
         <v/>
       </c>
@@ -8866,7 +8816,7 @@
         <f>IF(_acsReport_day_each!AL22="","",_acsReport_day_each!AL22)</f>
         <v/>
       </c>
-      <c r="AO28" s="61" t="str">
+      <c r="AO28" s="60" t="str">
         <f>IF(_acsReport_day_each!AM22="","",_acsReport_day_each!AM22)</f>
         <v/>
       </c>
@@ -8878,7 +8828,7 @@
         <f>IF(_acsReport_day_each!AO22="","",_acsReport_day_each!AO22)</f>
         <v/>
       </c>
-      <c r="AR28" s="61" t="str">
+      <c r="AR28" s="60" t="str">
         <f>IF(_acsReport_day_each!AP22="","",_acsReport_day_each!AP22)</f>
         <v/>
       </c>
@@ -8890,7 +8840,7 @@
         <f>IF(_acsReport_day_each!AR22="","",_acsReport_day_each!AR22)</f>
         <v/>
       </c>
-      <c r="AU28" s="61" t="str">
+      <c r="AU28" s="60" t="str">
         <f>IF(_acsReport_day_each!AS22="","",_acsReport_day_each!AS22)</f>
         <v/>
       </c>
@@ -8902,7 +8852,7 @@
         <f>IF(_acsReport_day_each!AU22="","",_acsReport_day_each!AU22)</f>
         <v/>
       </c>
-      <c r="AX28" s="61" t="str">
+      <c r="AX28" s="60" t="str">
         <f>IF(_acsReport_day_each!AV22="","",_acsReport_day_each!AV22)</f>
         <v/>
       </c>
@@ -8914,11 +8864,11 @@
         <f>IF(_acsReport_day_each!AX22="","",_acsReport_day_each!AX22)</f>
         <v/>
       </c>
-      <c r="BA28" s="61" t="str">
+      <c r="BA28" s="60" t="str">
         <f>IF(_acsReport_day_each!AY22="","",_acsReport_day_each!AY22)</f>
         <v/>
       </c>
-      <c r="BB28" s="62" t="str">
+      <c r="BB28" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ22="","",_acsReport_day_each!AZ22)</f>
         <v/>
       </c>
@@ -8930,39 +8880,39 @@
         <f>IF(_acsReport_day_each!BB22="","",_acsReport_day_each!BB22)</f>
         <v/>
       </c>
-      <c r="BE28" s="90" t="str">
+      <c r="BE28" s="33" t="str">
         <f>IF(_acsReport_day_each!BD22="","",ACS_ACM1_MAIN!BD22)</f>
         <v/>
       </c>
-      <c r="BF28" s="91" t="str">
+      <c r="BF28" s="30" t="str">
         <f>IF(_acsReport_day_each!BE22="","",ACS_ACM1_MAIN!BE22)</f>
         <v/>
       </c>
-      <c r="BG28" s="92" t="str">
+      <c r="BG28" s="60" t="str">
         <f>IF(_acsReport_day_each!BF22="","",ACS_ACM1_MAIN!BF22)</f>
         <v/>
       </c>
-      <c r="BH28" s="90" t="str">
+      <c r="BH28" s="33" t="str">
         <f>IF(_acsReport_day_each!BG22="","",ACS_ACM1_MAIN!BG22)</f>
         <v/>
       </c>
-      <c r="BI28" s="93">
-        <f>IF(_acsReport_day_each!BJ22&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ28" s="93">
-        <f>IF(_acsReport_day_each!BK22&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK28" s="29">
-        <f>IF(_acsReport_day_each!BL22&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL28" s="91" t="str">
+      <c r="BI28" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ22="","",IF(_acsReport_day_each!BJ22&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ28" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK22="","",IF(_acsReport_day_each!BK22&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK28" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL22="","",IF(_acsReport_day_each!BL22&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL28" s="30" t="str">
         <f>IF(_acsReport_day_each!BH22="","",ACS_ACM1_MAIN!BH22)</f>
         <v/>
       </c>
-      <c r="BM28" s="92" t="str">
+      <c r="BM28" s="60" t="str">
         <f>IF(_acsReport_day_each!BI22="","",ACS_ACM1_MAIN!BI22)</f>
         <v/>
       </c>
@@ -9003,7 +8953,7 @@
         <f>IF(_acsReport_day_each!H23="","",_acsReport_day_each!H23)</f>
         <v/>
       </c>
-      <c r="K29" s="61" t="str">
+      <c r="K29" s="60" t="str">
         <f>IF(_acsReport_day_each!I23="","",_acsReport_day_each!I23)</f>
         <v/>
       </c>
@@ -9015,11 +8965,11 @@
         <f>IF(_acsReport_day_each!K23="","",_acsReport_day_each!K23)</f>
         <v/>
       </c>
-      <c r="N29" s="61" t="str">
+      <c r="N29" s="60" t="str">
         <f>IF(_acsReport_day_each!L23="","",_acsReport_day_each!L23)</f>
         <v/>
       </c>
-      <c r="O29" s="62" t="str">
+      <c r="O29" s="61" t="str">
         <f>IF(_acsReport_day_each!M23="","",_acsReport_day_each!M23)</f>
         <v/>
       </c>
@@ -9039,11 +8989,11 @@
         <f>IF(_acsReport_day_each!Q23="","",_acsReport_day_each!Q23)</f>
         <v/>
       </c>
-      <c r="T29" s="61" t="str">
+      <c r="T29" s="60" t="str">
         <f>IF(_acsReport_day_each!R23="","",_acsReport_day_each!R23)</f>
         <v/>
       </c>
-      <c r="U29" s="62" t="str">
+      <c r="U29" s="61" t="str">
         <f>IF(_acsReport_day_each!S23="","",_acsReport_day_each!S23)</f>
         <v/>
       </c>
@@ -9063,11 +9013,11 @@
         <f>IF(_acsReport_day_each!W23="","",_acsReport_day_each!W23)</f>
         <v/>
       </c>
-      <c r="Z29" s="61" t="str">
+      <c r="Z29" s="60" t="str">
         <f>IF(_acsReport_day_each!X23="","",_acsReport_day_each!X23)</f>
         <v/>
       </c>
-      <c r="AA29" s="62" t="str">
+      <c r="AA29" s="61" t="str">
         <f>IF(_acsReport_day_each!Y23="","",_acsReport_day_each!Y23)</f>
         <v/>
       </c>
@@ -9087,7 +9037,7 @@
         <f>IF(_acsReport_day_each!AC23="","",_acsReport_day_each!AC23)</f>
         <v/>
       </c>
-      <c r="AF29" s="61" t="str">
+      <c r="AF29" s="60" t="str">
         <f>IF(_acsReport_day_each!AD23="","",_acsReport_day_each!AD23)</f>
         <v/>
       </c>
@@ -9099,7 +9049,7 @@
         <f>IF(_acsReport_day_each!AF23="","",_acsReport_day_each!AF23)</f>
         <v/>
       </c>
-      <c r="AI29" s="61" t="str">
+      <c r="AI29" s="60" t="str">
         <f>IF(_acsReport_day_each!AG23="","",_acsReport_day_each!AG23)</f>
         <v/>
       </c>
@@ -9111,7 +9061,7 @@
         <f>IF(_acsReport_day_each!AI23="","",_acsReport_day_each!AI23)</f>
         <v/>
       </c>
-      <c r="AL29" s="61" t="str">
+      <c r="AL29" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ23="","",_acsReport_day_each!AJ23)</f>
         <v/>
       </c>
@@ -9123,7 +9073,7 @@
         <f>IF(_acsReport_day_each!AL23="","",_acsReport_day_each!AL23)</f>
         <v/>
       </c>
-      <c r="AO29" s="61" t="str">
+      <c r="AO29" s="60" t="str">
         <f>IF(_acsReport_day_each!AM23="","",_acsReport_day_each!AM23)</f>
         <v/>
       </c>
@@ -9135,7 +9085,7 @@
         <f>IF(_acsReport_day_each!AO23="","",_acsReport_day_each!AO23)</f>
         <v/>
       </c>
-      <c r="AR29" s="61" t="str">
+      <c r="AR29" s="60" t="str">
         <f>IF(_acsReport_day_each!AP23="","",_acsReport_day_each!AP23)</f>
         <v/>
       </c>
@@ -9147,7 +9097,7 @@
         <f>IF(_acsReport_day_each!AR23="","",_acsReport_day_each!AR23)</f>
         <v/>
       </c>
-      <c r="AU29" s="61" t="str">
+      <c r="AU29" s="60" t="str">
         <f>IF(_acsReport_day_each!AS23="","",_acsReport_day_each!AS23)</f>
         <v/>
       </c>
@@ -9159,7 +9109,7 @@
         <f>IF(_acsReport_day_each!AU23="","",_acsReport_day_each!AU23)</f>
         <v/>
       </c>
-      <c r="AX29" s="61" t="str">
+      <c r="AX29" s="60" t="str">
         <f>IF(_acsReport_day_each!AV23="","",_acsReport_day_each!AV23)</f>
         <v/>
       </c>
@@ -9171,11 +9121,11 @@
         <f>IF(_acsReport_day_each!AX23="","",_acsReport_day_each!AX23)</f>
         <v/>
       </c>
-      <c r="BA29" s="61" t="str">
+      <c r="BA29" s="60" t="str">
         <f>IF(_acsReport_day_each!AY23="","",_acsReport_day_each!AY23)</f>
         <v/>
       </c>
-      <c r="BB29" s="62" t="str">
+      <c r="BB29" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ23="","",_acsReport_day_each!AZ23)</f>
         <v/>
       </c>
@@ -9187,39 +9137,39 @@
         <f>IF(_acsReport_day_each!BB23="","",_acsReport_day_each!BB23)</f>
         <v/>
       </c>
-      <c r="BE29" s="90" t="str">
+      <c r="BE29" s="33" t="str">
         <f>IF(_acsReport_day_each!BD23="","",ACS_ACM1_MAIN!BD23)</f>
         <v/>
       </c>
-      <c r="BF29" s="91" t="str">
+      <c r="BF29" s="30" t="str">
         <f>IF(_acsReport_day_each!BE23="","",ACS_ACM1_MAIN!BE23)</f>
         <v/>
       </c>
-      <c r="BG29" s="92" t="str">
+      <c r="BG29" s="60" t="str">
         <f>IF(_acsReport_day_each!BF23="","",ACS_ACM1_MAIN!BF23)</f>
         <v/>
       </c>
-      <c r="BH29" s="90" t="str">
+      <c r="BH29" s="33" t="str">
         <f>IF(_acsReport_day_each!BG23="","",ACS_ACM1_MAIN!BG23)</f>
         <v/>
       </c>
-      <c r="BI29" s="93">
-        <f>IF(_acsReport_day_each!BJ23&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ29" s="93">
-        <f>IF(_acsReport_day_each!BK23&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK29" s="29">
-        <f>IF(_acsReport_day_each!BL23&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL29" s="91" t="str">
+      <c r="BI29" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ23="","",IF(_acsReport_day_each!BJ23&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ29" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK23="","",IF(_acsReport_day_each!BK23&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK29" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL23="","",IF(_acsReport_day_each!BL23&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL29" s="30" t="str">
         <f>IF(_acsReport_day_each!BH23="","",ACS_ACM1_MAIN!BH23)</f>
         <v/>
       </c>
-      <c r="BM29" s="92" t="str">
+      <c r="BM29" s="60" t="str">
         <f>IF(_acsReport_day_each!BI23="","",ACS_ACM1_MAIN!BI23)</f>
         <v/>
       </c>
@@ -9260,7 +9210,7 @@
         <f>IF(_acsReport_day_each!H24="","",_acsReport_day_each!H24)</f>
         <v/>
       </c>
-      <c r="K30" s="61" t="str">
+      <c r="K30" s="60" t="str">
         <f>IF(_acsReport_day_each!I24="","",_acsReport_day_each!I24)</f>
         <v/>
       </c>
@@ -9272,11 +9222,11 @@
         <f>IF(_acsReport_day_each!K24="","",_acsReport_day_each!K24)</f>
         <v/>
       </c>
-      <c r="N30" s="61" t="str">
+      <c r="N30" s="60" t="str">
         <f>IF(_acsReport_day_each!L24="","",_acsReport_day_each!L24)</f>
         <v/>
       </c>
-      <c r="O30" s="62" t="str">
+      <c r="O30" s="61" t="str">
         <f>IF(_acsReport_day_each!M24="","",_acsReport_day_each!M24)</f>
         <v/>
       </c>
@@ -9296,11 +9246,11 @@
         <f>IF(_acsReport_day_each!Q24="","",_acsReport_day_each!Q24)</f>
         <v/>
       </c>
-      <c r="T30" s="61" t="str">
+      <c r="T30" s="60" t="str">
         <f>IF(_acsReport_day_each!R24="","",_acsReport_day_each!R24)</f>
         <v/>
       </c>
-      <c r="U30" s="62" t="str">
+      <c r="U30" s="61" t="str">
         <f>IF(_acsReport_day_each!S24="","",_acsReport_day_each!S24)</f>
         <v/>
       </c>
@@ -9320,11 +9270,11 @@
         <f>IF(_acsReport_day_each!W24="","",_acsReport_day_each!W24)</f>
         <v/>
       </c>
-      <c r="Z30" s="61" t="str">
+      <c r="Z30" s="60" t="str">
         <f>IF(_acsReport_day_each!X24="","",_acsReport_day_each!X24)</f>
         <v/>
       </c>
-      <c r="AA30" s="62" t="str">
+      <c r="AA30" s="61" t="str">
         <f>IF(_acsReport_day_each!Y24="","",_acsReport_day_each!Y24)</f>
         <v/>
       </c>
@@ -9344,7 +9294,7 @@
         <f>IF(_acsReport_day_each!AC24="","",_acsReport_day_each!AC24)</f>
         <v/>
       </c>
-      <c r="AF30" s="61" t="str">
+      <c r="AF30" s="60" t="str">
         <f>IF(_acsReport_day_each!AD24="","",_acsReport_day_each!AD24)</f>
         <v/>
       </c>
@@ -9356,7 +9306,7 @@
         <f>IF(_acsReport_day_each!AF24="","",_acsReport_day_each!AF24)</f>
         <v/>
       </c>
-      <c r="AI30" s="61" t="str">
+      <c r="AI30" s="60" t="str">
         <f>IF(_acsReport_day_each!AG24="","",_acsReport_day_each!AG24)</f>
         <v/>
       </c>
@@ -9368,7 +9318,7 @@
         <f>IF(_acsReport_day_each!AI24="","",_acsReport_day_each!AI24)</f>
         <v/>
       </c>
-      <c r="AL30" s="61" t="str">
+      <c r="AL30" s="60" t="str">
         <f>IF(_acsReport_day_each!AJ24="","",_acsReport_day_each!AJ24)</f>
         <v/>
       </c>
@@ -9380,7 +9330,7 @@
         <f>IF(_acsReport_day_each!AL24="","",_acsReport_day_each!AL24)</f>
         <v/>
       </c>
-      <c r="AO30" s="61" t="str">
+      <c r="AO30" s="60" t="str">
         <f>IF(_acsReport_day_each!AM24="","",_acsReport_day_each!AM24)</f>
         <v/>
       </c>
@@ -9392,7 +9342,7 @@
         <f>IF(_acsReport_day_each!AO24="","",_acsReport_day_each!AO24)</f>
         <v/>
       </c>
-      <c r="AR30" s="61" t="str">
+      <c r="AR30" s="60" t="str">
         <f>IF(_acsReport_day_each!AP24="","",_acsReport_day_each!AP24)</f>
         <v/>
       </c>
@@ -9404,7 +9354,7 @@
         <f>IF(_acsReport_day_each!AR24="","",_acsReport_day_each!AR24)</f>
         <v/>
       </c>
-      <c r="AU30" s="61" t="str">
+      <c r="AU30" s="60" t="str">
         <f>IF(_acsReport_day_each!AS24="","",_acsReport_day_each!AS24)</f>
         <v/>
       </c>
@@ -9416,7 +9366,7 @@
         <f>IF(_acsReport_day_each!AU24="","",_acsReport_day_each!AU24)</f>
         <v/>
       </c>
-      <c r="AX30" s="61" t="str">
+      <c r="AX30" s="60" t="str">
         <f>IF(_acsReport_day_each!AV24="","",_acsReport_day_each!AV24)</f>
         <v/>
       </c>
@@ -9428,11 +9378,11 @@
         <f>IF(_acsReport_day_each!AX24="","",_acsReport_day_each!AX24)</f>
         <v/>
       </c>
-      <c r="BA30" s="61" t="str">
+      <c r="BA30" s="60" t="str">
         <f>IF(_acsReport_day_each!AY24="","",_acsReport_day_each!AY24)</f>
         <v/>
       </c>
-      <c r="BB30" s="62" t="str">
+      <c r="BB30" s="61" t="str">
         <f>IF(_acsReport_day_each!AZ24="","",_acsReport_day_each!AZ24)</f>
         <v/>
       </c>
@@ -9444,39 +9394,39 @@
         <f>IF(_acsReport_day_each!BB24="","",_acsReport_day_each!BB24)</f>
         <v/>
       </c>
-      <c r="BE30" s="90" t="str">
+      <c r="BE30" s="33" t="str">
         <f>IF(_acsReport_day_each!BD24="","",ACS_ACM1_MAIN!BD24)</f>
         <v/>
       </c>
-      <c r="BF30" s="91" t="str">
+      <c r="BF30" s="30" t="str">
         <f>IF(_acsReport_day_each!BE24="","",ACS_ACM1_MAIN!BE24)</f>
         <v/>
       </c>
-      <c r="BG30" s="92" t="str">
+      <c r="BG30" s="60" t="str">
         <f>IF(_acsReport_day_each!BF24="","",ACS_ACM1_MAIN!BF24)</f>
         <v/>
       </c>
-      <c r="BH30" s="90" t="str">
+      <c r="BH30" s="33" t="str">
         <f>IF(_acsReport_day_each!BG24="","",ACS_ACM1_MAIN!BG24)</f>
         <v/>
       </c>
-      <c r="BI30" s="93">
-        <f>IF(_acsReport_day_each!BJ24&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ30" s="93">
-        <f>IF(_acsReport_day_each!BK24&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK30" s="29">
-        <f>IF(_acsReport_day_each!BL24&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL30" s="91" t="str">
+      <c r="BI30" s="89" t="str">
+        <f>IF(_acsReport_day_each!BJ24="","",IF(_acsReport_day_each!BJ24&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ30" s="89" t="str">
+        <f>IF(_acsReport_day_each!BK24="","",IF(_acsReport_day_each!BK24&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK30" s="29" t="str">
+        <f>IF(_acsReport_day_each!BL24="","",IF(_acsReport_day_each!BL24&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL30" s="30" t="str">
         <f>IF(_acsReport_day_each!BH24="","",ACS_ACM1_MAIN!BH24)</f>
         <v/>
       </c>
-      <c r="BM30" s="92" t="str">
+      <c r="BM30" s="60" t="str">
         <f>IF(_acsReport_day_each!BI24="","",ACS_ACM1_MAIN!BI24)</f>
         <v/>
       </c>
@@ -9517,7 +9467,7 @@
         <f>IF(_acsReport_day_each!H25="","",_acsReport_day_each!H25)</f>
         <v/>
       </c>
-      <c r="K31" s="63" t="str">
+      <c r="K31" s="62" t="str">
         <f>IF(_acsReport_day_each!I25="","",_acsReport_day_each!I25)</f>
         <v/>
       </c>
@@ -9529,11 +9479,11 @@
         <f>IF(_acsReport_day_each!K25="","",_acsReport_day_each!K25)</f>
         <v/>
       </c>
-      <c r="N31" s="63" t="str">
+      <c r="N31" s="62" t="str">
         <f>IF(_acsReport_day_each!L25="","",_acsReport_day_each!L25)</f>
         <v/>
       </c>
-      <c r="O31" s="64" t="str">
+      <c r="O31" s="63" t="str">
         <f>IF(_acsReport_day_each!M25="","",_acsReport_day_each!M25)</f>
         <v/>
       </c>
@@ -9553,11 +9503,11 @@
         <f>IF(_acsReport_day_each!Q25="","",_acsReport_day_each!Q25)</f>
         <v/>
       </c>
-      <c r="T31" s="63" t="str">
+      <c r="T31" s="62" t="str">
         <f>IF(_acsReport_day_each!R25="","",_acsReport_day_each!R25)</f>
         <v/>
       </c>
-      <c r="U31" s="64" t="str">
+      <c r="U31" s="63" t="str">
         <f>IF(_acsReport_day_each!S25="","",_acsReport_day_each!S25)</f>
         <v/>
       </c>
@@ -9577,11 +9527,11 @@
         <f>IF(_acsReport_day_each!W25="","",_acsReport_day_each!W25)</f>
         <v/>
       </c>
-      <c r="Z31" s="63" t="str">
+      <c r="Z31" s="62" t="str">
         <f>IF(_acsReport_day_each!X25="","",_acsReport_day_each!X25)</f>
         <v/>
       </c>
-      <c r="AA31" s="64" t="str">
+      <c r="AA31" s="63" t="str">
         <f>IF(_acsReport_day_each!Y25="","",_acsReport_day_each!Y25)</f>
         <v/>
       </c>
@@ -9601,7 +9551,7 @@
         <f>IF(_acsReport_day_each!AC25="","",_acsReport_day_each!AC25)</f>
         <v/>
       </c>
-      <c r="AF31" s="63" t="str">
+      <c r="AF31" s="62" t="str">
         <f>IF(_acsReport_day_each!AD25="","",_acsReport_day_each!AD25)</f>
         <v/>
       </c>
@@ -9613,7 +9563,7 @@
         <f>IF(_acsReport_day_each!AF25="","",_acsReport_day_each!AF25)</f>
         <v/>
       </c>
-      <c r="AI31" s="63" t="str">
+      <c r="AI31" s="62" t="str">
         <f>IF(_acsReport_day_each!AG25="","",_acsReport_day_each!AG25)</f>
         <v/>
       </c>
@@ -9625,7 +9575,7 @@
         <f>IF(_acsReport_day_each!AI25="","",_acsReport_day_each!AI25)</f>
         <v/>
       </c>
-      <c r="AL31" s="63" t="str">
+      <c r="AL31" s="62" t="str">
         <f>IF(_acsReport_day_each!AJ25="","",_acsReport_day_each!AJ25)</f>
         <v/>
       </c>
@@ -9637,7 +9587,7 @@
         <f>IF(_acsReport_day_each!AL25="","",_acsReport_day_each!AL25)</f>
         <v/>
       </c>
-      <c r="AO31" s="63" t="str">
+      <c r="AO31" s="62" t="str">
         <f>IF(_acsReport_day_each!AM25="","",_acsReport_day_each!AM25)</f>
         <v/>
       </c>
@@ -9649,19 +9599,19 @@
         <f>IF(_acsReport_day_each!AO25="","",_acsReport_day_each!AO25)</f>
         <v/>
       </c>
-      <c r="AR31" s="63" t="str">
+      <c r="AR31" s="62" t="str">
         <f>IF(_acsReport_day_each!AP25="","",_acsReport_day_each!AP25)</f>
         <v/>
       </c>
-      <c r="AS31" s="72" t="str">
+      <c r="AS31" s="71" t="str">
         <f>IF(_acsReport_day_each!AQ25="","",_acsReport_day_each!AQ25)</f>
         <v/>
       </c>
-      <c r="AT31" s="73" t="str">
+      <c r="AT31" s="72" t="str">
         <f>IF(_acsReport_day_each!AR25="","",_acsReport_day_each!AR25)</f>
         <v/>
       </c>
-      <c r="AU31" s="73" t="str">
+      <c r="AU31" s="72" t="str">
         <f>IF(_acsReport_day_each!AS25="","",_acsReport_day_each!AS25)</f>
         <v/>
       </c>
@@ -9673,7 +9623,7 @@
         <f>IF(_acsReport_day_each!AU25="","",_acsReport_day_each!AU25)</f>
         <v/>
       </c>
-      <c r="AX31" s="63" t="str">
+      <c r="AX31" s="62" t="str">
         <f>IF(_acsReport_day_each!AV25="","",_acsReport_day_each!AV25)</f>
         <v/>
       </c>
@@ -9685,11 +9635,11 @@
         <f>IF(_acsReport_day_each!AX25="","",_acsReport_day_each!AX25)</f>
         <v/>
       </c>
-      <c r="BA31" s="63" t="str">
+      <c r="BA31" s="62" t="str">
         <f>IF(_acsReport_day_each!AY25="","",_acsReport_day_each!AY25)</f>
         <v/>
       </c>
-      <c r="BB31" s="64" t="str">
+      <c r="BB31" s="63" t="str">
         <f>IF(_acsReport_day_each!AZ25="","",_acsReport_day_each!AZ25)</f>
         <v/>
       </c>
@@ -9701,39 +9651,39 @@
         <f>IF(_acsReport_day_each!BB25="","",_acsReport_day_each!BB25)</f>
         <v/>
       </c>
-      <c r="BE31" s="100" t="str">
+      <c r="BE31" s="35" t="str">
         <f>IF(_acsReport_day_each!BD25="","",ACS_ACM1_MAIN!BD25)</f>
         <v/>
       </c>
-      <c r="BF31" s="101" t="str">
+      <c r="BF31" s="36" t="str">
         <f>IF(_acsReport_day_each!BE25="","",ACS_ACM1_MAIN!BE25)</f>
         <v/>
       </c>
-      <c r="BG31" s="102" t="str">
+      <c r="BG31" s="62" t="str">
         <f>IF(_acsReport_day_each!BF25="","",ACS_ACM1_MAIN!BF25)</f>
         <v/>
       </c>
-      <c r="BH31" s="100" t="str">
+      <c r="BH31" s="35" t="str">
         <f>IF(_acsReport_day_each!BG25="","",ACS_ACM1_MAIN!BG25)</f>
         <v/>
       </c>
-      <c r="BI31" s="36">
-        <f>IF(_acsReport_day_each!BJ25&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ31" s="36">
-        <f>IF(_acsReport_day_each!BK25&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK31" s="36">
-        <f>IF(_acsReport_day_each!BL25&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL31" s="101" t="str">
+      <c r="BI31" s="36" t="str">
+        <f>IF(_acsReport_day_each!BJ25="","",IF(_acsReport_day_each!BJ25&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BJ31" s="36" t="str">
+        <f>IF(_acsReport_day_each!BK25="","",IF(_acsReport_day_each!BK25&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BK31" s="36" t="str">
+        <f>IF(_acsReport_day_each!BL25="","",IF(_acsReport_day_each!BL25&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BL31" s="36" t="str">
         <f>IF(_acsReport_day_each!BH25="","",ACS_ACM1_MAIN!BH25)</f>
         <v/>
       </c>
-      <c r="BM31" s="102" t="str">
+      <c r="BM31" s="62" t="str">
         <f>IF(_acsReport_day_each!BI25="","",ACS_ACM1_MAIN!BI25)</f>
         <v/>
       </c>
@@ -9742,7 +9692,7 @@
       <c r="A32" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="43"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="15">
         <f>SUM(BI8:BI31)</f>
         <v>0</v>
@@ -9764,55 +9714,55 @@
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="67"/>
-      <c r="U32" s="67"/>
-      <c r="V32" s="67"/>
-      <c r="W32" s="67"/>
-      <c r="X32" s="67"/>
-      <c r="Y32" s="67"/>
-      <c r="Z32" s="67"/>
-      <c r="AA32" s="67"/>
-      <c r="AB32" s="67"/>
-      <c r="AC32" s="67"/>
-      <c r="AD32" s="67"/>
-      <c r="AE32" s="67"/>
-      <c r="AF32" s="67"/>
-      <c r="AG32" s="67"/>
-      <c r="AH32" s="67"/>
-      <c r="AI32" s="67"/>
-      <c r="AJ32" s="67"/>
-      <c r="AK32" s="67"/>
-      <c r="AL32" s="67"/>
-      <c r="AM32" s="67"/>
-      <c r="AN32" s="67"/>
-      <c r="AO32" s="67"/>
-      <c r="AP32" s="67"/>
-      <c r="AQ32" s="67"/>
-      <c r="AR32" s="67"/>
-      <c r="AS32" s="67"/>
-      <c r="AT32" s="67"/>
-      <c r="AU32" s="67"/>
-      <c r="AV32" s="67"/>
-      <c r="AW32" s="67"/>
-      <c r="AX32" s="67"/>
-      <c r="AY32" s="67"/>
-      <c r="AZ32" s="67"/>
-      <c r="BA32" s="67"/>
-      <c r="BB32" s="67"/>
-      <c r="BC32" s="67"/>
-      <c r="BD32" s="67"/>
-      <c r="BE32" s="67"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="66"/>
+      <c r="AB32" s="66"/>
+      <c r="AC32" s="66"/>
+      <c r="AD32" s="66"/>
+      <c r="AE32" s="66"/>
+      <c r="AF32" s="66"/>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="66"/>
+      <c r="AI32" s="66"/>
+      <c r="AJ32" s="66"/>
+      <c r="AK32" s="66"/>
+      <c r="AL32" s="66"/>
+      <c r="AM32" s="66"/>
+      <c r="AN32" s="66"/>
+      <c r="AO32" s="66"/>
+      <c r="AP32" s="66"/>
+      <c r="AQ32" s="66"/>
+      <c r="AR32" s="66"/>
+      <c r="AS32" s="66"/>
+      <c r="AT32" s="66"/>
+      <c r="AU32" s="66"/>
+      <c r="AV32" s="66"/>
+      <c r="AW32" s="66"/>
+      <c r="AX32" s="66"/>
+      <c r="AY32" s="66"/>
+      <c r="AZ32" s="66"/>
+      <c r="BA32" s="66"/>
+      <c r="BB32" s="66"/>
+      <c r="BC32" s="66"/>
+      <c r="BD32" s="66"/>
+      <c r="BE32" s="66"/>
     </row>
     <row r="33" ht="26.5" customHeight="1" spans="1:57">
       <c r="A33" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="43"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="15" t="str">
         <f>IF(_acsReport_day_each!BM2="","",_acsReport_day_each!BM2)</f>
         <v/>
@@ -9831,51 +9781,51 @@
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="67"/>
-      <c r="U33" s="67"/>
-      <c r="V33" s="67"/>
-      <c r="W33" s="67"/>
-      <c r="X33" s="67"/>
-      <c r="Y33" s="67"/>
-      <c r="Z33" s="67"/>
-      <c r="AA33" s="67"/>
-      <c r="AB33" s="67"/>
-      <c r="AC33" s="67"/>
-      <c r="AD33" s="67"/>
-      <c r="AE33" s="67"/>
-      <c r="AF33" s="67"/>
-      <c r="AG33" s="67"/>
-      <c r="AH33" s="67"/>
-      <c r="AI33" s="67"/>
-      <c r="AJ33" s="67"/>
-      <c r="AK33" s="67"/>
-      <c r="AL33" s="67"/>
-      <c r="AM33" s="67"/>
-      <c r="AN33" s="67"/>
-      <c r="AO33" s="67"/>
-      <c r="AP33" s="67"/>
-      <c r="AQ33" s="67"/>
-      <c r="AR33" s="67"/>
-      <c r="AS33" s="67"/>
-      <c r="AT33" s="67"/>
-      <c r="AU33" s="67"/>
-      <c r="AV33" s="67"/>
-      <c r="AW33" s="67"/>
-      <c r="AX33" s="67"/>
-      <c r="AY33" s="67"/>
-      <c r="AZ33" s="67"/>
-      <c r="BA33" s="67"/>
-      <c r="BB33" s="67"/>
-      <c r="BC33" s="67"/>
-      <c r="BD33" s="67"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="66"/>
+      <c r="AJ33" s="66"/>
+      <c r="AK33" s="66"/>
+      <c r="AL33" s="66"/>
+      <c r="AM33" s="66"/>
+      <c r="AN33" s="66"/>
+      <c r="AO33" s="66"/>
+      <c r="AP33" s="66"/>
+      <c r="AQ33" s="66"/>
+      <c r="AR33" s="66"/>
+      <c r="AS33" s="66"/>
+      <c r="AT33" s="66"/>
+      <c r="AU33" s="66"/>
+      <c r="AV33" s="66"/>
+      <c r="AW33" s="66"/>
+      <c r="AX33" s="66"/>
+      <c r="AY33" s="66"/>
+      <c r="AZ33" s="66"/>
+      <c r="BA33" s="66"/>
+      <c r="BB33" s="66"/>
+      <c r="BC33" s="66"/>
+      <c r="BD33" s="66"/>
       <c r="BE33" s="8"/>
     </row>
     <row r="34" ht="22.5" spans="2:57">
@@ -9889,51 +9839,51 @@
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="67"/>
-      <c r="R34" s="67"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="67"/>
-      <c r="U34" s="67"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="67"/>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="67"/>
-      <c r="AB34" s="67"/>
-      <c r="AC34" s="67"/>
-      <c r="AD34" s="67"/>
-      <c r="AE34" s="67"/>
-      <c r="AF34" s="67"/>
-      <c r="AG34" s="67"/>
-      <c r="AH34" s="67"/>
-      <c r="AI34" s="67"/>
-      <c r="AJ34" s="67"/>
-      <c r="AK34" s="67"/>
-      <c r="AL34" s="67"/>
-      <c r="AM34" s="67"/>
-      <c r="AN34" s="67"/>
-      <c r="AO34" s="67"/>
-      <c r="AP34" s="67"/>
-      <c r="AQ34" s="67"/>
-      <c r="AR34" s="67"/>
-      <c r="AS34" s="67"/>
-      <c r="AT34" s="67"/>
-      <c r="AU34" s="67"/>
-      <c r="AV34" s="67"/>
-      <c r="AW34" s="67"/>
-      <c r="AX34" s="67"/>
-      <c r="AY34" s="67"/>
-      <c r="AZ34" s="67"/>
-      <c r="BA34" s="67"/>
-      <c r="BB34" s="67"/>
-      <c r="BC34" s="67"/>
-      <c r="BD34" s="67"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="66"/>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="66"/>
+      <c r="AF34" s="66"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="66"/>
+      <c r="AJ34" s="66"/>
+      <c r="AK34" s="66"/>
+      <c r="AL34" s="66"/>
+      <c r="AM34" s="66"/>
+      <c r="AN34" s="66"/>
+      <c r="AO34" s="66"/>
+      <c r="AP34" s="66"/>
+      <c r="AQ34" s="66"/>
+      <c r="AR34" s="66"/>
+      <c r="AS34" s="66"/>
+      <c r="AT34" s="66"/>
+      <c r="AU34" s="66"/>
+      <c r="AV34" s="66"/>
+      <c r="AW34" s="66"/>
+      <c r="AX34" s="66"/>
+      <c r="AY34" s="66"/>
+      <c r="AZ34" s="66"/>
+      <c r="BA34" s="66"/>
+      <c r="BB34" s="66"/>
+      <c r="BC34" s="66"/>
+      <c r="BD34" s="66"/>
       <c r="BE34" s="8"/>
     </row>
     <row r="35" ht="22.5" spans="2:57">
@@ -9947,51 +9897,51 @@
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="67"/>
-      <c r="U35" s="67"/>
-      <c r="V35" s="67"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="67"/>
-      <c r="Y35" s="67"/>
-      <c r="Z35" s="67"/>
-      <c r="AA35" s="67"/>
-      <c r="AB35" s="67"/>
-      <c r="AC35" s="67"/>
-      <c r="AD35" s="67"/>
-      <c r="AE35" s="67"/>
-      <c r="AF35" s="67"/>
-      <c r="AG35" s="67"/>
-      <c r="AH35" s="67"/>
-      <c r="AI35" s="67"/>
-      <c r="AJ35" s="67"/>
-      <c r="AK35" s="67"/>
-      <c r="AL35" s="67"/>
-      <c r="AM35" s="67"/>
-      <c r="AN35" s="67"/>
-      <c r="AO35" s="67"/>
-      <c r="AP35" s="67"/>
-      <c r="AQ35" s="67"/>
-      <c r="AR35" s="67"/>
-      <c r="AS35" s="67"/>
-      <c r="AT35" s="67"/>
-      <c r="AU35" s="67"/>
-      <c r="AV35" s="67"/>
-      <c r="AW35" s="67"/>
-      <c r="AX35" s="67"/>
-      <c r="AY35" s="67"/>
-      <c r="AZ35" s="67"/>
-      <c r="BA35" s="67"/>
-      <c r="BB35" s="67"/>
-      <c r="BC35" s="67"/>
-      <c r="BD35" s="67"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="66"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="66"/>
+      <c r="AB35" s="66"/>
+      <c r="AC35" s="66"/>
+      <c r="AD35" s="66"/>
+      <c r="AE35" s="66"/>
+      <c r="AF35" s="66"/>
+      <c r="AG35" s="66"/>
+      <c r="AH35" s="66"/>
+      <c r="AI35" s="66"/>
+      <c r="AJ35" s="66"/>
+      <c r="AK35" s="66"/>
+      <c r="AL35" s="66"/>
+      <c r="AM35" s="66"/>
+      <c r="AN35" s="66"/>
+      <c r="AO35" s="66"/>
+      <c r="AP35" s="66"/>
+      <c r="AQ35" s="66"/>
+      <c r="AR35" s="66"/>
+      <c r="AS35" s="66"/>
+      <c r="AT35" s="66"/>
+      <c r="AU35" s="66"/>
+      <c r="AV35" s="66"/>
+      <c r="AW35" s="66"/>
+      <c r="AX35" s="66"/>
+      <c r="AY35" s="66"/>
+      <c r="AZ35" s="66"/>
+      <c r="BA35" s="66"/>
+      <c r="BB35" s="66"/>
+      <c r="BC35" s="66"/>
+      <c r="BD35" s="66"/>
       <c r="BE35" s="8"/>
     </row>
     <row r="36" ht="22.5" spans="2:57">
@@ -10005,51 +9955,51 @@
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="67"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="67"/>
-      <c r="AB36" s="67"/>
-      <c r="AC36" s="67"/>
-      <c r="AD36" s="67"/>
-      <c r="AE36" s="67"/>
-      <c r="AF36" s="67"/>
-      <c r="AG36" s="67"/>
-      <c r="AH36" s="67"/>
-      <c r="AI36" s="67"/>
-      <c r="AJ36" s="67"/>
-      <c r="AK36" s="67"/>
-      <c r="AL36" s="67"/>
-      <c r="AM36" s="67"/>
-      <c r="AN36" s="67"/>
-      <c r="AO36" s="67"/>
-      <c r="AP36" s="67"/>
-      <c r="AQ36" s="67"/>
-      <c r="AR36" s="67"/>
-      <c r="AS36" s="67"/>
-      <c r="AT36" s="67"/>
-      <c r="AU36" s="67"/>
-      <c r="AV36" s="67"/>
-      <c r="AW36" s="67"/>
-      <c r="AX36" s="67"/>
-      <c r="AY36" s="67"/>
-      <c r="AZ36" s="67"/>
-      <c r="BA36" s="67"/>
-      <c r="BB36" s="67"/>
-      <c r="BC36" s="67"/>
-      <c r="BD36" s="67"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="66"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="66"/>
+      <c r="AA36" s="66"/>
+      <c r="AB36" s="66"/>
+      <c r="AC36" s="66"/>
+      <c r="AD36" s="66"/>
+      <c r="AE36" s="66"/>
+      <c r="AF36" s="66"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="66"/>
+      <c r="AI36" s="66"/>
+      <c r="AJ36" s="66"/>
+      <c r="AK36" s="66"/>
+      <c r="AL36" s="66"/>
+      <c r="AM36" s="66"/>
+      <c r="AN36" s="66"/>
+      <c r="AO36" s="66"/>
+      <c r="AP36" s="66"/>
+      <c r="AQ36" s="66"/>
+      <c r="AR36" s="66"/>
+      <c r="AS36" s="66"/>
+      <c r="AT36" s="66"/>
+      <c r="AU36" s="66"/>
+      <c r="AV36" s="66"/>
+      <c r="AW36" s="66"/>
+      <c r="AX36" s="66"/>
+      <c r="AY36" s="66"/>
+      <c r="AZ36" s="66"/>
+      <c r="BA36" s="66"/>
+      <c r="BB36" s="66"/>
+      <c r="BC36" s="66"/>
+      <c r="BD36" s="66"/>
       <c r="BE36" s="8"/>
     </row>
     <row r="37" ht="22.5" spans="2:57">
@@ -10063,51 +10013,51 @@
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
-      <c r="T37" s="67"/>
-      <c r="U37" s="67"/>
-      <c r="V37" s="67"/>
-      <c r="W37" s="67"/>
-      <c r="X37" s="67"/>
-      <c r="Y37" s="67"/>
-      <c r="Z37" s="67"/>
-      <c r="AA37" s="67"/>
-      <c r="AB37" s="67"/>
-      <c r="AC37" s="67"/>
-      <c r="AD37" s="67"/>
-      <c r="AE37" s="67"/>
-      <c r="AF37" s="67"/>
-      <c r="AG37" s="67"/>
-      <c r="AH37" s="67"/>
-      <c r="AI37" s="67"/>
-      <c r="AJ37" s="67"/>
-      <c r="AK37" s="67"/>
-      <c r="AL37" s="67"/>
-      <c r="AM37" s="67"/>
-      <c r="AN37" s="67"/>
-      <c r="AO37" s="67"/>
-      <c r="AP37" s="67"/>
-      <c r="AQ37" s="67"/>
-      <c r="AR37" s="67"/>
-      <c r="AS37" s="67"/>
-      <c r="AT37" s="67"/>
-      <c r="AU37" s="67"/>
-      <c r="AV37" s="67"/>
-      <c r="AW37" s="67"/>
-      <c r="AX37" s="67"/>
-      <c r="AY37" s="67"/>
-      <c r="AZ37" s="67"/>
-      <c r="BA37" s="67"/>
-      <c r="BB37" s="67"/>
-      <c r="BC37" s="67"/>
-      <c r="BD37" s="67"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="66"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="66"/>
+      <c r="Z37" s="66"/>
+      <c r="AA37" s="66"/>
+      <c r="AB37" s="66"/>
+      <c r="AC37" s="66"/>
+      <c r="AD37" s="66"/>
+      <c r="AE37" s="66"/>
+      <c r="AF37" s="66"/>
+      <c r="AG37" s="66"/>
+      <c r="AH37" s="66"/>
+      <c r="AI37" s="66"/>
+      <c r="AJ37" s="66"/>
+      <c r="AK37" s="66"/>
+      <c r="AL37" s="66"/>
+      <c r="AM37" s="66"/>
+      <c r="AN37" s="66"/>
+      <c r="AO37" s="66"/>
+      <c r="AP37" s="66"/>
+      <c r="AQ37" s="66"/>
+      <c r="AR37" s="66"/>
+      <c r="AS37" s="66"/>
+      <c r="AT37" s="66"/>
+      <c r="AU37" s="66"/>
+      <c r="AV37" s="66"/>
+      <c r="AW37" s="66"/>
+      <c r="AX37" s="66"/>
+      <c r="AY37" s="66"/>
+      <c r="AZ37" s="66"/>
+      <c r="BA37" s="66"/>
+      <c r="BB37" s="66"/>
+      <c r="BC37" s="66"/>
+      <c r="BD37" s="66"/>
       <c r="BE37" s="8"/>
     </row>
     <row r="38" ht="22.5" spans="2:57">
@@ -10121,51 +10071,51 @@
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="T38" s="67"/>
-      <c r="U38" s="67"/>
-      <c r="V38" s="67"/>
-      <c r="W38" s="67"/>
-      <c r="X38" s="67"/>
-      <c r="Y38" s="67"/>
-      <c r="Z38" s="67"/>
-      <c r="AA38" s="67"/>
-      <c r="AB38" s="67"/>
-      <c r="AC38" s="67"/>
-      <c r="AD38" s="67"/>
-      <c r="AE38" s="67"/>
-      <c r="AF38" s="67"/>
-      <c r="AG38" s="67"/>
-      <c r="AH38" s="67"/>
-      <c r="AI38" s="67"/>
-      <c r="AJ38" s="67"/>
-      <c r="AK38" s="67"/>
-      <c r="AL38" s="67"/>
-      <c r="AM38" s="67"/>
-      <c r="AN38" s="67"/>
-      <c r="AO38" s="67"/>
-      <c r="AP38" s="67"/>
-      <c r="AQ38" s="67"/>
-      <c r="AR38" s="67"/>
-      <c r="AS38" s="67"/>
-      <c r="AT38" s="67"/>
-      <c r="AU38" s="67"/>
-      <c r="AV38" s="67"/>
-      <c r="AW38" s="67"/>
-      <c r="AX38" s="67"/>
-      <c r="AY38" s="67"/>
-      <c r="AZ38" s="67"/>
-      <c r="BA38" s="67"/>
-      <c r="BB38" s="67"/>
-      <c r="BC38" s="67"/>
-      <c r="BD38" s="67"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="66"/>
+      <c r="AD38" s="66"/>
+      <c r="AE38" s="66"/>
+      <c r="AF38" s="66"/>
+      <c r="AG38" s="66"/>
+      <c r="AH38" s="66"/>
+      <c r="AI38" s="66"/>
+      <c r="AJ38" s="66"/>
+      <c r="AK38" s="66"/>
+      <c r="AL38" s="66"/>
+      <c r="AM38" s="66"/>
+      <c r="AN38" s="66"/>
+      <c r="AO38" s="66"/>
+      <c r="AP38" s="66"/>
+      <c r="AQ38" s="66"/>
+      <c r="AR38" s="66"/>
+      <c r="AS38" s="66"/>
+      <c r="AT38" s="66"/>
+      <c r="AU38" s="66"/>
+      <c r="AV38" s="66"/>
+      <c r="AW38" s="66"/>
+      <c r="AX38" s="66"/>
+      <c r="AY38" s="66"/>
+      <c r="AZ38" s="66"/>
+      <c r="BA38" s="66"/>
+      <c r="BB38" s="66"/>
+      <c r="BC38" s="66"/>
+      <c r="BD38" s="66"/>
       <c r="BE38" s="8"/>
     </row>
     <row r="39" ht="14.25" spans="2:57">

--- a/excel/finished/能介/新一空压站运行记录表.xlsx
+++ b/excel/finished/能介/新一空压站运行记录表.xlsx
@@ -853,10 +853,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -951,6 +951,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -958,15 +965,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,50 +982,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1049,14 +1012,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1064,15 +1041,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,6 +1065,30 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,19 +1121,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,43 +1151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,37 +1163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,31 +1181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,19 +1193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,6 +1209,102 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="58">
     <border>
@@ -1934,17 +1934,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1965,15 +1959,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2008,6 +1993,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2022,25 +2031,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2049,133 +2049,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="54" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="53" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -2796,8 +2796,8 @@
   <sheetPr/>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV4" workbookViewId="0">
-      <selection activeCell="BI4" sqref="BI$1:BK$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AV3" workbookViewId="0">
+      <selection activeCell="BH4" sqref="BH$1:BM$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5"/>
@@ -2807,7 +2807,7 @@
     <col min="58" max="58" width="13.3666666666667" customWidth="1"/>
     <col min="59" max="59" width="16.5416666666667" customWidth="1"/>
     <col min="60" max="60" width="14.0916666666667" customWidth="1"/>
-    <col min="61" max="63" width="9.81666666666667" hidden="1" customWidth="1"/>
+    <col min="61" max="63" width="9.81666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" spans="2:57">
@@ -3741,39 +3741,39 @@
         <v/>
       </c>
       <c r="BE8" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD2="","",ACS_ACM1_MAIN!BD2)</f>
+        <f>IF(_acsReport_day_each!BD2="","",_acsReport_day_each!BD2)</f>
         <v/>
       </c>
       <c r="BF8" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE2="","",ACS_ACM1_MAIN!BE2)</f>
+        <f>IF(_acsReport_day_each!BE2="","",_acsReport_day_each!BE2)</f>
         <v/>
       </c>
       <c r="BG8" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF2="","",ACS_ACM1_MAIN!BF2)</f>
+        <f>IF(_acsReport_day_each!BF2="","",_acsReport_day_each!BF2)</f>
         <v/>
       </c>
       <c r="BH8" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG2="","",ACS_ACM1_MAIN!BG2)</f>
+        <f>IF(_acsReport_day_each!BG2="","",_acsReport_day_each!BG2)</f>
         <v/>
       </c>
       <c r="BI8" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH2="","",ACS_ACM1_MAIN!BH2)</f>
+        <f>IF(_acsReport_day_each!BH2="","",_acsReport_day_each!BH2)</f>
         <v/>
       </c>
       <c r="BJ8" s="30" t="str">
-        <f>IF(_acsReport_day_each!BI2="","",ACS_ACM1_MAIN!BI2)</f>
+        <f>IF(_acsReport_day_each!BI2="","",_acsReport_day_each!BI2)</f>
         <v/>
       </c>
       <c r="BK8" s="30" t="str">
-        <f>IF(_acsReport_day_each!BJ2="","",ACS_ACM1_MAIN!BJ2)</f>
+        <f>IF(_acsReport_day_each!BJ2="","",_acsReport_day_each!BJ2)</f>
         <v/>
       </c>
       <c r="BL8" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH2="","",ACS_ACM1_MAIN!BH2)</f>
+        <f>IF(_acsReport_day_each!BK2="","",_acsReport_day_each!BK2)</f>
         <v/>
       </c>
       <c r="BM8" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI2="","",ACS_ACM1_MAIN!BI2)</f>
+        <f>IF(_acsReport_day_each!BL2="","",_acsReport_day_each!BL2)</f>
         <v/>
       </c>
     </row>
@@ -3998,39 +3998,39 @@
         <v/>
       </c>
       <c r="BE9" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD3="","",ACS_ACM1_MAIN!BD3)</f>
+        <f>IF(_acsReport_day_each!BD3="","",_acsReport_day_each!BD3)</f>
         <v/>
       </c>
       <c r="BF9" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE3="","",ACS_ACM1_MAIN!BE3)</f>
+        <f>IF(_acsReport_day_each!BE3="","",_acsReport_day_each!BE3)</f>
         <v/>
       </c>
       <c r="BG9" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF3="","",ACS_ACM1_MAIN!BF3)</f>
+        <f>IF(_acsReport_day_each!BF3="","",_acsReport_day_each!BF3)</f>
         <v/>
       </c>
       <c r="BH9" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG3="","",ACS_ACM1_MAIN!BG3)</f>
+        <f>IF(_acsReport_day_each!BG3="","",_acsReport_day_each!BG3)</f>
         <v/>
       </c>
       <c r="BI9" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ3="","",IF(_acsReport_day_each!BJ3&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH3="","",_acsReport_day_each!BH3)</f>
         <v/>
       </c>
       <c r="BJ9" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK3="","",IF(_acsReport_day_each!BK3&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI3="","",_acsReport_day_each!BI3)</f>
         <v/>
       </c>
       <c r="BK9" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL3="","",IF(_acsReport_day_each!BL3&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ3="","",_acsReport_day_each!BJ3)</f>
         <v/>
       </c>
       <c r="BL9" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH3="","",ACS_ACM1_MAIN!BH3)</f>
+        <f>IF(_acsReport_day_each!BK3="","",_acsReport_day_each!BK3)</f>
         <v/>
       </c>
       <c r="BM9" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI3="","",ACS_ACM1_MAIN!BI3)</f>
+        <f>IF(_acsReport_day_each!BL3="","",_acsReport_day_each!BL3)</f>
         <v/>
       </c>
     </row>
@@ -4255,39 +4255,39 @@
         <v/>
       </c>
       <c r="BE10" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD4="","",ACS_ACM1_MAIN!BD4)</f>
+        <f>IF(_acsReport_day_each!BD4="","",_acsReport_day_each!BD4)</f>
         <v/>
       </c>
       <c r="BF10" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE4="","",ACS_ACM1_MAIN!BE4)</f>
+        <f>IF(_acsReport_day_each!BE4="","",_acsReport_day_each!BE4)</f>
         <v/>
       </c>
       <c r="BG10" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF4="","",ACS_ACM1_MAIN!BF4)</f>
+        <f>IF(_acsReport_day_each!BF4="","",_acsReport_day_each!BF4)</f>
         <v/>
       </c>
       <c r="BH10" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG4="","",ACS_ACM1_MAIN!BG4)</f>
+        <f>IF(_acsReport_day_each!BG4="","",_acsReport_day_each!BG4)</f>
         <v/>
       </c>
       <c r="BI10" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ4="","",IF(_acsReport_day_each!BJ4&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH4="","",_acsReport_day_each!BH4)</f>
         <v/>
       </c>
       <c r="BJ10" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK4="","",IF(_acsReport_day_each!BK4&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI4="","",_acsReport_day_each!BI4)</f>
         <v/>
       </c>
       <c r="BK10" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL4="","",IF(_acsReport_day_each!BL4&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ4="","",_acsReport_day_each!BJ4)</f>
         <v/>
       </c>
       <c r="BL10" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH4="","",ACS_ACM1_MAIN!BH4)</f>
+        <f>IF(_acsReport_day_each!BK4="","",_acsReport_day_each!BK4)</f>
         <v/>
       </c>
       <c r="BM10" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI4="","",ACS_ACM1_MAIN!BI4)</f>
+        <f>IF(_acsReport_day_each!BL4="","",_acsReport_day_each!BL4)</f>
         <v/>
       </c>
     </row>
@@ -4512,39 +4512,39 @@
         <v/>
       </c>
       <c r="BE11" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD5="","",ACS_ACM1_MAIN!BD5)</f>
+        <f>IF(_acsReport_day_each!BD5="","",_acsReport_day_each!BD5)</f>
         <v/>
       </c>
       <c r="BF11" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE5="","",ACS_ACM1_MAIN!BE5)</f>
+        <f>IF(_acsReport_day_each!BE5="","",_acsReport_day_each!BE5)</f>
         <v/>
       </c>
       <c r="BG11" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF5="","",ACS_ACM1_MAIN!BF5)</f>
+        <f>IF(_acsReport_day_each!BF5="","",_acsReport_day_each!BF5)</f>
         <v/>
       </c>
       <c r="BH11" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG5="","",ACS_ACM1_MAIN!BG5)</f>
+        <f>IF(_acsReport_day_each!BG5="","",_acsReport_day_each!BG5)</f>
         <v/>
       </c>
       <c r="BI11" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ5="","",IF(_acsReport_day_each!BJ5&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH5="","",_acsReport_day_each!BH5)</f>
         <v/>
       </c>
       <c r="BJ11" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK5="","",IF(_acsReport_day_each!BK5&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI5="","",_acsReport_day_each!BI5)</f>
         <v/>
       </c>
       <c r="BK11" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL5="","",IF(_acsReport_day_each!BL5&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ5="","",_acsReport_day_each!BJ5)</f>
         <v/>
       </c>
       <c r="BL11" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH5="","",ACS_ACM1_MAIN!BH5)</f>
+        <f>IF(_acsReport_day_each!BK5="","",_acsReport_day_each!BK5)</f>
         <v/>
       </c>
       <c r="BM11" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI5="","",ACS_ACM1_MAIN!BI5)</f>
+        <f>IF(_acsReport_day_each!BL5="","",_acsReport_day_each!BL5)</f>
         <v/>
       </c>
     </row>
@@ -4769,39 +4769,39 @@
         <v/>
       </c>
       <c r="BE12" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD6="","",ACS_ACM1_MAIN!BD6)</f>
+        <f>IF(_acsReport_day_each!BD6="","",_acsReport_day_each!BD6)</f>
         <v/>
       </c>
       <c r="BF12" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE6="","",ACS_ACM1_MAIN!BE6)</f>
+        <f>IF(_acsReport_day_each!BE6="","",_acsReport_day_each!BE6)</f>
         <v/>
       </c>
       <c r="BG12" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF6="","",ACS_ACM1_MAIN!BF6)</f>
+        <f>IF(_acsReport_day_each!BF6="","",_acsReport_day_each!BF6)</f>
         <v/>
       </c>
       <c r="BH12" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG6="","",ACS_ACM1_MAIN!BG6)</f>
+        <f>IF(_acsReport_day_each!BG6="","",_acsReport_day_each!BG6)</f>
         <v/>
       </c>
       <c r="BI12" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ6="","",IF(_acsReport_day_each!BJ6&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH6="","",_acsReport_day_each!BH6)</f>
         <v/>
       </c>
       <c r="BJ12" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK6="","",IF(_acsReport_day_each!BK6&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI6="","",_acsReport_day_each!BI6)</f>
         <v/>
       </c>
       <c r="BK12" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL6="","",IF(_acsReport_day_each!BL6&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ6="","",_acsReport_day_each!BJ6)</f>
         <v/>
       </c>
       <c r="BL12" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH6="","",ACS_ACM1_MAIN!BH6)</f>
+        <f>IF(_acsReport_day_each!BK6="","",_acsReport_day_each!BK6)</f>
         <v/>
       </c>
       <c r="BM12" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI6="","",ACS_ACM1_MAIN!BI6)</f>
+        <f>IF(_acsReport_day_each!BL6="","",_acsReport_day_each!BL6)</f>
         <v/>
       </c>
     </row>
@@ -5026,39 +5026,39 @@
         <v/>
       </c>
       <c r="BE13" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD7="","",ACS_ACM1_MAIN!BD7)</f>
+        <f>IF(_acsReport_day_each!BD7="","",_acsReport_day_each!BD7)</f>
         <v/>
       </c>
       <c r="BF13" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE7="","",ACS_ACM1_MAIN!BE7)</f>
+        <f>IF(_acsReport_day_each!BE7="","",_acsReport_day_each!BE7)</f>
         <v/>
       </c>
       <c r="BG13" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF7="","",ACS_ACM1_MAIN!BF7)</f>
+        <f>IF(_acsReport_day_each!BF7="","",_acsReport_day_each!BF7)</f>
         <v/>
       </c>
       <c r="BH13" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG7="","",ACS_ACM1_MAIN!BG7)</f>
+        <f>IF(_acsReport_day_each!BG7="","",_acsReport_day_each!BG7)</f>
         <v/>
       </c>
       <c r="BI13" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ7="","",IF(_acsReport_day_each!BJ7&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH7="","",_acsReport_day_each!BH7)</f>
         <v/>
       </c>
       <c r="BJ13" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK7="","",IF(_acsReport_day_each!BK7&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI7="","",_acsReport_day_each!BI7)</f>
         <v/>
       </c>
       <c r="BK13" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL7="","",IF(_acsReport_day_each!BL7&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ7="","",_acsReport_day_each!BJ7)</f>
         <v/>
       </c>
       <c r="BL13" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH7="","",ACS_ACM1_MAIN!BH7)</f>
+        <f>IF(_acsReport_day_each!BK7="","",_acsReport_day_each!BK7)</f>
         <v/>
       </c>
       <c r="BM13" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI7="","",ACS_ACM1_MAIN!BI7)</f>
+        <f>IF(_acsReport_day_each!BL7="","",_acsReport_day_each!BL7)</f>
         <v/>
       </c>
     </row>
@@ -5283,39 +5283,39 @@
         <v/>
       </c>
       <c r="BE14" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD8="","",ACS_ACM1_MAIN!BD8)</f>
+        <f>IF(_acsReport_day_each!BD8="","",_acsReport_day_each!BD8)</f>
         <v/>
       </c>
       <c r="BF14" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE8="","",ACS_ACM1_MAIN!BE8)</f>
+        <f>IF(_acsReport_day_each!BE8="","",_acsReport_day_each!BE8)</f>
         <v/>
       </c>
       <c r="BG14" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF8="","",ACS_ACM1_MAIN!BF8)</f>
+        <f>IF(_acsReport_day_each!BF8="","",_acsReport_day_each!BF8)</f>
         <v/>
       </c>
       <c r="BH14" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG8="","",ACS_ACM1_MAIN!BG8)</f>
+        <f>IF(_acsReport_day_each!BG8="","",_acsReport_day_each!BG8)</f>
         <v/>
       </c>
       <c r="BI14" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ8="","",IF(_acsReport_day_each!BJ8&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH8="","",_acsReport_day_each!BH8)</f>
         <v/>
       </c>
       <c r="BJ14" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK8="","",IF(_acsReport_day_each!BK8&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI8="","",_acsReport_day_each!BI8)</f>
         <v/>
       </c>
       <c r="BK14" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL8="","",IF(_acsReport_day_each!BL8&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ8="","",_acsReport_day_each!BJ8)</f>
         <v/>
       </c>
       <c r="BL14" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH8="","",ACS_ACM1_MAIN!BH8)</f>
+        <f>IF(_acsReport_day_each!BK8="","",_acsReport_day_each!BK8)</f>
         <v/>
       </c>
       <c r="BM14" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI8="","",ACS_ACM1_MAIN!BI8)</f>
+        <f>IF(_acsReport_day_each!BL8="","",_acsReport_day_each!BL8)</f>
         <v/>
       </c>
     </row>
@@ -5540,39 +5540,39 @@
         <v/>
       </c>
       <c r="BE15" s="29" t="str">
-        <f>IF(_acsReport_day_each!BD9="","",ACS_ACM1_MAIN!BD9)</f>
+        <f>IF(_acsReport_day_each!BD9="","",_acsReport_day_each!BD9)</f>
         <v/>
       </c>
       <c r="BF15" s="90" t="str">
-        <f>IF(_acsReport_day_each!BE9="","",ACS_ACM1_MAIN!BE9)</f>
+        <f>IF(_acsReport_day_each!BE9="","",_acsReport_day_each!BE9)</f>
         <v/>
       </c>
       <c r="BG15" s="91" t="str">
-        <f>IF(_acsReport_day_each!BF9="","",ACS_ACM1_MAIN!BF9)</f>
+        <f>IF(_acsReport_day_each!BF9="","",_acsReport_day_each!BF9)</f>
         <v/>
       </c>
       <c r="BH15" s="29" t="str">
-        <f>IF(_acsReport_day_each!BG9="","",ACS_ACM1_MAIN!BG9)</f>
+        <f>IF(_acsReport_day_each!BG9="","",_acsReport_day_each!BG9)</f>
         <v/>
       </c>
       <c r="BI15" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ9="","",IF(_acsReport_day_each!BJ9&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH9="","",_acsReport_day_each!BH9)</f>
         <v/>
       </c>
       <c r="BJ15" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK9="","",IF(_acsReport_day_each!BK9&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI9="","",_acsReport_day_each!BI9)</f>
         <v/>
       </c>
       <c r="BK15" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL9="","",IF(_acsReport_day_each!BL9&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ9="","",_acsReport_day_each!BJ9)</f>
         <v/>
       </c>
       <c r="BL15" s="90" t="str">
-        <f>IF(_acsReport_day_each!BH9="","",ACS_ACM1_MAIN!BH9)</f>
+        <f>IF(_acsReport_day_each!BK9="","",_acsReport_day_each!BK9)</f>
         <v/>
       </c>
       <c r="BM15" s="91" t="str">
-        <f>IF(_acsReport_day_each!BI9="","",ACS_ACM1_MAIN!BI9)</f>
+        <f>IF(_acsReport_day_each!BL9="","",_acsReport_day_each!BL9)</f>
         <v/>
       </c>
     </row>
@@ -5797,39 +5797,39 @@
         <v/>
       </c>
       <c r="BE16" s="38" t="str">
-        <f>IF(_acsReport_day_each!BD10="","",ACS_ACM1_MAIN!BD10)</f>
+        <f>IF(_acsReport_day_each!BD10="","",_acsReport_day_each!BD10)</f>
         <v/>
       </c>
       <c r="BF16" s="39" t="str">
-        <f>IF(_acsReport_day_each!BE10="","",ACS_ACM1_MAIN!BE10)</f>
+        <f>IF(_acsReport_day_each!BE10="","",_acsReport_day_each!BE10)</f>
         <v/>
       </c>
       <c r="BG16" s="64" t="str">
-        <f>IF(_acsReport_day_each!BF10="","",ACS_ACM1_MAIN!BF10)</f>
+        <f>IF(_acsReport_day_each!BF10="","",_acsReport_day_each!BF10)</f>
         <v/>
       </c>
       <c r="BH16" s="38" t="str">
-        <f>IF(_acsReport_day_each!BG10="","",ACS_ACM1_MAIN!BG10)</f>
+        <f>IF(_acsReport_day_each!BG10="","",_acsReport_day_each!BG10)</f>
         <v/>
       </c>
       <c r="BI16" s="65" t="str">
-        <f>IF(_acsReport_day_each!BJ10="","",IF(_acsReport_day_each!BJ10&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH10="","",_acsReport_day_each!BH10)</f>
         <v/>
       </c>
       <c r="BJ16" s="65" t="str">
-        <f>IF(_acsReport_day_each!BK10="","",IF(_acsReport_day_each!BK10&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI10="","",_acsReport_day_each!BI10)</f>
         <v/>
       </c>
       <c r="BK16" s="65" t="str">
-        <f>IF(_acsReport_day_each!BL10="","",IF(_acsReport_day_each!BL10&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ10="","",_acsReport_day_each!BJ10)</f>
         <v/>
       </c>
       <c r="BL16" s="39" t="str">
-        <f>IF(_acsReport_day_each!BH10="","",ACS_ACM1_MAIN!BH10)</f>
+        <f>IF(_acsReport_day_each!BK10="","",_acsReport_day_each!BK10)</f>
         <v/>
       </c>
       <c r="BM16" s="64" t="str">
-        <f>IF(_acsReport_day_each!BI10="","",ACS_ACM1_MAIN!BI10)</f>
+        <f>IF(_acsReport_day_each!BL10="","",_acsReport_day_each!BL10)</f>
         <v/>
       </c>
     </row>
@@ -6054,39 +6054,39 @@
         <v/>
       </c>
       <c r="BE17" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD11="","",ACS_ACM1_MAIN!BD11)</f>
+        <f>IF(_acsReport_day_each!BD11="","",_acsReport_day_each!BD11)</f>
         <v/>
       </c>
       <c r="BF17" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE11="","",ACS_ACM1_MAIN!BE11)</f>
+        <f>IF(_acsReport_day_each!BE11="","",_acsReport_day_each!BE11)</f>
         <v/>
       </c>
       <c r="BG17" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF11="","",ACS_ACM1_MAIN!BF11)</f>
+        <f>IF(_acsReport_day_each!BF11="","",_acsReport_day_each!BF11)</f>
         <v/>
       </c>
       <c r="BH17" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG11="","",ACS_ACM1_MAIN!BG11)</f>
+        <f>IF(_acsReport_day_each!BG11="","",_acsReport_day_each!BG11)</f>
         <v/>
       </c>
       <c r="BI17" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ11="","",IF(_acsReport_day_each!BJ11&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH11="","",_acsReport_day_each!BH11)</f>
         <v/>
       </c>
       <c r="BJ17" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK11="","",IF(_acsReport_day_each!BK11&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI11="","",_acsReport_day_each!BI11)</f>
         <v/>
       </c>
       <c r="BK17" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL11="","",IF(_acsReport_day_each!BL11&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ11="","",_acsReport_day_each!BJ11)</f>
         <v/>
       </c>
       <c r="BL17" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH11="","",ACS_ACM1_MAIN!BH11)</f>
+        <f>IF(_acsReport_day_each!BK11="","",_acsReport_day_each!BK11)</f>
         <v/>
       </c>
       <c r="BM17" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI11="","",ACS_ACM1_MAIN!BI11)</f>
+        <f>IF(_acsReport_day_each!BL11="","",_acsReport_day_each!BL11)</f>
         <v/>
       </c>
     </row>
@@ -6311,39 +6311,39 @@
         <v/>
       </c>
       <c r="BE18" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD12="","",ACS_ACM1_MAIN!BD12)</f>
+        <f>IF(_acsReport_day_each!BD12="","",_acsReport_day_each!BD12)</f>
         <v/>
       </c>
       <c r="BF18" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE12="","",ACS_ACM1_MAIN!BE12)</f>
+        <f>IF(_acsReport_day_each!BE12="","",_acsReport_day_each!BE12)</f>
         <v/>
       </c>
       <c r="BG18" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF12="","",ACS_ACM1_MAIN!BF12)</f>
+        <f>IF(_acsReport_day_each!BF12="","",_acsReport_day_each!BF12)</f>
         <v/>
       </c>
       <c r="BH18" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG12="","",ACS_ACM1_MAIN!BG12)</f>
+        <f>IF(_acsReport_day_each!BG12="","",_acsReport_day_each!BG12)</f>
         <v/>
       </c>
       <c r="BI18" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ12="","",IF(_acsReport_day_each!BJ12&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH12="","",_acsReport_day_each!BH12)</f>
         <v/>
       </c>
       <c r="BJ18" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK12="","",IF(_acsReport_day_each!BK12&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI12="","",_acsReport_day_each!BI12)</f>
         <v/>
       </c>
       <c r="BK18" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL12="","",IF(_acsReport_day_each!BL12&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ12="","",_acsReport_day_each!BJ12)</f>
         <v/>
       </c>
       <c r="BL18" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH12="","",ACS_ACM1_MAIN!BH12)</f>
+        <f>IF(_acsReport_day_each!BK12="","",_acsReport_day_each!BK12)</f>
         <v/>
       </c>
       <c r="BM18" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI12="","",ACS_ACM1_MAIN!BI12)</f>
+        <f>IF(_acsReport_day_each!BL12="","",_acsReport_day_each!BL12)</f>
         <v/>
       </c>
     </row>
@@ -6568,39 +6568,39 @@
         <v/>
       </c>
       <c r="BE19" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD13="","",ACS_ACM1_MAIN!BD13)</f>
+        <f>IF(_acsReport_day_each!BD13="","",_acsReport_day_each!BD13)</f>
         <v/>
       </c>
       <c r="BF19" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE13="","",ACS_ACM1_MAIN!BE13)</f>
+        <f>IF(_acsReport_day_each!BE13="","",_acsReport_day_each!BE13)</f>
         <v/>
       </c>
       <c r="BG19" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF13="","",ACS_ACM1_MAIN!BF13)</f>
+        <f>IF(_acsReport_day_each!BF13="","",_acsReport_day_each!BF13)</f>
         <v/>
       </c>
       <c r="BH19" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG13="","",ACS_ACM1_MAIN!BG13)</f>
+        <f>IF(_acsReport_day_each!BG13="","",_acsReport_day_each!BG13)</f>
         <v/>
       </c>
       <c r="BI19" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ13="","",IF(_acsReport_day_each!BJ13&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH13="","",_acsReport_day_each!BH13)</f>
         <v/>
       </c>
       <c r="BJ19" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK13="","",IF(_acsReport_day_each!BK13&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI13="","",_acsReport_day_each!BI13)</f>
         <v/>
       </c>
       <c r="BK19" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL13="","",IF(_acsReport_day_each!BL13&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ13="","",_acsReport_day_each!BJ13)</f>
         <v/>
       </c>
       <c r="BL19" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH13="","",ACS_ACM1_MAIN!BH13)</f>
+        <f>IF(_acsReport_day_each!BK13="","",_acsReport_day_each!BK13)</f>
         <v/>
       </c>
       <c r="BM19" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI13="","",ACS_ACM1_MAIN!BI13)</f>
+        <f>IF(_acsReport_day_each!BL13="","",_acsReport_day_each!BL13)</f>
         <v/>
       </c>
     </row>
@@ -6825,39 +6825,39 @@
         <v/>
       </c>
       <c r="BE20" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD14="","",ACS_ACM1_MAIN!BD14)</f>
+        <f>IF(_acsReport_day_each!BD14="","",_acsReport_day_each!BD14)</f>
         <v/>
       </c>
       <c r="BF20" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE14="","",ACS_ACM1_MAIN!BE14)</f>
+        <f>IF(_acsReport_day_each!BE14="","",_acsReport_day_each!BE14)</f>
         <v/>
       </c>
       <c r="BG20" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF14="","",ACS_ACM1_MAIN!BF14)</f>
+        <f>IF(_acsReport_day_each!BF14="","",_acsReport_day_each!BF14)</f>
         <v/>
       </c>
       <c r="BH20" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG14="","",ACS_ACM1_MAIN!BG14)</f>
+        <f>IF(_acsReport_day_each!BG14="","",_acsReport_day_each!BG14)</f>
         <v/>
       </c>
       <c r="BI20" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ14="","",IF(_acsReport_day_each!BJ14&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH14="","",_acsReport_day_each!BH14)</f>
         <v/>
       </c>
       <c r="BJ20" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK14="","",IF(_acsReport_day_each!BK14&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI14="","",_acsReport_day_each!BI14)</f>
         <v/>
       </c>
       <c r="BK20" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL14="","",IF(_acsReport_day_each!BL14&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ14="","",_acsReport_day_each!BJ14)</f>
         <v/>
       </c>
       <c r="BL20" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH14="","",ACS_ACM1_MAIN!BH14)</f>
+        <f>IF(_acsReport_day_each!BK14="","",_acsReport_day_each!BK14)</f>
         <v/>
       </c>
       <c r="BM20" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI14="","",ACS_ACM1_MAIN!BI14)</f>
+        <f>IF(_acsReport_day_each!BL14="","",_acsReport_day_each!BL14)</f>
         <v/>
       </c>
     </row>
@@ -7082,39 +7082,39 @@
         <v/>
       </c>
       <c r="BE21" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD15="","",ACS_ACM1_MAIN!BD15)</f>
+        <f>IF(_acsReport_day_each!BD15="","",_acsReport_day_each!BD15)</f>
         <v/>
       </c>
       <c r="BF21" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE15="","",ACS_ACM1_MAIN!BE15)</f>
+        <f>IF(_acsReport_day_each!BE15="","",_acsReport_day_each!BE15)</f>
         <v/>
       </c>
       <c r="BG21" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF15="","",ACS_ACM1_MAIN!BF15)</f>
+        <f>IF(_acsReport_day_each!BF15="","",_acsReport_day_each!BF15)</f>
         <v/>
       </c>
       <c r="BH21" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG15="","",ACS_ACM1_MAIN!BG15)</f>
+        <f>IF(_acsReport_day_each!BG15="","",_acsReport_day_each!BG15)</f>
         <v/>
       </c>
       <c r="BI21" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ15="","",IF(_acsReport_day_each!BJ15&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH15="","",_acsReport_day_each!BH15)</f>
         <v/>
       </c>
       <c r="BJ21" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK15="","",IF(_acsReport_day_each!BK15&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI15="","",_acsReport_day_each!BI15)</f>
         <v/>
       </c>
       <c r="BK21" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL15="","",IF(_acsReport_day_each!BL15&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ15="","",_acsReport_day_each!BJ15)</f>
         <v/>
       </c>
       <c r="BL21" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH15="","",ACS_ACM1_MAIN!BH15)</f>
+        <f>IF(_acsReport_day_each!BK15="","",_acsReport_day_each!BK15)</f>
         <v/>
       </c>
       <c r="BM21" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI15="","",ACS_ACM1_MAIN!BI15)</f>
+        <f>IF(_acsReport_day_each!BL15="","",_acsReport_day_each!BL15)</f>
         <v/>
       </c>
     </row>
@@ -7339,39 +7339,39 @@
         <v/>
       </c>
       <c r="BE22" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD16="","",ACS_ACM1_MAIN!BD16)</f>
+        <f>IF(_acsReport_day_each!BD16="","",_acsReport_day_each!BD16)</f>
         <v/>
       </c>
       <c r="BF22" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE16="","",ACS_ACM1_MAIN!BE16)</f>
+        <f>IF(_acsReport_day_each!BE16="","",_acsReport_day_each!BE16)</f>
         <v/>
       </c>
       <c r="BG22" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF16="","",ACS_ACM1_MAIN!BF16)</f>
+        <f>IF(_acsReport_day_each!BF16="","",_acsReport_day_each!BF16)</f>
         <v/>
       </c>
       <c r="BH22" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG16="","",ACS_ACM1_MAIN!BG16)</f>
+        <f>IF(_acsReport_day_each!BG16="","",_acsReport_day_each!BG16)</f>
         <v/>
       </c>
       <c r="BI22" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ16="","",IF(_acsReport_day_each!BJ16&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH16="","",_acsReport_day_each!BH16)</f>
         <v/>
       </c>
       <c r="BJ22" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK16="","",IF(_acsReport_day_each!BK16&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI16="","",_acsReport_day_each!BI16)</f>
         <v/>
       </c>
       <c r="BK22" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL16="","",IF(_acsReport_day_each!BL16&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ16="","",_acsReport_day_each!BJ16)</f>
         <v/>
       </c>
       <c r="BL22" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH16="","",ACS_ACM1_MAIN!BH16)</f>
+        <f>IF(_acsReport_day_each!BK16="","",_acsReport_day_each!BK16)</f>
         <v/>
       </c>
       <c r="BM22" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI16="","",ACS_ACM1_MAIN!BI16)</f>
+        <f>IF(_acsReport_day_each!BL16="","",_acsReport_day_each!BL16)</f>
         <v/>
       </c>
     </row>
@@ -7596,39 +7596,39 @@
         <v/>
       </c>
       <c r="BE23" s="35" t="str">
-        <f>IF(_acsReport_day_each!BD17="","",ACS_ACM1_MAIN!BD17)</f>
+        <f>IF(_acsReport_day_each!BD17="","",_acsReport_day_each!BD17)</f>
         <v/>
       </c>
       <c r="BF23" s="36" t="str">
-        <f>IF(_acsReport_day_each!BE17="","",ACS_ACM1_MAIN!BE17)</f>
+        <f>IF(_acsReport_day_each!BE17="","",_acsReport_day_each!BE17)</f>
         <v/>
       </c>
       <c r="BG23" s="62" t="str">
-        <f>IF(_acsReport_day_each!BF17="","",ACS_ACM1_MAIN!BF17)</f>
+        <f>IF(_acsReport_day_each!BF17="","",_acsReport_day_each!BF17)</f>
         <v/>
       </c>
       <c r="BH23" s="35" t="str">
-        <f>IF(_acsReport_day_each!BG17="","",ACS_ACM1_MAIN!BG17)</f>
+        <f>IF(_acsReport_day_each!BG17="","",_acsReport_day_each!BG17)</f>
         <v/>
       </c>
       <c r="BI23" s="92" t="str">
-        <f>IF(_acsReport_day_each!BJ17="","",IF(_acsReport_day_each!BJ17&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH17="","",_acsReport_day_each!BH17)</f>
         <v/>
       </c>
       <c r="BJ23" s="92" t="str">
-        <f>IF(_acsReport_day_each!BK17="","",IF(_acsReport_day_each!BK17&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI17="","",_acsReport_day_each!BI17)</f>
         <v/>
       </c>
       <c r="BK23" s="35" t="str">
-        <f>IF(_acsReport_day_each!BL17="","",IF(_acsReport_day_each!BL17&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ17="","",_acsReport_day_each!BJ17)</f>
         <v/>
       </c>
       <c r="BL23" s="36" t="str">
-        <f>IF(_acsReport_day_each!BH17="","",ACS_ACM1_MAIN!BH17)</f>
+        <f>IF(_acsReport_day_each!BK17="","",_acsReport_day_each!BK17)</f>
         <v/>
       </c>
       <c r="BM23" s="62" t="str">
-        <f>IF(_acsReport_day_each!BI17="","",ACS_ACM1_MAIN!BI17)</f>
+        <f>IF(_acsReport_day_each!BL17="","",_acsReport_day_each!BL17)</f>
         <v/>
       </c>
     </row>
@@ -7853,39 +7853,39 @@
         <v/>
       </c>
       <c r="BE24" s="38" t="str">
-        <f>IF(_acsReport_day_each!BD18="","",ACS_ACM1_MAIN!BD18)</f>
+        <f>IF(_acsReport_day_each!BD18="","",_acsReport_day_each!BD18)</f>
         <v/>
       </c>
       <c r="BF24" s="39" t="str">
-        <f>IF(_acsReport_day_each!BE18="","",ACS_ACM1_MAIN!BE18)</f>
+        <f>IF(_acsReport_day_each!BE18="","",_acsReport_day_each!BE18)</f>
         <v/>
       </c>
       <c r="BG24" s="64" t="str">
-        <f>IF(_acsReport_day_each!BF18="","",ACS_ACM1_MAIN!BF18)</f>
+        <f>IF(_acsReport_day_each!BF18="","",_acsReport_day_each!BF18)</f>
         <v/>
       </c>
       <c r="BH24" s="38" t="str">
-        <f>IF(_acsReport_day_each!BG18="","",ACS_ACM1_MAIN!BG18)</f>
+        <f>IF(_acsReport_day_each!BG18="","",_acsReport_day_each!BG18)</f>
         <v/>
       </c>
       <c r="BI24" s="93" t="str">
-        <f>IF(_acsReport_day_each!BJ18="","",IF(_acsReport_day_each!BJ18&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH18="","",_acsReport_day_each!BH18)</f>
         <v/>
       </c>
       <c r="BJ24" s="93" t="str">
-        <f>IF(_acsReport_day_each!BK18="","",IF(_acsReport_day_each!BK18&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI18="","",_acsReport_day_each!BI18)</f>
         <v/>
       </c>
       <c r="BK24" s="94" t="str">
-        <f>IF(_acsReport_day_each!BL18="","",IF(_acsReport_day_each!BL18&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ18="","",_acsReport_day_each!BJ18)</f>
         <v/>
       </c>
       <c r="BL24" s="39" t="str">
-        <f>IF(_acsReport_day_each!BH18="","",ACS_ACM1_MAIN!BH18)</f>
+        <f>IF(_acsReport_day_each!BK18="","",_acsReport_day_each!BK18)</f>
         <v/>
       </c>
       <c r="BM24" s="64" t="str">
-        <f>IF(_acsReport_day_each!BI18="","",ACS_ACM1_MAIN!BI18)</f>
+        <f>IF(_acsReport_day_each!BL18="","",_acsReport_day_each!BL18)</f>
         <v/>
       </c>
     </row>
@@ -8110,39 +8110,39 @@
         <v/>
       </c>
       <c r="BE25" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD19="","",ACS_ACM1_MAIN!BD19)</f>
+        <f>IF(_acsReport_day_each!BD19="","",_acsReport_day_each!BD19)</f>
         <v/>
       </c>
       <c r="BF25" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE19="","",ACS_ACM1_MAIN!BE19)</f>
+        <f>IF(_acsReport_day_each!BE19="","",_acsReport_day_each!BE19)</f>
         <v/>
       </c>
       <c r="BG25" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF19="","",ACS_ACM1_MAIN!BF19)</f>
+        <f>IF(_acsReport_day_each!BF19="","",_acsReport_day_each!BF19)</f>
         <v/>
       </c>
       <c r="BH25" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG19="","",ACS_ACM1_MAIN!BG19)</f>
+        <f>IF(_acsReport_day_each!BG19="","",_acsReport_day_each!BG19)</f>
         <v/>
       </c>
       <c r="BI25" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ19="","",IF(_acsReport_day_each!BJ19&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH19="","",_acsReport_day_each!BH19)</f>
         <v/>
       </c>
       <c r="BJ25" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK19="","",IF(_acsReport_day_each!BK19&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI19="","",_acsReport_day_each!BI19)</f>
         <v/>
       </c>
       <c r="BK25" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL19="","",IF(_acsReport_day_each!BL19&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ19="","",_acsReport_day_each!BJ19)</f>
         <v/>
       </c>
       <c r="BL25" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH19="","",ACS_ACM1_MAIN!BH19)</f>
+        <f>IF(_acsReport_day_each!BK19="","",_acsReport_day_each!BK19)</f>
         <v/>
       </c>
       <c r="BM25" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI19="","",ACS_ACM1_MAIN!BI19)</f>
+        <f>IF(_acsReport_day_each!BL19="","",_acsReport_day_each!BL19)</f>
         <v/>
       </c>
     </row>
@@ -8367,39 +8367,39 @@
         <v/>
       </c>
       <c r="BE26" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD20="","",ACS_ACM1_MAIN!BD20)</f>
+        <f>IF(_acsReport_day_each!BD20="","",_acsReport_day_each!BD20)</f>
         <v/>
       </c>
       <c r="BF26" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE20="","",ACS_ACM1_MAIN!BE20)</f>
+        <f>IF(_acsReport_day_each!BE20="","",_acsReport_day_each!BE20)</f>
         <v/>
       </c>
       <c r="BG26" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF20="","",ACS_ACM1_MAIN!BF20)</f>
+        <f>IF(_acsReport_day_each!BF20="","",_acsReport_day_each!BF20)</f>
         <v/>
       </c>
       <c r="BH26" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG20="","",ACS_ACM1_MAIN!BG20)</f>
+        <f>IF(_acsReport_day_each!BG20="","",_acsReport_day_each!BG20)</f>
         <v/>
       </c>
       <c r="BI26" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ20="","",IF(_acsReport_day_each!BJ20&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH20="","",_acsReport_day_each!BH20)</f>
         <v/>
       </c>
       <c r="BJ26" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK20="","",IF(_acsReport_day_each!BK20&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI20="","",_acsReport_day_each!BI20)</f>
         <v/>
       </c>
       <c r="BK26" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL20="","",IF(_acsReport_day_each!BL20&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ20="","",_acsReport_day_each!BJ20)</f>
         <v/>
       </c>
       <c r="BL26" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH20="","",ACS_ACM1_MAIN!BH20)</f>
+        <f>IF(_acsReport_day_each!BK20="","",_acsReport_day_each!BK20)</f>
         <v/>
       </c>
       <c r="BM26" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI20="","",ACS_ACM1_MAIN!BI20)</f>
+        <f>IF(_acsReport_day_each!BL20="","",_acsReport_day_each!BL20)</f>
         <v/>
       </c>
     </row>
@@ -8624,39 +8624,39 @@
         <v/>
       </c>
       <c r="BE27" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD21="","",ACS_ACM1_MAIN!BD21)</f>
+        <f>IF(_acsReport_day_each!BD21="","",_acsReport_day_each!BD21)</f>
         <v/>
       </c>
       <c r="BF27" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE21="","",ACS_ACM1_MAIN!BE21)</f>
+        <f>IF(_acsReport_day_each!BE21="","",_acsReport_day_each!BE21)</f>
         <v/>
       </c>
       <c r="BG27" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF21="","",ACS_ACM1_MAIN!BF21)</f>
+        <f>IF(_acsReport_day_each!BF21="","",_acsReport_day_each!BF21)</f>
         <v/>
       </c>
       <c r="BH27" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG21="","",ACS_ACM1_MAIN!BG21)</f>
+        <f>IF(_acsReport_day_each!BG21="","",_acsReport_day_each!BG21)</f>
         <v/>
       </c>
       <c r="BI27" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ21="","",IF(_acsReport_day_each!BJ21&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH21="","",_acsReport_day_each!BH21)</f>
         <v/>
       </c>
       <c r="BJ27" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK21="","",IF(_acsReport_day_each!BK21&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI21="","",_acsReport_day_each!BI21)</f>
         <v/>
       </c>
       <c r="BK27" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL21="","",IF(_acsReport_day_each!BL21&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ21="","",_acsReport_day_each!BJ21)</f>
         <v/>
       </c>
       <c r="BL27" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH21="","",ACS_ACM1_MAIN!BH21)</f>
+        <f>IF(_acsReport_day_each!BK21="","",_acsReport_day_each!BK21)</f>
         <v/>
       </c>
       <c r="BM27" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI21="","",ACS_ACM1_MAIN!BI21)</f>
+        <f>IF(_acsReport_day_each!BL21="","",_acsReport_day_each!BL21)</f>
         <v/>
       </c>
     </row>
@@ -8881,39 +8881,39 @@
         <v/>
       </c>
       <c r="BE28" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD22="","",ACS_ACM1_MAIN!BD22)</f>
+        <f>IF(_acsReport_day_each!BD22="","",_acsReport_day_each!BD22)</f>
         <v/>
       </c>
       <c r="BF28" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE22="","",ACS_ACM1_MAIN!BE22)</f>
+        <f>IF(_acsReport_day_each!BE22="","",_acsReport_day_each!BE22)</f>
         <v/>
       </c>
       <c r="BG28" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF22="","",ACS_ACM1_MAIN!BF22)</f>
+        <f>IF(_acsReport_day_each!BF22="","",_acsReport_day_each!BF22)</f>
         <v/>
       </c>
       <c r="BH28" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG22="","",ACS_ACM1_MAIN!BG22)</f>
+        <f>IF(_acsReport_day_each!BG22="","",_acsReport_day_each!BG22)</f>
         <v/>
       </c>
       <c r="BI28" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ22="","",IF(_acsReport_day_each!BJ22&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH22="","",_acsReport_day_each!BH22)</f>
         <v/>
       </c>
       <c r="BJ28" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK22="","",IF(_acsReport_day_each!BK22&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI22="","",_acsReport_day_each!BI22)</f>
         <v/>
       </c>
       <c r="BK28" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL22="","",IF(_acsReport_day_each!BL22&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ22="","",_acsReport_day_each!BJ22)</f>
         <v/>
       </c>
       <c r="BL28" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH22="","",ACS_ACM1_MAIN!BH22)</f>
+        <f>IF(_acsReport_day_each!BK22="","",_acsReport_day_each!BK22)</f>
         <v/>
       </c>
       <c r="BM28" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI22="","",ACS_ACM1_MAIN!BI22)</f>
+        <f>IF(_acsReport_day_each!BL22="","",_acsReport_day_each!BL22)</f>
         <v/>
       </c>
     </row>
@@ -9138,39 +9138,39 @@
         <v/>
       </c>
       <c r="BE29" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD23="","",ACS_ACM1_MAIN!BD23)</f>
+        <f>IF(_acsReport_day_each!BD23="","",_acsReport_day_each!BD23)</f>
         <v/>
       </c>
       <c r="BF29" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE23="","",ACS_ACM1_MAIN!BE23)</f>
+        <f>IF(_acsReport_day_each!BE23="","",_acsReport_day_each!BE23)</f>
         <v/>
       </c>
       <c r="BG29" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF23="","",ACS_ACM1_MAIN!BF23)</f>
+        <f>IF(_acsReport_day_each!BF23="","",_acsReport_day_each!BF23)</f>
         <v/>
       </c>
       <c r="BH29" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG23="","",ACS_ACM1_MAIN!BG23)</f>
+        <f>IF(_acsReport_day_each!BG23="","",_acsReport_day_each!BG23)</f>
         <v/>
       </c>
       <c r="BI29" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ23="","",IF(_acsReport_day_each!BJ23&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH23="","",_acsReport_day_each!BH23)</f>
         <v/>
       </c>
       <c r="BJ29" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK23="","",IF(_acsReport_day_each!BK23&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI23="","",_acsReport_day_each!BI23)</f>
         <v/>
       </c>
       <c r="BK29" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL23="","",IF(_acsReport_day_each!BL23&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ23="","",_acsReport_day_each!BJ23)</f>
         <v/>
       </c>
       <c r="BL29" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH23="","",ACS_ACM1_MAIN!BH23)</f>
+        <f>IF(_acsReport_day_each!BK23="","",_acsReport_day_each!BK23)</f>
         <v/>
       </c>
       <c r="BM29" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI23="","",ACS_ACM1_MAIN!BI23)</f>
+        <f>IF(_acsReport_day_each!BL23="","",_acsReport_day_each!BL23)</f>
         <v/>
       </c>
     </row>
@@ -9395,39 +9395,39 @@
         <v/>
       </c>
       <c r="BE30" s="33" t="str">
-        <f>IF(_acsReport_day_each!BD24="","",ACS_ACM1_MAIN!BD24)</f>
+        <f>IF(_acsReport_day_each!BD24="","",_acsReport_day_each!BD24)</f>
         <v/>
       </c>
       <c r="BF30" s="30" t="str">
-        <f>IF(_acsReport_day_each!BE24="","",ACS_ACM1_MAIN!BE24)</f>
+        <f>IF(_acsReport_day_each!BE24="","",_acsReport_day_each!BE24)</f>
         <v/>
       </c>
       <c r="BG30" s="60" t="str">
-        <f>IF(_acsReport_day_each!BF24="","",ACS_ACM1_MAIN!BF24)</f>
+        <f>IF(_acsReport_day_each!BF24="","",_acsReport_day_each!BF24)</f>
         <v/>
       </c>
       <c r="BH30" s="33" t="str">
-        <f>IF(_acsReport_day_each!BG24="","",ACS_ACM1_MAIN!BG24)</f>
+        <f>IF(_acsReport_day_each!BG24="","",_acsReport_day_each!BG24)</f>
         <v/>
       </c>
       <c r="BI30" s="89" t="str">
-        <f>IF(_acsReport_day_each!BJ24="","",IF(_acsReport_day_each!BJ24&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH24="","",_acsReport_day_each!BH24)</f>
         <v/>
       </c>
       <c r="BJ30" s="89" t="str">
-        <f>IF(_acsReport_day_each!BK24="","",IF(_acsReport_day_each!BK24&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI24="","",_acsReport_day_each!BI24)</f>
         <v/>
       </c>
       <c r="BK30" s="29" t="str">
-        <f>IF(_acsReport_day_each!BL24="","",IF(_acsReport_day_each!BL24&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ24="","",_acsReport_day_each!BJ24)</f>
         <v/>
       </c>
       <c r="BL30" s="30" t="str">
-        <f>IF(_acsReport_day_each!BH24="","",ACS_ACM1_MAIN!BH24)</f>
+        <f>IF(_acsReport_day_each!BK24="","",_acsReport_day_each!BK24)</f>
         <v/>
       </c>
       <c r="BM30" s="60" t="str">
-        <f>IF(_acsReport_day_each!BI24="","",ACS_ACM1_MAIN!BI24)</f>
+        <f>IF(_acsReport_day_each!BL24="","",_acsReport_day_each!BL24)</f>
         <v/>
       </c>
     </row>
@@ -9652,39 +9652,39 @@
         <v/>
       </c>
       <c r="BE31" s="35" t="str">
-        <f>IF(_acsReport_day_each!BD25="","",ACS_ACM1_MAIN!BD25)</f>
+        <f>IF(_acsReport_day_each!BD25="","",_acsReport_day_each!BD25)</f>
         <v/>
       </c>
       <c r="BF31" s="36" t="str">
-        <f>IF(_acsReport_day_each!BE25="","",ACS_ACM1_MAIN!BE25)</f>
+        <f>IF(_acsReport_day_each!BE25="","",_acsReport_day_each!BE25)</f>
         <v/>
       </c>
       <c r="BG31" s="62" t="str">
-        <f>IF(_acsReport_day_each!BF25="","",ACS_ACM1_MAIN!BF25)</f>
+        <f>IF(_acsReport_day_each!BF25="","",_acsReport_day_each!BF25)</f>
         <v/>
       </c>
       <c r="BH31" s="35" t="str">
-        <f>IF(_acsReport_day_each!BG25="","",ACS_ACM1_MAIN!BG25)</f>
+        <f>IF(_acsReport_day_each!BG25="","",_acsReport_day_each!BG25)</f>
         <v/>
       </c>
       <c r="BI31" s="36" t="str">
-        <f>IF(_acsReport_day_each!BJ25="","",IF(_acsReport_day_each!BJ25&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BH25="","",_acsReport_day_each!BH25)</f>
         <v/>
       </c>
       <c r="BJ31" s="36" t="str">
-        <f>IF(_acsReport_day_each!BK25="","",IF(_acsReport_day_each!BK25&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BI25="","",_acsReport_day_each!BI25)</f>
         <v/>
       </c>
       <c r="BK31" s="36" t="str">
-        <f>IF(_acsReport_day_each!BL25="","",IF(_acsReport_day_each!BL25&gt;0,1,0))</f>
+        <f>IF(_acsReport_day_each!BJ25="","",_acsReport_day_each!BJ25)</f>
         <v/>
       </c>
       <c r="BL31" s="36" t="str">
-        <f>IF(_acsReport_day_each!BH25="","",ACS_ACM1_MAIN!BH25)</f>
+        <f>IF(_acsReport_day_each!BK25="","",_acsReport_day_each!BK25)</f>
         <v/>
       </c>
       <c r="BM31" s="62" t="str">
-        <f>IF(_acsReport_day_each!BI25="","",ACS_ACM1_MAIN!BI25)</f>
+        <f>IF(_acsReport_day_each!BL25="","",_acsReport_day_each!BL25)</f>
         <v/>
       </c>
     </row>
@@ -10219,7 +10219,7 @@
   <dimension ref="A1:BO1"/>
   <sheetViews>
     <sheetView topLeftCell="BF1" workbookViewId="0">
-      <selection activeCell="BF24" sqref="BF24"/>
+      <selection activeCell="BI1" sqref="BI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.45" defaultRowHeight="13.5"/>
